--- a/기사데이터/토스/엑셀파일/news(토스, 2022.01.16~2022.01.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.01.16~2022.01.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2022.01.24.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>'이상반응 입원'·'인과성 불충분', 오늘부터 방역패스 예외</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010961344?sid=102</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>기사내용 요약방역패스 적용 예외자 범위 24일부터 확대인과성 불충분, 절차 없이 예외확인서 발급입원치료자, 보건소에 진단서 등 서류 제출"예외대상 분류돼도 접종금기·예외자 아냐"[서울=뉴시스] 권창회 기자 = 지난 11일 오전 서울 시내 한 대형마트에서 고객들이 QR코드 인증을 하고 있다. 2022.01.11. kch0523@newsis.com[서울=뉴시스] 정성원 기자 = 코로나19 백신을 맞고 아나필락시스, 심근염 등 이상반응 증상으로 입원 치료를 받은 사람은 24일부터 방역패스(접종증명·음성확인제) 없이도 시설을 이용할 수 있다. 접종 후 중대한 이상반응과 의학적 인과성이 불분명해 국가보상을 받지 못한 이들도 방역패스 대상에서 제외된다. 이들은 시설 출입시 예외확인서를 보여주면 된다.질병관리청 중앙방역대책본부(방대본)에 따르면 24일부터 '의학적 사유에 의한 방역패스 적용 예외 범위'가 확대된다.정부는 1차 접종 후 아나필락시스, 혈소판감소성혈전증(TTS), 모세혈관누출증, 심근염·심낭염 등 중대한 이상반응으로 2차 접종이 연기·금지된 이들을 예외 대상자로 인정하고 있다.그러나 실제 이상반응을 경험한 이들이 예외 대상자로 인정받는 사례가 드물다는 지적이 나왔다. 이에 정부는 의학적 사유에 의한 적용 예외 범위를 대폭 넓히기로 했다.이상반응으로 예방접종 피해조사반이나 피해보상전문위원회에서 '4-1. 백신과 이상반응에 대한 자료가 충분하지 않은 경우' 판정을 받은 이들은 이날부터 방역패스 적용 대상에서 제외된다. 해당 이상반응은 심근염·심낭염, 길랭-바레 증후군, TTS 등이 있다.접종 후 6주 이내에 중대한 이상반응으로 입원 치료를 받은 사람도 이날부터 방역패스 적용 예외 대상자로 인정된다.인과성 불충분 판정자는 진단서 없이 쿠브(COOV) 앱이나 카카오·네이버·토스·패스(PASS) 앱 등에서 접종 내역을 갱신하면 전자 예외확인서를 발급받을 수 있다. 신분증을 가지고 가까운 보건소에 방문하면 종이 예외확인서를 받을 수 있다. 이상반응으로 입원 치료한 이들은 이날부터 보건소에 '입원확인서'와 입원 치료 사실이 적힌 '의사 진단서'를 제출해야 한다.보건소 1곳에서 전산 등록을 마치면 전국 어느 보건소에서나 증빙서류 제출·확인 없이 종이 예외확인서를 받을 수 있다. 또는 쿠브 앱 등 모바일 앱에서 접종 내역을 갱신하면 전자 예외확인서를 받을 수 있다.이로써 예외 대상자는 ▲중대한 이상반응으로 접종 금기·연기 통보자 ▲백신 구성물질 중증 알레르기 발생 이력이 있는 접종금기자 ▲면역결핍, 면역억제제 또는 항암제 투여로 인한 접종 연기자 ▲인과성 근거 불충분 판정자 ▲접종 후 6주 이내 이상반응으로 입원 치료받은 자 등이다.이번 조처로 방역패스 예외 대상자는 1만7000여명 이상 증가할 것으로 전망된다.예외확인서 유효기간 만료일은 없다. 단, 면역결핍 또는 면역억제제·항암제 투여로 접종을 연기한 경우에는 예외확인서 발급 후 180일까지 유효하다.당국은 이번 조처에 따라 방역패스 예외 대상자로 분류되더라도, 접종 금기 또는 예외자에 해당하는 것은 아니라고 강조했다.방대본 관계자는 "이번 조처는 이상반응으로 접종을 완료하지 못한 이들의 불편을 최소화하려는 목적"이라며 "입원 치료자는 이상반응 의심으로 치료를 받았지만 2·3차 접종 금기 대상은 아니다. 예외확인서를 발급받았더라도 접종에 적극 참여해야 한다"고 밝혔다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022.01.20.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>LG엔솔 때문에 `머니 대이동`</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002717020?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>최근 공모주 청약 열풍으로 은행 요구불예금·마이너스통장 잔액이 크게 출렁였다. (우리금융캐피탈 제공)    최근 증시 하락과 예·적금 금리 상승, 공모주 청약 열풍으로 은행 수신 잔액이 크게 출렁였다. 유동성이 증시에서 은행으로 옮겨가는 '머니무브' 현상 중 공모주 청약 열풍으로 단기간에 돈이 빠져나간 것이다.은행권은 향후 기업공개(IPO) 일정에 따라 이러한 현상이 계속될 것으로 보고 있다. 최근 한국은행 기준금리 인상에 따라 예·적금 금리도 오르면서 '단기 저축성 상품'에 관심이 몰리고 있다.20일 금융권에 따르면 5대 은행 요구불 예금 잔액은 18일 기준 697조8698억원으로 집계됐다. 전날보다 2조6532억원 줄어든 수치다. 요구불예금은 고객이 언제든 꺼내쓸 수 있는 대기성 자금으로, '파킹통장'이라고도 불린다.이는 지난 18일과 19일 진행된 LG에너지솔루션 공모주 청약 때문인 것으로 분석된다. LG엔솔 공모주 청약엔 114조원의 역대 최고 개인 자금이 몰렸다. 20일 기준 대부분 증권사에서 청약 수량이 배정된 상태로, 증거금 환불은 21일부터 진행될 예정이다.이에 따라 몰렸던 돈은 다시 은행으로 돌아올 전망이다. 최근 공모주 청약 열풍이 불면서 금융 소비자들은 단기 저축성 예금, 파킹통장 등 짧은 기간 안에 금리 혜택을 볼 수 있는 상품에 관심을 갖기 시작했다.한국은행이 지난 12일 공개한 '통화 및 유동성' 통계에 따르면 작년 11월 평균 협의 통화량(M1)은 1350조1000억원으로 10월보다 5조1000억 증가했다. M1에는 현금, 요구불예금, 수시입출금식 예금이 포함된다. 광의 통화량(M2)도 큰 폭 늘었다. M2는 3589조1000억원으로 10월보다 39조4000억원(1.1%) 증가했다. M2에는 MMF(머니마켓펀드), 2년 미만 정기 예금, 적금, 수익증권, CD(양도성예금증서), RP(환매조건부채권), 2년 미만 금융채, 2년 미만 금전신탁 등 곧바로 현금화할 수 있는 단기 금융상품이 포함된다.향후 기업가치 1조원이 넘는 대어급 IPO가 여러 차례 예정된만큼 요구불예금 및 수신잔액은 출렁일 것으로 예상된다. 토스(최고 2%), 상상인저축은행(최고 2.31%) 등 하루만 넣어놔도 금리 혜택을 볼 수 있는 파킹통장 수요도 늘어날 것으로 전망된다. 업계 관계자는 "요구불예금·마이너스 통장 잔액 모두 (공모주 일정에 따라) 움직일 것 같다"며 "마이너스 통장의 경우 공모주 청약에 최적화돼 있다"고 말했다. 5대 은행의 마이너스 통장 잔액은 지난 17일 기준 49조3482억원에서 19일 56조3500억원으로 7조원 가량 폭증했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2022.01.16.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>페이스북보다 자주 열어보는 당근마켓... 쿠팡은 전방위 영향력 상승</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000652955?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>당근마켓 '지역 커뮤니티' 효과로 MAU 증가쇼핑 앱 1위 쿠팡... '패션 플랫폼'이 대세지난해 우리나라 모바일 앱 MAU 순위. 앱애니 제공지난해 국내 네티즌들은 페이스북보다 당근마켓을 더 자주 방문한 것으로 분석됐다. 중고거래 플랫폼인 당근마켓이 지역 주민들 간의 사회관계망서비스(SNS)로서의 역할도 톡톡히 한 셈이다. 페이스북이 지난해 전 세계에서 가장 자주 사용된 응용소프트웨어(앱)이란 점을 고려하면 이례적이다.16일 모바일 데이터 분석 플랫폼 앱애니가 지난해 애플 iOS 앱스토어 및 구글플레이의 데이터를 분석한 결과에 따르면, 당근마켓은 우리나라 월간 실사용자(MAU) 순위 8위에 올라 페이스북(9위)과 티맵(10위)을 제쳤다. 당근마켓은 전체 다운로드 순위에서도 넷플릭스나 토스, 업비트보다 높은 3위에 올랐다.당근마켓의 폭발적인 성장 이유는 중고거래를 넘어선 '지역 커뮤니티'에 있다. 코로나19로 이웃 간 소통이 어려워진 상황에서 자연스럽게 '동네 사람들'을 비대면으로 한곳에 모아준 역할을 한 모양새다. 당근마켓은 지난해 수차례 대규모 투자 유치에 성공하면서 기업 가치 3조 원 규모의 유니콘(기업가치 1조 원 이상 비상장 스타트업)으로 성장했다. 가입자 수는 2,100만 명을 넘겼고, 월간 순이용자 수(MAU)는 1,600만 명을 넘는다.지난해 전 세계와 우리나라 쇼핑앱 MAU 급증 앱 순위. 앱애니 제공쿠팡은 지난해 전체 앱 중에서 카카오톡과 네이버 다음으로 많은 MAU를 기록했다. 쇼핑 카테고리에서는 압도적으로 높은 이용률이다. 2020년 2월만 해도 1,500만 명 수준이던 쿠팡 MAU는 지난해 7월 기준 2,500만 명을 넘겼다. 사실상 국내 모바일 쇼핑 앱을 이용하는 사람(7월 기준 3,500만 명)의 70% 이상이 쿠팡을 이용하고 있는  꼴이다.이 밖에 쿠팡의 온라인동영상서비스(OTT) 쿠팡플레이는 지난해 동영상 앱 카테고리에서 넷플릭스 다음으로 다운로드 수가 많았으며, 배달앱 쿠팡이츠는 식음료 앱 중에서 다운로드 수 1위를 차지했다. 지난해 이커머스 업계 전반에서 "쿠팡의 존재감이 더욱 커졌다"는 평가가 나온 이유다.지난해 국내 쇼핑 앱 중에서는 패션 플랫폼 급성장이 눈에 띄었다. MAU 급증 순위 상위 10개 내에 패션 플랫폼이 4개(에이블리, 무신사, 브랜디, 아몬즈)나 포함됐고, 다운로드 급증 앱 10개 안에는 5개(퀸잇, 발란, 브랜디, 트렌비, 쉐인)가 들어갔다. 실제로 지난해 무신사는 2조3,000억 원의 거래액을 기록하면서 처음으로 '2조 클럽'에 가입한 가운데 지그재그(1조 원), 브랜디(5,000억 원) 등이 뒤를 따르면서 급성장세도 증명했다.우리나라에선 '국산 앱'이 대세였다. 지난해 한국의 해외 쇼핑 앱 점유율은 28%였는데, 미국(34%)과 중국(31%)을 포함해 조사 대상 17개국 중 가장 낮았다. 세계인이 가장 많이 이용하는 쇼핑 앱(쇼피, 아마존, 라자다)들이 유난히 국내에선 고전 중이다. 지난해 우리나라 사람들의 연간 쇼핑 앱 사용 시간은 7억1,400만 시간으로, 전년(7억6,600만 시간)에 비해서는 소폭 줄었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2022.01.23.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>미국인들이 앞다퉈 별장 지은 곳, 온천이 기가 막히네</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/047/0002339961?sid=103</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>[어서 오너라, 벗고 놀자14] 멕시코 뿌에르테시토스 바다 유황 온천 2        ▲  뿌에르테시토스 바다 유황 온천이다. 온천수와 바닷물이 만나는 지점에서 방문객들이 온천욕을 하고 있다.            ⓒ 황상호  *이전 기사에서 이어집니다. 캠핑 둘째 날, 현지 선장이 운행하는 낚싯배를 빌려 일행과 바다낚시를 나섰다. 선발대가 캠핑장 관리자에게 물어 현지 선장 에릭을 소개받아 예약을 해둔 터였다. 고깃배 4시간 운행에 약 250달러, 팁까지 해서 모두 320달러 정도를 지출했다. 오전 9시쯤 출발했다. 작은 낚싯배에 선장 포함 6명이 탔다. 배는 도도히 바다의 폐부로 진입했다. 제주도 차귀도에서 배낚시를 해본 적이 있어 뱃멀미에는 자신 있었다. 하지만 배를 세우고 얼마 지나지 않아 머리가 어질어질, 속이 울렁거렸다. 전날 밤 마신 데킬라가 한몫한 것 같았다. 해안가 언덕 높은 곳에는 키 큰 선인장이 등대처럼 우뚝 서 있었다. 나무 한 그루 없는 섬은 시간이 밀어 올린 지층을 그대로 내보였다. 저 세월 동안 인간은 주인공이 아니었으리라. 깎아지른 돌섬 절벽 위 작은 제단에 놓인 예수 그리스도는 외롭지 않을까.              ▲  캘리포니아 만에 있는 무인도다.            ⓒ 황상호   우리의 어군 탐지기는 바닷새였다. 선장 에릭은 새가 무리 지어 다니는 곳을 쫓아 뱃머리를 돌렸다. 낚싯대 두 대를 펼쳐 배 후미에 하나씩 더듬이처럼 달아 배를 몰았다. 낚싯대가 팽팽하게 당겨졌다. 배를 멈추고 릴을 감았다 풀었다 하며 물고기와 힘겨루기를 했다. 물고기는 오래 버티지 못하고 얼치기 낚시꾼에게 정체를 드러냈다.어종은 시에라 매커럴(Sierra Mackerel). 고등엇과로 은빛 배에 푸른 등을 가지고 있다. 무게는 최대 5.5킬로그램으로 11월에서 5월 사이 많이 잡힌다. 이렇게 두어 시간 동안 시에라를 계속 잡아 올렸다. 가끔 해달이 다가와 배부른 낚시꾼에게 끌려오는 물고기를 중간에 낚아채 갔다.              ▲  선장 에릭이 먼저 잡은 시에라를 손질해 고기 먹이를 만들고 있다.            ⓒ 황상호   또 다른 어종은 농엇과인 그루퍼(Grouper). 몸집 전체가 밝은 흙색인데 인상이 사납고 몸통은 돔처럼 두껍다. 갑각류나 작은 물고기, 문어를 먹는다고 한다. 1950년대 플로리다에서는 그루퍼가 물에 빠진 아이를 잡아먹어 세상을 떠들썩하게 했다. 늦겨울과 봄에 많이 잡힌다. 캘리포니아만에서는 낚시하기 좋은 계절이 따로 없다. 사시사철 다양한 물고기가 잡힌다.               ▲  얼치기 낚시꾼에게 잡힌 그루퍼다. 이것보다 5배 이상 큰 그루퍼도 잡았다.            ⓒ 황상호   멀미로 토하기 직전, 다행히 선장 에릭이 뱃머리를 돌렸다. "옐로우테일(Yellowtail·방어)! 옐로우테일!" 하며 내내 그놈을 노렸지만 다음을 기약해야 했다. 두어 시간 만에 50리터짜리 아이스박스를 물고기로 가득 채웠다.해변 캠핑장까지 반쯤 왔을까. 고래 한 마리가 흰꼬리를 드러내며 물 위로 솟구쳤다. 바다 위를 빙그르르 돌며 자유롭게 유영했다. 뱃머리를 돌려 가까이 가고 싶었지만 스치기만 해도 작은 고깃배는 전복이다.캘리포니아 만에는 지구에서 가장 큰 동물이라는 블루 웨일(Blue Whale)이 서식한다. 최대 27미터까지 자라며 소리를 지르면 수면 아래 수 킬로미터까지 들린다고 한다. 이밖에 험백고래(Humback Whale)와 회색고래(Gray Whale), 밍크, 참고래 등도 서식한다. 겨울에는 무리 지어 다닌다고 한다.              ▲  잡은 물고기를 회 뜨고 있다. 바닷가 캠핑장 모습이다.             ⓒ 황상호   판자촌 어부 마을과 미국인 여름 별장촌이곳은 연평균 강수량이 50밀리미터 정도밖에 되지 않는다. 대부분 땅이 붉고 메말라 있다. 반도가 위아래로 수천 킬로미터 뻗어 있어 지역마다 기온 차가 있지만 샌펠리페의 경우 가장 더운 8월 기온이 40도에 근접한다. 가을에는 허리케인도 분다. 우리가 갔을 때도 강풍이 불어 며칠 고생했다. 달리는 차도 휘청거릴 정도다.관광 도시를 제외하고 바닷가 마을은 매우 낙후해 있다. 낡은 합판 여러 개를 이어붙여 벽을 세우고 지붕을 얹었다. 한 판자촌 항구에는 남자 어부만 모여 살았다. 그들은 물고기를 잡아 냉장 탑차에 실어 보내며 생계를 이어나가고 있었다. 몇 해 전에는 어부끼리 싸움이 벌어져 한동안 조업이 금지됐다고 한다.               ▲  판자촌 마을이다. 남성들이 물고기를 낚아 냉장차에 실어 보내며 생계를 이어나가고 있다.            ⓒ 황상호   세상에서 가장 뜨거운 유황 바다 온천1990년대 미국 경기가 정보기술 산업 열풍과 연방준비은행의 저금리 정책으로 되살아나자 미국인들이 앞다퉈 바하 캘리포니아에 여름 별장을 지었다. 그중 한 곳이 바다 온천이 있는 뿌에르테시토스(Puertecitos)다.1949년 라파엘 오로즈코라는 사람이 처음 정착했으며 지금은 바다가 보이는 언덕 위에 이동식 주택 등 수백 가구가 모여 있다. 뿌에르테시토스 온천 입장료는 차 한 대당 18달러, 여기다 입장객 한 명당 2.5달러를 더 내야 한다. 현지 물가 대비 꽤 비싼 가격이다. 주변에 식당이나 화장실 등 편의시설이 없다. 캠핑도 하지 못한다. 마실 물과 먹을거리를 미리 가지고 가야 한다.온천수는 해안가 돌 틈에서 솟아나 바다로 향한다. 원천수는 아주 뜨거워 화상을 입을 정도다. 바하 캘리포니아 온천로는 크게 태평양 쪽인 엔세나다와 이곳 뿌에르테시토스, 더 남쪽인 바히아 곤셉티온(Bajia Conception)으로 나눠어 있다.멕시코 국립대학이 뿌에르테시토스에서 지열 발전소를 만들어 바닷물을 담수화하려는 연구를 하고 있을 정도다. 바다 내음을 지울 정도로 유황 냄새가 진하게 풍긴다. 가까운 곳에는 2차 세계대전 당시 운영했던 엘 아파치 유황 광산과 화산지대가 남아 있다.              ▲  뿌에르테시토스에서 가장 인기 있는 스팟이다. 바닷물과 온천수가 잘 섞여 놀기 좋다.            ⓒ 황상호   만조 때를 잘 맞춰야 적절한 수온에서 온천욕을 할 수 있다. 보통 정오쯤 방문객이 가장 많다. 명당을 차지하지 못하면 수고를 좀 해야 한다. 양동이나 아이스박스를 이용해 뜨거운 곳에는 바닷물을, 차가운 곳에는 온천수를 퍼다 날라야 한다. 보통 아빠나 남자친구의 역할이다. 종종 파일럿들이 경비행기를 몰고 미국 콜로라도주에서 놀러 온다. 참고로 누드 혼탕이 가능하니 유념하도록! 바다의 코카인 '토토아바'와 '판다 돌고래'의 수난              ▲  왼쪽은 뿌에르테시토스 온천에 설치된 토토아바 설치 작품이다. 오른쪽은 국제지구리그(Earth Leage International) 디렉터 안드레아 크로스타가 홍콩에서 압수된 토토아바 부레를 촬영하고 있는 모습이다. 홈페이지 화면 캡처.             ⓒ 황상호, ELI   온천 옆에는 작은 성당과 선착장이 있다. 그곳에는 마을 주민이 세운 물고기 형상의 설치 작품이 있다. 주인공은 민어과 물고기 토토아바(Totoaba)다. 몸길이 최대 2미터 무게는 100킬로그램에 달하는 대형 어종이다. 중국인들이 토토아바 부레를 만병통치약 또는 부의 상징으로 여긴다. 이 때문에 수십 년간 남획이 이뤄졌다.멕시코 정부는 1975년 상업 거래를 금지했지만 여전히 암시장에서 활발히 거래되고 있다. 말린 부레 가격은 1킬로그램당 우리 돈 1100만 원에서 5500만 원이다. 밀수꾼들이 부레를 잘라 곳곳에 숨긴 뒤 고가에 밀수출해 '바다의 코카인'이라 불린다. 눈 주변에 둥근 반점이 있어 '판다 고래'라고 불리는 바키타 돌고래(Vaquita)도 멸종 위기다. 몸길이 평균 150센티미터로 세계에서 가장 작은 돌고래인데 토토아바를 잡기 위해 쳐놓은 저인망 그물에 포획되고 있다.캘리포니아 만에만 서식하며 10여 마리가 남았다. 세계자연보전연맹(IUCN)은 토토아바와 바키타 돌고래를 적색목록 위급종(Critically Endangered)으로 지정했다. 멸종된 원주민 땅에 또 다른 바다 종족도 사라지고 있다.              ▲  눈 주변에 검은 반점이 있어 '판다 돌고래'로 불리는 바키타 돌고래다. 세상에서 가장 작은 돌고래다. savethewhales.org 화면 캡처.             ⓒ savethewhales.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2022.01.20.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>[단독] LG엔솔 청약에 10조 넘는 대출 흘러들어 가</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003667650?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>5대은행 마통 6조, 40배 폭증							역대급 흥행을 기록한 LG에너지솔루션(LG엔솔) 공모주 청약 기간(18~19일)에 금융권에서 최소 10조원 넘는 대출이 나간 것으로 추산됐다. 비례 배정으로 1주라도 더 받으려는 ‘영끌(영혼까지 끌어모은)’ 대출의 영향으로 보인다.LG에너지솔루션의 일반 투자자 대상 공모주 청약 마감일인 19일 서울 여의도 신한금융투자 영업부에서 고객들이 상담하고 있다. /연합뉴스										20일 본지 취재 결과, 지난 18~19일 KB국민·신한·하나·우리·NH농협은행 등 5대 은행에서 6조2600억원이 마이너스 통장 대출로 빠져나갔다. 평소 하루에 많아야 1566억원 정도가 나갔던 것과 비교하면 40배로 폭증한 것이다. 특히 청약 마감인 19일에만 마통으로 4조1547억원이 흘러들어 갔다. 쉽게 빌려다 갚을 수 있는 은행의 마통으로 자금을 동원한 사람이 많았던 것이다.모바일로 몇 분 만에 ‘간편 대출’ 받을 수 있는 카카오뱅크와 케이뱅크, 토스뱅크 등 인터넷 전문 은행 3곳에서도 청약 신청 이틀간 1조7767억원이 마통 대출로 풀렸다. 은행권 관계자는 “이달부터 대출받는 사람의 연간 원리금 상환액이 연 소득의 40%를 넘지 못하도록 대출 한도를 제한하는 DSR(총부채원리금상환비율) 규제가 강화됐는데도 이 정도 규모의 대출이 나간 것을 보면, LG엔솔 청약 광풍이 그만큼 거셌다는 뜻”이라고 했다.또 이틀간 5대 은행에서 예금 담보 대출로만 7024억원이나 나갔다. 대출자의 예금 잔액을 담보로 하는 대출이라 DSR이 적용되지 않고 중도 상환 수수료도 없기 때문에 인기를 끌었다는 분석이다. A 은행의 경우 일평균 신규 예금 담보 대출은 26억원 수준인데, LG엔솔 청약 마감일에는 23배인 606억원으로 급증했다. 평상시보다 50배 이상 예금 담보 대출이 증가한 곳도 있었다.보험금을 담보로 대출받는 보험 약관 대출로도 1조원 넘는 금액이 청약으로 흘러들어 갔다. 약관 대출은 전화나 인터넷으로 돈을 쉽게 빌릴 수 있고 중도 상환 수수료 부담이 없는 것이 특징이다. 삼성·한화·교보생명 등 ‘빅3′ 생명보험사에 따르면, 지난 18~19일 보험 가입자들은 1조2966억원을 약관 대출로 받아갔다. 평소 세 회사를 통해 하루에 약관 대출로 나갔던 금액(713억원)의 18배가 넘는다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2022.01.26.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>삼성생명, '중징계' 확정… 화재·카드도 마이데이터 못 한다</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000779580?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>금융위원회가 삼성생명에 중징계를 확정하며 삼성 금융계열사들의 신사업 진출에 차질이 생겼다./사진=삼성생명 금융위원회가 26일 암보험 미지급과 관련해 삼성생명에 중징계(기관경고)를 확정하며 삼성화재와 삼성카드 등 금융계열사들의 신사업 진출에 차질이 생겼다. 금융감독원 제재심의위원회가 중징계를 결정한 지 1년 1개월 만이다.금융위는 이날 암보험 미지급건은 금감원이 올린 안건대로 보험업법을 위반한 것으로 판단하고 기관경고와 함께 과징금 1억5500만원을 부과했다. 다만, 삼성생명이 삼성SDS의 전사적자원관리(ERP) 시스템을 도입하면서 지체 보상금을 받지 않았다는 이유로 징계한 계열사 부당지원 사안에 대해선 '조치명령'으로 수위를 낮췄다. 중징계가 확정되면서 삼성생명이 대주주로 있는 삼성화재, 삼성카드, 삼성증권 등 삼성금융 계열사들은 1년 동안 새 비즈니스 모델 발굴이 어렵게 됐다. 규정상 금융 계열 대주주가 금융당국으로부터 기관경고 이상의 중징계를 받으면 1년 간 신사업이 금지된다. 은행, 보험, 증권 등 전체 금융업권과 네이버파이낸셜·카카오페이·토스 등 빅테크(IT대기업) 금융 플랫폼들이 치열하게 경쟁하고 있는 '마이데이터' 시장에도 당분간 발을 들이기 어렵다. 마이데이터는 은행, 카드, 보험, 증권사 등에 분산된 고객 개인신용정보를 모아 금융 자산을 하나의 앱(애플리케이션)에서 관리할 수 있는 서비스다. 마이데이터 시장 선점 여부가 디지털 금융 시대의 명운을 가를 것으로 금융업계는 본다. 삼성 금융계열사들은 삼성카드를 중심으로 삼성생명·화재·카드·증권 서비스를 한 곳에 모아서 볼 수 있는 플랫폼을 개발 중이지만 은행을 포함한 모든 금융권 정보가 담기는 마이데이터 앱과 경쟁하기 벅찬 상황이다. 금감원의 삼성생명 종감은 2019년 8~10월까지 이뤄졌고, 금감원 징계는 2020년 12월에 내려졌다. 당시 징계의 적정성을 두고 금감원과 보험사, 법원, 금융위 자문기구인 법령해석심의위원회의 의견이 갈리면서 논란이 작지 않았다. 금융위가 징계안 확정을 1년 넘게 미룬 것도 징계 자체에 대한 논란과 함께 업계에 미칠 영향 등을 다각적으로 고민한 때문으로 파악된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2022.01.18.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>조용병 신한금융 회장, 고객 선택 받으려면 새 경험 만들어주고 조직문화 뜯어고쳐야</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004654428?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>2022 금융리더에게 듣는다 - 조용병 신한금융 회장일사불란한 '벌떼' 문화로는고객중심 경영 달성 어려워디지털 금융 분야 성과도 관건“새로운 조직은 신입 직원부터 임원까지 창의성과 주도성을 갖고 두려움 없이 일하는 ‘셀프 리더십’이 바탕이 돼야 한다. ‘바르게(正道), 빠르게(변화), 다르게(개성)’를 핵심 가치로 삼아 개개인의 재능을 살려야 남다른 결과를 만들 수 있다.”조용병 신한금융 회장은 연초 신한경영포럼에서 조직문화의 변혁을 강조했다. 신년사에서도 전통 금융산업이 직면한 대내외 난관을 극복하자는 의미의 ‘돌파’와 ‘신한문화의 대전환’을 경영 슬로건으로 제시했다.신한의 조직문화는 일사불란하게 목표를 향해 가는 ‘벌떼’와 ‘초일류 서비스’로 요약된다. 재일동포 주주가 설립한 신한은행은 특유의 고급 서비스로 국내 은행의 변화를 선도했다. 주판알을 튀기던 지점을 최신 인테리어로 바꾸고, 세련된 양복의 직원을 배치해 고객에게 ‘내가 일류 서비스를 받고 있구나’라는 생각이 들게 했다.조 회장은 “신한은행이 창립된 1982년에 비해 현재의 금융업은 양적·질적으로 크게 달라졌다”며 “신속함, 일사불란함으로 대표되는 기존의 문화만으로는 경영 목표인 고객중심주의를 달성하는 데 부족하기 때문에 조직문화의 대변혁이 필요한 시점”이라고 말했다.신한금융은 자회사 15개, 글로벌&amp;그룹 투자은행(GIB) 등의 매트릭스 조직 5개를 합쳐 20개의 사업을 거느린 대형 그룹으로 성장했다. 2017년 조 회장 취임 이후 매년 순이익을 경신했다. 자산 규모는 638조원(작년 3분기 기준)으로 취임 전(395조원, 2016년 말)에 비해 60% 이상 성장했다. 그럼에도 조 회장은 “인터넷은행과 빅테크 계열 금융사의 새로운 시도가 금융시장 변화를 주도하고 있고, 고객은 금융사 규모와 수익이 아니라 경험에 따라 움직인다”고 말한다. 조 회장이 조직문화의 변혁을 강조하는 것은 ‘거대 항공모함’이 스스로를 되돌아보지 않으면 복잡하고, 불확실한 시대에서 살아남을 수 없다는 절박감 때문이다.취임 6년차를 맞은 조 회장은 그동안 구상해온 그룹의 외형적 변화를 거의 마무리했다. 비(非)은행 계열사에 대한 인수합병(M&amp;A)과 계열사 간 자산 양수도 등의 작업을 끝냈다. 지난해 인수한 BNP파리바 카디프손해보험의 자회사 편입 절차가 마무리되면 전 금융권역에 대한 포트폴리오 구축이 완료된다. 지난해 3분기 기준 그룹 모바일 채널의 활성사용자 수는 1900만 명으로 2018년에 비해 700만 명 이상 늘어났지만 카카오뱅크와 토스엔 아직 못 미친다. 올해 디지털 금융 분야에서 성과를 내야 한다는 과제도 남아 있다.신한은행 창립 40주년을 맞아 조직문화를 바꿔야 할 ‘변곡점’에 다다랐다는 게 조 회장의 판단이다. 그는 “은행 창립 기념일인 7월 7일까지 새로 정립된 조직문화를 기반으로 리더 및 인재상, 평가시스템 등 모든 것을 뜯어고치는 실행에 주력할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022.01.18.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>기업들, 스타트업 투자 팔 걷었다…대기업도, 기술 유니콘도 VC 설립 붐</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000072787?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>영·유아 콘텐츠 ‘핑크퐁’과 ‘아기상어’로 유명한 더핑크퐁컴퍼니(전 스마트스터디)는 지난해 여름 450억원 규모의 ‘베이비샤크넥스트유니콘IP펀드’를 결성했다. VC(벤처캐피털) 자회사를 통해 애니메이션·게임 등 콘텐츠 제작 스타트업을 육성하기 위해서다. 콘텐츠 산업은 제작 단계부터 구체적인 사업화 전략이 뒷받침돼야 IP(지식재산권) 비즈니스에서 성공할 수 있다고 판단해 초기 투자에 나선 것이다. 이미 아이 돌봄 애플리케이션(앱) 스타트업 ‘째깍악어’, 캐릭터 기업 ‘키키히어로즈’ 등에 투자했다. 대기업 전유물처럼 여겨졌던 스타트업 투자가 기업 전방위로 확산하고 있다. 중견기업은 물론 스타트업으로 출발해 유니콘으로 성장한 기업들이 VC를 만들어 다시 스타트업에 투자하는 사례가 적지 않다. 국내 대표 수제맥주 업체인 제주맥주도 ‘후배’ 스타트업 양성에 나섰다. 2015년 설립돼 지난해 5월 코스닥에 상장한 제주맥주는 벤처 투자 회사인 ‘카스피안캐피탈’을 세웠다. 제주맥주가 VC를 설립한 이유는 관련 스타트업과 전략적 시너지를 도모하기 위해서다. 앞으로 사업 연관성이 있는 섹터인 ▲커머스 ▲콘텐츠 ▲ICT 분야에 집중 투자할 계획이다. 직방은 대규모 투자를 받아 국내 대표 부동산 플랫폼으로 자리 잡은 기업이다. 직방은 2019년 말 프롭테크 분야에 집중 투자하는 전문 VC 브리즈인베스트먼트를 설립했다. 2020년 직방과 우미건설이 각각 100억원을 출자해 200억원 규모의 ‘프롭테크워터링펀드’를 운용하며 투자를 진행 중이다. 가구 물류 서비스형 소프트웨어(SaaS) 플랫폼 ‘하우저’, 국내 최초 민간 태양광 발전 기업 ‘브라이트에너지파트너스(BEP)’, 인테리어 가상현실(VR) 서비스 ‘큐픽스’, 공유주방 ‘고스트키친’ 등의 스타트업에 투자했다. 온라인 패션 플랫폼 무신사도 ‘제2의 무신사’ 찾기에 나선 지 꽤 됐다. 2018년 설립한 무신사파트너스는 지난해 200억원 규모로 첫 벤처투자조합을 결성했다. 한국투자증권, 현대카드가 출자자로 참여했다. 스마트 리테일·비대면 소비재 분야를 비롯해 핀테크(금융과 기술 융합) 등 무신사와 전략적 협력이 가능한 패션 분야 등에 주로 투자한다. 경진대회를 통해 스타트업을 지원하는 사례도 있다. 모바일 금융 서비스 토스를 운영하는 비바리퍼블리카는 미래 유망 스타트업에 투자한다. 투자 유치금 10억원 규모의 스타트업 경진대회 ‘FOUND’를 개최하는 방식이다. 지난 12월 시작된 사전 신청에는 600여팀이 참여 의사를 밝히며 흥행을 예고하고 있다. GS그룹은 국내에서는 처음으로 지주사 CVC인 GS벤처스를 설립해 본격적으로 스타트업 투자에 나선다. ‘아기상어’로 유명한 더핑크퐁컴퍼니도 펀드를 구성해 스타트업 육성에 나섰다. (매경DB, 더핑크퐁컴퍼니 제공)  ▶2021년은 ‘제2벤처 붐’ 평가 ▷국내 스타트업 투자 11조원 최대  지난해는 ‘제2벤처 붐’이 불었던 해로 평가받는다. 국내 스타트업이 유치한 투자 금액이 11조5000억원을 넘겼다. 역대 최대 규모로 10조원을 넘은 것도 처음이다. 스타트업 모임인 스타트업얼라이언스에 따르면, 지난해 국내 스타트업이 유치한 누적 투자 유치 금액이 11조5733억원으로 집계됐다. 정부와 금융사뿐 아니라 기업까지 가세하며 판이 커졌다는 분석이 지배적이다. 기업이 스타트업 투자에 매진하는 가장 큰 이유는 여느 때보다도 성장동력 발굴에 갈망하고 있어서다. 디지털 트랜스포메이션에 이은 4차 산업혁명 시대를 맞아, 과거 성공했던 비즈니스 모델이 ‘영속적’으로 이어지는 경우가 드물어졌다. 기술과 가격 경쟁이 치열해지고 소비자 취향이 급변하는 게 핵심 이유다. 번뜩이는 아이디어를 빠르게 사업화하는 일이 절실해졌고, 기업이 스타트업을 눈여겨보게 된 셈이다. 특히 유니콘으로 성장한 기업이 스타트업 투자에 적극적으로 나선 이유는 투자 대상 기업의 경쟁력과 보완점을 정확히 이해하고 있어서다. 유니콘은 스타트업 시절 고난기를 겪었기에 어느 시점에서 자금이 필요하고, 또 어떤 경영 조언이 필요한지 잘 안다. 게다가 독립성을 폭넓게 지켜주며 시너지를 극대화한다. 과거 네이버, 카카오, 스마일게이트 등 인터넷·게임 업체가 성장한 이후 투자사를 설립해 스타트업에 투자한 것과 비슷한 양상이다.투자와 함께 창업이 살아나고 뛰어난 스타트업이 탄생하는, 선순환 구조도 생겨났다. 정부와 금융 시장에서 벤처 펀드에 뭉칫돈을 넣고 기업이 투자를 이어가자 창업이 크게 늘어났다. 창업 지표인 신설 법인 수는 2020년 12만3305개를 기록하며, 20년 전인 2000년(6만1535개)에 비해 2배 이상 늘었다. 스타트업과 벤처 붐 관련 기업 종사자도 1년 사이 10% 이상 증가했다. 전체 기업 종사자 증가율보다 3배나 높은 수치다. 기업가치를 1조원 넘게 평가받는, ‘유니콘’ 기업 숫자도 불어났다. 2021년 ‘직방’, 블록체인 기반 핀테크 기업 ‘두나무’, 신선식품 등 전자상거래 플랫폼 마켓컬리를 운영하는 ‘컬리’ 등이 새롭게 유니콘에 이름을 냈다. 기업가치 1조원을 돌파한 이력이 있는 기업은 2018년 말 13개사에서 2019년 말 19개사, 2020년 말 20개사, 2021년 24개사로 늘었다.   ▶대기업은 CVC로 벤처 투자 ▷GS가 첫발…LG·SK도 대기 중  이미 스타트업 투자에 집중해왔던 대기업은 CVC(기업 주도형 벤처투자회사) 제도 도입으로 날개를 달 듯 보인다. 지금껏 국내 일반 지주회사는 금산분리 원칙에 따라 금융투자사인 CVC를 계열사로 둘 수 없었다. 기존 CVC는 지주회사가 없는 기업이 만들었거나 계열사가 별도로 세운 형태다. ▲삼성벤처투자 ▲포스코기술투자 ▲네이버 스프링캠프 ▲카카오벤처스 등이 지주회사 없는 대기업이 운영하는 CVC다. 계열사를 별도로 세운 경우는 ▲롯데벤처스(호텔롯데) ▲코오롱인베스트먼트(코오롱차이나(HK) 컴퍼니) ▲타임와이즈인베스트먼트(씨앤아이레저산업) ▲시그나이트파트너스(신세계인터내셔날) 등이 있다.가장 앞장선 곳은 GS그룹으로 최근 GS벤처스를 설립했다. GS벤처스는 지난해 12월 30일 개정된 공정거래법이 시행된 후 설립된 첫 번째 지주회사 내 CVC다. GS벤처스는 지주회사 GS가 자본금 100억원을 전액 출자해 지분 100%를 보유한 자회사 형태다. 업계는 대기업 계열 CVC 등장으로 국내 벤처·스타트업 투자가 활발해질 것으로 예상한다. 국내 CVC가 미국 알파벳의 구글벤처스, 캐피탈G처럼 다양한 신산업 영역에서 영향을 끼칠 수 있기 때문이다. 실제 GS벤처스는 ▲바이오 ▲기후 변화 대응 ▲자원 순환 ▲유통 ▲신에너지 등 5개 분야를 투자해 국내 스타트업 발굴에 나설 계획이다. LG그룹 역시 국내 CVC 설립을 준비 중이다. LG그룹은 2018년 5월 미국 실리콘밸리에 5개 계열사가 공동 출자해 설립한 CVC LG테크놀로지벤처스를 운영해왔으나, 지주사 ㈜LG 소유의 국내 CVC는 없었다. LG테크놀로지벤처스는 LG전자, LG디스플레이, LG화학, LG유플러스, LG CNS가 출자한 총 4억2500만달러 규모의 투자 펀드를 통합 운영 중이다. SK그룹은 국내에서는 첫 투자 주도형 지주사를 운영하며 호평받았다. 역시 지주사 아래 CVC를 설립해 수소와 바이오 등 신산업 스타트업 투자에 나설 예정이다.[본 기사는 매경이코노미 제2143호 (2022.01.19~2022.01.25일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2022.01.16.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>금융위, 네이버·카카오 '자금세탁' 들여다본다</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004909493?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>FIU 내달 첫 검사나서4대 코인거래소도 대상 금융당국이 네이버파이낸셜, 카카오페이, 토스 등 이른바 금융 빅테크들에 대해 다음달부터 자금세탁방지 의무 준수 관련 현장 검사를 실시한다. 빅테크들을 대상으로 한 자금세탁방지 의무 검사는 이번이 처음이다. 특히 고객들이 이용하는 선불충전금을 악용한 자금세탁 사례를 집중 점검할 것으로 알려졌다. 금융위원회 산하 금융정보분석원(FIU)은 16일 전자금융업자(전금업자)·가상화폐사업자·대부업자 등에 대해 처음으로 현장 검사를 실시하는 내용을 골자로 하는 '2022년 FIU 검사업무 운영 방향'을 공개했다. FIU는 전금업자와 대부업자는 자금세탁방지 의무 부과가 된 후 2년이 지났고, 가상화폐사업자는 지난달에 신고수리가 일단락되면서 검사를 나간다고 설명했다.검사 대상 전금업자는 네이버파이낸셜, 카카오페이, 토스 등 주로 대형 업체가 중심이 될 전망이다. 124개에 이르는 전금업자 전체를 현장 검사하기는 현실적으로 어렵고, 대형 업체에 대한 검사가 업계 전체에 기준을 세우는 역할을 할 수 있기 때문이다. FIU 관계자는 "전금업자와 대부업자는 이용자 수와 거래 규모 등에 따른 자금세탁 위험이 큰 회사를 검사 대상으로 선정할 것"이라고 말했다. FIU는 검사 항목으로 고객확인업무(KYC) 이행, 고액 현금거래 보고, 의심거래 보고, 내부통제체계 구축 이행 여부 등을 중점 점검할 계획이다. 예를 들어 네이버파이낸셜은 모든 거래 이용자의 신원 정보를 파악하고 별도로 관리해야 한다. 카카오페이는 개인 선불충전금으로 유입되는 규모가 과도하거나 불법적인 자금세탁거래로 의심이 되면 FIU에 신고를 해야 한다. 이 같은 의무를 준수하지 않는 것은 특정 금융거래정보의 보고 및 이용 등에 관한 법률(특금법) 위반에 해당하고 제재를 받게 된다.특금법상 자금세탁방지 의무 위반에 대한 제재는 무겁다. 기관 제재로는 최대 6개월간 전체 혹은 일부 영업정지, 개인 제재로는 최대 5년 징역이나 최대 1억원 과태료 등이 부과될 수 있다.가상화폐사업자는 정기 검사인 종합검사와 요주의 사업자만을 대상으로 하는 부문검사 두 가지로 나뉘어 진행된다. 종합검사는 당장 다음달부터 원화 거래가 가능한 업비트·빗썸·코인원·코빗 등 4대 거래소를 대상으로 먼저 진행될 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2022.01.25.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>롤스로이스, 2021년 대표 비스포크 모델 13종 선정</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003407833?sid=103</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>롤스로이스모터카가 25일(현지시간) 지난해 발표했던 차량 중 가장 아름다운 비스포크 모델 13종을 선정했다. 롤스로이스 비스포크 사업부는 지난해 장기화된 코로나 팬데믹으로 유래 없이 예측 불가능한 상황 속에서도 연간 최고 주문량을 기록했다. 롤스로이스는 비스포크 차량 제작을 통해 고급스러움에 대한 새롭고 야심찬 해석을 탐색, 개발하고 선보였다. 이는 롤스로이스가 자동차 제조 영역에서 더 나아가 혁신적인 장인 정신을 품고 있음을 보여줬다는 평가다. 롤스로이스가 이번에 선정한 비스포크 모델 13종은 △레이스 크립토스 △쿠마 켄고 던 △고스트 익스텐디드 어반 생추어리 △드림 고스트 △비스포크 레이스 페블 파라디소 △컬리넌 50th △컬리넌 인 파이크스 피크 블루 △팬텀 오리베 △팬텀 템퍼스 컬렉션 △팬텀 코아 △랜드스피드 컬렉션 △컬리넌 블랙 앤 브라이트 △롤스로이스 코치빌드 보트 테일 등이다. 토스텐 뮐러 오트보쉬 롤스로이스모터카 최고경영자는 “지난해 우리는 세계 고객들에게 5586대에 이르는 차량을 출고했다”며 “비스포크 컬렉티브 팀은 고객들과 긴밀하게 협업하며 창조성의 지평을 넓혔다”고 말했다. 이어 “혁신적인 기술을 연마한 고도로 숙련된 팀과 함께 롤스로이스는 타고난 장인 정신을 다시 한번 입증했다”며 “장인들은 비스포크를 통해 실현 가능한 분야를 확장시켰고 희귀 소재를 독창적으로 활용하며 세계 최고 수준의 작품을 만들어냈다”고 덧붙였다. 이와 관련 롤스로이스 비스포크 컬렉티브는 엘리트급 디자이너, 엔지니어, 공예가로 구성된 팀으로 고객 취향에 맞춘 차량을 제작하는 비스포크 프로그램을 전담하고 있다. 롤스로이스는 지난해 다양한 소재와 장식을 활용한 역대 최고 수준의 비스포크 기교를 보여주는 차량들을 제작했고, 웅장하면서도 감성을 자극하는 고객들의 주문에 부응하며 진정한 럭셔리 하우스로서 위상을 증명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2022.01.24.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>“유럽은 곧 엔드게임”…세계 곳곳 팬데믹→엔데믹 기대감(종합)</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003246891?sid=104</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>오미크론 급속 확산 지역 진정세 흐름WHO 유럽사무소 소장 ‘엔데믹’ 전망“3월에 유럽 인구 60% 감염 뒤 진정…연말에 재유행 땐 팬데믹 아닐 수도”미국도 “2월 정점”…계절성 풍토병 기대향후 새 변이 성격에 팬데믹 종식 달려백신 접종하는 영국 청소년 - 코로나19 오미크론 변이 확산 속 영국 북서부 블랙번시 축구장 외곽에 있는 국가보건국(NHS) 드라이브스루 접종센터에서 한 소년이 17일 코로나19 백신을 접종하고 있다. 2022.1.17. AFP 연합뉴스유럽과 미국에서 코로나19 오미크론 변이 확산세가 정점을 지나 팬데믹(전염병의 세계적 대유행)이 끝나간다는 기대가 조심스럽게 나오고 있다.오미크론 변이가 기존 변이에 비해 상대적으로 중증 위험이 낮은 상황에서 다음 유행 때에는 풍토병이나 계절성 독감 수준의 유행이 될 것이라는 희망 섞인 관측도 나온다.WHO 유럽사무소 “코로나19, 주기적 풍토병 될 가능성”한스 클루주 세계보건기구(WHO) 유럽사무소 소장은 23일(현지시간) AFP통신에 “팬데믹의 ‘엔드게임’(최종장)을 향해 가고 있다고 볼 만하다”고 말했다.그는 유럽에서 3월까지 60%가 오미크론 변이에 감염될 것으로 예상하면서 오미크론 감염 급증세가 진정되고 나면 상당수가 백신 혹은 감염으로 면역력을 갖추게 되므로 몇 주나 몇 달간은 감염 확산이 잠잠할 것이라고 내다봤다.이후 연말쯤에 코로나19가 다시 유행하더라도 팬데믹은 아닐 수 있다고 했다.이 같은 클루주 소장의 전망에 대해 AFP는 오미크론 변이가 델타 변이에 비해 증상이나 치명률 등 중증 위험이 덜 심각하다는 연구 결과가 나온 점을 언급하며 이제는 코로나19가 계절성 독감처럼 바뀔 것이라는 희망이 생기기 시작했다고 설명했다.코로나19가 오미크론 변이 확산 이후로 엔데믹, 즉 전염병이 종식되지 않고, 주기적으로 발생하거나 풍토병으로 자리잡게 될 가능성이 있다는 것이다.클루주 소장은 “전염병이 풍토병이 된다는 것은 무슨 일이 일어날지 예측할 수 있게 된다는 것을 뜻한다”면서도 “코로나19 바이러스는 여러 차례 우리를 놀라게 했으니 매우 조심해야 한다”며 신중론도 당부했다.남아공, 오미크론 급증 뒤 빠른 둔화 선례오미크론 변이 연구하는 남아공 과학자 - 남아프리카 더반에 있는 아프리카 건강 연구소의 과학자들이 지난해 12월 15일 코로나19 오미크론 변이 바이러스를 연구하고 있다. 과학자들은 오미크론 감염이 영국에서 절정에 이른 뒤 극적인 감소가 시작될 것으로 보고, 미국에서도 곧 그렇게 될 것이라고 기대하고 있다. 2022.1.24. AP 연합뉴스오미크론 변이는 기존 변이보다 전염력이 매우 강해 전례 없는 속도로 많은 이들을 감염시켰다.클루주 소장의 전망은 오미크론의 광범위한 감염, 적극적 백신 보급에 힘입어 면역력을 지닌 인구의 비율이 높아진 까닭에 확산이 억제될 것이라는 기대에 따른 것이다.클루주 소장이 소속된 WHO 유럽사무소는 러시아와 중앙아시아를 포함해 53개국을 관할하고 있다.이 지역 누적 확진은 이날 현재 1억 3017만 4000여명인데 최근 일주일 확진이 무려 998만 9000여명에 이른다.그러나 하루 신규확진은 지난 20일 170만명으로 역대 최고점을 찍은 뒤 점점 줄어들고 있다.이는 오미크론 변이가 먼저 출현해 급격한 확산과 빠른 둔화를 거쳐 위기가 해소된 남아프리카공화국과 유사한 추세다.오미크론 확산을 가장 처음 겪었던 남아공은 한달 전 하루 신규 확진자 수가 2만 7000명에 육박할 정도로 급증했으나 최근 일주일 평균 3256명에 그치고 있다.오미크론 변이는 델타 변이 때보다 치명률도 낮은 것으로 나타났다.남아공 국립전염병연구소(NICD)에 따르면 남아공 내 오미크론 변이로 인한 사망자는 델타 변이 때 사망률의 15% 정도에서 정점을 찍었다. 입원율은 델타 변이 때의 60%에서 절정에 달했다.미국도 2월 정점 예상…파우치 “통제 영역될 것” - 미국에서 새로운 변이인 오미크론의 급속한 확산 탓에 코로나19 신규 확진자가 25만명 가까이로 늘어난 가운데 유타주 솔트레이크 카운티 보건국 직원이 지난해 청사 바깥에서 바이러스 검사를 시행하고 있다.솔트레이크 시티 AP 연합뉴스유럽과 함께 오미크론 변이로 신규 확진자가 급증하는 미국에서도 비슷한 전망이 나온다.미국 감염병 최고 권위자인 앤서니 파우치 국립알레르기·전염병연구소 소장은 올해 2월을 미국의 정점으로 예측했다.파우치 소장은 이날 ABC방송 인터뷰에서 “상황이 좋아 보인다”며 “지나치게 자신만만해선 안 되지만 지금 당장은 바른 방향으로 가는 것으로 보인다”고 말했다.미국 동북부, 중서부에서 코로나19 확산세가 이미 정점을 지나 신규확진이 급감하고 서부, 남부에서도 정점을 향하고 있다는 진단에 따른 낙관이다.뉴욕타임스가 보건당국 자료를 토대로 집계한 코로나19 현황을 보면 미국 전역에서 하루 신규확진은 지난 14일 80만 6801명으로 역대 최고를 기록한 뒤 급감하고 있다.미국 역시 오미크론 변이가 일찍 우세종으로 자리잡은 국가다.인구 약 3억 3500만의 미국은 공식통계에 잡힌 확진자만 7047만명으로, 전체 인구의 5분의 1 정도가 코로나19에 감염된 이력이 있다.누적 사망자는 무려 86만 5000여명에 달한다.존스홉킨스대학 통계에 따르면 미국 전체 확진자 중 4분의 1 이상은 이번 오미크론 변이 대유행 기간에 나왔다.유럽 전문가와 마찬가지로 파우치 소장 역시 코로나19가 다시 유행하더라도 일반적인 독감처럼 통제가 가능할 수준일 것으로 기대했다.파우치 소장은 “감염 수위가 ‘통제 영역’ 아래일 것”이라며 “여기서 ‘통제’라는 것은 바이러스를 아예 없앨 수는 없지만 우리가 함께 살아가는 법을 아는 일반적 호흡기 감염병과 함께 묶일 정도로 수준이 낮아지는 것을 뜻한다”고 설명했다.오미크론 이후 새 변이 성격에 팬데믹 향방전문가들은 오미크론 변이 확산이 진정된 후 나타날 새 변이가 코로나19 팬데믹의 향후 성격을 규정할 변수로 보고 있다.파우치 소장은 “새로 나타날 변이가 사회를 파괴하거나 광범위하고 심각한 결과에 대한 공포를 자아내지는 않을 것”이라고 기대했다.그는 “그래도 최악의 시나리오를 여전히 대비해야 한다”며 “정상으로 복귀한다는 의미에서 코로나19가 우리를 망가뜨리지 않았던 수준으로 내려가길 바라는데 그게 최상의 시나리오”라고 설명했다.1918년 등장해 전 세계 인구 3분의 1을 감염시키고 5000만명을 죽음으로 몰고 간 스페인 독감의 H1N1 바이러스는 여전히 인류 곁에 남아 있다.스탠퍼드 의대 이본 말도나도 교수는 “스페인 독감은 우리가 매년 보는 독감 바이러스의 선조”라며 “계속해서 변이가 나오고 있는 것처럼 코로나19 바이러스도 비슷할 것 같다”고 말했다.존 슈워츠버그 UC버클리 공중보건대 교수는 미국에서는 지금도 독감으로 매년 약 3만 5000명이 사망한다며 “그런데도 우리는 계속해서 살아간다. 다만 (코로나19) 이전으로 돌아갈 것이라고는 생각하지 않는다”고 말했다.말도나도 교수는 “오미크론 이후에도 새 변이가 나타날 것으로 예상한다”면서 “이는 다음에 무슨 일이 벌어질지 불확실하다는 것”이라고 설명했다.UC샌프란시스코 전염병학자 조지 러더퍼드 교수도 “다음에 어떤 변이가 올지는 전혀 알 수 없다”며 다음 변이는 오미크론 변이보다 전염력이 더 크거나 중증도가 더 심각할 수도, 반대로 아무 증상이 없을 수도 있다고 설명했다.존스홉킨스대학의 폐·중환자 치료 의사인 파나기스 갈리아사토스는 “우리는 코로나19를 막을 방법을 알기에 더는 과학적 돌파구가 필요하지 않다”며 백신과 마스크 착용, 감염 검사, 추적 등 기본 원칙을 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2022.01.18.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>시중은행 예적금 금리인상에…인뱅도 따라 올린다(종합)</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005129308?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>기준금리 25bp 인상에 시중銀 0.3~04.%p 인상카뱅, 예적금 금리 인상 준비중...폭·시기 저울질케뱅 "검토 중이나 상황 보겠다"토뱅 "수신금리 인상계획 없다"[이데일리 노희준 기자] 한국은행 기준금리 인상 이후 주요 시중은행들이 수신상품 금리 인상에 나서자 인터넷전문은행도 예적금 금리 인상으로 맞불을 놓고 있다. 카카오뱅크(323410)는 수신상품 금리 인상을 결정하고 폭과 시기 등을 저울질 중이다. 케이뱅크는 인상 여부를 검토 중이다. 반면 토스뱅크는 현재로서는 인상 계획이 없다는 입장이다. 18일 카카오뱅크 관계자는 “수신상품 금리 인상을 준비 중”이라며 “조만간 시기와 인상폭 등 인상안을 결정하는 대로 바로 적용할 예정”이라고 말했다. 카카오뱅크의 대표적인 정기예금 상품인 ‘카카오뱅크 정기예금’의 현재 금리는 1년 기준 세전으로 연 1.8%다. 또 카카오뱅크의 대표 적금 상품인 ‘26주 적금’는 6개월 기준 세전으로 금리가 연 1.7%다. 만약 26주간 자동이체를 납입해 우대금리 0.5%까지 챙기면 최고 연 2.2%를 받을 수 있다.카카오뱅크는 지난달에도 예적금 금리를 최대 0.4%포인트(3년 만기 정기 예금) 인상했다. 이번에 추가로 수신금리 인상에 나서면 두달 연속으로 금리 끌어올리기를 단행하는 셈이다. 카카오뱅크는 지난달 8일 1년 만기 정기예금 금리를 기존 1.5%에서 1.8%로 0.3%포인트 올렸다. 자유적금 기본금리는 1년 만기 기준 기존 연 1.6%에서 1.9%로 0.3%포인트 인상했다. 우대금리까지 포함하면 최대 연 2.1%의 금리가 적용되는 상품이다.또 다른 인터넷뱅크인 케이뱅크는 수신금리 인상을 검토 중이다. 케이뱅크 관계자는 “추가 수신금리 인상 여부를 검토는 하고 있다”면서도 “다만, 지난해 12월에 선제적으로 수신금리 인상에 나서 아직은 (시장상황을) 보고 있다”고 말했다. 앞서 케이뱅크는 지난달 13일 예금과 적금 등의 금리를 일제히 인상했다. 대표적인 정기예금인 ‘코드K 정기예금’ 금리는 1년 이상을 연 1.5%에서 2.0%로 올렸다. 특히 가입 기간 3년 이상은 1.6%에서 2.2%로 0.6%포인트 끌어올렸다. 케이뱅크는 같은 날 적금 금리도 0.3∼0.45%포인트 인상했다. 이에 따라 ‘주거래우대 자유적금’의 최고 금리는 연 2.3∼2.5%, ‘코드K 자유적금’의 금리는 연 2.1∼2.3%로 변경됐다인터넷은행들이 수신금리를 인상을 결정하거나 검토 중인 이유는 한국은행 기준금리 인상에 발맞추기 위해서다. 한은 금융통화위원회는 지난 14일 연 1%였던 기준금리를 1.25%로 0.25%포인트 인상했다. 여기에 신한은행, 우리은행, 하나은행이 기준금리 인상 이후 예적금 상품 금리를 최대 0.3~04%포인트 인상한 것도 영향을 끼친 것으로 풀이된다. 은행으로 ‘머니무브’(자금이동)가 발생하는 상황에서 수신 경쟁에 임하는 차원이다. 제3의 인터넷뱅크인 토스뱅크는 현재 수신금리 인상 계획이 없다고 했다. 토스뱅크 관계자는 “현재 인상 계획안이 없다”며 “현 상황을 그대로 유지할 것”이라고 말했다. 토스뱅크는 정기예금이나 적금이 없다. 대신 연 2.0%의 고금리 수시입출금통장 하나만 운영하고 있다. 회사는 이달 5일부터 1억원 이하 금액에는 연 2% 금리를, 1억원 초과 금액에 대해서는 0.1%의 금리를 적용하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2022.01.21.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>야놀자, 2022년 여가 트렌드로 ‘T.I.G.E.R’ 선정</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/382/0000957599?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>지난해 자체 데이터 분석해 5가지 키워드 뽑아“코로나19 상황서도 포스트코로나 여행 기대”기술도입 가속화, 환경 중시하는 여행 트렌드숙소에서 레저 통합서비스, 워케이션 등 부상여가 플랫폼 기업 야놀자는 2022년 여가 트렌드로 ‘T.I.G.E.R’를 발표했다. 지난해 야놀자 자체 데이터를 분석해 기술 도입(Technology), 통합서비스 선호(Integrated Service), 프리미엄여행 인기(Glamorous and Luxury Travel), 환경에 대한 관심(Environment), 휴식과 근무의 결합(Rest and Work) 등 5가지 키워드를 선정했다. 먼저 여행업계의 기술 도입이 가속화될 전망이다. 코로나19로 인한 여행산업 위축 속에서도 지난해 야놀자클라우드의 글로벌 호텔 솔루션 고객사는 20년 대비 60% 이상 증가했다. 포스트코로나 시대의 여행 수요에 대한 기대가 높아지면서 이를 선점하기 위한 기술 투자가 급증한 것으로 풀이된다. 운영 효율과 이용자 편의를 동시에 제고하는 SaaS 솔루션의 높은 성장세가 기대된다. 통합서비스(Integrated Service) 선호도 눈에 띄게 늘었다. 라운지 수영장 등 부대시설 이용권, 인룸다이닝 등을 포함한 호텔 패키지 이용률은 20년 대비 77% 신장했다. 타인과의 접촉을 최소화하기 위해 숙소에서 다양한 액티비티를 즐기고자 하는 고객 니즈가 증가한 영향으로 분석된다. 최근에는 특급호텔들도 딜리버리, OTT(온라인 동영상 서비스) 이용권 등을 제공하는 등 숙소 내 이색 서비스가 고객 유치를 위한 주요 요인이 될 것으로 예상된다. 프리미엄 여행(Glamorous and Luxury Travel)은 꾸준히 증가하는 추세다. 지난해 특급호텔(4, 5성급) 예약건수는 호캉스 등 프리미엄 여가 트렌드 영향으로 20년 대비 54% 상승했다. 풀빌라 예약률 역시 46% 증가했다. 해외 여행이 제한적인 상황에서 비용 대비 최상의 여가를 경험할 수 있는 프리미엄 숙소에 대한 인기는 지속될 것으로 보인다. 환경에 대한 관심(Environment) 등 새로운 여행 패러다임도 주목할만 하다. 지난해 야놀자가 진행한 ‘친환경 ESG 숙소 기획전’에는 전국 50여 개 호텔이 참여했다. 친환경 어메니티, 침구 교체 간소화 등 호텔 차원의 노력을 넘어 플로깅 캠페인(조깅하며 쓰레기를 줍는 활동) 패키지, 텀블러 사용 시 할인 등 고객 참여 활동으로 확대되고 있다. 전 세계적으로 환경 이슈가 대두되고 있는 만큼, 올해도 여행과 환경보호가 양립할 수 있는 다양한 프로그램이 나올 것으로 예상된다. 코로나19 이후 휴식과 근무가 결합된(Rest &amp; Work) 워케이션도 부상했다. 야놀자, 토스, 라인플러스 등 IT 기업들에서 등장한 워케이션은 이색적인 근무환경을 제공하는 복지이자 지역경제 활성화에 기여하는 프로그램으로 주목받고 있다. 지자체와 협력해 지역 내 숙소, 관광상품과 연계한 워케이션 전용 상품도 개발해 워케이션이 여행업계 회복을 돕는 새로운 비즈니스 모델이 될 것으로 기대된다.김재범 기자oldfield@donga.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2022.01.21.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>[조간브리핑] 李 “예술인에게 연 100만원”…尹 “인적공제액 1인당 200만원”</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000272627?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>■ 경제와이드 모닝벨 '조간 브리핑' - 장연재조간브리핑입니다.◇ 대출 10조 받아, LG엔솔 '영끌 청약'조선일보 기사입니다.역대급 흥행을 기록한 LG에너지솔루션 공모주 청약 기간 동안 금융권에서 최소 10조 원 넘는 대출이 나간 것으로 추산됐습니다. 조선일보는 지난 18일에서 19일 시중 5대 은행에서 6조2600억 원이 마이너스 통장 대출로 빠져나갔다고 전했습니다. 하루 평균보다 40배 폭증한 것으로, . 쉽게 빌려다 갚을 수 있는 은행의 마통으로 자금을 동원한 사람이 많았던 것으로 풀이됩니다. 모바일로 몇 분 만에 ‘간편 대출’ 받을 수 있는 카카오뱅크와 케이뱅크, 토스뱅크 등 인터넷 전문 은행 3곳에서도 청약 신청 이틀간 1조7767억 원이 마통 대출로 풀렸고요.빅 3 생명보험에서 같은 기간 보험금을 담보로 대출받는 보험 약관 대출로 1조 원 넘는 금액이 청약으로 흘러 들어간 것으로 전해집니다.◇ 중고차 온라인 중개 뛰어든 현대차그룹…업계는 긴장동아일보 기사입니다.현대자동차그룹의 물류 계열사 현대글로비스가 온라인 중고차 거래 플랫폼 '오토벨' 서비스를 시작했습니다.오토벨 서비스는 도매상은 물론이고 개인 이용자들도 인터넷과 모바일 애플리케이션을 통해 중고차 시세를 조회하면서 차를 팔거나 살 수 있습니다. 오토벨은 판매자를 검증하고 허위 매물을 막기 위해 이용자 확인 절차에 들어가고, 부정한 거래 내용이 적발될 경우 회원 자격을 영구 박탈하기로 했습니다. 현대자동차와 기아 등의 중고차 매매업 진출을 둘러싸고 업계가 반발하고 있는 가운데 현대차그룹이 중고차 시장 영토를 서서히 확장하고 나선 것 아니냐는 분석이 나오는데요. 현대글로비스 측은 "오토벨은 판매자와 구매자를 연결하는 플랫폼 서비스만 하겠다는 것"이라며 다른 그룹 계열사들의 매매업 진출과는 선을 그었습니다. ◇ 이참에 테슬라 살까, 전기차 보조금 줄자 흔들리는 소비자중앙일보 기사입니다.전기차 보조금을 100% 받을 수 있는 차량 가액 상한선이 낮아지자 전기차를 사려던 소비자들이 술렁이고 있습니다. 2022년 전기자동차 보조금 지침 개편안에 따르면, 보조금 최대치는 800만 원에서 700만 원으로 하향되고 보조금을 100% 받을 수 있는 차량 가액 상한선이 6000만 원에서 5500만 원으로 낮아지는데요.전기차 보조금 혜택이 줄다 보니 일부 소비자들은 "어차피 지원 못 받으니 이참에 비싼 차를 사겠다"는 입장이라고 합니다. 보조금에 따라 판매량이 크게 출렁이기 때문에 자동차업계는 신차 가격을 얼마로 책정할지 고민에 빠졌는데요. 업계에선 국내 전기차 시장이 보급형·고급형으로 양분될 것이란 전망이 나옵니다. ◇ 귀하신 몸, PB쟁탈전…입소문나면 연봉 40억 조선일보 기사입니다.100조 원이 넘는 PB 시장을 잡으려는 은행·증권사들의 경쟁이 가열되고 있습니다. 인터넷전문은행이나 AI 주식투자앱 등 핀테크 기업의 성장으로 고객 기반을 위협받는 은행·증권사들이 자신들의 강점인 ‘자산 관리’로 우량 고객 붙잡기에 나선 겁니다. 은행들은 PB서비스의 문턱을 낮추고 고객 유치를 위한 경쟁을 벌이고 있는데요.  KB국민·신한·하나·우리 등 4대 은행의 경우 PB 고객이 맡긴 돈이 최근 5년 새 32% 늘면서 작년 6월 143조 원을 넘어섰습니다. 현재 4대 시중은행 소속 PB도 703명으로 최근 2년 만에 22% 늘었습니다. 요즘 고객들은 철저히 전문성을 따지고, 성과가 나지 않으면 다른 PB센터로 떠나는 '체리피커'가 많다고 하는데요. 그래서 유능한 PB를 스카우트하기 위한 경쟁도 뜨겁습니다. 특히 우량 고객이 많았던 한국씨티은행이 작년 10월 소매 부문 철수 결정을 내려 스타 PB들이 ‘대방출’되자 스카우트 전쟁이 벌어지기도 했습니다. ◇ 李 "예술인에 연 100만 원" 尹 "인적공제 200만 원"한국경제 기사입니다.민주당 이재명, 국민의힘 윤석열 대선후보가 이번엔 '현금 지원' 공약 경쟁을 벌이고 있습니다. 이 후보는 문화예술인에게 연 100만 원의 기본소득을 지급하고 공공임대주택 보급 확대를 약속했습니다. 그리고 국가 재정에서 문화 예산 비중을 현재의 두 배 이상인 2.5%까지 확대하겠다”고 공약했습니다. 윤 후보는 연말정산 시 기본 인적공제액을 1인당 200만 원으로 올리겠다는 공약을 내놨는데요. 특히 신용카드·직불카드 공제도 확대해 봉급 생활자들의 소득세 부담을 연 3조 원 이상 줄여주겠다”고 강조했습니다. 그리고 어린이집과 유치원 모든 영유아에게 '하루 세끼 친환경 무상급식'을 약속했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2022.01.24.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>"호랑이해 여행 트렌드는 T.I.G.E.R" 야놀자, 2022 여행 시장 예측</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004912844?sid=103</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>포스트코로나 여행 수요 기대↑워케이션 등 신규 트렌드 눈길올해 여행의 핵심은 고급화와 다양화로 요약된다. 야놀자가 20일 2022년 여가 트렌드로 ‘T.I.G.E.R’를 발표했다. 야놀자는 지난해 야놀자 자체 데이터를 분석한 결과, ▲기술 도입(Technology) ▲통합서비스 선호(Integrated Service) ▲프리미엄 여행 인기(Glamorous and Luxury Travel) ▲환경에 대한 관심(Environment) ▲휴식과 근무의 결합(Rest and Work) 등 5가지 키워드를 제시했다. 코로나19 상황이 장기화되고 있는 만큼, 이러한 트렌드는 올해도 지속될 것으로 예상된다. &lt;제공 = 야놀자&gt; 먼저, 여행업계의 기술 도입(Technology)이 가속화될 전망이다. 코로나19로 인한 여행산업 위축 속에서도 지난해 야놀자클라우드의 글로벌 호텔 솔루션 고객사는 20년 대비 60% 이상 증가했다. 포스트 코로나 시대의 여행 수요에 대한 기대가 높아지면서 이를 선점하기 위한 기술 투자가 급증한 것으로 풀이된다. 통합서비스(Integrated Service)에 대한 선호도도 눈에 띄게 늘었다. 라운지ㆍ수영장 등 부대시설 이용권, 인룸다이닝 등을 포함한 호텔 패키지 이용률은 2020년보다 77% 높아졌다. 타인과의 접촉을 최소화하기 위해 숙소에서 다양한 액티비티를 즐기고자 하는 고객 수요가 증가한 영향으로 분석된다.프리미엄 여행(Glamorous and Luxury Travel) 수요는 꾸준히 증가하는 추세다. 지난해 특급호텔(4ㆍ5성급) 예약건수는 호캉스 등 프리미엄 여가 트렌드 영향으로 20년 대비 54% 상승했다. 풀빌라 예약률 역시 46% 증가했는데, 이는 전체 펜션 카테고리 신장률과 비교해도 18%p 높은 수치다. 해외 여행이 제한적인 상황에서 비용 대비 최상의 여가를 경험할 수 있는 프리미엄 숙소에 대한 인기는 지속될 것으로 보인다.여행업계의 환경에 대한 관심(Environment)도 높아졌다. 지난해 야놀자가 진행한 ‘친환경 ESG 숙소 기획전’에는 전국 50여 개 호텔이 참여해 친환경 여행에 대한 업계의 관심을 입증했다. 또한, 친환경 어메니티 비치, 침구 교체 간소화 등 호텔 차원의 노력을 넘어 넘어 플로깅 캠페인(조깅하며 쓰레기를 줍는 활동) 패키지, 텀블러 사용 시 할인 등 고객 참여 활동으로 확대되고 있다. 전 세계적으로 환경 이슈가 대두되고 있는 만큼, 올해도 여행과 환경보호가 양립할 수 있는 다양한 프로그램이 나올 것으로 예상된다.코로나19 이후 원격근무가 일상화되면서 휴식과 근무가 결합된(Rest &amp; Work) 워케이션도 부상했다. 야놀자, 토스, 라인플러스 등 IT 기업들을 필두로 시작된 워케이션은 이색적인 근무환경을 제공하는 복지이자 지역 경제 활성화에 기여하는 신규 프로그램으로 주목받고 있다. 일부는 지자체와 협력해 지역 내 숙소, 관광상품과 연계한 워케이션 전용 상품을 개발 중으로, 워케이션이 여행업계 회복을 지원하는 새로운 비즈니스 모델이 될 것으로 기대된다.야놀자 관계자는 “코로나19가 장기화되고 있지만 오히려 포스트코로나 시대의 여행 수요에 대한 기대가 높아지며 기술 도입과 환경에 대한 관심이 증가하고 있는 것으로 나타났다”면서 “여행이 제한적인 상황에서도 숙소 내에서 레저를 즐기는 통합서비스, 휴식과 근무를 동시에 즐기는 워케이션 등 새로운 형태의 여행 트렌드가 확산되고 있는 점 또한 주목할 만하다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2022.01.27.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>핀크, 중·저신용자 대출 비율 54% 달성... "업계 최고 수준"</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002265854?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>◆…사진=핀크 제공생활금융 플랫폼 핀크는 작년 12월 기준 ‘대출 비교 서비스’에서 대출을 실행한 고객 중 신용점수 820점 이하의 중·저신용자 비중이 54%를 기록했다고 27일 밝혔다.   핀크는 SKT의 통신 데이터(▲가입기간▲납부내역▲로밍▲음성 데이터 사용량 등)를 기반으로 하는 대안 신용평가 모델인 ‘T스코어’를 통해 맞춤형 대출정보를 제공해주는 ‘대출비교 서비스’를 운영하고 있다. 또한 핀크 앱에 출시된 '번개대출'을 통해 대출 신청부터 상환까지 빠른 소액대출 서비스를 제공하고 있다.   핀크의 대출비교 서비스를 이용한 고객 중 820점 이하 중·저신용자 비중은 작년 12월 기준 54%를 달성했고 평균 약정 금액은 1160만원이다. 인터넷 전문은행 중·저신용자 대출 비중은 작년 9월말 기준 카카오뱅크가 13.4%, 케이뱅크는 13.7%를 기록했고, 토스뱅크의 경우 올해 1월 1일부터 10일까지 26.9%를 기록했다.   핀크 대출비교 서비스의 누적 승인 금액은 작년 12월 기준 33조원을 달성했다. 이는 7조233억원을 기록했던 재작년보다 356% 상승한 수치이다. 이 밖에 ▲제휴사 수 94% 상승(33곳)▲상품수 141% 상승(89개)▲누적 승인 건수 194% 상승▲누적 신청 건수 251% 상승 등을 기록했다.   핀크 권영탁 대표는 “핀크의 서비스 비전인 금융 서비스로부터 소외 받는 고객이 없는 포용적 금융 세상을 실현하기 위해 노력한 결과 업계에서 가장 높은 중금리 대출 비중을 기록하고 있다”며 “올해 대출 비교 제휴 금융기관을 빠르게 70곳까지 늘리는 한편, 마이데이터와 연계한 맞춤형 대출 상품 추천으로 더 많은 금융 소외고객들을 포용할 수 있도록 하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2022.01.23.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>오미크론 다음은 희망? “어떤 새 변이 나올지에 달려”</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001500664?sid=104</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>놀라운 전파력으로 전 세계를 강타한 코로나19 오미크론 변이 이후는 ‘코로나 종식’일까. 안타깝게도 오미크론 이후에 우리가 만날 것은 또 다른 새 변이일 것으로 보인다. 다만 그 변이가 어떤 성격이냐에 따라 전 세계 코로나19 상황이 결정될 것이라는 전문가들의 전망이 나온다고 미국 CNN 방송이 보도했다.CNN은 21일(현지시간) 존스홉킨스대의 통계에 따르면 미국에서 발생한 전체 코로나19 확진자 중 4분의 1 이상이 이번 오미크론 변이 대유행 기간에 나왔다고 전했다. 오미크론 확산 정점 지났나…머리드는 낙관론미국 뉴욕 맨해튼에서 지난 12일(현지시간) 시민들이 코로나19 검사소 안내판 인근을 지나가고 있다. 연합뉴스그러나 오미크론 변이가 현재 정점을 지나는 것으로 해석할 만한 흐름도 나타나고 있다. 지난 20일 기준 미국 26개 주에서 1주일 전보다 확진자 수가 10% 이상 늘었지만, 14개 주에서는 1주일 전보다 10% 이상 감소한 것이다.보스턴이나 뉴욕처럼 미국에서 처음 오미크론 변이가 확산한 곳은 이미 정점을 찍고 감소하기 시작했다는 뜻이다. 물론 조지아주 애틀랜타 등 상당수 다른 곳들에서 오미크론의 맹위는 여전한 상태다.하지만 오미크론 변이가 처음 확인된 남아프리카공화국 상황을 보면서 전염병 전문가들은 희망을 내비친다. 남아공의 경우 오미크론 변이가 확산하면서 코로나19 확진자 수도 급증했지만, 확진자 수가 정점을 찍은 이후 빠르게 감소하고 있어서다.유럽에서 오미크론 변이의 타격을 가장 먼저 받은 영국의 흐름도 비슷하다.존 슈워츠버그 UC버클리 공중보건대 교수는 미국 상황에 대해 “단기적으로는 앞으로 4∼6주가 고비가 될 것”이라며 “2월 중순쯤에는 상황이 나아지는 것을 확인할 수 있을 것”이라고 내다봤다. 그는 오미크론 변이가 진정된 이후 3월부터 여름까지는 확진자 수가 꾸준히 감소할 것으로 낙관했다.많은 사람이 코로나19 백신을 맞았고 오미크론 변이를 겪으면서 어느 정도 집단면역이 형성된 만큼 새 변이가 나오더라도 도움이 될 것이라는 전망이다. 엔데믹(토착병) 드디어 근접해가나덴마크 수도 코펜하겐에서 9일(현지시간) 시위대가 코로나19 규제 조치를 성토하며 거리를 행진하고 있다. AFP연합뉴스CNN은 2020년 코로나19 사태가 시작된 이래 처음으로 전염병 전문가들과 정치 지도자들이 엔데믹(endemic·토착병) 상태로 옮겨가고 있을 가능성을 검토하고 있다고 전했다.엔데믹은 상대적으로 중증이나 사망을 덜 유발하는 오미크론 감염자가 대거 나오면서 인류의 상당수가 면역력을 갖게 되고 그 결과 코로나19가 감기나 독감 같은 계절성 질환과 비슷해지는 단계를 의미한다. 런던 위생열대의학대학원의 데이비드 헤이먼 교수는 “내 개인적 견해는 다른 코로나바이러스가 그랬던 것처럼 코로나19가 엔데믹이 되고 있으며 당분간 엔데믹으로 머물리라는 것”이라며 “모든 바이러스는 엔데믹이 되려고 노력하며, 이것도 (이에) 성공하고 있는 것처럼 보인다”고 말했다.스워츠버그 교수는 “미국에서는 지금도 독감으로 매년 약 3만 5000명이 사망한다”면서도 “그런데도 우리는 계속해서 살아간다”고 전했다. 스탠퍼드 의대의 이본 말도나도 교수도 “스페인 독감은 우리가 매년 보는 독감 바이러스의 선조”라며 “계속해서 변이가 나오고 있는 것처럼 코로나바이러스도 비슷할 것 같다”고 내다봤다.이미 덴마크와 영국, 스페인 등 유럽 일부 나라에서는 국가 방역 체계의 전제를 엔데믹으로 전환하는 듯한 움직임도 나타나고 있다.에든버러대학의 전염병 교수 마크 울하우스는 코로나19가 우리가 사는 평생 완전히 사라지지 않는 대신 대부분의 사람이 어린이일 때 한 차례, 또는 여러 번 감염되면서 누적된 감염을 통해 점차 면역력을 길러가는 다른 질병과 비슷해지는 시기에 궁극적으로 도달할 것으로 전망했다. 울하우스 교수는 “오미크론은 바이러스의 또 다른 1회 투약분”이라며 “그 투약분을 맞았거나 백신을 맞았기 때문에 우리는 평균적으로 질병에 덜 취약해질 것”이라고 말했다.올해 또 등장할 새 변이, 어떤 바이러스일지 변수그러나 오미크론이 진정되더라도 이후 어떤 성격의 변이가 나올 지에 따라 향후 상황이 달려 있다.  말도나도 교수는 “새로운 변이는 나타날 것이고, 이는 (오미크론) 다음에 무슨 일이 벌어질지 확신할 수 없다는 의미다”고 설명했다.오미크론 변이보다 전염력이 더 클 수도, 중증도가 좀 더 셀 수도, 아니면 아무 증상이 없을 수도 있다는 게 전문가들 설명이다. UC샌프란시스코 전염병학자 조지 러더퍼드 교수도 “다음에 어떤 변이가 올지는 전혀 알 수 없다”고 전했다.아직 백신 접종률이 낮은 많은 나라에서는 오미크론 쓰나미(지진해일)로 병원이 환자를 감당할 수 없는 상황에 직면할 수도 있다.최악의 시나리오는 제약업계가 새 변이를 겨냥한 새 백신을 빨리 만들어 내지 못하고, 치료제도 효과를 내지 못하는 상황이지만, 말도나도 교수는 “그런 일이 일어날 가능성은 작다고 생각한다”고 부연했다.존스홉킨스대의 폐·중환자 치료 의사인 파나기스 갈리아사토스는 “우리는 코로나19를 막을 방법을 알기에 더는 과학적 돌파구가 필요하지 않다”며 백신과 마스크 착용, 감염 검사, 추적 등 기본 원칙을 강조했다고 CNN은 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2022.01.19.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>[미리보는 이데일리 신문]114조원 끌어모은 LG엔솔 균등배정 1주 간신히 받는다</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005130269?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>[이데일리 김경은 기자] 다음은 20일자 미리보는 이데일리 신문 주요 기사다. △1면-114조원 끌어모은 LG엔솔 균등배정 1주 간신히 받는다-애매모호 중대재해법, 기업 책임만 강조-오미크론 폭풍 온다…중대 전환점에 선 K방영-트리플 악재에…국내외 증시 휘청△종합-[사설]치솟는 설 장바구니 물가, 대책 서둘러야-[사설]지방대학 고사 위기, 해법 찾기 왜 미루나-인플레·코로나·외교 가시밭길…미국인이 화났다-오징어게임 재미 본 넷플릭스…“올해 한국작품 25편 8000억 투자”△스페셜리포트-건설현장 어디까지 안전의무 져야하나…관련 부처도 법 해석 제각각-‘1호 처벌 피하자’…안전조직 만들고 예산 늘리고-안전 전문인력 인기에…산업안전지도사 자격시험 응시생 3배 쑥△전대미문 코로나 2년-오미크론과 일전 폭풍전야…‘고위험군 중심’ 검사·치료·4차 접종 추진-본격화한 비대면 세상…‘디지털 전환’이 기업 성패 갈랐다-극단적 선택 고민 13.6% ‘코로나 블루’ 위험 수준-1457→3305→2840선…천당·지옥 오간 동학개미들△IPO 역사 새로 쓴 LG엔솔-신기록 행진 LG엔솔 ‘따상’ 갈까…증권가 “덩치 워낙 커 가능성 높지 않다”-IPO 대어 쓸어담은 KB증권 주식·채권발행 모두 1위 예고-LG엔솔 떼는 LG화학 주가, 5거래일 연속 뒷걸음질△종합-李 “투자자 공개 모집 허용” VS 尹 “5000만원까지 비과세”-고승범 “코로나 대출 지원 3월 종료…안전장치 마련”-건설노조 갑질에 안전 무너졌다-기밀 유출 대책도 없이…“IT 서비스 일감 나누라”는 공정위△정치-휠체어 투혼 與 송영길, PK 공략…비단주머니 野 이준석, 호남 구애-“韓원전, 세계 최고 수준의 경제성·안전성 갖춰”-‘이핵관’ 폭로한 정청래 의원 “이재명 뜻이라며 탈당 권유”-최태원 만난 심상정 “기업인들이 나를 반기업적으로 생각하면 오해”△경제-유류세 인하에도…다시 고개드는 휘발유 가격-정 “방역수칙 어기면 폐쇄” 농가 “과잉규제에 부담 과도”-홍남기 “부동산시장 안정세…올 사전청약 7만가구 공급”-韓 ‘탄소생산성’ 최하 수준…“성장·저탄소 양립방안 모색을”△금융-유효기간 남았는데…카드서비스 중단한 토스-국민·부산은행도 올렸다 예·적금 금리 인상 ‘러시’-4세대 실손보험 전환 실적, 보험사 평가에 반영한다-올해 소비 트랜드는 ‘UNLOCK’△Global-82조 ‘세기의 빅딜’…MS는 왜 게임회사 블리자드를 품나-먹는 코로나 약 ‘팍스로비드’ 오미크론에 효과-베이징올림픽 보안 취약 “쓰고 버리는 폰 사용해라”-‘우크라 담판’ 시도…미·러 외교수장 내일 만난다△산업-3.3조 투자 단행…LGD ‘중소형 OLED’ 본격호-GS가 부러운 대기업 지주사들 “벤처투자 이끌 분 어디 없나요”-기아 신형 ‘니로’ 사전계약 첫날 1만 6300대-3년내 9배 이상 성장 미·호주 ESS 시장 공략-두산重·한화솔루션, 현지 사업 참여 롯데케미칼, 지분인수 통해 공약-“현대중공업 조산3사 매출, 연10% 성장 자신있다”△바이오·기업-유튜브→TV→메타버스…캐리, 놀이터 더 커진다-‘진격의 K바이오’ 수출 주역 꿈꾼다-한미반도체, ‘슈퍼사이클’ 타고 2년 연속 최대실적△증권-올해 더 뜨거운 공모주 파티…줄줄이 공모가 하이킥-‘올해만 20% 상승’ 이녹스첨단소재, OLED 호재 타고 더 뜬다△증권-“인수하고 인수되기도”…메타버스 열풍에 ‘물’ 만난 게임사-바람 잘 날 없는 1월 코스닥…대장주도 ‘엎치락 뒤치락’-삼정KPMG “시니어타운 수요 증가 선제 대응해야”△부동산-일자리·관광·교통호재…이천·속초·창원 등 ‘투자행렬-15억 넘는 아파트 거래 경기도 4년새 2516%-3기 신도시 주변 땅 권한다면?…사면 절대 안되는 곳-‘분상제의 역설’…일반분양 15억인데 조합은 18억?△과학카페-“잦은 지진이 마그마방 자극…300년 잠든 후지산 언제든 폭발할 수 있어”-누리호 실려 우주 갈 위성제작 한창 우주개발 강국 꿈 실현위해 ‘구슬땀’△문화-흥 제대로 올랐다 날개 펼치는 ‘조선팝’-‘스파이더맨’ 팬데믹 2년 만에 첫 700만 영화 눈앞△오피니언-인류를 공멸로 내보는 것들-교육정책, 정치색부터 떼자△피플-줄기세포 치료제로 세계 시장 석권…K바이오 대표될 것-“국가발전 아이디어 사업화할 CEO 모집”-“150억원에 대한 부담 없다…신인의 자세로 다시 시작”-국민은행 전통시장 사랑나눔 행사 10억원 지원-LS그룹, 이웃사랑성금 20억원 기탁△“백신 맞고 백속 아기 잘못되면…” 방역패스 적용에 뿔난 임신부들-“초과이익환수 제안, 윗선서 묵살” 대장동 실무자 김문기 유서 파장-“머그잔 찜찜해 하는데”…플라스틱컵 금지에 카페 사장 ‘골치’-임종석 지인이라며 돈 빌린 진사장의 정체는-광주 붕괴 참사 현산 본사 압수수색</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2022.01.17.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>인뱅 대출금리 최고 10% 육박…금리 추가 인상 땐 어쩌나</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005031609?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>시중은행은 최저 3% 초반가산금리 유지 가능성도한국은행이 기준금리를 인상하면서 인터넷전문은행 신용대출도 영향을 받을 지 관심이 모아지고 있다. 인터넷은행의 금리가 최고 10%에 육박해 경쟁력이 낮아졌고, 최근 5대 시중은행이 낮은 금리와 간편한 대출 절차를 내세워 영업을 강화하고 있기 때문이다. 다만 인터넷은행의 대출 연장 수요와 가산금리 조정 등 여전히 변수가 남아있는 상황이다.17일 금융권에 따르면 지난해 12월 카카오뱅크 신용대출 금리는 9.79%로 이미 금리가 10% 수준에 육박한 것으로 나타났다. 케이뱅크는 5.71%, 오픈하자마자 대출영업을 중단했던 토스뱅크는 지난해 11월 기준 5.07%였다. 지난주 한은이 기준금리를 인상한 점을 감안하면 이달 인터넷은행의 금리는 10%를 넘길 것으로 추정된다.이에 비해 시중은행의 금리는 상대적으로 경쟁력이 높은 수준이다. 시중은행의 12월 평균 금리는 3.78%로 각종 우대금리 등을 감안하면 최저 연이율이 3% 초반대다.인터넷은행의 금리가 높은 것은 지난해 하반기 중저신용자대출에 집중했기 때문이다. 신용점수(KCB 기준) 820점 이하의 금융소비자들을 끌어들이면서 대출금리가 상승하게 된 것이다. 카카오뱅크의 경우는 올해도 중저신용자대출 확대를 위해 고신용자대출을 잠정 중단하고 있다.은행연합회에 따르면 카카오뱅크의 지난해 11월 신규 신용대출 중 금리 10% 이상 대출 비중은 11.1%를 기록했다. 금리 9~10%대는 9.30%, 8~9%대는 9.70%였다. 새롭게 나간 대출의 10분의 1 이상이 제2금융권 수준에 육박하는 것이다. 한 인터넷은행 관계자는 "중저신용자대출이 확대되면서 평균 대출금리도 오를 수 밖에 없는 상황"이라며 "금리를 낮추기 위해 신용평가시스템(CSS)을 지속적으로 고도화 하고 있다"고 밝혔다.다만 차주들이 인터넷은행에서 대거 이탈하는 상황은 벌어지지 않을 것이라는 전망이 나온다. 기준금리 인상으로 전 금융권 금리가 전반적으로 오르고 있고, 이미 사전에 적당한 금리로 신용대출과 마이너스통장을 받은 차주들은 기존 인터넷은행의 대출 연장이 오히려 유리할 수 있어서다. 인터넷은행이 고객을 유지하기 위해 당분간 가산금리를 올리지 않을 것이라는 관측도 있다. 김은갑 IBK투자증권 연구원은 "인터넷은행이 중신용자에 대한 대출을 확대하는 과정에서 대출금리가 상승한 효과도 섞여 있지만 전반적으로 대형은행 대비 금리경쟁력은 약화됐다"면서도 "시중은행과는 달리 인터넷은행들은 가산금리를 상대적으로 여유있게 조정할 수 있기 때문에 전략적으로 당분간 대출금리를 올리지 않을 수도 있다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2022.01.20.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>"프리미엄 여행 인기끌 것"…야놀자, 2022 여가 트렌드 'T.I.G.E.R' 발표</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005855557?sid=103</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>코로나19 장기화에도 포스트코로나 여행 수요 기대 높아져야놀자 2022 여가 트렌드 'T.I.G.E.R' 발표(서울=뉴스1) 윤슬빈 여행전문기자 = 2년간 이어지는 코로나19 사태로 일상생활에 많은 제약이 따르고 있지만, 올해는 제한된 상황 속에서도 최상의 여가를 즐길 수 있는 프리미엄(고급) 여행, 워케이션 등 새로운 형태의 여행 트렌드가 더욱 확산될 것으로 보인다. 20일 여가 플랫폼 기업 야놀자는 2022년 여가 트렌드를 'T.I.G.E.R'(타이거)로 정하고, 이에 따른 트렌드 분석 결과를 발표했다. 야놀자 지난해 야놀자 자체 데이터를 분석한 결과에 따르면 2022년 여가 트렌드의 5가지 키워드로 Δ기술 도입(Technology) Δ통합서비스 선호(Integrated Service) Δ프리미엄 여행 인기(Glamorous and Luxury Travel) Δ환경에 대한 관심(Environment) Δ휴식과 근무의 결합(Rest and Work) 등이 나왔다. 먼저, 여행업계의 기술 도입(Technology)이 가속화될 전망이다. 코로나19로 인한 여행산업 위축 속에서도 지난해 야놀자클라우드의 글로벌 호텔 솔루션 고객사는 2020년 대비 60% 이상 증가했다. 포스트코로나 시대의 여행 수요에 대한 기대가 높아지면서 이를 선점하기 위한 기술 투자가 급증한 것으로 풀이된다.  특히 운영 효율과 이용자 편의를 동시에 제고하는 SaaS(Software as a Service) 솔루션의 높은 성장세가 기대된다.통합서비스(Integrated Service)에 대한 선호도도 눈에 띄게 늘었다. 라운지·수영장 등 부대시설 이용권, 인룸다이닝 등을 포함한 호텔 패키지 이용률은 20년 대비 77% 신장했다. 타인과의 접촉을 최소화하기 위해 숙소에서 다양한 액티비티(활동)를 즐기고자 하는 고객 니즈가 증가한 영향으로 분석된다.  최근에는 특급호텔들도 딜리버리(배송), OTT(온라인 동영상 서비스) 이용권 등을 제공하는 등 숙소 내 이색 서비스가 고객 유치를 위한 주요 요인이 될 것으로 예상된다. 프리미엄 여행(Glamorous and Luxury Travel) 수요는 꾸준히 증가하는 추세다. 지난해 특급호텔(4·5성급) 예약건수는 호캉스 등 프리미엄 여가 트렌드 영향으로 2020년 대비 54% 상승했다. 풀빌라 예약률 역시 46% 증가했는데, 이는 전체 펜션 카테고리 신장률과 비교해도 18%p 높은 수치다.  해외여행이 제한적인 상황에서 비용 대비 최상의 여가를 경험할 수 있는 프리미엄(고급) 숙소에 대한 인기는 지속될 것으로 보인다. 여행업계의 환경에 대한 관심(Environment)도 높아졌다.  지난해 야놀자가 진행한 '친환경 ESG 숙소 기획전'에는 전국 50여 개 호텔이 참여해 친환경 여행에 대한 업계의 관심을 입증했다. 또한, 친환경 어메니티 비치, 침구 교체 간소화 등 호텔 차원의 노력을 넘어 넘어 플로깅 캠페인(조깅하며 쓰레기를 줍는 활동) 패키지, 텀블러 사용 시 할인 등 고객 참여 활동으로 확대되고 있다.  전 세계적으로 환경 이슈가 대두되고 있는 만큼, 올해도 여행과 환경보호가 양립할 수 있는 다양한 프로그램이 나올 것으로 예상된다. 코로나19 이후 원격근무가 일상화되면서 휴식과 근무가 결합된(Rest &amp; Work) 워케이션도 부상했다.  야놀자, 토스, 라인플러스 등 IT 기업들을 필두로 시작된 워케이션은 이색적인 근무환경을 제공하는 복지이자 지역 경제 활성화에 기여하는 신규 프로그램으로 주목받고 있다. 일부는 지자체와 협력해 지역 내 숙소, 관광상품과 연계한 워케이션 전용 상품을 개발 중으로, 워케이션이 여행업계 회복을 지원하는 새로운 비즈니스 모델이 될 것으로 기대된다.야놀자 관계자는 "코로나19가 장기화되고 있지만 오히려 포스트코로나 시대의 여행 수요에 대한 기대가 높아지며 기술 도입과 환경에 대한 관심이 증가하고 있는 것으로 나타났다"며 "여행이 제한적인 상황에서도 숙소 내에서 레저를 즐기는 통합서비스, 휴식과 근무를 동시에 즐기는 워케이션 등 새로운 형태의 여행 트렌드가 확산되고 있는 점 또한 주목할 만하다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2022.01.31.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>원스토어·쏘카…호랑이 기운 낼 공모주 '기대'</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004916216?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>현대오일뱅크 몸값 9조 전망SK계열사, 줄줄이 증시 입성컬리·무신사 등 유니콘도 관심 '단군 이래 최대어' LG에너지솔루션 이후 공모주 시장 대어는 어떤 것이 있을까. 투자은행(IB) 업계에선 현대오일뱅크와 쓱닷컴, SK쉴더스 등을 주목할 만하다고 평가한다. 이커머스, 카셰어링 같은 뉴이코노미의 기업공개(IPO)는 증시 다양성을 높이는  데 기여할 전망이다. LG에너지솔루션 이후 가장 공모액이 큰 기업은 현대오일뱅크다. 현대중공업그룹에서 정유 부문을 담당 중인 현대오일뱅크는 상반기 상장을 위해 지난해 12월 13일 한국거래소에 예비심사를 청구했다. 2019년 아람코에 지분 17%를 매각하면서 8조원 수준 기업가치를 인정받은 바 있다. 이 때문에 IB 업계에선 현대오일뱅크가 공모 과정에서 9조~10조원의 몸값을 목표로 할 것이라 전망한다.SK그룹 계열사 중 상장 대기 주자가 많은 점도 관전 포인트다. 지난해 11월 26일 예비심사를 청구한 원스토어가 대표적이다. 원스토어는 구글 플레이에 대항하고자 만들어진 토종 애플리케이션 마켓 회사다. 국내 이동통신 3사(SKT·KT·LG)와 네이버를 주요 주주로 두고 있다. SK스퀘어 자회사 SK쉴더스(옛 ADT캡스)도 코스피에 입성하고자 지난 5일 예비심사를 청구했다. 업계에선 원스토어와 SK쉴더스 예상 몸값을 최대 각각 2조원, 4조원 수준으로 점치고 있다. 이 밖에도 SK그룹 내에선 11번가와 티맵모빌리티, SK에코플랜트, SK실트론, SK팜테코 등이 IPO를 검토 중으로 알려져 있다. 장외시장에서 1조원 이상 기업가치를 인정받은 '유니콘'에 대한 관심도 높다.쿠팡이 작년 초 뉴욕증권거래소(NYSE)에 상장을 마치며, 유니콘 사이에서 미국 증시를 고려하는 분위기가 짧게나마 조성됐다. 하지만 '토스'로 알려진 비바리퍼블리카를 제외한 대부분이 한국 증시를 염두에 두고 있다. 카셰어링 업체 1위 '쏘카'와 신선식품 배송 기업 '컬리', 온라인 패션 상거래 업체 '무신사' 등이 임인년 상장 가능한 후보군으로 꼽힌다. 특히 쏘카는 5일 예비 심사를 청구하며 상반기 상장을 위해 첫 발을 뗐다. 한 증권사 IPO본부장은 "대기업 계열사뿐만 아니라 유니콘까지 상장 채비에 나서면서 국내 증시 산업군이 보다 다양해질 전망"이라며 "올해 공모시장은 양적 측면을 넘어 질적 성장까지 이룰 수 있을 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2022.01.19.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>NH, 관련직군 2배↑… 증권사 IT 인력 모시기 활발</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000776901?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>[머니S리포트-증권사 지점 통폐합 바람]② 코로나19 이후 비대면 투자 확대, 한투 ‘디지털 채용 분야’ 신설[편집자주]지난해 역대급 실적을 갈아치운 증권사들이 지점 통폐합, 희망퇴직을 통해 몸집을 줄이고 조직 효율화에 나섰다. 신종 코로나바이러스 감염증(코로나19) 사태 이후 비대면 투자가 급증한 가운데 오프라인 지점 대신 비대면 플랫폼에 집중하기 위해서다. 특별 퇴직을 통해서는 세대교체, 인력 효율화를 이루겠다는 전략이다. 비대면, 디지털화 등 트렌드가 달라진 만큼 증권사들은 IT(정보기술) 분야 관련 인재를 모시기 위한 경쟁도 치열하다. 증권사들이 점포 통합, 희망퇴직을 실시한 배경과 현황에 대해 살펴봤다.신종 코로나바이러스 감염증(코로나19) 사태 이후 증권업계에서 IT(정보기술) 인력 확보를 위한 움직임이 활발하다. 기존 오프라인 점포의 입지가 좁아지고 마이데이터(본인신용정보관리업), 소수점 주식 거래 등 새로운 비대면 투자 방식이 도입되면서 IT직군에 대한 필요성이 커지고 있기 때문이다./사진=이미지투데이◆기사 게재 순서①증권사, 국내지점 2년간 95곳 ‘증발’… 올해도 통폐합 속도 낸다②"비대면 투자 증가" 증권사 IT 인력 모시기 활발③역대급 실적에도… 증권사에 부는 희망퇴직 바람신종 코로나바이러스 감염증(코로나19) 사태 이후 증권업계에서 IT(정보기술) 인력 확보를 위한 움직임이 활발하다. 기존 오프라인 점포의 입지가 좁아지고 마이데이터(본인신용정보관리업), 소수점 주식 거래 등 새로운 비대면 투자 방식이 도입되면서 IT직군에 대한 필요성이 커지고 있기 때문이다.증권업계에 따르면 지난해 증권사 IT 관련 직군 채용은 크게 늘어났다. NH투자증권은 연간 공개채용 인원의 40명 중 10~12명을 IT 관련 인력으로 구성했다. 이들의 채용 규모는 코로나19 이전과 비교해 2배 이상 급증한 수준이다. 한국투자증권도 지난해 공채부터 ‘디지털 분야’를 별로도 신설해 데이터 분석·전략, 플랫폼 기획, 엔지니어 등 상세 분야를 나눠 채용을 진행했다. 디지털 인력 채용 규모도 전년대비 3배 가량 급증했다. KB증권은 지난해 2020년 대비 62.5% 늘어난 39명을 뽑았으며 최다 채용 분야는 디지털·IT 분야로 나타났다. 핀테크(금융+기술) 업체가 아닌 기존 대형 증권사들도 한 해 채용 인원의 25~30% 가량을 IT 인재를 뽑는데 할애하고 있는 셈이다. 중소형증권사 중 이베스트투자증권은 지난해 신입 직원 공채를 통해 IT 직군 인력의 10%를 증원했다. 유안타증권도 2020년 기준 IT 인력이 92명에서 지난해 108명으로 증가했다. 현대차증권은 지난해 약 100여명 충원 인력 중 디지털·IB부문이 전체 채용 인원의 절반 이상을 차지했다. 증권사 IT 직군의 업무는 증권시스템 개발·운용, AI(인공지능)·빅테이터·클라우드 개발과 분석 등 다양하다. 증권사들이 IT 인력 채용에 열을 올리는 건 투자 플랫폼이 대면에서 비대면 환경으로 옮겨가는 추세로 접어들었기 때문이다. 특히 고객의 데이터를 축적해 이를 활용하는 ‘마이데이터 산업’이 부상하면서 빅데이터와 인공지능을 축적하고 이를 활용하는 능력이 증권사의 사업 경쟁력으로 부각되고 있다.국내 한 증권사 인사 담당자는 “비대면 투자가 크게 늘어난 것은 물론 현재 마이데이터, 해외 주식, 소수점 거래, 세제 계산 등 프로그램 개발 건이 지금 산적해 있다”며 “대부분 국내 증권업계 상황이 비슷해 IT 인재에 대한 수요는 당분간 계속될 것“이라고 말했다.디지털 거래가 증가하며 잦아진 증권사 전산사고도 IT 인력 충원의 원인으로 꼽힌다. 공모주 청약 열풍 등으로 증권사 매매 주문시스템에 접속지연 등 오류가 빈번하게 발생해 고객들의 불만과 민원이 증가했기 때문이다. 금융감독원이 금융사 민원을 조사한 결과 지난해 증권사 HTS(홈트레이딩시스템)·MTS(모바일트레이딩시스템) 장애 관련 민원인 ‘내부통제·전산장애’유형이 2020년 같은 기간보다 140% 증가한 1102건으로 집계됐다.증권사 민원 가운데 내부통제·전산장애 유형은 상당한 비중을 차지하는 것으로 나타났다. 증권사 전체 민원 중 내부통제·전산은 39.1%를 차지했고, 펀드 13.5%, 주식매매 12.7%, 파생상품 0.8%, 신탁 0.7% 순으로 나타났다. 2020년 상반기 라임·옵티머스 등 부실 사모펀드 사태로 인해 펀드 관련 민원 접수가 가장 많았지만 지난해 상반기에는 전산 장애 민원이 더 많아졌다. ━전문 개발자 모집 난항… ”빅테크 수준 연봉 요구 부담“━증권사들이 내부에서 IT 인력의 역할은 점차 커지고 있지만 이들을 충원하는데는 애를 먹고 있는 것으로 알려졌다. 이는 IT업계 개발자들과 금융투자업계 간 시각차가 큰 것이 원인으로 지목된다.한 금융투자업계 관계자는 “지원자는 많지만 정말 필요로 하는 실무능력을 갖춘 인재는 많지 않다”며 “빅테크업계 눈높이에 맞춰 과도한 연봉을 희망하는 점도 부담스런 부분”이라고 토로했다. IT업계 개발자들이 금융증권업계 진출을 꺼리는 분위기도 고급 인력 확보가 쉽지 않은 원인이다. 한 스타트업 개발자는 “IT 개발자들은 대체로 빅테크 기업과 스타트업을 우선순위로 생각하는 경우가 많다”며 “금융투자업계는 업무상 창의성 발휘가 어려워 장기적인 관점에서 커리어(경력)에 도움이 될지 의문이기 때문”이라고 설명했다.카카오·토스 등 핀테크 기업과 경쟁해야하는 점도 부담스러운 대목이다. 토스증권은 올해도 꾸준히 인력을 늘려 해외주식, AI 자산관리 서비스를 준비할 계획이다. 토스증권은 지난해 8월에 있었던 경력 3년 이하 개발자 채용에서 5000명이 지원하며 화제를 모은 바 있다. 새로 시스템을 구축해야 하는 만큼 개발자들의 역량 발휘가 중요해 다양한 업종에서 지원자가 몰린 것으로 알려졌다.업계 내부 인력으로 눈을 돌릴 경우 증권사들 간 인력 확보 경쟁은 더욱 치열해질 전망이다. 한 예로 카카오페이증권은 2020년 2월 사업을 본격화한 이후 미래에셋증권 디지털·IT 직군 출신 인력 10여명을 수혈한 바 있다.한 증권업계 관계자는 “카카오, 토스 등과 사업영역이 겹치다보니 언제 인재를 빼앗길지 몰라 긴장되는 게 사실”이라며 “개발자들은 IT기업보다 딱딱한 분위기의 금융업종을 선호하지 않는 것 같다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2022.01.28.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>샤넬 이어 '몽클레르'도 개인정보 털렸다…사고 한달 뒤 늑장공지</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004702467?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>/사진=몽클레르 웹사이트이탈리아 명품 패션 브랜드 몽클레르가 사이버 해킹 공격을 받아 회원의 개인 데이터가 유출됐다.28일 관련 업계에 따르면 몽클레르는 이날 구매 이력이 있는 소비자들에게 문자를 보내 이같은 사실을 알렸다. 몽클레르에 따르면 몽클레르 웹사이트는 지난해 12월 22일 해커들에게 공격을 받았다. 즉시 경찰에 신고하고 이탈리아 관련 당국에도 보고했다. 해커들은 몽클레르 전·현직 직원, 협력 업체, 고객 등의 주요 정보와 이메일 정보를 빼냈고, 몽클레르 본사에 300만 달러(약 35억원)를 요구한 것으로 알려졌다.몽클레르 측은 "특정 정보를 알고 있는 것 같은 이들과의 통신 및 연락을 주의하고 회원가입시 제공한 데이터를 기반으로 쉽게 식별할 수 있는 자격 증명(ID 및 비밀번호)을 사용하지 않을 것을 권장한다"고 밝혔다. 이어 "다만 신용카드 등 지불 수단이나 신분증 등 신원 문서와 관련한 데이터는 웹사이트에 저장되지 않았고 따라서 유출도 없었다"고 설명했다.몽클레르가 해킹 발생 한 달 후에야 이를 홈페이지에 공지하고 고객들에게 연락을 취한 만큼 '늑장 대응' 비판을 피할 수 없을 것으로 보인다. 앞서 지난해 8월 프랑스 명품 브랜드 샤넬에서도 유사한 일이 발생했다. 샤넬코리아의 화장품 멤버십 고객의 개인정보가 보관돼 있던 일부 데이터베이스에 외부 해킹공격이 발생한 것이다. 당시 샤넬코리아는 개인정보 유출을 확인한 지 이틀 만에 안내문을 올려 같은 비판을 받았다.한편 앞서 토스와 빗썸 등은 기업 채팅 상담 대행업체 해피톡이 해킹을 당하며 자사의 고객정보(이름, 전화번호, 생년월일)와 상담 내용이 유출되는 사건이 발생하자 피해자 한 명당 10만원씩 보상금을 선제적으로 지불한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2022.01.25.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>순혈주의도 깨트린 디지털인재…회장 주재 회의선 '최우선 발언권'</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004012194?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>[금융지주는 지금 디지털 전쟁 중]은행내 족보문화 타파의 선봉···위상 180도 달라져 　5대 금융지주 회장, 신년사서 "디지털" 33회 언급경쟁사 인재영입 등 일제히 조직 신설·확대 개편도[서울경제] 한 대형 시중은행에서는 불과 몇 년 전까지만 해도 임직원끼리 사석에서 만나면 ‘채널’을 묻는 일이 많았다고 한다. 지난 1997년 외환위기를 거치며 당시 대형 은행 여러 곳이 합병을 해 탄생한 이 은행에서는 합병 전 A 은행 출신이면 1채널, B 은행 출신이면 2채널, C 은행 출신은 3채널 인사로 통용이 됐다. 가령 처음 만나는 직원끼리 식사를 할 때 “00 차장은 몇 채널이야?”라고 물으며 ‘족보’를 확인했다.이는 국내 대형 은행 내부의 파벌, 순혈주의, 폐쇄된 조직 문화를 단적으로 보여주는 사례다. 하지만 공고했던 대형 시중은행의 순혈주의에 최근 들어 금이 가고 있다. 임직원의 족보를 따지기보다는 경쟁사 인사까지 디지털 임원에 앉히고 정기 공채는 줄이는 대신 디지털 전문가는 상시 채용하고 있다.한 은행 관계자는 “몇 년 전까지는 은행 공채 출신, 합병 전 특정 은행 출신이 아닌 인사가 금융지주 임원이 되는 일은 거의 없었다”며 “하지만 이제는 디지털 부문을 중심으로 외부에서 영입을 하고 있다”고 전했다. 그는 “또 과거에 디지털이 중요하다고 말은 많았지만 그래도 금융지주 회장 주재 계열사 최고경영자(CEO) 회의에서 디지털 담당 임원은 회의 제일 마지막에 잠깐 보고만 하는 수준이었다”며 “그러나 최근에는 회의 초반에 비중 있게 발표를 하며 위상이 180도 달라졌다”고 설명했다.실제 금융지주가 ‘디지털’에 사활을 거는 것은 금융지주의 한 해 경영 전략을 한눈에 보여주는 지주 회장 신년사에서도 고스란히 드러난다. 서울경제가 KB·신한·하나·우리·NH농협 등 5대 금융지주 회장의 올 신년사 키워드를 분석한 결과 ‘디지털’이라는 단어는 총 33번이나 언급이 됐다. 손태승 우리금융지주 회장이 10번 언급하며 가장 많았고, 김정태 하나금융지주 회장이 9번으로 뒤를 이었다. 나아가 금융지주 회장들은 ‘플랫폼’에 대한 언급도 많았다. 신년사에서 총 20번을 언급했다. 윤종규 KB금융지주 회장이 이 중 9번이나 말해 제일 중요성을 강조했다.특히 대형 금융지주를 멸종한 ‘공룡’에 비유한 신년사로 화제를 모은 김 회장의 경우 현재의 난관을 돌파하는 해법으로 디지털을 들기도 했다. 김 회장은 “시장은 우리(대형 금융지주)를 ‘덩치만 큰 공룡’으로 보고 있고 공룡은 결국 멸종했다”며 “디지털 전환이라는 구호의 나열로 그칠 것이 아니라 그룹의 디지털 핵심 기반부터 재설계해야 한다”고 역설했다.이렇듯 금융지주가 디지털에 사활을 건 것은 금융의 빠른 디지털화, 빅테크의 공습 등에 대한 위기의식 때문이다. 은행 업무를 본다고 점심시간에 점포를 찾는 것은 옛말이 됐고 휴대폰으로 간편하게 업무를 보는 것이 일상이 됐다. 이런 상황에서 고객이 알아보기 어려운 유저인터페이스(UI), 복잡한 인증 절차 등을 유지했다가는 쉽게 고객을 경쟁사에 빼앗길 수밖에 없다. 특히 네이버·카카오·토스 등은 직관적인 UI와 고객 입맛에 맞는 서비스를 무기로 금융업에 대한 공습을 이어가고 있다. 빅테크는 금융지주가 만든 금융 상품을 자사의 플랫폼에서 고객에게 판매하려는 전략을 추진하고 있어 이 같은 플랫폼 경쟁에서도 밀릴 경우 금융지주는 단순히 금융 상품을 제조만 하는 ‘하청 업체’로 전락할 수 있다.이에 각 금융지주는 일제히 디지털 관련 부서 확대와 외부 영입 등을 추진하고 나섰다. KB금융은 지난해 말 조직 개편에서 디지털플랫폼총괄(CDPO) 산하 ‘디지털콘텐츠센터’를 만들어 고객에게 제공되는 콘텐츠를 업그레이드하는 역할을 맡겼다. 또 플랫폼 품질 관리 전담 조직인 ‘플랫폼QC 유닛’도 신설했다. 지난해 초에는 경쟁사인 신한DS의 조영서 당시 부사장을 영입했고 현재 CDPO 직을 맡기고 있기도 하다.하나금융지주 핵심 계열사 하나은행 역시 지난해 말 조직 개편에서 디지털리테일그룹 내에 ‘디지털전환(DT) 혁신본부’를 신설했다. 성공적인 디지털 전환의 핵심 기반인 △인재 △기술 △조직 △기업 문화의 혁신을 통해 시장 선도적인 플랫폼 비즈니스 모델을 구현하고 개방형 생태계를 확대하는 데 기여할 예정이다.우리금융 계열사 우리은행도 마이데이터 사업 전담 부서인 ‘마이데이터 사업부’를 새롭게 만들었고 혁신기술사업부를 신설해 메타버스·블록체인 등 새로운 기술과 금융의 결합을 추진하고 있다. 농협은행 역시 디지털플랫폼부문과 데이터부문을 신설하고 은행장 직속에 DT전략부를 새롭게 만들었다. DT전략부는 디지털 신사업 발굴부터 이행 관리, 평가까지 디지털 전략을 총괄하고 연구개발(R&amp;D) 기능을 맡는다. 금융권의 한 관계자는 “금융사에 디지털 전환은 아무리 강조해도 지나치지 않기 때문에 앞으로도 관련 조직은 빠르게 확대될 것”이라며 “외부 영입 등 그동안 금융사에 ‘금기’로 여겨졌던 것을 파괴하는 일도 잦아질 것”이라고 예고했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022.01.30.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>"목표 달성시 보너스" 금융사 게이미피케이션 '눈길'</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002571895?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>핀테크 플랫폼 중심 확산 가속장기 고객 확보 교두보로 주목토스 만보기 서비스 광고.ⓒ비바리퍼블리카[데일리안 = 부광우 기자] 금융권에서 디지털 전환과 비대면이 일상화하면서 게이미피케이션 서비스가 눈길을 끌고 있다. 게임을 하듯 생활 속 작은 목표를 달성하면 금전적 보너스를 챙길 수 있는 콘텐츠를 통해 젊은 고객의 호응을 이끌어 내는 모습이다.장기 고객 확보를 위한 모바일 금융 플랫폼의 경쟁 속에서 금융사의 게이미피케이션은 앞으로 더 활발해질 것으로 보인다.30일 금융 플랫폼 토스의 운영사인 비바리퍼블리카는 모바일 어플리케이션 내 만보기 서비스를 통해 걷기 목표를 달성한 고객에게 토스 머니를 적립해주고 있다. 5000보에 10원, 만보에 30원, 편의점 등 주변에 가까운 미션 장소를 선택해 목적지에 도달하면 20원씩 최대 100원까지 토스 머니를 지급해 주는 식이다.또 카카오뱅크 26주 적금은 매주 최초 가입 금액만큼 적금을 납입하면 캐릭터가 목표 달성 캘린더의 빈칸을 채워준다. 최종 목표를 달성한 가입자는 연 0.50%p의 우대금리를 제공받을 수 있다.이 같은 방식은 금융권의 대표적인 게이미피케이션 마케팅으로 꼽힌다. 게이미피케이션은 게임과 '~식으로 만들다'라는 뜻의 접미사인 피케이션의 합성어로, 게임이 아닌 분야에 게임의 메커니즘과 사고방식 등을 접목해 행동과 관심 등을 유도하는 행위를 일컫는 표현이다.게이미피케이션은 주로 유통업계 등에서 마케팅 전략으로 활용돼 왔다. 스타벅스가 마케팅에 게임 요소를 접목한 리워드를 통해 이용 횟수에 따라 별을 적립해주는 서비스가 대표적이다. 스타벅스 리워드에 쌓이는 별의 개수에 따라 소비자는 레벨이 상승하며 추가 혜택을 받을 수 있다.그런데 신종 코로나바이러스 감염증 사태 이후 비대면으로 진행되는 교육이 늘어나면서 게이미피케이션은 집중력과 흥미를 끌어내기 위한 콘텐츠로 활용 범위가 넓어져 왔다. 실례로 엔씨소프트 출신 게임 제작자들이 설립한 에누마는 게이미피케이션을 활용한 토도영어를 출시했고, 에이럭스는 마인크래프트를 활용한 코딩 교육 프로그램을 출간하기도 했다.◆미래 소비자 MZ세대 '정조준'게이미피케이션 이제 금융권으로도 보폭을 확장하고 있다. 특히 수익률과 더불어 재미 등을 선호하는 MZ세대가 주요 고객층으로 부상하면서 금융사들도 게임 요소들을 접목한 상품과 서비스를 강화하는 분위기다.특히 금융권의 게이미피케이션은 단순한 오락을 넘어 소비자들의 금융 앱 사용을 늘리고 고객 충성도를 강화함으로써 고객 확보·유지에 긍정적 영향을 미칠 것으로 기대된다. 금융 서비스에서의 게이미피케이션은 상품이나 서비스에 도전, 성취, 그에 따른 보상 등 게임 요소를 가미해 이용자의 금융 앱 방문을 늘리고 금융 거래를 발생시키는 등 자발적인 참여를 유도하고 있다.특히 모바일 플랫폼이 금융권의 새로운 격전지가 되면서 고객 유입과 지속적인 서비스 이용을 이끌기 위한 금융사의 게이미피케이션은 더욱 촉진될 것으로 예상된다.실제로 플랫폼의 주도권만 쥘 수 있다면 수익은 자연스럽게 극대화될 수 있다는 점에서 모바일 금융 플랫폼은 장기적인 고객 확보를 수익보다 최우선 과제로 인식하고 있는 상황이다. 카카오뱅크는 지난해 신년 기자간담회에서 이익 규모보다 고객의 트래픽과 트랜잭션을 성과의 지표로 볼 것이며, 이익은 이를 통해 따라오는 결과물이라고 언급한 바 있다.이재준 KDB미래전략연구소 연구원은 "단순히 상품 자체의 퀄리티를 넘어 흥미와 몰입경험을 통해 고객의 적극적이고 지속적인 참여를 끌어낼 수 있는 게이미피케이션은 고객 확보를 위한 금융권의 모바일 플랫폼 경쟁 속에서 더욱 증가할 전망"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2022.01.26.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>[기자수첩] 빅테크와 소형 핀테크, 제도적 분리가 시급하다</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000650586?sid=110</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>핀테크(Fintech) 시장이 빅테크(Bigtech)와 핀테크로 양분화 되면서 빅테크에 끼지 못하는 핀테크사들이 혼돈을 겪고 있다.핀테크란 이름 그대로 금융(finance)과 IT 기술(technology)의 만남이다. 핀테크는 금융과 IT의 경계를 넘나들며 변화의 물결을 불러왔고 혁신의 상징이 됐다.기자수첩토스와 카카오페이의 간편송금으로 은행을 찾지 않아도 이체가 가능하고 네이버통장으로 은행 수신 없어도 자금을 예치해둘 수 있다. 핀테크는 이미 시장에서 시존 금융거래의 상당 부분을 대체하며 하나의 장르로 성장했다.기존 금융권을 위협할 만큼 커져버린 핀테크는 최근 들어 성장통을 겪고 있다. 핀테크란 정체성에 혼란이 오고 있기 때문이다.우리는 이제 핀테크 산업을 주도했던 토스, 네이버파이낸셜, 카카오페이를 가리켜 빅테크라 부른다. 빅테크란 용어는 구글과 같은 대형 IT기업을 뜻하는 말이나 국내에선 네이버와 카카오 등 금융시장에 진출한 IT업체를 가리키는 말로 쓰인다.하지만 제도적으로 이들은 핀테크에 속한다. 빅테크라 불리지만 여전히 핀테크 규제를 적용받고 있다. 동시에 우리는 갓 탄생한 금융 스타트업도 핀테크라 부른다. 이들도 같은 규제 아래 혁신을 추구한다.빅테크와 스타트업을 같은 업권으로 묶는 것이 합당한가라는 질문이 들지 않을 수 없다. 업계에선 이미 해결하지 못한 오랜 숙제다.기존 금융권에선 동일한 사업을 하면서도 네이버와 카카오 등 빅테크에만 규제가 관대하다며 기울어진 운동장 논란을 제기해왔다.하지만 금융위원회 등 당국에선 섣불리 핀테크를 옥죄기도 어렵다. 핀테크 안에는 갓 출범한 스타트업도 속해 있기에 그들의 성장까지 막아버릴 수 있어서다.여기서 금융당국의 고민이 제자리를 맴돌고 있다. 핀테크 산업을 키우자니, 금융권이 반발하고 금융권과 같은 룰을 적용하자니 갓 출범한 핀테크 업체들이 쫓아올 수가 없다.그렇다면 남은 일은 제도적으로도 핀테크와 빅테크를 분리하는 일이다. 고승범 금융위원장도 기자들과 만난 자리에서 이 같은 지적에 공감했던 바 있다. 그의 말처럼 '동일산업·동일규제' 원칙이 성립되기 위해선 공룡이라 불리는 빅테크와 소형 핀테크를 제도적으로 분리할 필요가 있다.빅테크와 핀테크의 제도적 분리가 이뤄지지 않으면 혁신도 그만큼 지체된다. 규제를 해야 할 곳은 규제를 하고, 뒷받침이 필요한 곳은 뒷받침을 해 유연하게 핀테크 산업의 혁신을 이끌 때다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2022.01.18.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>[단독] "한국의 시간이 왔다"…韓공격투자 준비하는 플뢰르 펠르랭 코렐리아 캐피털 대표</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004910488?sid=105</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>이해진 네이버 GIO와 투자동맹펠르랭 대표 매경 단독 인터뷰"메타버스로 '한국의 시간' 시작""韓스타트업 세대 진화 뜨겁다""혁신 스타트업 유럽 진출시킬 것""삼성과도 협력하고 싶다"플레르 팰르랭 코렐리아캐피털 대표 이해진 네이버 글로벌투자책임자(GIO)와 '투자 동맹군'을 만든 플뢰르 펠르랭 코렐리아캐피털 대표가 올해 국내외 벤처기업에 대한 선제적·공격적 투자를 선언했다. '유니콘'을 넘어선 '데카콘'(기업가치 100억불)스타트업을 발굴하겠다는 게 이들의 포부다. 펠르랭 대표는 최근 매일경제신문과의 단독 인터뷰에서 "네이버를 포함해 주요 기관투자자가 참여하는 다국적 투자연합(K펀드2)의 구성을 완료했고 유럽과 한국 유망 스타트업 발굴에 착수했다"고 밝혔다. 펀드는 단순 투자를 통한 회수로 이익을 내기보다는 중·장기적 관점에서 '빅테크'로 성장할 수 있는 잠재력을 중점적으로 평가해 IT 스타트업 중 옥석을 가려낸다는 구상이다. 펠르랭 대표는 네이버와 협업을 통해 시너지 효과를 낼 수 있는 이커머스(전자상거래)플랫폼, 인공지능(AI),핀테크 분야 뿐 아니라 새롭게 떠오르는 블록체인·메타버스·대체불가토큰(NFT) 관련 신생 기업에 집중한다는 투자 전략을 공개했다. 이를 위해 코렐리아캐피털은 3억 유로(약 4085억원)규모의 출자금을 목표로 펀드레이징에 돌입해 퍼스트클로징을 마쳤고, 최근 본격적인 투자 집행에 돌입했다. 펠르랭 대표는 "앵커 출자자인 네이버를 비롯해 프랑스 공공투자은행(Bpifrance)와 유럽계 보험사와 패밀리오피스(초고액자산가) 등이 펀드출자자(LP)로 참여했다"고 설명했다. 그는 "쿠팡과 토스, 마켓컬리 등 사례에서 보듯 한국의 창업가들은 매우 민첩(agile)하고 시장 변화를 포착해 사업 모델로 전환하는 능력이 (세계적으로 비교해도)뛰어나다"면서 "투자금의 10%는 한국 스타트업 발굴에 투자하고 이들의 글로벌 진출을 도울 계획"이라고 덧붙였다. 서울 태생인 펠르랭 대표는 프랑스로 입양된 뒤 한국계로는 처음으로 중소기업·디지털경제장관과 통상국무장관을 거쳐 문화부 장관을 역임한 인물이다. 2016년 퇴임 후엔 벤처캐피털리스트로 변신하면서 글로벌 투자업계 신성으로 떠올랐다. 특히 탄탄한 국제 네트워크를 바탕으로 해외 사업을 키우려는 네이버를 도와 굵직한 인수합병(M&amp;A)과 투자를 주도해 IT업계 관심을 한 몸에 받고 있다. 최근엔 프랑스 정부가 수여하는 최고의 훈장 레지옹 도뇌르 슈발리에(기사)장을 경제 부문에서 받았다. 팽창하는 메타버스 시장과 관련해 펠르랭 대표는 "메타버스로 인해 '한국의 시간'이 본격화 할 것"이라고 내다봤다. 그는 "한국은 네이버, 카카오로 설명되는 1세대 창업자부터 시작해 최근의 당근마켓까지 세대(Generation)를 잇는 민간 스타트업 생태계가 활성화됐다"면서 "여기에 한류로 설명되는 콘텐츠와 지식재산권(IP)이 매우 강력한데다 네이버, 카카오와 같은 자체 IT플랫폼 기업을 보유하고 있고 메타버스 핵심인 게임 분야에서도 앞서가는 기업이 다수 있어 메타버스 분야에 매우 큰 강점이 있다"고 설명했다. 다음은 펠르랭 대표와의 일문일답.  플레르 팰르랭 코렐리아캐피털 대표와 기자 간 줌 인터뷰 캡처. -새롭게 펀드 조성을 마쳤다.▷네이버를 포함해 주요 기관투자자가 참여하는 펀드(K펀드2) 구성을 완료했고 유럽과 한국 유망 스타트업 발굴을 시작했다. 한국과 유럽의 유망 스타트업을 발굴하고 양국 간의 시너지를 창출하는 것이 목표다. 특히 한국 스타트업들에게 유럽 시장 정보를 제공해 글로벌 진출을 돕고 싶다. 향후 펀드를 추가로 조성해 한국 스타트업에 대한 투자를 확대할 방침이다. -펀드 메인 투자자인 네이버와 긴밀한 협력 관계를 유지하고 있다. 계기가 있었나.▷이해진 네이버 GIO와는 2015년 프랑스 문화부 장관 재직 시절 처음으로 만났다. 국가의 경제 주권과 디지털 경제 발전에 대한 비전이 일치했다. 빅테크에 대해 많은 의견을 나눴다. 미국과 중국의 거대 기술 기업들은 시장에서 지배적 위치를 차지하고, 여러 분야로 사업을 확장한다. 그들의 야망은 끝이 없다.(이 GIO와)한국과 프랑스 모두 우수한 교육 시스템과 인재풀, 훌륭한 산업 기반과 생활방식을 보유하고 있는데, 왜 글로벌 빅테크의 경쟁자가 될 수 있는 회사를 만들지 못하는가에 대해 문제 의식을 공유했다. 네이버·라인이 세계 시장에서 입지를 넓혀가는 것처럼 양국의 IT 스타트업들이 한 국가를 넘어 한 대륙, 전 세계를 무대로 세계적인 입지를 가지는 회사로 성장해야 한다고 생각했다. 신생 기업을 위한 기회 창출, 인터넷 생태계 자립 등과 같은 비전에 대해 네이버가 공감하면서 1차 펀드가 구성됐다. 이번 2차 펀드 조성 역시 단순한 사업을 넘어, 이러한 미션을 달성하기 위함이다. -한국 스타트업에 대한 관심이 남다르다. 이번에 조성하는 펀드에서도 한국 스타트업에 집중 투자할 것으로 안다.▷한국의 많은 재벌 오너들을 만났지만 한국을 방문할때마다 가장 가슴 뛰는 이유는 젊은 창업가들을 만날 기회가 있다는 것이다. 한국은 이미 여러 유니콘을 배출했고, 세대 교체가 자연스럽게 이뤄지고 있다는 것이 특히 고무적이다. 네이버 카카오 넥슨과 같은 창업 1세대부터 쿠팡과 같은 2세대, 마켓컬리, 비바퍼블리카(토스)등 3세대까지 자연스러운 발전이 있었다. 한국 창업씬의 '넥스트 제너레이션'을 찾고 이들을 해외 시장에 진출시키는 것이 나에게 주어진 새로운 미션이다.-한국 창업가들만의 엣지가 있을까.▷한국의 젊은 창업가들은 매우 민첩하다. 매우 빠르게 글로벌 시장 동향을 포착하고 비즈니스 모델로 전환시키는 능력이 매우 뛰어나다. 디지털 측면에서 한국 시장은 얼리 어답터 시장이다. 한국의 소비자는 매우 빠르다. 한국의 창업가들은 소비의 모든 영역이나 앱·서비스를 보는 관점이 혁신적이고 빠르다. 프랑스와 마찬가지로 한국 시장에서 창업의 한계점은 내수 시장이 충분히 크지 않기 때문에 글로벌 성장에 대한 강력한 인센티브가 없다는 것이다. 내가 만나본 한국의 새로운 창업 세대는 이 함정을 완전히 극복했고, 글로벌하고 유연한 사고 방식을 갖고 있다. 야심차고, 민첩하고, 시장 상황에 민첩하게 대응할 수 있다면, 해외에서도 통할 수 밖에 없지 않나. 우리가 한국의 새로운 창업 세대에 베팅하는 이유다. -한국과 프랑스의 스타트업 생태계를 비교한다면.▷한국과 프랑스 정부 모두 관료주의적 성향이 있고, 일정 부분 규제 장벽이 있다고 생각한다. 양국 모두 매우 재능있고, 성공한 개입 창업가들에 의존하기도 한다. 그럼에도 한국과 프랑스 모두 여러 세대에 걸친 성공적인 스타트업 생태계를 만들어냈다고 생각한다. 영감을 주는 창업 세대가 생겨났고, 성공한 창업가들이 다음 세대에 투자하는 비즈니스 엔젤이 되는 기업가 정신의 선순환이 만들어진 것이다.특히 한국의 경우 프랑스가 10년에 걸쳐 만들어낸 성과를 5년만에 이뤄냈다고 생각한다. 프랑스와 한국 모두에서 볼 수 있는 창업 선순환 구조가 앞으로 기술 분야에서 훨씬 더 많은 성공 사례를 만들어낼 것이라고 확신한다. -팬데믹으로 인해 디지털 전환이 가속화됐고, 스타트업에 대한 투자도 활발히 이뤄졌다. 반면 버블에 대한 우려도 고조되고 있다. 유럽 분위기는 어떤가.▷스타트업 밸류에이션에 대한 우려가 있는 것은 사실이다. 이는 유럽 뿐 아니라 전 세계적으로 공통된 이슈다. 2019년 이후로 미국을 중심으로 특히 기술과 헬스케어 등 일부 분야에서 버블이 낀 것으로 보인다. 이러한 점에서 일정 부분 조정이 이뤄질 가능성은 있다. 다만 큰 그림에서 올해 스타트업에 대한 투자가 줄어들 것으로 보진 않는다. 투자자는 여전히 충분한 실탄(자금)을 쥐고 있다. 더욱이 메타버스, 블록체인, NFT 등 새로운 분야에서 매우 흥미로운 사업 기회가 열리고 있다. 스타트업에 대한 전반적인 투자 기조가 느려질 것이라고 보지 않는 이유다. -블록체인·메타버스 분야는 어떻게 전망하나.▷메타버스, NFT와 같은 분야는 매우 양면적이라고 생각한다.  하지만 결국 메타버스는 새로운 세대와 함께 발전할 것이고, 기업들은 수익을 창출할 것이라고 생각한다. 유럽의 럭셔리 브랜드들은 메타버스를 통해 수익을 창출하는 방법을 이해하기 시작했고 다양한 시도를 시작했다. 앞으로 2년간 블록체인과 메타버스 분야에서 흥미로운 일들이 벌어질 것이라고 본다. 관련해서 한국 스타트업도 주시하고 있다. 한국은 매우 강력한 스타트업 생태계를 가지고 있다. 또한 한류로 설명되는 콘텐츠와 지식재산권(IP)이 매우 강력한데다 네이버, 카카오와 같은 자체 IT플랫폼 기업을 보유하고 있고 메타버스 핵심인 게임 분야에서도 앞서가는 기업을 보유하고 있다. 앞으로 '한국의 시간'이 열릴 것이라고 확신한다. -실제로 작년 한해 K콘텐츠가 전 세계를 달궜다.▷한국은 BTS와 블랙핑크를 보유하고 있다. 그동안 한국은 조용한 게임을 했다. 지금은 '한국의 시간'이 열렸다. 몇년전과도 완전히 달라진 상황이다. K팝, 웹툰 뿐만이 아니다. 한국 문화와 생활 방식에 대해 많은 유럽인들이 매력적으로 바라보고 있다. 유럽의 젊은이들이 한국어를 배우고 싶어한다는 사실이 놀랍다. 확실히 말할 수 있는 것은 한국의 브랜드와 생활방식, 한국의 지식재산권(IP)이 유럽에서 거대한 잠재력을 가지고 있다는 것이다. -네이버 외에 삼성 등 한국의 주요 대기업들과 협력도 염두에 두고 있나.▷물론이다. 네이버 뿐 아니라 삼성과 같은 기업과도 협력할 의사가 있다. 펀드 조성 과정에서 한국의 여러 기관 투자자들과 만났다. 삼성 뿐 아니라 현대차, SK 등 한국의 기업 오너들을 만날 기회가 있었다. 한국의 대기업들은 한국 경제의 핵심 엔진 역할을 하고 있다고 생각한다. 가령 삼성은 혁신적인 회사이고, 반도체 공급망에서 중요한 역할을 차지하고 있기 때문에 미·중 갈등과 같은 지정학적인 관점에서 한국에 많은 전략적 이점을 가져다 주고 있다고 생각한다. -작년말 한국 국회에서는 애플, 구글 등 빅테크에 대한 국내 플랫폼 기업의 역차별이 지적됐다. 유럽 상황은 어떤가. ▷프랑스 상황은 사실 더 심각하다. 카카오, 네이버와 같은 자국 플랫폼 기업을 보유하고 있다는 것은 한국인에겐 행운과도 같은 일이라고 생각한다. 프랑스인들은 구글에 전적으로 의지할 수 밖에 없는 구조다. 자국 기업이 없기 때문이다. 인터넷 경제라는건 네트워크 경쟁이고 독점적 위치가 있을 수 밖에 없다. 중요한 건 새로운 주체들이 시장에 참여할 수 있어야 한다는 것이다. 경제가 탄탄하려면 일부 기업들에게만 힘이 몰려선 안 된다. 국가차원에서 주권의 관점으로 자국의 경제주체를 도와야 하는 이유다. 타국의 인프라를 활용하고 현지인 고용하는 기업들이 혜택을 누리면서 지불하는 것이 없어선 안된다. 개인정보 보호 문제도 더욱 경각심을 가져야 하는 부분이다. 디지털 장관으로 재직할 당시 이러한 점들을 개선하기 위해 노력했다. 10년이 지난 현재 유럽의 경우 세금과 개인 정보 문제에서 약간의 진전이 있었지만, 여전히 어려운 문제다. 독점 금지와 빅테크의 데이터 소유권과 관리에 대해서는 국가적 차원의 더 강력한 규제가 필요하다. -코로나로 한국 방문이 미뤄진 것으로 안다. 한국에 상주할 계획은 없나.▷연말부터 한국 방문 계획을 잡고 있었는데, 코로나 상황에 따라 미뤄졌다. 상황이 나아지는대로 한국에 방문할 계획이다. 6개월 이상의 장기 체류도 고려하고 있다. -관료·정치인에서 벤처 투자라는 전혀 새로운 세계에 뛰어든 이유가 있었나.▷인생에서 전혀 다른 업에 도전할 수 있는 기회는 소중하다. 혼자서는 결코 벤처투자를 할 수 없었을 것이다. 네이버라는 파트너를 만났고 함께 비전을 공유할 수 있었기에 가능했던 일이다. 사실 2013년 이전에는 한번도 한국에 가본적이 없었다. 그 이후로도 아마 평생 한국에 돌아오지 않았을지도 모른다. 지금 하고 있는 일이 나의 뿌리(Root)를 찾을 수 있도록 도왔다. 나에겐 단순한 비즈니스 이상의 의미가 있는 일이다.▶▶ 플뢰르 펠르랭…△1973년생 △프랑스 파리정치대학 정치학 졸업 △프랑스국립행정학교 행정학 졸업 △프랑스 ESSEC경영대학원 무역학 졸업 △프랑스 중소기업 디지털경제부 장관 △프랑스 통상관광 국무장관 △프랑스 문화부 장관 △코렐리아캐피털 대표</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2022.01.19.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>시중은행 수신금리 줄인상…국민·부산은행도 동참</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005130103?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>기준금리 인상 후 은행권 예적금 금리 인상 이어져[이데일리 노희준 기자] 한국은행 기준금리 인상 이후 시중은행의 예적금 등 수신상품 금리 인상이 이어지고 있다. KB국민은행은 19일 국민수퍼정기예금 등 정기예금과 시장성예금 17종, KB두근두근여행적금 등 적립식예금(적금) 20종의 금리를 오는 20일부터 최고 0.4%포인트 인상한다고 밝혔다. 이에 따라 국민은행 비대면 전용상품인 KB반려행복적금의 경우 3년 만기 기준 최고금리가 연 3.35%로 오른다. KB더블모아예금은 1년 기준 최고 연 2.05%로 상향 조정된다. 또한 3년 만기 KB국민ONE적금(정액적립식)최고금리는 종전 연 2.75%에서 3.15%로, KB마이핏적금은 1년 만기 기준 연 3.5%로 올라간다.부산은행 역시 오는 19일부터 정기예금과 적금 금리를 최대 0.5%포인트 인상한다고 이날 밝혔다. 부산은행은 출산장려 상품인 ‘아이사랑 자유적금(2년제)’ 금리를 종전 최고 연 1.7%에서 2.2%로 0.5%포인트 올린다. 청년대상 상품인 ‘BNK내맘대로 적금’도 1년 만기 기준 종전 최고 1.6%에서 1.9%로 0.3%포인트 인상한다. 예금상품의 경우 ESG 환경상품인 ‘저탄소 실천 예금’ 금리가 1년 만기 기준 종전 최고 1.7%에서 2.0%로 0.3%포인트 조정됐다. 앞서 신한은행, 우리은행, 하나은행도 수신금리 인상을 밝혔다. 신한은행과 우리은행은 17일부터 각각 최대 0.4%포인트, 최대 0.3%포인트 예적금 금리 인상에 나섰다. 하나은행도 18일부터 최대 0.3%포인트 수신금리 인상을 단행했다. 시중은행들이 도미노처럼 수신금리 끌어올리기에 나서는 것은 한은의 기준금리 및 시장금리 인상분을 반영하기 위해서이자 적정한 예대금리차(대출금리-예금금리)를 유지하기 위해서다. 금융당국은 시장금리에 대해 자율성은 존중하나 과도한 예대금리차는 예의주시할 것이라고 밝혀왔다.한은의 11월 ‘금융기관 가중평균 금리’ 자료를 보면, 예금은행 잔액 기준 예대금리차는 2.19%포인트로 2019년 8월(2.21%포인트) 이후 2년 3개월만의 최대 격차로 벌어져 있다.인터넷전문은행도 수신금리 인상 행렬에 동참하고 있다. 카카오뱅크(323410)는 수신금리 인상 폭과 시기 등을 저울질 중이다. 케이뱅크는 인상 여부를 검토 중이나 토스뱅크는 인상 계획이 없다는 입장이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2022.01.19.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>토스증권, 최대 1000달러 '해외주식 구매지원금 캐시백 이벤트'</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010952975?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]이주혜 기자 = 토스증권은 토스증권 첫 거래 고객들을 대상으로 이 달 말까지 '해외주식 구매지원금 캐시백 이벤트'를 진행한다고 19일 밝혔다. 토스증권에서 주식 구매 경험이 없는 고객이 대상이며 기존에 토스증권 계좌가 있더라도 주식을 구매하지 않았다면 참여할 수 있다. 구매지원금은 최소 4달러에서 최대 1000달러까지 무작위 추첨 방식으로 지급된다. 토스앱 내 주식 탭 홈 화면의 '해외주식 캐시백' 이벤트 페이지에서 참여할 수 있다. '내 캐시백 보기' 버튼을 클릭하면 당첨된 구매지원금을 바로 확인 가능하다. 당첨일로부터 3영업일 이내에 당첨된 금액 이상의 해외주식을 첫 구매하면 즉시 지원금이 지급되는 방식이다. 단, 구매지원금 지급은 해외주식 첫 구매 시의 총 주문금액을 기준으로 하기 때문에, 당첨된 금액보다 낮은 가격의 주식을 여러 번에 걸쳐 나눠 살 경우엔 구매지원금이 지급되지 않는다. 당첨금보다 낮은 가격의 주식을 한번에 여러 주 구매해 총 주문금액이 당첨된 금액 이상인 경우엔 구매지원금을 받을 수 있다.지난달 초 첫 선을 보인 토스증권 해외주식 서비스는 현재 2700여개의 미국주식과 레버리지 ETF를 포함한 상장지수펀드(ETF) 투자를 지원한다. 이번 달 새해 첫 대규모 모바일트레이딩시스템(MTS) 업데이트를 통해 정규장 외 프리마켓과 애프터마켓 투자도 가능해졌다. 또한 올해 1분기 중 해외주식 소수점 거래를 선보일 계획이다.토스증권 관계자는 "지난해 많은 고객들이 참여한 '주식 1주 받기'와 같이 토스증권의 고객 이벤트는 주식투자가 익숙하지 않은 고객들의 투자경험을 돕는 취지로 마련됐다"며 "고객의 목소리를 빠르게 반영하며 보다 만족스러운 투자경험을 제공하는데 노력할 것"이라 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2022.01.16.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>대형은행보다 못한 인뱅 대출?… 최고 금리 연 10% 육박</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004772921?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>5대은행 신용대출 금리 평균 3%케뱅·토뱅은 5%대… 카뱅 9.7%금리 경쟁력 상대적으로 떨어져  기준금리가 5개월 새 0.75%p 인상되면서 클릭 한 번으로 간편하게 대출 받던 인터넷은행 신용대출 수요도 줄어들지 주목된다. 인터넷은행들의 일부 신용대출 금리가 최고 10%에 육박한 것으로 나타나면서 금리 경쟁력이 약화되고 있는 데다, 대형 은행의 금리가 더 낮고 대출 절차도 간편해졌기 때문에 대환 수요가 발생할 수 있다는 것. 다만 인터넷은행들이 고신용자에 대한 신용대출을 중단하면서 기존 고객의 연장 수요가 예상되고, 초기 마케팅으로 모은 고객을 묶어두기 위해 가산금리 인상 폭을 조절할 수도 있다는 점은 여전히 대출 수요를 유지하는 유인으로 꼽힌다.   16일 IBK투자증권에 따르면 인터넷은행 신용대출 금리가 이미 10% 수준에 육박한 것으로 조사됐다. 지난해 12월 기준 카카오뱅크 신용대출 금리는 9.79%였고, 케이뱅크는 5.71%였다. 토스뱅크 신용대출 금리는 지난해 11월 기준 5.07%로 나타났다.   대형은행 11월 평균 금리는 3.5%, 12월 평균은 3.78%였다. 5대 은행의 주요 직장인 신용대출 상품을 살펴보면, 거래실적이 충족되면 감산 적용하는 우대금리를 받을 경우 최저 연이율은 3%대로 나타났다.   IBK투자증권 김은갑 연구원은 "인터넷은행의 가계 대출금리 상승 폭이 기준금리 인상을 시작한 지난 해 9월부터 확대되더니 12월 기준 대형 은행과 금리 차이가 크게 벌어졌다"고 말했다. 김 연구원은 "이는 가산금리 차이에 의한 것"이라며 "인터넷은행은 시중은행에 비해 상대적으로 당국의 감독을 느슨하게 받고 있기 때문에 가산금리 조정 폭이 넓다"고 설명했다. 그는 이어 "중신용자 대출 비중이 늘면서 금리 수준이 높아진 점도 있지만 전반적으로 대형은행 대비 금리 경쟁력이 약화했다"고 지적했다.   하지만 신규 대출이 어려운 고신용자들은 대출금리가 오르더라도 쉽사리 떠나지 못할 수 있다는 지적도 있다. 카카오뱅크는 지난해 10월부터 고신용자 대상 신용대출과 마이너스통장 신규 취급을 중단했다. 한 금융권 관계자는 "대출금리 뿐만아니라 예적금 금리도 같이 높아지고 있기 때문에 신규 대출이 막힌 고신용자들은 기존 대출을 연장하려고 할 것"이라고 설명했다.   또 인터넷은행들이 오픈 마케팅으로 모은 고객을 가둬두기(락인) 위해 당분간은 가산금리를 올리지 않는 전략을 펼 것이란 전망도 있다. 김 연구원은 "기준금리 인상으로 꼼짝없이 대출금리를 올려야하는 시중은행과는 달리 인터넷은행들은 가산금리를 상대적으로 여유있게 조정할 수 있기 때문에 전략적으로 당분간 대출금리를 올리지 않을 수도 있다"고 분석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2022.01.22.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>유니폼에 호칭 파괴… 신한은 “김 수석~” 부르고 국민은 팀장을 없앴다</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000778168?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>[머니S리포트-금융권 “변해야 산다”①] 자리잡은 호칭파괴 ‘엉클 조’까지 등장, 임원도 임원실이 없다[편집자주]보수적인 금융회사가 달라졌다. 딱딱한 직급 호칭을 없애고 통일성 뒤에 가려져 있던 직원의 개성을 위해 복장 자율화를 도입했다. 자유로운 소통이 오고 갈 수 있도록 업무 공간도 뜯어 고치고 있다. 정말 이름 빼고 다 바꾸는 대대적인 변화의 바람이 불고 있다. “변해야 생존할 수 있다”는 위기감이 팽배하다. 유연하고 효율적인 조직문화 없인 변화의 속도가 빠른 디지털 금융 시대에 뒤처질 수 있다는 분위기다. 은행장들은 디지털 역량 강화, 미래 고객 확보를 위해 메타버스(3차원 가상세계)에 몸을 던지는 것도 서슴지 않고 있다. 청바지를 입은 은행원은 과연 혁신을 이끌 수 있을까?보수적인 금융권에서 변화의 바람이 불고 있다. 신한은행은 직급 호칭을 없애고 국민은행은 팀장 직위를 축소하며 유연한 조직문화로 거듭나기 위해 매진하고 있다./그래픽=김은옥 기자◆기사 게재 순서① 유니폼 던지고 거침 없이 호칭 파괴… 신한은 “김 수석~” 부르고 국민은 팀장을 없앴다② 하나·우리금융, 넥타이 던지고 메타버스 실험 ‘한창’③ 금융권 ‘권위’ 사라지니 “효과 있다” VS “변화 없다” “조용병 회장님 말고 편하게 ‘엉클 조’로 불러요.”조용병 신한금융지주 회장은 이달 13일 메타버스 공간에서 열린 ‘2022년 신한금융지주 신년 워크숍’에서 임직원에게 이같이 말했다. 지주 전 임직원이 참석해 올해 회사의 전략 방향을 공유하는 자리에서도 조 회장은 격식없는 소통을 위해 과감한 호칭파괴를 주문했다. 신한금융 관계자는 “회장님에게 직접 보고할 일이 없어 사실상 회장님을 ‘엉클 조’라고 부를 일이 거의 없었는데 메타버스에서 직원들이 자유롭게 조 회장을 엉클 조로 불렀다”고 회상했다.이처럼 보수적인 금융권에서 변화의 바람이 불고 있다. 특히 신한은행은 직급 호칭을 없애고 국민은행은 팀장 직위를 축소하며 유연한 조직문화로 거듭나기 위해 매진하고 있다.━호칭파괴, 팀장 없이 직보… 더이상 낯설지 않아요━신한금융은 지난해 8월부터 직위 체계를 팀장-팀원 체계로 간소화하면서 호칭은 개개인의 개성을 살려 자유롭게 선정했다. 신한금융 관계자는 “사내 메신저인 ‘골드윙’에는 직급이 아예 써있지 않고 ‘훈이’, ‘인크레’ 등 자신이 원하는 호칭으로 부르게 돼 있다”며 “다른 부서의 직원과 메신저를 통해 처음으로 대화를 나눌 경우 그 직원의 직급이 과장인지, 차장인지 모를 때가 많다”고 말했다.신한은행도 지난해 2월 시중은행 가운데 처음으로 호칭문화를 파괴했다. 현재 약 1년동안 시행된 호칭파괴는 조직문화로 완전히 자리잡은 분위기다. 부부장 이하부터 부서별로 ‘수석’, ‘매니저’, ‘프로’ 등 원하는 대로 구성원 호칭을 사용하기 시작한 것이다.  그동안 정통 은행권에선 행원-대리-과장-차장-부부장-부장(지점장)-본부장-임원(부행장) 등 수직적인 직급 체계를 고수해왔지만 전사적 호칭파괴라는 파격적인 시도가 지속되고 있다. 다만 신한은행은 부장(지점장)급 이상 직급 호칭은 유지하기로 했다.신한은행 관계자는 “지점장 이상의 부서장 급은 은행업의 특징 상 전결권(여신, 부서협의권, 인사권)을 갖고 있어 이들도 호칭을 변경할 시 협업부서에서 다시 전결권자를 찾아야하는 번거로움이 있어 지점장급 이상은 호칭파괴 대상에서 제외됐다”며 “지점이 많고 부서가 많은 은행 특성이 감안된 조치”라고 설명했다.이러한 호칭파괴로 사내 커뮤니케이션의 효율성이 높아졌다는 후문이다. 한 시중은행 관계자는 “나이가 많은데 승진을 못해 직급이 계속 과장인 직원들의 경우 후배들이 과장님이라고 부르면 언짢은 측면도 있지만 직급을 알 수 없게 호칭을 모두 수석으로 통일하면 직급 호칭에서 완전히 자유로워지기도 한다”고 귀띔했다.신한카드도 지난해 4월부터 모든 사내 호칭을 ‘님’으로 통일했다. 최고경영자(CEO)를 포함한 임원, 부서장 등 ‘장’이 붙은 모든 직책명 대신 ‘님’ 호칭으로 단일화한 것이다. 직원들이 임영진 신한카드 사장을 부를 때도 ‘영진님’이라고 부른다. 핀테크 업체인 토스도 임직원 간에 이름 뒤에 ‘님’을 붙여 부른다. 이승건 대표도 직원들에게 ‘승건님’으로 불린다.국민은행은 호칭까지 파괴하진 않았지만 조직의 빠른 의사결정을 위해 지난해 초 20명 미만의 부서에선 팀장을 없앴다. 즉 팀원들이 부장에게 직보하는 형식으로 보고체계를 단순화한 것이다. 이는 허인 KB금융 부회장이 국민은행장이었던 지난해 빠른 의사결정 속도를 위해 내놓은 특단의 조치다.그래픽=김은옥 기자━유니폼도 벗어야 진정 혁신이죠━수평화된 조직을 만들기 위한 변화는 이뿐만이 아니다. 신한은행은 이달부터 남직원의 복장을 전면 자율화했다. 은행권에선 유니폼을 앞다퉈 폐지하는 추세다. 유니폼을 가장 먼저 없앤 곳은 국민은행으로 2018년 9월부터 ‘통일성 추구’라는 명목 아래 획일적 틀로 작용했던 직원 유니폼을 전면 복장 자율화로 전환했다. 이때는 직원이 원하면 유니폼을 입을 수 있도록 해 사실상 완전 폐지는 아니었다.이어 2019년 5월 국민은행은 유니폼을 완전 폐지했고 한달 뒤 신한은행도 유니폼 폐지 대열에 합류했다. 여직원 복장은 자율화됐지만 지난해까지 남직원은 정장을 입어야 했다. 이후 신한은행은 지난해 임금·단체협약(임단협)을 타결하면서 이달부터 영업점, 본점 구분 없이 남직원 복장에도 제한을 두지 않기로 했다.공간의 혁신도 꾀했다. 국민은행의 경우 2018년 6월부터 본부부서는 팀원, 팀장을 동일 라인에 책상을 배치해 수평적인 분위기에서 업무를 할 수 있도록 했다.KB금융 계열사인 푸르덴셜생명은 지난해 보험사 처음으로 푸르덴셜타워 18층~22층까지 총 5개층 약 1400평 규모로 본사 전체에 스마트오피스를 조성했다. KB금융 관계자는 “푸르덴셜생명 임원들도 임원실이 따로 없고 사무실 입구에 설치된 키오스크를 통해 직원들과 같은 좌석을 이용한다”며 “임직원들 간 소통이 원활히 이뤄질 수 있다”고 말했다.이처럼 은행권에서 호칭 파괴, 팀장 축소, 유니폼 폐지 등을 실행함으로써 수평적이고 유연한 조직 분위기를 조성하려는 것은 핵심 경영전략인 디지털 전환과 맞닿아있다. 빠른 의사 결정과 실행력이 담보되지 않으면 디지털 금융 시대에 뒤처질 수 있다는 판단이 작용했다.서지용 상명대 경영학부 교수는 “최근 2년동안 비대면 채널 위주로 은행 영업이 진행됐고 영업점도 많이 축소하고 있어 자율복장이나 호칭 파괴 등 그동안 제조기업 중심으로 많이 이뤄졌던 행태들이 금융권에서도 가능해진 것 같다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2022.01.18.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>탈통신 KT, 신한銀과 전방위 23개 사업 손잡는다</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005032210?sid=105</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>4375억 지분 맞교환…미래성장 DX 사업협력 파트너십핀테크 플랫폼 넘어 메타버스·NFT·AI·로봇 공동 개발KT가 신한은행과 4375억원 규모의 지분 맞교환을 단행하며 디지털 대전환에 적극 나선다. KT가 은행과 지분 맞교환 수준의 전략적 협업을 맺은 사례는 이번이 최초다. 통신3사 모두 ‘탈(脫)통신’을 강조하며 사업 포트폴리오를 다각화 중인 가운데 핀테크 플랫폼을 비롯한 여러 분야에서 전방위적인 제휴·협력이 이어질 전망이다.메타버스 플랫폼·NFT 거래소 구축박종욱 KT 경영기획부문장(사장, 오른쪽)과 진옥동 신한은행 행장(왼쪽)이 17일 서울 중구의 신한은행 본점에서 ‘KT-신한은행 전략적 파트너십 체결식’에서 기념촬영을 하고 있다. 사진=KTKT는 17일 신한은행과 미래성장DX 사업협력을 위한 전략적 파트너십을 체결하고 지분 취득에 나선다고 밝혔다. 지분 취득 규모는 비상장사임을 감안해 신한금융지주 지분 2.08%로 인수 금액은 4375억원이다. 신한은행 역시 NTT도코모가 보유했던 KT 지분 5.46%를 사들였다. KT와 신한은행은 이번 협력을 통해 인공지능(AI), 확장가상세계(메타버스), 대체불가토큰(NFT), 빅데이터, 로봇 등 영역에서 미래금융 DX, 플랫폼 신사업을 중심으로 23개 공동사업에서 속도를 낸다.미래금융DX 분야에서 KT의 데이터분석, 자연어처리(NLP) 등 AI 역량과 신한은행의 금융 데이터 기반으로 차별화된 사업모델을 완성한다. 대표적으로 금융특화 AICC(AI컨택센터)가 있다. AI 기반 언어모델을 개발하고 신한은행의 미래형 점포 ‘디지로그’에 KT의 로봇·미디어월 기술을 융합한다. 소상공인 특화 통신·금융 서비스도 개발한다. KT의 입지상권데이터를 활용해 대안신용평가 모델도 개발한다. 향후 공동 SI펀드(전략적 투자 펀드)를 조성해 벤처기업 투자에도 나선다.새로운 사업에도 함께 뛰어든다. KT의 메타버스 플랫폼에 금융 인프라를 탑재하는 메타버스 얼라이언스도 구축한다. 상권정보를 입힌 차별화된 부동산 메타버스 플랫폼도 나올 수 있다. NFT 기반 디지털자산 발행·거래 플랫폼도 구축할 계획이다. KT가 보유한 블록체인 기술을 활용해 전자문서 사업도 추진한다.‘탈통신’ 어디로 향하나KT가 이처럼 핀테크 분야에서 심도있는 전략적 제휴를 타진하고 나선 데는 탈통신 의지가 주효했다는 분석이 나온다. 구현모 KT 대표는 취임일성으로 ‘디지코(디지털플랫폼기업) KT’를 강조하며 그룹 리스트럭처링(사업구조 재편)의 필요성을 시사해왔다. KT는 2016년부터 자회사 BC카드와 함께 우리은행, 한화생명 등이 포함된 KT 컨소시엄을 꾸려 케이뱅크 인가에서 사업권을 획득했다. ‘대한민국 첫 번째 인터넷전문은행’이라는 점에서 주목받았던 케이뱅크는 2016년 개시 이후 불안한 행보를 보이기도 했지만 5년여 만에 시장에 안착했다. 지난해 12월1일에는 가입고객 700만명을 돌파했다. KT는 우리금융그룹과 마이데이터(본인신용정보관리업) 협업뿐만 아니라 IBK기업은행과 DX 전략적 제휴를 체결하기도 했다.다른 통신사들도 핀테크 협업을 확대 중이다. SK텔레콤의 경우 하나금융그룹과 손잡고 만든 ‘핀크’가 대표적이다. 2016년 8월 출범한 핀크는 하나금융그룹과 SK텔레콤이 각각 지분율 51%, 49%를 보유한 핀테크 회사로 마이데이터 사업 진출을 꾀하고 있다. SK텔레콤은 작년 신한은행과 소상공인 플랫폼인 ‘쏠비즈’에 통신 데이터를 결합하는 업무협약(MOU)도 체결했다. LG유플러스는 신한은행, CJ올리브네트웍스와 마이데이터 사업에 협력한다. 국민은행의 알뜰폰(MVNO) ‘리브엠’ 서비스 역시 최초로 LG유플러스 망을 사용하며 출범했다. 리브엠은 올해부터 KT망까지 통신망을 확대하지만 LG유플러스 망 점유율 확대에 크게 일조했다.통신사와 금융사 간 협업이 늘어나는 이유는 각 산업 간 고민이 맞닿는 지점이 핀테크이기 때문이다. 카카오에서 시작된 카카오뱅크, 토스에서 출발한 토스뱅크 등 신흥 후발주자들이 MZ세대 사이에서 돌풍을 일으키면서 대형 은행들의 발등에 불이 떨어졌다. 본업인 통신업이 정체된 만큼 포트폴리오 다각화가 시급한 통신사 입장에서도 구미가 당기는 제안일 수밖에 없다.박종욱 KT 경영기획부문장은 "국내 최고 금융 그룹과 최대 디지털 플랫폼 기업과 시너지를 기반으로 금융 DX 모델을 선보이게 될 것"이라며 "고객 중심의 차별화된 디지털 융합서비스로 신한은행과 DX 성장 새 패러다임을 열어갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2022.01.19.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>백신 이상반응 인과성 불충분자·입원치료자도 방역패스 예외(종합)</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005854914?sid=102</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>24일부터 쿠브앱서 예외확인서 발급불충분자는 전산등록 마쳤으면 보건소서 증빙서류 없이 예외확인서 발급17일 서울의 한 대형마트에서 시민들이 QR코드 체크를 하고 있다./뉴스1 © News1 임세영 기자(서울=뉴스1) 음상준 기자,권영미 기자,이형진 기자,김규빈 기자,강승지 기자 = 방역당국은 방역패스(접종증명·음성확인제) 예외 대상에 백신 접종 후 이상반응이 있지만 인과성 근거가 불충분하다는 판정을 받은 경우, 6주일 이내 입원치료를 받은 사례까지 확대했다. 기존 방역패스 예외 조건은 Δ백신 접종 후 중대 이상반응 Δ백신 물질에 중증 알레르기자 Δ면역결핍 및 면역역제제·항암제 투여자 등 세 가지 사례였는데, 이날 두 가지 사례를 추가했다.질병관리청 중앙방역대책본부(이하 방대본)는 이날 백브리핑에서 "오는 24일부터 방역패스 예외 대상을 이같이 확대 시행한다"고 발표했다. 다만 방대본은 방역패스 예외로 추가된 사례가 피해 보상으로 이어지거나 백신 접종 금기에 해당하지 않는다는 점을 명확히 했다.24일부터 쿠브(COOV) 애플리케이션(이하 앱) 또는 전자출입명부 플랫폼에서 '접종내역 발급·업데이트'해 전자 예외확인서를 발급할 수 있고, 종이 확인서 발급도 가능하다. 논란이 되고 있는 임신부는 결국 백신패스 예외 대상에서 제외됐다. 방역당국은 임신부가 코로나19 고위험군에 해당되면 백신 접종 권고 대상임을 거듭 확인했다.◇신규 방역패스 예외확인서, 24일부터 쿠브앱서 발급방역패스 예외 신규 대상자는 오는 24일부터 예외확인서를 쿠브 앱에서 발급받을 수 있다. 김유미 방대본 일상방역관리팀장은 19일 출입기자단 온라인 백브리핑에서 방역패스 예외확인서 대상 확대를 발표하면서 이같이 밝혔다.백신 이상반응 근거 불충분 판정을 받았다면 별도 절차나 의사 진단서 없이 쿠브 앱 또는 카카오, 네이버, 토스, 패스(PASS) 앱 등 전자출입명부 플랫폼에서 '접종내역 발급·업데이트'로 예외확인서를 발급받을 수 있다.대구시내 한 대형마트 출입구에서 마트 관계자들이 영업 개시 전 방역패스 시행 안내 현수막을 철거하고 있다./뉴스1 © News1 공정식 기자별도 증빙서류 없이 신분증을 지참하면 가까운 보건소에서 종이 예외확인서를 발급한다.백신 접종 후 6주일 이내 입원치료를 받은 사례면 가까운 보건소에서 Δ입원확인서 Δ의사의 진단서를 가지고 방문해 방역패스 예외자로 전산 등록한다. 전산 등록은 한번만 하면 되고, 이후엔 보건소에서 증빙서류 없이 예외확인서를 받을 수 있다. 쿠브앱 또는 전자출입명부 플랫폼에서도 예외 확인서를 발급 받게 된다.◇"임신부, 방역패스 예외대상 아니다"…당국 거듭 난색방대본은 임신부를 의학적 사유에 의한 방역패스 예외 대상자로 정할 수 없다는 입장을 이날 거듭 밝혔다. 임신부는 코로나19 고위험군이라 '백신 접종 권고대상'이라는 이유에서다. 임신 초기, 의료진과 건강 상태를 면밀히 관찰한 후에 접종 여부를 판단할 수 있다는 게 당국 설명이다.김유미 방대본 일상방역관리팀장은 "임신부는 코로나19 고위험군으로 접종이 권고된다. 예외 대상이 아니다"고 밝혔다.그는 "최근 미접종 임신부의 확진 후 위험사례도 보고됐다. 임신부는 주수 관계없이 접종 권고 대상이다. 다만 12주 이내 초기 임신부는 주치의와 상담 후 접종을 권한다"고 말했다.홍정익 코로나19 예방접종 대응 추진단 접종관리팀장도 "예방접종을 하지 못할 건강 상태라면 의료진이 접종 연기를 권할 수는 있다"며 "다만 임신부는 접종 대상"이라고 강조했다.그러면서 "임신부는 주수 관계 없이 접종할 수 있다. 다만 임신 초기에는 접종 관계 없이 면밀한 관찰이 필요하기 때문에 의료진과 상의 후에 접종 받아달라는 게 당국의 입장"이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2022.01.18.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>“은행 격동기…네·카·토 출신 은행장 나올 것”</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005129098?sid=105</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>김형중 한국핀테크학회장 인터뷰“시중은행서 네이버·카카오·토스 출신 영입 전망”“생존하려면 은행 변화해야…금융위도 바뀌어야”“처벌보단 빅데이터·가상자산 연계한 지원 필요”[이데일리 최훈길 기자] “네·카·토(네이버·카카오·토스) 출신 시중은행장이 나오는 시대가 열릴 것입니다. IT 기업 출신을 금융기관 수장으로 영입하는 경쟁이 치열해질 것입니다.”한국핀테크학회장을 맡은 김형중 고려대 정보보호대학원 특임교수는 이데일리 인터뷰에서 “앞으로 IT 혁신을 하지 않는 은행은 생존할 수 없다”며 이같이 말했다. 핀테크학회는 344개에 달하는 핀테크사 관련 연구 학회다. 김형중 고려대 정보보호대학원 특임교수. △한국핀테크학회장 △고려대 암호화폐 연구센터장 △힌국정보통신설비학회장 (사진=방인권 기자)김 교수는 “시중은행 상당수가 여전히 아날로그 방식의 이코노미 1.0에 머물러 있다”며 “지금의 은행 구조로는 네·카·토 기업과 경쟁하기 어렵다”고 꼬집었다. 이어 “은행도 IT 기업처럼 이코노미 2.0으로 변화해야 한다”며 “은행 격동기에 네·카·토 기업 출신을 영입하는 것도 해법 중 하나”라고 조언했다. 이렇게 은행이 바뀌려면 금융당국도 변화해야 한다고 지적하기도 했다. 김 교수는 “금융위원회는 기존 금융기관들이 장래에 얼마나 취약해질 수 있는지를 선제로 연구했으면 한다”며 “금융기관이 변화에 적응해 튼튼하게 자리 잡을 수 있는 진흥 정책을 1순위로 고민해야 한다”고 제언했다. 김 교수는 “금융기관이 부가가치를 창출할 수 있는 분야와 협력하도록 독려하는 것이 진흥 정책의 핵심”이라며 빅데이터·가상자산 분야에 대한 지원 필요성을 제기했다. 그는 “고려대 강의로 삼성 빅데이터 과정을 진행했는데 당시 고객센터 중요성을 강조했다”면서 “온갖 민원이 모이는 창구인 고객센터 정보를 흘려보내지 않고 빅데이터로 정리하면 기업 리스크를 줄일 수 있다. IT 시대에 비용 절감을 한다며 직원 수 줄이는 데만 집중할 게 아니라 데이터 활용법을 고민해야 한다”고 조언했다. 아울러 “이를테면 ‘지루한 원숭이들의 요트 클럽’ NFT가 서울 아파트보다 비싸게 팔리는 시대”라며 “경영이 취약한 지방은행이 원한다면  가상자산과 연계한 사업도 할 수 있게 진흥책을 써야 한다”고 주장했다. 앞서 일부 지방은행은 신규 고객 확보를 위해 가상자산거래소에 실명확인 계좌를 발급하는 것을 검토했지만 자금세탁 우려, 금융당국 난색 등으로 무산됐다. 김 교수는 “우리나라 금융 규제의 가장 큰 미덕은 무사고”라며 “‘사고가 터지면 은행장이 옷 벗는다’라는 시각 때문에 IT 시대에도 새로운 시도가 힘들어지고 있다”고 지적했다. 금융 혁신 과정에서 나타나는 빙산의 일각 수준인 문제를 핑계 삼아 과도하게 규제해서는 안된다는 얘기다.그는 “일부 회사가 마이데이터 사업 준비 과정에서 고객정보 노출 등 사고가 있었다”면서 “이런 문제가 발생하면 빨리 파악해 피해보상을 하고 재발하지 않도록 하는 게 가장 좋은 방법이다. 사업자에 대한 처벌보다는 시스템을 정비하는 전화위복 기회로 삼아야 한다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2022.01.30.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>디지털 강화 속도 내는 보험 업계…‘보수적’ 이미지 옛말</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000073001?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>보험업체들이 디지털 부문 강화에 속도를 내며 눈길을 끈다. 카카오톡을 비롯한 온라인 플랫폼을 적극 활용하고 IT 기업과 파트너십을 맺는 등 다양한 시도가 이어진다. (하나손해보험 제공) 보수적이라는 이미지가 강한 보험 기업들이 디지털 부문 강화에 속도를 내며 눈길을 끈다. 온라인 플랫폼을 적극 활용하고 IT 기업과 파트너십을 맺는 등 다양한 시도가 이어진다. 비대면 금융 활동이 늘어나는 트렌드에 대응하고 MZ세대(1980년대 초~2000년대 초 태어난 세대)를 고객으로 유치하기 위한 움직임으로 분석된다. 한화손해보험은 카카오 플랫폼 기반 모바일 보험 가입 서비스를 개발했다. 이를 디지털 전용 미니보험인 ‘한화 OK2500든든 운전자보험’에 적용해 1월 18일 판매를 시작했다. 지금까지는 고객이 디지털 보험에 가입하려면 앱을 설치하고 회원 가입, 본인 인증을 하는 등 복잡한 절차를 거쳐야 했다. 카카오 플랫폼을 활용하면 앱 설치 없이 보험에 가입할 수 있다. 간단한 동의 절차만 밟으면 고객 정보를 자동으로 불러와 정보 입력 방식도 편리하다. 한화손해보험 관계자는 “다른 디지털 보험 상품에도 순차적으로 이 방식을 도입할 예정이다. 보험 가입 외에도 계약 조회, 보험금 청구 등 다양한 서비스에 고객 니즈를 반영해 적용할 계획”이라고 전했다. 하나손해보험도 카카오톡을 적극 활용하는 모습이다. 1월 20일 ‘카카오톡 선물하기’에 어린이보험을 선보였다. 미취학 아동을 대상으로 한 ‘유아생활플랜’과 초등학생을 위한 ‘학교생활플랜’ 등을 판매한다. 유아생활플랜은 어린이집, 유치원 등에서 발생할 수 있는 아동학대 피해 민사소송 변호사 선임비, 어린이보호구역·통학버스 자동차 사고 부상 치료비를 보장한다. 학교생활플랜은 학교폭력 피해, 어린이보호구역 자동차 사고와 대중교통 사고 부상 등을 보장한다. 현대해상, DB손해보험, 삼성화재 등도 카카오톡 선물하기를 통해 보험 상품을 판매한다. 메리츠화재와 교보생명, 삼성생명은 테크 기업과 업무협약(MOU)을 맺으며 관심을 모은다. 메리츠화재는 지난해 12월 카카오페이와 MOU를 체결했다. 신상품 개발, 신규 사업 모델 개발, 보상 프로세스 혁신 등을 위해 힘을 합치겠다는 내용이 핵심이다. 교보생명은 카카오뱅크와 손잡았다. 카카오뱅크 플랫폼을 활용해 금융 상품과 서비스를 제공하고 공동 상품을 기획해 선보일 계획이다. 삼성생명은 지난해 11월 말 ‘토스’ 운영사 비바리퍼블리카와 업무협약을 체결했다. 삼성생명 고객이 토스를 이용해 보험 상담, 상품 가입, 보험금 청구를 할 수 있는 서비스를 개발 중이다. 향후에는 재무컨설팅 등으로 서비스 분야를 넓힐 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2022.01.22.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>[해시태그 경제 용어] 자이낸스</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000059730?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>[해시태그 경제 용어]지난해 비씨카드는 MZ세대를 겨냥한 '블랙핑크 카드'를 출시했다. (사진=비씨카드)자이낸스(zinance)는 1994년부터 2010년 사이에 탄생한 ‘Z세대’와 금융(finance)을 결합한 신조어다. Z세대는 태어나면서부터 모바일 사용에 익숙하다는 특징이 있다. 아직 나이가 어려 자산과 소득은 많지 않지만 ‘영끌(영혼까지 끌어 모은다)’ 투자 등 과감한 성향도 갖고 있다. 동시에 한국 경제 시장에서는 이들이 2020년대 암호화폐 투자 열풍을 주도하기도 했다.기업들은 산업군을 가리지 않고 향후 가장 큰 고객인 Z세대를 주목한다. 이는 금융권도 마찬가지다. 카카오뱅크·토스·카카오페이·네이버파이낸셜은 모바일에 익숙한 Z세대를 기반으로 급격히 성장했다. 특히 토스증권 계좌의 70%를 2030세대가 보유하는 등 이들을 등에 업은 신규 금융 플랫폼들의 성장세가 무섭다. 점포를 운영하는 시중 은행들은 이에 대한 위기감을 충분히 느끼고 있다. 조직 내에 2030세대로 이뤄진 마케팅팀을 신설하기도 한다. 기존 카드사들도 BTS와 블랙핑크 등 아이돌 그룹과 손잡고 팬덤을 겨냥한 카드를 출시하며 Z세대의 마음을 잡고 있다. 기존 금융권은 Z세대가 메타버스 등 새로운 플랫폼에 익숙하다는 점을 내세워 신규 플랫폼을 겨냥한 금융 서비스를 출시하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2022.01.24.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>네이버, AI·검색 분야 젊은 석학 영입...글로벌 경쟁력↑</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002245711?sid=105</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>MIT 김윤형 교수·럿거스대학 이장선 교수...AI 검색 기술 고도화 집중네이버가 AI·검색 분야에서 뛰어난 연구성과를 내며 세계적으로 주목받고 있는 젊은 석학들을 차례로 영입하며 글로벌 기술 경쟁력 제고에 속도를 낸다.네이버(대표 한성숙)는 최근 매사추세츠 공과대학(MIT)의 김윤형 교수와 럿거스 대학의 칼 스트라토스(이장선) 교수를 네이버 스칼라로 영입했다고 24일 밝혔다.네이버 스칼라는 미국·유럽 등에 위치한 대학 및 연구기관의 교수와 연구원 등이 소속기관에 재직하면서, 네이버 검색의 미국 내 AI 센터인 'Naver Search US'에서 차세대 AI 기술 및 검색 서비스 개발을 주도하는 역할을 수행한다.왼쪽부터 미 MIT 김윤형(Yoon Kim) 교수, 미 Rutgers대 칼 스트라토스(Karl Stratos, 이장선) 교수김윤형 교수는 미 하버드 대학교에서 컴퓨터공학으로 박사학위 취득 후, 현재 미 MIT에서 조교수로 재직 중이다. 김 교수는 지난 2014년 딥러닝 기술의 일환인 컨볼루션 신경망(CNN, Convolution Neural Network)기술을 자연어처리(NLP) 분야에 적용한 논문을 단독으로 발표하며 학계 및 AI업계의 이목을 끌었다. 해당 논문은 현재 전세계적으로 1만2천여건 이상 인용됐을 뿐만 아니라, 김 교수가 발표한 Character-Aware 언어모델과 OpenNMT 기계번역 연구는 업계에서도 널리 사용되며 딥러닝 분야의 연구 혁신을 선도하고 있다는 평가를 받고 있다.함께 영입된 미 콜롬비아 대학교 컴퓨터과학 박사 출신 칼 스크라토스 교수 역시 AI 분야의 전문가다. 현재 미 럿거스 대학교에서 조교수로 재직하며 비지도 학습방법 및 지식사용 모델 개발을 연구하고 있다. 칼 교수는 자연어처리 분야 탑티어 학회(ACL, ENMLP, NAACL)에서 머신러닝 분야 위원장을 맡으며 국제적인 명성을 얻고 있을 뿐만 아니라, 블룸버그 자연어처리(NLP) 연구팀에서 자연어이해(NLU,Natural Language Understanding)서비스에 최첨단 딥러닝 기술 도입을 총괄한 실무경험까지 보유한 인재다. 특히 칼 교수는 정보이론의 기반인 상호의존정보의 통계적 이론을 재정립해 정보이론을 바탕으로 하는 수많은 AI 연구 방법론의 근본적인 방향성을 바꾸는 큰 성과를 냈다. 이런 연구성과를 인정받아 구글 패컬티 리서치 어워드 등 다수의 상을 수상한 바 있다.이번에 영입된 두 교수는 Naver Search US에서 AI 기술개발을 관장하는 김용범 책임리더와 함께, 네이버 검색 서비스 곳곳에 녹일 차세대 AI 검색 기술 고도화에 집중할 계획이다. 지난 9월 네이버에 합류한 김 책임리더는 마이크로소프트 코타나와 아마존 알렉사의 AI 핵심기술 개발을 총괄한 대화형 인공지능 분야의 세계적인 전문가로 꼽힌다.김광현 네이버 서치 CIC 대표는 "이번 영입을 통해 네이버가 축적한 빅데이터와 기술, 서비스 운영 노하우에 최신 기술지식을 겸비한 인재들의 경험을 더해, 검색경험의 지평을 넓힐 수 있는 혁신적인 서비스를 선보일 것"이라며 "올해도 미국, 유럽 등 글로벌 무대에서 활약하고 있는 우수한 연구인력들을 적극 영입할 계획"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2022.01.20.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>고금리 이자장사 논란 휩싸인 카카오뱅크…"억울해"</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000128363?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>"고신용자 대출 중단 및 중저신용자 대출 확대 영향"은행연합회 공시에 따르면 지난해 11월 취급된 카카오뱅크의 신용대출 금리는 9.79%로 집계됐다. /카카오뱅크 제공한국은행이 기준금리를 인상한 가운데 카카오뱅크의 신용대출 평균금리가 10%대에 육박한 것으로 나타났다. 금융 소비자의 불만이 거세지자 카카오뱅크 측은 중금리 대출을 이유로 들며 소비자 달래기에 나섰다. 고신용자에 비해 이자가 높은 중·저신용자 중심으로 대출을 취급하다 보니 평균 금리가 높게 나왔다는 것이다.20일 은행연합회 공시에 따르면 지난해 11월 취급된 카카오뱅크의 신용대출 금리는 9.79%로, 10% 수준에 육박한 것으로 나타났다.반면, 같은 기간 케이뱅크의 신용대출 금리는 5.71%, 토스뱅크는 5.07%로 카카오뱅크의 절반 수준이었다. 시중은행의 경우 11월 평균 금리는 3.5%, 12월 평균은 3.78%였다.은행연합회 대출금리 공시 기준은 기준금리에 가산금리를 더한 값에 가감조정금리(우대금리)를 뺀 값이다.신용대출 평균 금리가 유독 높은 데 대해 카카오뱅크는 중금리 대출을 주로 취급하다 보니 평균 금리가 올라갔다고 설명했다.카카오뱅크 관계자는 "고신용자 대출을 중단하는 한편 중저신용자 대출을 확대하다 보니 평균 금리가 올라간 것처럼 보이는 것"이라며 "신용점수 670점대가 대부분이라 같은 신용등급에서는 시중은행과 견주어 충분한 경쟁력 있다"고 밝혔다.앞서 카카오뱅크는 지난해 말부터 고신용자에 대한 신규 대출을 제한했으며, 올해도 중저신용자대출 확대를 위해 고신용출을 잠정 중단하고 있다.신용대출 평균 금리가 유독 높은 것에 대해 카카오뱅크 측은 중금리 대출을 주로 취급하다 보니 평균 금리가 올라갔다고 설명했다. /더팩트 DB실제로 전국은행연합회 자료에 따르면 카카오뱅크 신용등급별 금리 표에서는 1~2등급이 빠져있다. 즉, 상대적으로 저금리를 적용받는 1~2등급 대출이 중단됐고, 중저신용자 대출에 집중하다 보니 가산금리가 늘어난 게 전체 평균금리 상승을 견인했다는 설명이다.일각에서는 10%대 육박하는 평균금리에도 인터넷은행에서 차주들이 대거 이탈하는 상황은 벌어지지 않을 것이란 관측이 제기된다.기준금리 인상으로 전 금융권 금리가 전반적으로 오르고 있고, 이미 사전에 적당한 금리로 신용대출과 마이너스통장을 받은 차주들은 기존 인터넷은행의 대출 연장이 오히려 유리할 수 있기 때문이다. 특히, 인터넷은행이 고객 유지를 위해 당분간 가산금리를 올리지 않을 것이라는 전망도 나온다.김은갑 IBK투자증권 연구원은 "인터넷은행이 중신용자에 대한 대출을 확대하는 과정에서 대출금리가 상승한 효과도 섞여 있지만 전반적으로 대형은행 대비 금리경쟁력은 약화됐다"면서도 "시중은행과는 달리 인터넷은행들은 가산금리를 상대적으로 여유 있게 조정할 수 있기 때문에 전략적으로 당분간 대출금리를 올리지 않을 수도 있다"고 설명했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2022.01.26.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>KTB투자증권, 지난해 당기순이익 1741억원…3년연속 최대</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005868852?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>KTB네트워크 영업익 85.2% 증가한 827억…사상 최대KTB투자증권 본사(사진제공=KTB투자증권) © 뉴스1(서울=뉴스1) 정은지 기자 = KTB투자증권은 지난해 당기순이익이 전년(2020년) 대비 129.2% 증가한 1471억원으로 증권사 전환 후 3년 연속 최대 실적을 경신했다고 26일 밝혔다. 같은 기간 연결기준 영업이익은 전년 동기 대비 115.5% 증가한 1433억원으로 집계됐다. KTB투자증권에 따르면 IB부문은 리스크 관리를 강화한 상황에서 다수의 우량 딜 발굴을 통해 영업수익이 전년 대비 106% 증가하며 최대 성과를 거뒀다. 리테일부문은 신규고객 유치 마케팅 및 제휴 서비스 확대를 통해 활동계좌수가 전년 대비 160% 증가하는 등 고객기반이 크게 확대됐다.주요 계열사 역시 양호한 실적을 거뒀다. 지난해 코스닥 시장에 상장한 KTB네트워크의 영업이익은 85.2% 증가한 827억원으로 사상 최대 경신했다. 배달의민족, 스타일쉐어, RBW, SoFi, 원티드랩 등이 IPO 및 M&amp;A에 성공하며 높은 회수이익을 안겼다. 성공적 투자금 회수에 따라 투자조합의 성공보수도 크게 증가했다. 또한 토스(비바리퍼블리카), 에스엠랩, 스튜디오앤뉴, 버넥트, 엔젯 등 현재 투자중인 기업의 기업가치가 계속해서 상승하고 있다.여기에 미국 온라인광고업체 Moloco, 인도 소셜커머스 Trell, 중국 1위 자동차용 반도체 기업 Horizon Robotics 등 다수의 해외투자기업이 유니콘에 등극하는 등 올해도 높은 투자수익이 기대되는 상황이다.지난해 12월 인수를 마무리 한 유진저축은행의 경우 영업이익과 당기순이익이 각 57.1%와 61% 증가한 1098억원과 835억원을 기록했다. 대출잔액이 전년 대비 6474억원 증가하며 실적 향상을 이끌었다는 평가다. KTB자산운용도 창사 후 최초로 AUM 15조원을 돌파하며 호실적을 이어갔다. KTB투자증권 관계자는 "전 계열사가 양호한 실적을 바탕으로 질적, 양적 성장을 거듭하고 있다"며 "급변하는 대내외 정세에 대응할 수 있도록 선제적으로 리스크 관리를 강화하고, 변화된 금융환경에 발맞춰 핀테크 업체들과의 다양한 제휴를 통해 신수익원을 창출할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2022.01.25.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>안질환 유전자치료제 각광, 도전장 내민 국내 기업은?</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005133656?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>노바티스·로슈·애브비 등 잇달아 안질환 유전자치료제 기업 투자안질환·유전자 치료제 시장 모두 긍정적 전망국내서는 이연제약·뉴라클제네틱스·씨드모젠 등 개발부작용 우려 해소가 관건이 기사는 2022년01월24일 15시20분에 팜이데일리 프리미엄 콘텐츠로 선공개 되었습니다.[이데일리 김명선 기자] 안질환 유전자치료제를 개발 중인 기업이 주목받는다. 스위스 노바티스(Novartis)와 프랑스 사노피(Sanofi) 등 글로벌 제약사들은 투자를 아끼지 않고 있다. 국내에서도 이연제약을 비롯한 일부 기업들이 안질환 유전자치료제 시장에 관심을 보인다.이어지는 글로벌 제약사들의 안질환 유전자치료제 기업 투자최근 노바티스는 안질호나 유전자치료제 기업을 잇달아 인수 및 투자했다. (사진=노바티스 2020 ESG 리포트 캡처)최근 노바티스는 안질환 유전자치료제 기업을 잇달아 인수 및 투자했다. 지난 12월 24일 노바티스는 영국 자이로스코프 테라퓨틱스(Gyroscope Therapeutics)를 15억달러(약 1조7918억원)에 인수한다고 밝혔다. 이번 인수로 노바티스는 건성 연령 관련 황반변성(AMD) 유전자치료제 ‘GT005’를 얻었다.노바티스가 안질환 유전자치료제 기업에 관심을 표한 건 처음이 아니다. 2020년 10월 노바티스는 유전성 망막질환 유전자치료제 개발 기업인 베데레 바이오(Vedere Bio)를 인수했다. 지난해 9월에는 스위스 유전자치료제 개발사 아크토스 메디컬(Arctos Medical)을 사들였다.앞서 지난해 11월 사노피 역시 자이로스코프 테라퓨틱스에 최대 6000만달러(약 717억원)를 투자한다고 발표했다. 미국 애브비(AbbVie)는 리젠엑스바이오(Regenxbio)와 망막 질환 치료를 위한 유전자치료제 ‘RGX-314’ 개발 및 상용화를 위한 파트너십 계약을 지난해 9월 맺었다. 15억달러 규모다. 1월 두 회사는 습성 황반변성 치료를 위한 망막하 전달을 평가하는 두 번째 중추 시험에 돌입했다.시장조사업체 리서치앤마켓에 따르면, 글로벌 안질환 치료제 시장은 2019년 246억달러(약 29조원)에서 연평균 14.0% 증가해 2025년에는 382억달러(약 46조원) 규모를 기록할 것으로 전망된다. 유전자 치료 시장 전망도 긍정적이다. 전 세계 유전자 치료 시장은 2019년 38억 달러(약 4조원)에서 연평균 27.8%로 증가해 2024년에는 130억 달러(약 16조원)에 이를 것으로 예상된다.안질환 분야에서 상용화된 대표적 유전자치료제는 럭스터나(luxturna)다. 럭스터나는 미국 유전자치료제 전문기업 스파크 테라퓨틱스가 개발했다. 로슈가 2019년 스파크 테라퓨틱스(Spark Therapeutics)를 인수하면서 치료제 권리를 갖고 있다. 미국 이외 판권은 노바티스가 보유한다. 로슈는 럭스터나 매출을 공개하지는 않았으나, 2021년 연간보고서에서 해당 치료제 가치를 3억2600만달러(약 3895억원)로 추산했다.이연제약·뉴라클제네틱스·씨드모젠 등 개발국내 안질환 치료제 시장은 이보다는 규모가 작지만, 성장이 기대되기는 마찬가지다. 국내 안질환 치료제 시장은 2019년 4963억원에서 2025년 9796억 원 규모로 뛸 것으로 예상된다. 국내 세포·유전자치료제 시장 규모는 765억원에서 연평균 41%로 성장해 2025년에는 약 8466억원으로 확대될 전망이다.국내 안질환 치료제 시장도 성장이 기대되기는 마찬가지다. (사진=픽사베이)안질환 중 특히 유전성 안질환은 유전자치료제를 적용하기에 이상적인 질환이라 안질환 유전자치료제는 갈수록 주목받을 것이란 평가다. 여재천 한국신약개발연구조합 사무국장은 “유전자치료제는 근원적인 질병 원인을 규명해 치료하기 때문에 최근에 각광받는다. 안질환 유전자치료제에 관심이 모이는 이유도 같은 맥락”이라고 설명했다.국내 안질환 유전자치료제 개발에 도전장을 내민 대표적 기업은 이연제약(102460)과 뉴라클제네틱스다. 이외에 씨드모젠, 아벨리노랩 등도 치료제 파이프라인을 보유하고 있다.이연제약은 습성 노인성 황반변성 유전자치료제 ‘NG101’에 대한 비임상을 미국에서 진행 중이다. 이연제약은 뉴라클제네틱스와 2020년 NG101 공동개발 및 상용화 계약을 체결했다. 이연제약 관계자는 “현재 전임상 단계로, 올 하반기 미국 1/2a상 신청이 목표”라고 설명했다.씨드모젠도 지난해 큐로진생명과학을 흡수합병하며 안질환 유전자치료제 파이프라인을 갖게 됐다. 큐로진생명과학은 황반변성·녹내장·당뇨병성망막병증 등 안질환 유전자치료제를 개발 중이었다. 미국 임상사이트 ‘클리니컬 트라이얼(Clinical Trials)’에 따르면 아직 임상에 돌입하지는 않은 상태다. 올해 코스닥 상장을 목표로 하는 아벨리노랩도 각막이상증 유전자치료제를 전임상 단계에서 개발 중이다.안질환 유전자치료제 분야에서는 안전성 검증이 관건이라는 이야기가 나온다. 여재천 사무국장은 “유전자치료제 적응증이 당초 암에서 다른 질환으로까지 확장되고 있는데, 암이 발생하는 등 예상치 못한 부작용이 발생할 수도 있다”며 “부작용 우려를 해소하는 게 중요하다”고 의견을 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2022.01.21.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>[단독] 토스, 오픈챗방에 불법 투자자문 넘치는데 `나몰라라`</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001010704?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>토스 메신저, 불법 투자자문 활개카카오톡 제한 조치 이후 옮겨간듯운영정책에 관련 주의·안내 없어&lt;앵커&gt;주식 투자로 큰 수익을 올려주겠다는 메시지 한번쯤은 받아보신 적 있으실 겁니다.문자메시지는 물론 카카오톡 같은 SNS 단체 대화방을 이용해 주로 이뤄지고 있습니다.지난해 서비스를 시작한 토스 메신저에서 최근 이런 불법 투자자문 업체들이 상당수 활동하고 있는데,토스 측은 이용자들에게 별다른 안내나 주의도 하지 않고 있습니다.문성필 기자의 단독 보도입니다.&lt;기자&gt;IT업계 종사자인 A씨는 최근 업계 단체 대화방에서 이상한 메시지를 받았습니다.주식 종목을 추천해준다며 토스 메신저로 연결되는 링크였습니다.[제보자 A씨: 업무와 관련된 오픈 채팅방(단체 대화방)이었는데 주식 리딩 관련해서 토스 메시지가 왔고 링크로 들어가보니 토스 앱으로 넘어가서 굉장히 당황스러웠습니다.]실제 토스 메신저에 접속해 봤습니다.접속한지 얼마 되지 않아 선착순 30명 소수만 받는다며 일대일로 대화를 걸어옵니다.알려준 링크로 들어가보니 100% 수익율을 제시하며 이용자를 유혹합니다.금융당국 인가를 받지 않고 일대일 투자자문을 하는 것은 현행법상 불법 행위입니다.이런 행위들은 그 동안 카카오톡 메신저를 통해 주로 이뤄졌습니다.지난해 카카오가 이런 행위들을 근절하겠다며 검색결과 노출·채팅방 접근 제한 조치를 펼치자 상당수가 토스 메신저로 옮겨간 것으로 보입니다.하지만 현재 토스 메신저 서비스 운영정책에서는 타인에게 금전적/비금전적 불이익을 주는 것으로 판단되는 행위만 금지할 뿐,불법 투자자문 행위와 관련한 어떠한 주의나 안내 문구도 찾아볼 수 없습니다.지난 2020년 한국소비자원에 접수된 불법 투자자문 관련 상담만 1만6,491건. 같은 기간 피해신고·민원도 556건에 달합니다.한국경제TV 문성필입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2022.01.27.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>카뱅·케뱅·토뱅도 중소기업 대출 취급…'은행법' 시행령 감독규정 개정</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000650723?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>인뱅도 대면업무 가능…노인·장애인 등 취약계층 배려금융당국이 카카오뱅크·케이뱅크·토스뱅크 등 인터넷전문은행에서도 중소기업과 개인사업자대출을 취급하도록 했다.27일 금융위원회는 이 같은 내용을 골자로 하는 '은행법' 시행령 및 감독규정 개정안을 입법예고했다. 인터넷전문은행들이 중소기업과 개인사업자 대출을 통해 생산적 금융의 역할을 늘려나가고 은행들의 보고절차를 간소화 해 효율성을 증대하기 위해서다.금융위원회 간판  [사진=아이뉴스24 DB]이를 위해 먼저 인터넷전문은행들의 예대율 체계를 정비한다. 예대율이란 은행의 예금잔액에 대한 대출금잔액의 비율로 예대율이 100%를 넘어가는 경우 예금보다 대출비율이 많아 경영상황이 좋지 못함을 나타낸다.일반은행은 가계대출 115%, 중소기업 85%, 개인사업자 100%를 적용받고 있다. 인터넷전문은행의 경우 업계 초기인 점을 감안해 가계대출에만 100% 가중치를 적용받도록 인센티브를 주고 있다.앞으로는 인터넷전문은행들도 가계대출과 중소기업대출을 균형 있게 취급할 수 있도록 가계대출로만 채우도록 해줬던 인센티브를 없애고 일반은행과 같은 예대율 규제를 적용받게 된다. 중소기업과 개인사업자 대출을 미취급할 시 예대율을 맞추기 어렵단 소리다.다만 단계적 정상화를 위해 3년의 유예기간을 부여하고 이후에 일반은행과 동일한 예대율을 적용할 방침이다. 유예기간 동안은 신규 취급하는 가계대출에 대해서만 가중치 115%를 적용하고 향후 3년이 경과되면 기업대출 미 취급 시 가계대출에 대해서만 100%를 적용한다.또 인터넷전문은행들에 예외적으로 대면 거래를 허용키로 했다. 현재 인터넷전문은행들은 전자금융방식으로만 업무를 영위하도록 규정하고 있다. 하지만 장애인과 65세이상 노인 등 법적·기술적으로 전자금융거래가 곤란하거나 소비자보호 편의증진을 위해 불가피한 경우 예외적으로 허용한다.이를 위해 금융위는 인터넷전문은행들의 예외사유를 정비하기로 했다.더불어 은행의 각종 보고의무 절차도 개선한다. 은행 동일인의 주식보유상황이 변경된 경우 금융위 보고기한을 '5영업일 이내'에서 '10영업일 이내'로 연장한다. 은행의 국외현지법인이 현지감독기관으로부터 제재를 받은 경우도 2천달러 미만은 보고 대상에서 제외된다.아울러 금감원에 대한 업무 위탁범위도 손본다. 관리감독 업무의 효율성 제고를 위해 ▲은행영업양도·양수 인가의 심사업무 위탁 ▲은행이 보유하는 비업무용 자산 등 보고의 접수업무  ▲은행의 주주가 사실상 영향력을 행사하고 있는지 여부를 확인하기 위해 필요한 자료의 제출 요구를 위한 업무 위탁 등을 하기로 했다.한편 금융위는 이번 시행령 및 감독규정 개정안을 입법예고 후 상반기 중 시행할 예정이다.◆</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2022.01.24.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>초보 창업자들의 최대 고민 HR, 실무방법 담은 가이드북 발간</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004699891?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>국내 스타트업 민관협력 네트워크 스타트업얼라이언스가 초기 스타트업의 인력관리(HR)를 돕는 '초보 창업자를 위한 HR 가이드북'을 발간했다고 24일 밝혔다. 이번 가이드북은 지난해 초 발간된 '벤처캐피탈(VC)이 알려주는 스타트업 투자 유치 전략'에 이은 스타트업얼라이언스의 두 번째 가이드북 시리즈다. 이 책은 초기 스타트업 창업자들을 대상으로 한다. 채용, 조직문화, 보상 등 초기 스타트업이 알면 효과적일 HR 전략을 공유한다. △HR 관점에서 스타트업의 특징 △인재 오퍼·입사 및 온보딩 전략 △직무수행평가와 보상 체계 설계 △직원 면담과 퇴사 등이 담겼다. 책의 저자인 이기대 이사는 한양대 전자공학과를 거쳐 대학원에서 컴퓨터공학을 전공했다. 이후 서치펌 창업자, 스타트업 HR 임원, 사회적기업 대표를 역임한 뒤 현재 스타트업얼라이언스 이사로 재직 중이다. 주요 저서로는 △외국인 회사 들어가기&amp;옮겨가기 △스무 살, 이제 직업을 생각할 나이 등이 있으며, 역서로는 △왜 학벌은 세습되는가? △내 연봉 내가 정한다 △비즈니스에 영감을 주는 짧지만 강력한 아이디어 등이 있다. 가이드북에는 스타트업 현장에서 HR 전략을 세우고 실무를 진행한 전문가들의 인터뷰도 담겼다. 박토니 비바리퍼블리카(토스) 피플앤컬쳐팀 리더, 최정호 더핑크퐁컴퍼니 CLO(Chief Life Officer), 최경희 소풍벤처스 파트너, 박미현 스푼라디오 HR리더, 힐링페이퍼(강남언니) 홍승일 대표·황조은 커뮤니케이션 리더가 인터뷰에 참여했다.가이드북은 비매품으로 스타트업얼라이언스 홈페이지에서 무료로 볼 수 있다. 종이책은 25일부터 배포되며, 전자책은 다음달부터 리디북스에서 확인할 수 있다. 최항집 스타트업얼라이언스 센터장은 "스타트업은 빠른 성장만큼 필요한 인력이 빠르게 변하며 작은 인력 규모에 비해 업무 범위는 넓고 상황에 맞춰 새로운 역할을 해야 할 수 있다"며 "HR 전략을 짜야하는 초보 창업자들에게 작은 안내서가 되길 바란다"고 했다.HR에 인공지능(AI) 도입 방안을 논의하는 웨비나도 개최된다. AI 커스터마이징 플랫폼 기업 알고리즘랩스는 오는 27일 오후 2시 '2022 AI(인공지능) For HR(인사관리)'를 주제로 웨비나를 연다. 웨비나 세션1에서는 천성현 포스코 기업시민실장이 'ESG(환경·사회·지배구조) 경영시대의 HR 메가트렌드와 패러다임 쉬프트'에 대해 이야기한다. 세션2에서는 손진호 알고리즘랩스 대표가 'AI 데이터 분석을 통한 조직 맞춤형 HR 전략 수립'을 주제로 발표한다. 손진호 대표는 국내외 HR 내 AI 도입 케이스를 통해 HR이 어느 단계까지 AI화 되고 있는지를 분석한다. HR에 AI를 도입하기 위해서는 빅데이터가 아닌 굿데이터가 중요하다는 점을 전하며 굿데이터를 토대로 한 AI 도입 전략을 설명할 계획이다.손 대표는 "이번 웨비나를 통해 각 기업이 보유하고 있는 데이터로도 충분히 HR AI 솔루션을 만들어 낼 수 있는 영역이 있다는 점을 중점적으로 전달할 것"이라며 "올해 꾸준히 웨비나를 진행해 HR 내 AI 도입의 진입장벽을 낮출 것"이라고 말했다.[머니투데이 스타트업 액셀러레이팅 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2022.01.27.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>인터넷은행, 기업 대출 본격적으로 뛰어든다</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003669210?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>금융당국이 인터넷은행이 기업 대출을 할 수 있는 길을 열어주기 위해 은행법 시행령과 감독규정을 개정해 27일 입법예고했다. 사진은 카카오뱅크 로고. /카카오뱅크										인터넷은행이 올해부터 기업 대출 시장에 본격적으로 뛰어들 전망이다. 금융당국은 인터넷은행의 예대율(예금 대비 대출 잔액 비율) 규제를 일반 은행과 동일하게 바꾸고 기업 대출을 위한 현장 실사와 기업인 대면 거래 등을 허용하기로 했다. 이로써 가계 대출에 주력해온 인터넷은행이 기업 대출에 진출할 수 있는길이 열렸다.금융위원회와 금융감독원은 이런 내용을 핵심으로 한 은행법 시행령과 감독규정 개정안을 입법예고한다고 27일 밝혔다. 지금은 예대율을 산정할 때 일반 은행은 가계 대출 115%, 기업 대출 85%의 가중치를 적용받는 반면, 인터넷은행은 기업 대출 없이 가계 대출만 100%를 적용받는다. 은행법 개정으로 인터넷은행도 일반 은행과 같은 예대율 적용을 받으면 기업 대출에도 본격적으로 나설 수 있게 될 예정이다.인터넷은행은 비대면 거래만 하도록 한 규정도 기업 대출에 대해서는 다소 완화하기로 했다. 개정안에 따라 현장 실사 등을 할 수 있게 된다는 뜻이다.기업 대출에 대한 ‘족쇄’가 풀림에 따라 인터넷은행은 연내 중소기업 및 개인사업자 대출 신상품을 내놓을 계획이다. 카카오뱅크와 케이뱅크는 올해 개인사업자 대출을 선보일 예정이고, 토스뱅크는 상반기에 담보 없이 자체적인 신용평가에 따라 대출을 해주는 개인사업자 신용대출 상품을 출시하기로 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2022.01.20.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>야놀자, 새해 여가 트렌드 ‘T.I.G.E.R’ 제시</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002245471?sid=105</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>통합서비스·워케이션 등 신규 트렌드 눈길여가 플랫폼 기업 야놀자(총괄대표 이수진)가 2022년 여가 트렌드 ‘T.I.G.E.R’를 20일 공개했다.T.I.G.E.R는 ▲기술 도입(Technology) ▲통합서비스 선호(Integrated Service) ▲프리미엄 여행 인기(Glamorous and Luxury Travel) ▲환경에 대한 관심(Environment) ▲휴식과 근무의 결합(Rest and Work) 등 5가지 키워드를 뜻한다.먼저 여행업계의 기술 도입이 가속화될 전망이다. 코로나19로 인한 여행산업 위축 속에서도 지난해 야놀자클라우드의 글로벌 호텔 솔루션 고객사는 20년 대비 60% 이상 증가했다. 포스트코로나 시대의 여행 수요에 대한 기대가 높아지면서 이를 선점하기 위한 기술 투자가 급증한 것으로 풀이된다.야놀자 2022 여가 트렌드통합서비스에 대한 선호도도 눈에 띄게 늘었다. 라운지·수영장 등 부대시설 이용권, 인룸다이닝 등을 포함한 호텔 패키지 이용률은 20년 대비 77% 신장했다. 타인과의 접촉을 최소화하기 위해 숙소에서 다양한 액티비티를 즐기고자 하는 고객 니즈가 증가한 영향으로 분석된다.프리미엄 여행 수요는 꾸준히 증가하는 추세다. 지난해 특급호텔(4·5성급) 예약건수는 호캉스 등 프리미엄 여가 트렌드 영향으로 20년 대비 54% 상승했다. 해외 여행이 제한적인 상황에서 비용 대비 최상의 여가를 경험할 수 있는 프리미엄 숙소에 대한 인기는 지속될 것으로 보인다.여행업계의 환경에 대한 관심도 높아졌다. 지난해 야놀자가 진행한 ‘친환경 ESG 숙소 기획전’에는 전국 50여 개 호텔이 참여해 친환경 여행에 대한 업계의 관심을 입증했다.코로나19 이후 원격근무가 일상화되면서 휴식과 근무가 결합된 워케이션도 부상했다. 야놀자, 토스, 라인플러스 등 IT 기업들을 필두로 시작된 워케이션은 이색적인 근무환경을 제공하는 복지이자 지역 경제 활성화에 기여하는 신규 프로그램으로 주목받고 있다.야놀자 관계자는 “코로나19가 장기화되고 있지만 오히려 포스트코로나 시대의 여행 수요에 대한 기대가 높아지며 기술 도입과 환경에 대한 관심이 증가하고 있는 것으로 나타났다”면서 “여행이 제한적인 상황에서도 숙소 내에서 레저를 즐기는 통합서비스, 휴식과 근무를 동시에 즐기는 워케이션 등 새로운 형태의 여행 트렌드가 확산되고 있는 점 또한 주목할 만하다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2022.01.29.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>설 연휴에 부모님 '숨은 휴면예금·보험금' 찾아드리고 효도하세요</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004915875?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>온라인 금융서비스 어두운 부모님께숨은 쌈짓돈 찾아드릴 수 있는 기회서민금융진흥원·금융앱  활용 가능작년 추석에는 992만원 찾은 사례도 #40대 직장인 최모 씨는 작년 추석 고향집에 갔다가 휴면예금·숨은 보험금 찾기 서비스로 금융기관에서 잠자고 있던 부모님 돈을 30만원 넘게 찾아드렸다. 인터넷·모바일 금융 서비스에 어두웠던 최 씨의 부모님은 명절에 찾아온 자식이 찾아준 뜻밖의 쌈짓돈을 보태 눈독들이고 있었던 공기청정기를 집에 들였다.우선 잠들어 있던 소중한 나의 돈을 찾아주는 가장 대표적인 서비스는 서민금융진흥원의 '휴면예금 찾아줌'이다. 휴면예금을 찾아주는 서비스들은 여럿 있지만 서민금융진흥원의 서비스가 비교적 활용하기 쉽다는 평가가 많다. 이 서비스로 금융 소비자들이 지난 2020년 찾아간 휴면예금이 2400억원이 넘는다. 휴면예금은 은행 및 저축은행 등의 예금, 적금 및 부금 중에서 관련법률 또는 약정에 따라 소멸시효(은행예금은 무거래 5년)가 완성된 이후 찾아가지 않은 예금이다. 보험계약자가 청구를 하지 않은 '숨은 보험금' 규모는 2021년 8월말 기준으로 12조원이 넘는 것으로 알려졌다. 앞서 정부는 지난 2017년 12월 소비자의 모든 보험 가입 내역과 숨은 보험금을 통합조회할 수 있는 '내보험 찾아줌' 사이트를 개설했다. 이 서비스를 통해 손쉽게 숨은 보험금을 찾아 청구까지 할 수 있다.숨은 보험금은 중도보험금, 만기보험금, 휴면보험금으로 구분할 수 있다. 보험금의 경우 만기 시점에 즈음해 바뀐 주소지를 제대로 신고하지 않아 관련 내용을 안내받지 못해 잊힌 경우가 적지 않다. 일각에서는 '보험금을 찾지 않으면 높은 금리가 제공된다'는 잘못된 상식 때문에 보험금을 찾지 않고 있다가 존재 자체를 잊어버린 경우도 있다.  카카오뱅크나 토스 등 금융서비스 애플리케이션(앱)도 휴면 예금·보험금 조회·청구 서비스를 제공하고 있다. 지난 해에는 카카오뱅크의 휴면 예금·보험금 찾기 서비스를 통해 992만원의 숨은 재산을 찾아낸 고객이 나타나 화제가 되기도 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2022.01.24.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>네이버, MIT 교수 등 인재 영입…“젊은 글로벌 석학 앞세워 혁신 서비스”</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001941664?sid=105</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>MIT 김윤형·럿거스 스트라토스김용범 책임리더 이어 인재 합류“우수인력으로 기술 고도화 앞장”MIT 김윤형 교수(왼쪽), 럿거스 칼 스트라토스 교수네이버가 AI·검색 분야에 매사추세츠 공과대학(MIT) 교수 등 젊은 석학들을 차례로 영입했다. 뛰어난 연구성과를 내며 세계적으로 주목받고 있는 글로벌 인재를 통해 차세대 기술 경쟁력 제고에 속도를 낸다는 방침이다.네이버는 최근 MIT의 김윤형(Yoon Kim) 교수와 럿거스(Rutgers)대학의 칼 스트라토스(Karl Stratos, 이장선) 교수를 네이버 스칼라(Naver Scholar)로 영입했다고 24일 밝혔다.네이버 스칼라는 미국·유럽 등에 위치한 대학·연구기관의 교수 및 연구원 등이 소속 기관에 재직하며 네이버 기술 및 서비스 개발에 참여할 수 있는 제도다. 이번에 영업된 두 교수는 네이버 검색의 미국 내 AI 센터인 ‘네이버 서치 US(Naver Search US)’에서 네이버 검색 서비스 곳곳에 녹일 차세대 AI 기술 및 검색 서비스 고도화를 주도한다.김윤형 교수는 미 하버드 대학교에서 컴퓨터공학으로 박사학위 취득 후, 현재 미 MIT에서 조교수로 재직중이다. 김 교수는 글로벌 최초로 딥러닝 기술의 일환인 ‘컨볼루션 신경망(CNN, Convolution Neural Network)기술’을 자연어처리(NLP) 분야에 적용한 논문을 단독 발표했다. 해당 논문은 현재 전세계적으로 1만 2000여건 이상 인용됐을 정도로 학계 및 AI 업계의 이목을 끌었다. 뿐만 아니라, 김 교수가 발표한 캐릭터 어웨어(Character-Aware) 언어모델과 오픈NMP 기계번역 연구는 업계에도 널리 사용되며 딥러닝 분야의 연구 혁신을 선도하고 있다는 평가를 받고 있다.함께 영입된 미 콜롬비아 대학교 컴퓨터과학 박사 출신 칼 스크라토스 교수 역시 AI 분야의 전문가다. 현재 미 럿거스 대학교에서 조교수로 재직하며 비지도 학습방법 및 지식사용 모델 개발을 연구하고 있다. 칼 교수는 자연어처리 분야 탑티어 학회(ACL, ENMLP, NAACL)에서 머신러닝 분야 위원장을 맡으며 국제적인 명성을 얻고 있다. 또한, 블룸버그 자연어처리(NLP) 연구팀에서 자연어이해 서비스에 최첨단 딥러닝 기술 도입을 총괄한 실무경험까지 보유한 인재다. 특히, 정보이론의 기반인 ‘상호의존정보의 통계적 이론’을 재정립해 정보이론을 바탕으로 하는 수많은 AI 연구 방법론의 근본적인 방향성을 바꾸는 큰 성과를 냈다. 이러한 연구성과를 인정받아 2020년 구글 패컬티 리서치 어워드(Google Faculty Research Award, 2020) 등에서 다수의 어워드를 수상한 바 있다.?한편, 두 교수는 지난해 9월 네이버에 합류한 김용범 책임리더와 함께 AI 기술 및 검색 서비스 경쟁력 제고를 위해 힘쓸 예정이다. AI 기술개발을 리드하는 김 책임리더는 마이크로소프트 코타나와 아마존 알렉사의 AI 핵심기술 개발을 총괄한 대화형 인공지능(Conversational AI) 분야의 세계적 전문가로 꼽힌다.김광현 네이버 서치(Search) CIC 대표는 “올해도 미국, 유럽 등 글로벌 무대에서 활약하고 있는 우수한 연구인력들을 적극 영입할 계획”이라고 밝혔다. 김민지 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2022.01.24.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>미래의 금융소비자 ‘알파세대’의 마음을 훔쳐라! [마이머니]</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003660410?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>카드사 등 금융업계 10대 전용상품 잇따라금융·경제 접근성 높은 세대특성 반영 청소년 사용빈도 높은 곳서 각종 혜택 삼성, 커피숍·배달앱 최대 8% 결제할인 사용가능 업종·금액 제한 안심 기능도 신한, 교통카드 할인·편의점 기프티콘 토스·국민銀 등 은행권도 전용 서비스   최근 금융권이 미래 금융 소비자인 청소년 고객을 선점하기 위해 마케팅 전쟁을 벌이고 있다. 어린 자녀 고객을 유치하면 자연스럽게 부모 세대를 끌어들일 수 있고, ‘알파 세대’인 10대 고객들의 부모가 경제적 자유나 조기 경제교육 등을 중시하는 ‘M세대’라는 점 등이 복합적인 원인으로 작용하고 있다. 여기에 금융당국이 올해 1월부터 개시한 마이데이터(본인신용정보관리업) 서비스 대상에 부모의 동의를 전제로 하긴 했으나 미성년자들도 고객군에 포함시키자 금융사들은 청소년들의 소비 패턴과 특성에 맞는 전용 상품과 플랫폼을 속속 출시 중이다.  ◆청소년도 신용카드를 쓴다  삼성카드는 지난해 12월 청소년 전용 카드 상품인 ‘삼성 iD POCKET 카드’를 선보였다. ‘삼성 iD POCKET 카드’는 청소년들이 자주 이용하는 버스, 지하철 등 대중교통 이용 시 전월 이용금액에 따라 최대 2% 할인을 제공한다. 또한 편의점, 배달앱, 델리, 커피전문점에서 이용 시 전월 이용금액에 따라 최대 8% 결제일 할인을 받을 수 있다. ‘삼성 iD POCKET 카드’는 자녀가 건전하게 카드를 이용할 수 있도록 사용 가능 업종과 월 이용한도를 제한했다. 교통, 문구, 서점, 편의점, 학원, 병원·약국, 식음료 업종에서만 쓸 수 있다. 월 이용 한도는 10만원이며 부모의 요청 시 월 50만원까지 상향이 가능하다. 연회비는 1000원이며, 홈페이지(PC/모바일)와 삼성카드 앱에서 신청할 수 있다.  신한카드는 지난해 7월 청소년 전용 가족 신용카드인 ‘신한카드 마이틴즈’(My teens)를 출시했다. 마이틴즈 카드는 대중교통 이용 시 자동으로 청소년 할인이 적용된다. 전월 이용실적에 따라 중·고등학생이 GS25 편의점에서 바로 이용할 수 있는 최대 6000원 상당의 모바일 기프티콘이 주어진다. 아울러 월 한도와 이용건당 한도를 각각 10만원(부모 신청 시 최대 50만원)과 5만원으로 제한하는 한편 교통, 문구·서점, 편의점, 학원 등 사용 가능 업종을 분류해 무분별한 미성년 자녀의 카드남용 및 부정사용을 차단한 것도 특징이다.  카드사들은 청소년들이 주로 쓰는 체크카드에도 다양한 혜택을 담아 소비자들을 공략 중이다. KB국민카드의 ‘쏘영 체크카드’는 전월 카드 실적이 5만원 이상이면 음악 스트리밍 서비스인 멜론이나 동영상 사이트인 유튜브의 결제 금액의 5%를 할인해준다. 또한 전월실적에 따른 혜택이 기존 신용카드(30만원) 6분의 1 수준인 5만원인 것이 특징이다.    우리카드의 체크카드 ‘크림틴즈’는 현금처럼 사용할 수 있는 캐시백에 중점을 둔 것이 특징이다. 크림틴즈는 버스·지하철을 합해 월 2만원 이상 이용할 경우 10%인 2000원을 돌려준다. 아울러 학생들이 자주 가는 서점·편의점·올리브영·패스트푸드점에서 1만원을 넘게 쓰면 1000원의 캐시백을 제공한다.  카드업계의 한 관계자는 “인터넷은행과 핀테크 업체들이 청소년을 대상으로 하는 충전식 선불 카드 서비스를 출시해 인기몰이 중이다. 이에 위기감을 느낀 카드사들도 미래 고객을 뺏기지 않기 위해 10대 전용 상품을 출시하고 있다”면서 “금융당국이 마이데이터 시행을 앞두고 법적대리인의 동의 아래 미성년자까지 이용대상을 확대하기로 하면서 청소년 타깃 상품은 더욱 늘어날 것으로 보인다”고 말했다.    ◆은행권, 빅테크도 10대 금융고객 선점 경쟁  은행권에서 10대 대상 금융서비스에서 가장 앞서 있는 곳은 카카오뱅크다. 카카오뱅크는 지난해 말 기준으로 청소년 대상 금융서비스인 ‘카카오뱅크 미니’의 가입자가 112만명을 돌파했다고 밝힌 바 있다.  ‘카카오뱅크 미니’는 만 14~18세 이하 청소년만 가입할 수 있다. 은행 계좌가 없어도 돈을 보관하고 이체할 수 있는 선불전자지급수단이다. ‘미니카드’는 교통카드 기능 및 온·오프라인 결제가 가능하며 ATM에서 출금 시 수수료를 면제하고 있다.  토스도 지난해 12월 청소년 고객 전용 선불카드 ‘토스 유스카드’를 출시했다. 발급 대상은 만 7~16세로 초·중·고 학생 나이 대까지 이용 가능하다. 미성년을 대상으로 온라인 발급이 가능하다는 게 특징이다. 단 가입하기 위해 본인 명의 휴대폰이 필요하고, 14세 미만 미성년은 보호자 온라인 동의를 받아야 한다. 카드 한도는 일 50만원, 월 200만원이다. 유스카드는 토스머니와 연동된 서비스로 결제금이 토스머니에서 차감된다. 고객층이 청소년인 만큼 할부를 포함한 신용구매 기능은 없다.  국민은행은 지난 11월, 신분증이나 계좌 없이도 ‘포인트’를 이용해 송금 등이 가능한 10대 전용 금융 플랫폼인 ‘리브넥스트’를 출시했다. ‘리브넥스트’는 신분증이 없는 10대(만 14~18세)도 개설할 수 있는 선불전자지급수단인 ‘리브포켓’이 제공된다는 게 특징이다. 본인 명의 휴대폰 인증을 통해 직접 개설할 수 있고, 리브포켓에 고유번호가 있어 계좌 없이도 금융 거래를 할 수 있다. 또한 수수료 없이 송금이나 입금을 할 수 있으며 ATM도 이용할 수 있다. 이외에도 KB페이의 온·오프라인 가맹점에서 결제가 가능하다.  하나은행도 지난해 6월 어린이와 청소년도 송금·결제·투자 등을 경험할 수 있는 ‘아이부자’를 출시했다. ‘아이부자’는 페어 앱 기반 플랫폼 서비스로, 자녀와 부모가 각자 휴대폰에 앱을 설치해 서비스를 이용할 수 있다. 자녀 회원은 이 앱을 통해 용돈을 받고 부모 회원과 함께 정한 ‘알바’ 미션을 수행해 용돈을 벌수도 있다. 이렇게 모은 돈은 충전식 선불카드인 ‘아이부자 카드’로 자유롭게 쓸 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022.01.19.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>백신 접종 후 입원치료 받으면 방역패스 예외…임신부는 주수 관계없이 적용</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000788314?sid=105</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>질병관리청 코로나19 백브리핑  입원확인서와 의사 진단서 보건소에 내면 전산 등록  “백신 못 맞을 정도 임신부는 식당 유흥업소 이용할 건강 상태 아냐” 추가접종 간격 3개월로 단축…부스터샷 순차 사전예약 시작    (서울=연합뉴스) 한종찬 기자 = 코로나19 백신 기본접종과 추가접종(3차접종) 간격이 3개월로 조정됨에 따라, 추가접종 기간이 앞당겨진 사람은 오늘부터 순차적으로 사전 예약을 할 수 있다. 사진은 13일 서울 양천구 홍익병원에서 시민들이 코로나19 백신접종을 받는 모습. 2021.12.13    saba@yna.co.kr/2021-12-13 14:22:01/&lt;저작권자 ⓒ 1980-2021 ㈜연합뉴스. 무단 전재 재배포 금지.&gt;        코로나19 백신을 접종한 후 이상 반응 의심 증상이 나타나 입원 치료를 받은 경우에는 오는 24일부터 방역패스(접종증명·음성확인제) 예외 확인서를 받을 수 있게 된다.중앙방역대책본부(방대본)는 19일 보도자료를 내고 이런 내용을 밝혔다. 이번 조치로 코로나19 백신을 접종 한 후 이상 반응 의심 증상이 나타나서 ▲피해보상을 신청했으나, 그 결과 인과성 근거 불충분(④-1)판정을 받았거나 ▲입원치료를 받은 경우 예외 확인서를 받을 수 있게 된다. 별도의 유효기간 만료일은 지정하지 않았다.코로나19 백신 접종 후 이상반응 의심증상이 나타나 접종 후 6주 이내에 입원치료를 받았다면 가까운 보건소에 ▲입원확인서와 ▲‘코로나19 예방접종 후 이상반응으로 입원치료를 받았다’고 적힌 의사의 진단서를 갖고 방문해 방역패스 예외자로 전산 등록해야 한다.코로나19 백신 접종 후 이상 반응 신고 및 피해보상 신청을 했으나 인과성 근거 불충분(④-1) 판정을 받은 경우, 대상자는 별도의 절차나 의사의 진단서 없이 쿠브(COOV)앱 또는 전자출입명부 플랫폼( 카카오, 네이버, 토스, PASS앱)에서 ‘접종내역 발급·업데이트’하면 전자 예외확인서를 발급받을 수 있다.중앙방역대책본부 제공        최초 1회에 한해 보건소에서 증빙서류 확인 후 방역패스 예외자로 전산 등록한 경우, 전국 어느 보건소에서나 증빙서류 제출·확인 없이 종이 예외확인서를 받을 수 있다. COOV앱 또는 전자출입명부 플랫폼에서 ‘접종내역 발급·업데이트’하여 전자 예외확인서를 발급할 수 있다.임신부도 방역패스 예외대상에 포함돼야 한다는 요구도 있었지만, 당국은 임신부를 예외대상으로 분류하지 않았다. 임신부는 코로나19 고위험군으로 접종권고 대상에 해당해 방역패스 적용 예외자로 인정하기 어렵다는 게 당국의 설명이다.정부는 임신 12주 이내 초기 임신부의 경우 백신 접종 전 산모와 태아 상태를 진찰한 뒤 백신 접종을 권고하지만, 의사로부터 접종 받기 어려운 것으로 권고 받았더라도 방역패스 적용에서 예외를 받긴 어렵다고 했다.방대본 관계자는 “임신 초기 사전 진찰에서 코로나19 백신 예방 접종을 하지 못할 정도의 건강 상태로 진단 받았다면 전신 건강 상태가 좋지 못한 것”이라며 “이 경우 방역 패스를 받아서 유흥업소나 식당에 갈 수 있는 건강 상태가 아니라고 판단된다”고 설명했다.이 관계자는 또 “임신 초기 백신 접종 전 진찰을 권고하는 것은 임신 유지가 어려울 수 있으니 관찰하라는 주의 당부 수준”이라며 “임신부는 반드시 백신을 접종해야 하는 권고 대상”이라고 말했다. 그러면서 “방역패스 예외 범위 인정이 백신 접종과 이상 반응의 인과성 및 피해보상의 필요성 또는 접종 금기를 의미하는 것은 아니다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2022.01.20.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>[단독]토스, 약관까지 바꾸며 카드서비스 중단…소비자 분통</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005130316?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>온·오프라인 결제 선불충전카드모든 고객 유효기간 남았지만수익모델 취약해 종료 결정[이데일리 서대웅 기자] 빅테크인 토스가 선불충전카드인 ‘토스머니 카드’(토스카드) 서비스를 갑자기 중단해 소비자 불만이 거세지고 있다. 모든 이용자의 유효기간이 남아 있는데도 서비스를 중단했기 때문이다. 더구나 유효기간을 무용지물화하기 위해 토스는 지난해 3월 약관까지 변경한 것으로 이데일리 취재결과 확인됐다. 파격적인 혜택으로 고객을 모은 뒤 수익성이 떨어지자 이 사업에서 손을 뗐다는 분석이다.19일 업계에 따르면 토스는 지난달(12월) 말일부로 토스카드 서비스를 중단했다. 지난해 초 판매 중단 및 혜택 축소에 이어 서비스까지 종료하면서 토스는 사실상 토스카드 사업에서 완전히 철수했다.토스카드는 토스머니를 충전해 온·오프라인에서 결제할 수 있는 일종의 선불충전카드다. 2019년 4월 출시와 함께 과감한 마케팅을 벌이며 고객을 끌어모았다. 결제액의 3.3% 캐시백 이벤트를 진행한 결과 출시 3개월 만에 이용자가 100만명을 돌파했다. 대형 카드사는 월 20만장이 판매되면 흥행했다고 본다.토스가 토스카드 사업을 접은 것은 수익성이 떨어진다고 판단했기 때문으로 분석된다. 신용카드처럼 가맹점수수료를 받지 않는 데다 카드대출(카드론·현금서비스) 사업도 불가능해 수익 모델이 사실상 없었다. 그럼에도 토스는 전월실적 관계없이 전국 편의점 현금자동입출금기(ATM) 수수료 면제 혜택, ‘잔돈 저축’ 기능 등을 제공하며 이용자 모집에 집중했다.문제는 서비스를 중단했지만 토스카드 모든 이용자가 유효기간이 남아 있다는 점이다. 토스카드 유효기간은 일반 신용카드와 동일한 5년이다. 지난달까지 이용자별로 최소 2년 3개월의 유효기간이 남아 있는 상태였다. 카드사는 여신전문금융업법에 따라 신용카드 신규 발급을 중단하더라도 유효기간이 남은 고객에게는 유효기간까지 서비스를 제공해야 한다. 국내에서 소매금융을 철수하는 한국씨티은행조차 신용카드를 한차례 갱신해주고 서비스를 유지하기로 했다. 반면 토스는 전자금융업법을 적용받는데, 이 법에는 관련 조항이 없다.특히 토스는 서비스 중단을 위해 지난해 3월 약관까지 변경한 것으로 확인됐다. 기존의 토스카드 약관(제7조1항)에는 “토스머니카드의 유효기간은 토스머니카드 표면에 기재된다”라고만 적시돼 있었다. 하지만 토스는 이 조항에 “토스머니카드 자체의 유효기간은 회사 정책에 따라 토스머니 유효기간과 상이할 수 있다”는 문장을 추가했다. 토스머니 서비스를 유지하더라도 카드 서비스는 유효기간 만료일보다 앞서 종료할 수 있다는 의미다.약관 변경을 두고 이용자 모집이라는 과제를 수행한 뒤 돈 안 되는 사업에서 발 빠르게 철수했다는 지적을 토스는 피하기 어려울 전망이다. 자회사인 토스뱅크 역시 최근 이러한 논란을 일으켜 소비자 불만을 샀다. 토스뱅크는 출범을 앞둔 지난해 9월 ‘무조건 2% 예금통장’ 출시를 앞세워 사전 신청 고객을 끌어모았다. 토스는 내부적으로 100만명 모집을 목표로 세웠고 실제로 달성했다. 하지만 출범 직후 토스뱅크는 1억원 초과 예금액에 대한 금리를 0.1%로 대폭 축소했다.토스 관계자는 “지난해 8월 말 홈페이지에 토스카드 서비스 종료 공시를 했으며 이용자에게도 수차례 관련 내용을 안내했다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2022.01.23.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>[단독]정부, 마이데이터 첫 비정기심사 착수</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002995120?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>ⓒ게티이미지금융위원회가 마이데이터 서비스를 전수 조사한다. 일부 사업자가 규정에 어긋나는 기능을 포함해 수정 조치했지만 이후에도 혼란이 가라앉지 않자 당국이 일제 심사 카드를 꺼낸 것이다.23일 업계에 따르면 최근 금융위원회는 마이데이터 지원기관인 금융보안원을 중심으로 '알고하는 동의' 규정을 제대로 준수했는지, 마이데이터 '자산 철회' '회원탈퇴' '자산관리' 등 주요 메뉴 접근성을 올바르게 제공했는지 여부를 점검하는 비정기심사를 단행키로 했다. 전체 사업자에 걸쳐 마이데이터 취지에 걸맞게 서비스를 구성했는지 여부를 들여다보게 된다.금융위원회는 마이데이터 시범서비스 기간과 본 시행 이후에 걸쳐 핵심 규정인 알고하는 동의가 제대로 제공되는지 내부에서 점검해왔다. 그러나 뒤늦게 본 서비스에 참여한 일부 사업자 규정 위반 문제가 불거졌고 이를 수정한 이후에도 다른 세부 기능에 대한 해석이 사업자마다 다르자 일제 검사가 필요하다고 판단한 것으로 보인다.비정기심사는 사용자에게 마이데이터 서비스 이용에 따른 관련 사항을 충분히 고지했는지 여부를 중심으로 이뤄지게 된다. 자신의 신용정보를 주도적으로 사업자에게 제공·철회할 수 있고 이 과정에서 필요한 내용을 숙지할 수 있도록 서비스 환경을 조성했는지 살피게 된다.일례로 최근 알고하는 동의 화면을 간단히 스크롤 버튼 한 번으로 처리해 전체 내용을 보기 어렵게 만든 사례가 일부 있어 문제가 되고 있다. 고지 목적을 달성하기에 불충분한 기능인데도 사용자 편의를 높인다는 이유로 채택하는 경우가 발생하는 등 시장에서 일부 혼선을 빚고 있다.사용자가 기관연결 후 정보제공 동의철회를 원하거나 서비스 탈퇴를 원해도 해당 메뉴를 찾기 어렵게 구성한 서비스도 도마 위에 올랐다. 사용자가 마이데이터 가입·탈퇴, 정보제공 동의철회 등을 하려면 4~5단계를 거쳐야 하거나 약관까지 찾아봐야 하는 등 불편을 초래한 서비스가 다수 있어 문제라고 봤다.이전에는 토스를 서비스하는 비바리퍼블리카가 마이데이터 핵심 규정인 '알고하는 동의'에서 기관연결을 사용자 선택이 아닌 일괄 연결로 제공했다가 뭇매를 맞았다. 이후에는 통합인증 동의 과정에서 사용자가 동의의사를 표시할 수 없도록 해 개인정보보호법 위반 지적을 받고 수정했다.정보유출 문제도 있었다. 마이데이터 본 시행을 앞두고 테스트 과정에서 대형 은행과 빅테크 기업 등에서 일부 사용자 정보가 유출돼 곤욕을 치르기도 했다.금융보안원 관계자는 “이번 비정기심사는 마이데이터 취지에 맞게 서비스 구성 요건을 점검·수정하는 것이 목적”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2022.01.24.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>오늘부터 방역패스 예외범위 확대…앱서도 확인서 발급</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010962982?sid=102</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>기사내용 요약의학적 사유 3개→5개로 확대[고양=뉴시스] 정병혁 기자 = 대형마트, 영화관, 미술관 학원 등에 적용되던 방역패스가 해제된 18일 오전 경기 고양시 이마트트레이더스 고양점을 찾은 시민들이 QR코드 체크인을 하고 입장하고 있다. 2022.01.18. jhope@newsis.com[서울=뉴시스] 김남희 기자 = 방역패스의 '의학적 사유에 의한 예외범위'가 24일부터 확대된다. 앱에서 전자 예외확인서 발급도 가능하다.중앙방역대책본부는 이날부터 코로나19 예방접종 후 이상반응 의심증상으로 인과성 근거 불충분 판정을 받거나, 접종 후 6주 내에 입원치료를 받은 경우도 방역패스 적용 예외로 인정한다고 밝혔다. 이제 의학적 사유에 의한 방역패스 적용 예외사례는 ▲아나필락시스, TTS, 모세혈관누출증, 심근염·심낭염 등 중대한 이상반응 ▲백신 구성물질에 중증 알레르기 발생이력이 있는 경우 ▲면역결핍, 면역억제제·항암제 투여로 접종연기가 필요한 경우 ▲접종 후 이상반응으로 인과성 근거 불충분 판정받은 경우 ▲접종 후 이상반응으로 접종 후 6주 이내에 입원치료를 받은 경우 등 5가지다.이날부터는 COOV·전자출입명부 앱(카카오·네이버·토스·PASS)에서 '접종내역 발급·업데이트'를 통해서도 전자 예외확인서를 발급받을 수 있다. 다만 백신 구성물질에 중증 알레르기 발생이력이 있는 경우, 면역결핍 등으로 접종연기가 필요한 경우, 접종 후 이상반응으로 입원치료를 받은 경우에는 보건소에 증빙서류를 제출해야 전자 예외확인서를 발급받을 수 있다.오는 25일부터는 '방역패스 통합확인서 발급 누리집'에서 국민이 직접 종이증명서를 온라인으로 발급받아 출력할 수 있다.한편 26일부터 신속항원검사가 시범 적용되는 광주·전남·평택·안성지역에서는 선별진료소 및 임시선별진료소, 호흡기전담클리닉 지정기관에서 방역패스로 인정되는 '신속항원검사 음성확인서'를 발급받을 수 있다.신속항원검사 음성확인서는 신속항원검사가 시범 적용되는 4개 지역 외 전국에서 모두 방역패스로 인정되며, 결과 통보 후 24시간이 되는 날의 자정까지 유효하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2022.01.23.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>"美 오미크론 정점 지났다"…英은 정점서 절반 이상 감소</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003168519?sid=104</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>그래픽=차준홍 기자 cha.junhong@joongang.co.kr           오미크론 변이 확산으로 하루 최대 100만명 이상의 코로나19 확진자가 나왔던 미국에서 오미크론발(發) 대유행의 정점이 지났다는 관측이 제시됐다. 22일(현지시간) 뉴욕타임스(NYT), 더힐 등은 미국의 오미크론 확산이 정점에 이른 것으로 보인다고 보도했다. NYT에 따르면 미국은 전날 기준으로 앞서 7일 간 평균 72만 건의 신규 사례를 기록했다. 이는 일주일 전의 평균치인 80만7000건에서 10%가량 감소한 것이다. 실제 미국의 코로나19 일일 감염자 그래프도 꺾이기 시작한 것으로 나타났다. 21일 하루 감염자 수는 82만5052명으로, 오미크론 확산 이후 가장 많은 확진자가 나왔던 지난 14일(93만3249명)보다 12% 가량 줄었다. 다만 미국 남부에서는 아직 오미크론 변이가 확산하고 있어 추이를 지켜봐야 한다.      오미크론 변이 유행이 일찍 시작됐던 미국 북동부는 정점을 지나 빠른 감소세를 보이고 있다. 마크 레빈 뉴욕 맨해튼 자치구 회장은 “이번 유행이 지나가면서 남긴 뉴욕시의 피로도는 이루 말할 수 없다”며 “이제부터는 코로나19가 없어진 체하지 말고, 코로나19가 우리 삶을 망치지 않는 선에서 관리해야 한다”고 밝혔다.     그래픽=차준홍 기자 cha.junhong@joongang.co.kr      그래픽=차준홍 기자 cha.junhong@joongang.co.kr       뉴욕 등 오미크론 변이가 휩쓸고 간 지역에서 나타난 코로나19 확진자 그래프는 앞서 남아프리카공화국(남아공)에서 나타난 코로나19 확진자수 그래프의 모습과 흡사한 것으로 나타났다고 NYT는 전했다. 실제 뉴욕주는 지난 1월 8일 하루 신규 확진자 4만7591명을 기록했지만, 이후 약 2주가 지난 21일 하루 확진자 수는 1만2275명으로 내려앉았다. 남아공에서는 지난해 11월부터 오미크론 변이가 확산해 약 한 달간 코로나19 확진자 수가 급격히 증가했다가 지난해 12월 15일 정점(2만6389명)을 찍고 빠르게 하락했다. 이달 21일 기준 하루 확진자 수는 3519명이다. 정점 대비 1/9 수준이다.      영국은 감소세를 지속하고 있다. 지난 4일 하루 확진자 수 21만명을 넘어서며 정점을 기록한 뒤 2주가 지난 18일 9만3890명으로 50% 이상 하락했다. 22일에는 7만명대로 내려앉았다. 영국 가디언은 이날 기록된 7만6807명의 확진자 수는 2주 전보다 54% 감소한 것이라고 전했다. 사지드 자비드 영국 보건 장관은 “영국이 코로나19와 함께 사는 법을 배우고 있다”고 말했다.        그래픽=차준홍 기자 cha.junhong@joongang.co.kr      ━   사망자 수 아직 안 꺾여, 병상 압박      하지만 사망자 수는 아직 꺾이지 않았다. 미국의 7일간 평균 사망자 수는 21일 기준으로 2100명을 넘어섰다. 이는 1000명 선 이하였던 지난해 11월 말보다 두 배 이상 늘어난 것이다. 실제 21일 하루 사망자 수는 평균치보다 한참 높은 3866명으로 여전히 증가세를 보이고 있다. 영국의 사망자 수 그래프도 아직 꺾이지 않았다. 21일 영국의 사망자 수는 288명으로 기록됐는데, 7일 평균치인 268명보다 많다. 다만 17일 기록된 438명(평균 272명)보다는 다소 낮아져 사망자 수가 주춤하는 모양새다. 미국 정치전문매체 더힐은 “사망과 입원은 후행 지표”라면서 여전히 병상은 압박받고 있다고 경고했다. 로버트 잰슨 그래디병원(애틀랜타)의 최고 의료 책임자는 언론 브리핑에서 “병원이 들것으로 가득 찼다”며 “더는 남은 자리가 없다”고 토로했다,      프랑스 서부 사베네 지역 주민들이 코로나19 간이 테스트기를 구매하기 위해 약국 앞에 줄 서 있는 모습. [AFP=연합뉴스]           유럽에서는 오미크론이 공식적으로 우세종에 올랐다. 21일 유럽질병예방통제센터(ECDC)는 유럽연합(EU)과 유럽경제지역(EEA) 30개국에서 오미크론 변이가 우세종이 됐다고 밝혔다. 앞서 세계보건기구(WHO)는 유럽 절반이 한두 달 사이 오미크론에 강타당할 것으로 예측했다. WHO 소속 한스 클루게 박사는 오미크론이 “서에서 동으로 해일처럼 휩쓸고 있다”며 “전례 없는 확산 규모로 인해 입원자 수가 급증하고 있고, 여러 유럽 국가의 의료 시스템이 압박을 받고 있다”고 말했다.        영국에서는 오미크론의 하위 변이가 퍼져 당국이 이를 추적하고 있다. 21일 영국 보건안전청(UKHSA)은 이른바 ‘스텔스 오미크론 변이’(BA.2)를 조사 대상으로 지정했다. 영국에선 지난 10일 스텔스 오미크론이 53건으로 확인됐고, 최근 426건으로 늘었다. 스텔스 오미크론은 일부 특정 유전자 결함으로 기존 유전자증폭(PCR) 검사에서 다른 변이와 구별이 잘 안 된다는 특징이 있다. 스텔스 오미크론은 덴마크에서 지난해 말 전체 코로나 사례의 20%였고, 이후 45%까지 치솟았다. 다만 스텔스 오미크론 변이의 초기 병원 입원율은 기존 오미크론 변이와 비슷해 크게 우려할 수준은 아니라고 영국 과학자들은 전했다.     ━   “오미크론 다음 변이 성격이 중요”      CNN은 과학계 일각에서 나오는 낙관적인 전망을 전하면서도 오미크론 다음에 올 변이의 성격이 중요하다고 전제했다. 스탠퍼드 의대 이본 말도나도 교수는 “스페인 독감은 우리가 매년 보는 독감 바이러스의 선조”라며 “코로나바이러스도 비슷할 것 같다”고 말했다. UC샌프란시스코 전염병학자 조지 러더퍼드 교수는 “다음에 어떤 변이가 올지는 전혀 알 수 없다”며 병원성이나 전염력을 예측할 수 없다고 설명했다. 이와 관련 존스홉킨스대학의 폐·중환자 치료 의사인 파나기스 갈리아사토스는 “우리는 코로나19를 막을 방법을 알기에 더는 과학적 돌파구가 필요하지 않다”며 백신과 마스크 착용, 감염 검사, 추적 등 기본 원칙을 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2022.01.19.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>신규 방역패스 예외 확인서, 24일부터 쿠브앱서 발급(상보)</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005854563?sid=102</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>이상반응 인과성 불충분 경우 별도 절차 없이 전자 확인서 발급입원치료 받았다면 입원확인서·진단서 등록 후 전자 발급 가능© News1 김초희 디자이너(서울=뉴스1) 이형진 기자 = 정부가 신종 코로나바이러스 감염증(코로나19) 방역패스(접종증명·음성확인제) 예외 대상자를 확대한 가운데, 신규로 확대되는 대상은 오는 24일부터 예외 확인서를 쿠브 앱에서 발급 받을 수 있게 된다.김유미 중앙방역대책본부 일상방역관리팀장은 19일 출입기자단 온라인 백브리핑에서 방역패스 예외확인서 대상 확대를 발표하면서 이같이 밝혔다.당초 의학적 사유에 의한 방역패스 적용 예외 대상자는 Δ코로나19 백신 접종 후 중대한 이상반응(아나필락시스, 혈소판감소혈전증, 심근염, 심낭염 등)으로 접종금기·연기 통보 받은 경우 Δ백신 구성 물질에 알레르기 발생 이력이 있는 경우 Δ면역결핍, 면역억제제·항암제 투여자 등이었다.여기에 Δ백신 접종 후 이상반응 근거 불충분 판정을 받은 경우 Δ백신 접종 후 6주 내 입원치료 받은 경우 등이 추가됐다.이상반응 근거 불충분 판정을 받았다면 별도의 절차나 의사의 진단서 없이 쿠브 앱 또는 카카오, 네이버, 토스, PASS앱 등 전자출입명부 플랫폼에서 '접종내역 발급·업데이트'로 전자 예외 확인서를 발급 받을 수 있다.별도 증빙서류 없이 신분증을 지참하면 가까운 보건소에서 종이 예외확인서 발급도 가능하다.접종 후 6주 이내 입원치료를 받은 사례면 가까운 보건소에서 Δ입원확인서 Δ의사의 진단서를 갖고 방문해 방역패스 예외자로 전산 등록을 해야 한다. 전산 등록을 마쳤다면 어느 보건소에서 증빙서류 없이 예외확인서를 받을 수 있고, 쿠브앱 또는 전자출입명부 플랫폼에서 예외 확인서를 발급 받게 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2022.01.19.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>HDC현대산업개발, 강력한 제재 가능성에 ‘급락’</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000272269?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>■ 경제와이드 이슈&amp; '기업이슈' - 장연재◇ LPG 관련주LPG관련주가 국제유가 급등 영향으로 상승했습니다. 이날 런던 ICE선물거래소에서 브렌트유 선물가격은 86.48달러에 마감해, 올해 첫 2주 동안 10% 이상 오르며 2014년 이래 최고치에 근접했습니다. 오미크론 변이가 원유 수요에 미치는 영향이 크지 않을 것이라는 분석이 공급 부족에 대한 우려를 키운 것으로 분석하고 있습니다. ◇ 2차 전지 관련주LG에너지솔루션 IPO 흥행 기대감 속에 2차전지 관련주가 강세를 나타냈습니다.18~19일 LG에너지솔루션의 일반투자자 대상 공모주 청약이 진행 중인 가운데, 어제(18일) 하루LG에너지솔루션 청약 증거금으로 30조 원 이상 몰렸으며, 청약 건수는 200만 건을 넘었는데요. LG에너지솔루션이 공모주 청약 첫날부터 흥행몰이에 성공하면서 2차전지 업종 전반 투자심리를 끌어올린 것으로 보입니다.◇ 토스 관련주금융 플랫폼 '토스' 운영사 비바리퍼블리카가 프리IPO(상장 전 지분투자)에 속도를 내고 있는 것으로 전해집니다. 투자은행(IB) 업계에 따르면 비바리퍼블리카는 최근 모건스탠리(MS)와 크레딧스위스(CS)를 공동 주관사로 선정하고 본격적인 프리IPO작업에 착수했는데요. 상반기 내 마지막 투자 유치를 마무리하고 기업공개(IPO) 계획을 구체화한다는 계획으로 알려졌습니다.◇ 건설 대표주광주에서 대형 붕괴 사고를 연이어 일으킨 HDC현대산업개발 주가가 강력한 제재 가능성에 급락했습니다. 앞서 노형욱 국토교통부 장관은HDC현대산업개발에 대한 제재 수위와 관련해 "법이 규정한 가장 강한 페널티(처벌)를 줘야 하지 않을까 싶다"고 말했는데요. NH투자증권은 노 장관 관련 발언이 HDC현대산업개발뿐 아니라 다른 건설사에도 부정적 영향을 줄 것으로 예상돼 건설업종이 하락했다고 분석했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2022.01.19.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>[이슈체크] 영끌족 시름 깊어진다…코픽스 상승, 인뱅 금리 10% 육박</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000272404?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>■ 경제현장 오늘 '이슈체크' - 이정환 한양대 경제금융학부 교수시중은행의 대출금리가 가파르게 오르면서 영끌족의 시름이 깊어지고 있습니다. 1년전만해도 2-3%대였던 대출금리가 2% 포인트 정도 올랐는데요. 한국은행의 기준금리 추가 인상이 예상되는 상황. 가계부담, 얼마나 늘어날지 짚어보겠습니다. 이정환 한양대 경제금융학부 교수 나오셨습니다.[앵커]한국은행이 기준 금리를 올리니까 대출 금리가 오른다. 이미 지금 오르고 있는 거잖아요. 빚내서 집 산 사람들 걱정이 많을 텐데. 대출 금리를 결정하는 기준 금리 코픽스가 있다는데 코픽스가 얼마나 올랐습니까? 코픽스가 뭔가요? [이정환 한양대 경제금융학부 교수] 대출할 때 어떻게 금리가 결정되는지 아셔야 코픽스의 의미도 알 수 있을 텐데요. 대출 금리라는 것은 기준 금리가 있고요. 은행은 남의 돈을 빌려서 수익 사업을 하는 건데 남의 돈을 빌릴 때 내가 돈을 얼마나 줘야 하느냐가 기준 금리라고 할 수 있습니다. 이에 더해서 가산 금리는 은행이 공짜로 빌려주는 것은 아니고 영업 이익도 내야 하고 신용 평가도 해야 되고 신용 등급에 따라 추가적으로 금리를 더 붙이는 금리가 있고요. 마지막 우대 금리. 대출하러 가시면 신용 카드 만들고 월급 통장 만들면 할인해주겠다. 이 세 가지 요소가 결합이 돼서 금리가 결정되는데. 기준 금리라는 것은 코픽스인데 어떤 때 적용되냐면 변동 금리에 적용되는 기준 금리가 코픽스입니다. 코픽스를 구성하는 요소는 기본적으로 저기 예금 금리, 적금 금리, 단기 금융채 금리 등 짧은 만기의 은행이 돈을 일으킬 수 있는 자본 조달 비용이고요. 시중 8개 은행에서 평균값을 내서 결정을 한다고 말씀드릴 수 있는데 코픽스 금리가 지난 6월부터 따지면 0.75, 11월, 12월만 따져도 0.4%가 올랐다고 이야기가 나오고 있거든요. 금리 인상이 8월, 11월에 있었는데 그냥 다 반영돼서 올라버렸다고 보시면 될 거 같습니다. 이번에 한번 또 올렸기 때문에 코픽스 금리가 계속 올라갈 가능성이 높고요. 이에 따라서 대출 금리 역시 기준이 되는 금리가 올라가고 있기 때문에 대출 금리 역시 상향할 가능성이 굉장히 높다고 말씀드릴 수 있습니다.[앵커]대출 변동 금리를 결정하는 기준이 되는 코픽스가 11월, 12월 두달간에 걸쳐서 0.4% 포인트나 올랐다. 그렇게 오르면 주택 담보 대출 기준으로 해서 변동 금리는 얼마나 오르고 있나요?[이정환 한양대 경제금융학부 교수]1-2년 전, 코로나 직후만 해도 2-3%였는데 지금은 4-5%라고 보시면 될 거 같고요. 지금 많이 올라가서 kb 은행 같은 경우는 3.7-5.2, 우리은행의 경우 3.95-4.95라고 하는데 코픽스 금리가 한번 오르면 월별로 반영되는 시점이 있습니다. 그 시점에 작년 12월에 0.14가 올랐는데 신한은행 금리가 그런다는 이야기는 0.14포인트, 변동 금리에 한해서는 올라간다고 보시면 될 거 같습니다. 추가로 가산 금리, 우대 금리가 바뀌면서 변동 금리가 변경되긴 하는데 코픽스는 신규 대출에 대해서는 매달 특정일에 정해서 올라가게 되고요 1월의 경우 18일에 반영돼서 0.14 포인트 올라간 것이 여러분들이 보시는 표에 나오는 값이라고 보시면 될 거 같습니다. [앵커]어제 기준으로 코픽스 금리가 올라가서 새로 대출을 받는 경우에는 변동된 금리고 적용을 받는다는 말씀이시네요.[이정환 한양대 경제금융학부 교수]0.14% 포인트가 그대로 적용이 됩니다.[앵커]실제 대출을 받은 사람들, 돈을 빌린 사람들. 은행별로 조금은 대출 금리 차이가 있습니다만 원래 이자보다 어느 정도나 올라갈까요?[이정환 한양대 경제금융학부 교수]평균이란 게 있죠. 전국민이 가진 대출의 평균값을 생각하면 0.25% 오르면 연간 16만 원 정도 오른다고 생각하는데 큰 금액은 아니죠. 이 문제는 평균의 함정이라고 이야기를 하는데 왜냐면 부동산 담보 대출, 요새 집값이 오죽이나 올랐겠습니까. 전세 대출하신 분들은 기본 3-4억대고요. 지금 금리가 3번 올랐고 한 번 정도 더 오르면 1%가 되는데 1년에 300만 원 이자를 더 내야 한다는 이야기고요. 1년 300만 원 이면 한 달 월급이 없어진다고 보시면 될 거 같습니다. 특히 대출하신 분들은 기본적으로 4-5% 깔고, 깐다는 게 지금 빌릴 EO는 4-5%를 빌리고 나중에 1% 더 오르면 1500만 원 낼 거 1800만 원 더 내고 이런 식으로 가기 때문에 한계 부담이라고 하죠. 가계에 미치는 부담이 금리가 낮을 때는 괜찮았는데 금리가 오르면 오를수록 수준이 올라갈 수 있고 그에 따라 변동 영향이 소비, 가계 지출, 가계 생활에 많은 영향을 미칠 수 있다고 이해하시면 될 거 같습니다.[앵커]그러면 이렇게 대출 금리가 변동 금리 기준으로 올라가면 돈을 빌리는 사람들은 금리가 변동하는 대출을 받아야 됩니까 아니면 고정시키는 고정 금리 대출, 어떤 전략이 필요할까요? [이정환 한양대 경제금융학부 교수] 고정 금리 대출이 변동 금리 대출보다는 일반적으로 1% 포인트 가량 비쌉니다. 왜 그러냐면 기준 금리가 달라서인데요. 변동 금리는 코픽스를 쓰는데 단기 자금에 가깝고요. 고정 금리는 은행체, 금융체라고 이야기하는데 금융체 5년 만기에 대해서 기준을 봅니다. 그 말은 단기에 비해서 장기가 금리가 높기 때문에, 여러분 적금 드시면 1년짜리보다 2년짜리가 높고, 2년짜리보다 3년짜리가 높듯이 채권도 마찬가지라 5년짜리가 당연히 1-2년 단기물에 비해서 금리가 높기 때문에 이런 것을 반영해서 1% 포인트 정도 차이가 나고요. 0.5% 차이까지 줄어들면 고정 금리로 대출하는 게 유리할 가능성이 높다. 고정 금리로 하시는 분들은 장기로 돈을 빌리시는 분이 많고요. 기본적으로 변동 금리가 단기적으로는 쌀 수밖에 없으니까요. 장기로 빌리시는 분들이 많고. 장기로 빌릴 때 고려해보면 0.5% 정도면 금리 두 번 오르는 정도니까 예전 같은 경우면 고정 금리로 바꾸는 게 낫다고 생각하시는데 지금은 금리도 적극적으로 올릴 가능성이 있어서 마진이 커도 고정 금리를 타는 게 유리할 수 있다. 고정 금리는 장기로 빌려야 하고 지금 10년 물 금리가 많이 올라가서 주가 떨어졌다는 이야기가 많이 나오는데. 10년 물 금리라는 것은 미래에 대한 일종의 이자율에 대한 기댓값이 반영되는 것이거든요. 지금 좀 더 마진을 두고 고정 금리를 빌리는 것도 장기적으로 빌리실 분들은 어떻게 보면 고려해볼 수단이 될 수 있다고 말씀드릴 수 있습니다.[앵커]고정 금리 대출과 변동 금리 대출 차이가 0.5% 포인트 차이 정도라면 금리 인상은 변동 금리가 유리할 거 같지만 지금 금리를 적극적으로 올리니까 0.5% 포인트보다 조금 넓어도 고정 금리를 고려해볼 필요가 있다. 기존에 있는 변동 금리를 고정 금리로 바꾸는 건 다른 벌칙은 없나요? [이정환 한양대 경제금융학부 교수] 바꾸려고 하면 페널티가 있죠. 3년이 기준인데 같은 은행에서 상환하면 페널티가 약하긴 한데 3년 안에 바꾸면 1.2% 정도 돈을 지급하고 새로운 금리를 타야 하기 때문에 이것은 늘 체크 대상이라고 말할 수 있고요. 아까 가산 금리에 대해 이야기했는데 요즘 화두는 가계 대출 총량 규제죠. 은행이 더 이상 대출해줄 인센티브가 사라졌다는 이야기랑 비슷합니다. 은행이 이익을 높이기 위해서 가산 금리를 심하게 올려도 별 상관없다. 가산 금리를 낮춘다는 이야기, 우대 금리를 더 준다는 이야기는 결국 시중 은행끼리 공격적으로 대출해줄 때 [앵커] 경쟁적으로 금리를 좋게 해주는데 낮게 했는데 지금은 그럴 상황이 아니다. [이정환 한양대 경제금융학부 교수] 그럴 상황이 아니기 때문에 가산 금리도 많이 올랐다고 이야기하고 있고요. 그래서 작년 뉴스 나오면 금감원에서 은행들 가산 금리 관리하라고, 소비자들에게 피해가 되는 거 아니냐. 이런 이야기들이 나오듯이 가산 금리가 올라갈 수 있어서, 우대 금리도 사라지고 있고요. 우대 금리는 경쟁을 위한 건데 지금 은행은 경쟁할 필요가 없습니다. 전세 대출만 쥐기도 충분한 상황이어서 경쟁할 이유가 별로 없어서 금리 조건이 기준 금리 외에 안 좋아질 요건이 많아서 그러한 점을 체크해서 가시는 게 맞을 거 같습니다.[앵커]전세 대출 금리도 오르고 있는 거죠? 얼마나 올랐나요? [이정환 한양대 경제금융학부 교수] 전세 대출은 빌려보시면 알겠지만 변동 금리밖에 없고요. 변동 금리는 코픽스에 연동된다고 보시면 될 거 같습니다. 기본적으로 전세 대출은 주택담보대출보다 0.3% 낮긴 한데 이미 2%가 올랐는데 그만한 이야기는 2%씩 다 올랐다는 이야기고요. 지금 3.7-5.2 이야기 나왔는데 거기서 0.3 빼면 3.4-4.8, 전세 대출 금리는 그 정도 라인이고. 이번에 금리를 올려서 5%가 넘을 가능성도 높다. 금리를 더 올리게 되면 또 높일 가능성도 있고 그다음에 요새 인플레이션 우려 때문에 채권에 대한 이자율이 계속 올라가서 주식 시장이 안 좋아진다고 이야기하는데 물가 상승 부분 역시 코픽스 금리에 반영될 수밖에 없기 때문에 전세 대출 금리도 5-6% 갈 수 있지 않을까. 5%까지는 제일 높은 금리겠죠. 5%까지는 가고 몇 번 더 올리면 6%까지도 갈 수 있지 않을까라고 많이들 생각하고 있는 거 같습니다. [앵커] 전세 대출 금리가 오르면 돈 빌려서 전세 드는 거보다 월세로 가는 게 유리할 수도 있잖아요. 전세 대출 금리 상승이 월세로 갈 거냐 말거냐를 결정할 중요한 금리가 될 거 같아요. 6%까지도 가면 월세가 더 늘어나지 않을까 하는 생각도 듭니다. 최근에 인터넷 전문 은행들, 신용이 조금 낮은 고객들에게 돈을 많이 빌려주는데. 신용 대출 금리가 10%에 육박하는 곳이 있어요.[이정환 한양대 경제금융학부 교수]카카오 뱅크죠. 사실 2017년에 카카오 뱅크가, 여담이긴 하지만, 2017년에 카카오 뱅크가 마이너스 통장이 대표적인 신용 대출 상품인데 남들보다 1.5-1.6% 금리를 적게 받아서 여러 직장인들이 많이 옮겨갔습니다. 그분들이 요새 화들짝 놀라죠. 다른 시중 은행에서 빌리는 것보다 마이너스 통장 역시 금리가 바뀌는 게 다른 데보다 비싼 거 같다고 생각하고 있고요. 그 말은 결국 카카오 뱅크의 자금 조달 금리가 꽤 올라갔다는 부분이 있어서 카카오 뱅크가 보듯이 케이 뱅크나 토스 뱅크에 비해서 많이 높고. 카카오 뱅크가 이렇게 신용대출 평균 금리가 높은 것인 중위험이라고 하죠. 중위험 중금리 대출이라고 이야기를 많이 하는데 사실 카카오 뱅크나 케이뱅크 이런 인터넷 뱅크의 설립은 중금리 대출, 흔히 말하는 제2금융권 가긴 그렇고. 제2금융권은 신용이 모자란 사람들을 적극적으로 대출해주자, 이걸 가계 평가를 정확하게 해서 적극적으로 대출을 해주자는 게 있었고요. 그 말은 내부 목표가 있었다. 중금리 대출의 내부 목표가 있었는데 20% 정도 됐습니다. 작년에 카카오가 한참 모자라서 중금리 대출, 흔히 말하는 위험이 많은 대출을 많이 해줘서 흔히 말하는 가산 금리가 올라가게 되고 신용 대출 금리가 10% 포인트에 육박하게 되는 상황까지 갔고요. 앞으로도 카카오 뱅크는 목표량을 달성해야 되기 때문에 신용 대출 금리는 올라갈 가능성이 높다. 말씀드린 자본 조달 금리의 이슈도 있고요, 그런 부분도 있지만 금리를 높게 해주는 대출이 많아진 부분. 그리고 근본적으로는 여러분이 카카오 뱅크 주가가 떨어진다고 하는데 근본적으로는 카카오 뱅크 같은 데는 가계 대출 중 주택 담보 대출을 못 하고 있고요 기업대출은 당연히 없습니다. 가계 대출은 묶어놨기 때문에 경쟁력을 가져갈 수 있는 부분이 많지 않지 않느냐. 그렇게 되면 높은 금리를 줘서 계속 소비자들, 흔히 말하는 은행에 대금 할 사람들을 찾아야 되는데 이런 것들이 반영돼서 수익성이 악화되는 상황이 아닌가라는 우려도 있고 이런 것이 주가에 반영되는 상황이라는 게많은 거 같습니다. [앵커]한국은행 기준금리 인상에 따른 대출 금리 상승 동향 잘 들었습니다. 지금까지 이정환 한양대 경제금융학부 교수였습니다. 교수님, 잘 들었습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2022.01.19.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>접종後 6주내 입원치료·인과성 불충분 사례도 방역패스 '예외'</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003599162?sid=102</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>"접종 노력했으나 이상반응으로 마치지 못한 이들 불편 최소화"방대본 "접종과의 인과성 인정 또는 접종금기와 동의어 아냐"추가사례 오는 24일부터 예외확인서 발급…별도 유효기간 없어 "임신부, 주수 관계없이 접종대상…예외대상 아니다" 재차 강조김부겸 국무총리가 19일 정부서울청사에서 열린 코로나19 대응 중앙재난안전대책본부 회의를 주재하고 있다. 연합뉴스정부가 오는 24일부터 코로나19 백신을 접종한 뒤 이상반응 의심증상으로 6주 이내 입원치료를 받은 이들을 '방역패스'(접종증명·음성확인제) 예외대상에 포함시키겠다고 밝혔다. 백신 이상반응을 당국에 신고하고 피해보상을 신청한 사례 중 '인과성 판단근거 불충분' 판정을 받은 경우도 예외로 인정하기로 했다.이에 따라, '의학적 사유'에 따른 방역패스 예외는 기존 △1차접종 후 중대한 이상반응으로 2차접종이 연기·금지된 사람 △면역결핍, 면역억제제·항암제 투여로 접종 연기가 필요한 사람 △백신 구성물질에 중증 알레르기 발생이력이 있는 접종 금기 대상자, 에 더해 5가지로 늘어났다. 접종 후 부작용으로 6주 내 입원치료…"시간적 연관성 있어야"김부겸 국무총리는 19일 오전 중앙재난안전대책본부 회의에서 "접종자와 미접종자를 함께 보호한다는 방역패스 제도의 취지를 살리고자 1차접종 이후 이상반응 때문에 입원치료를 받으신 분들도 앞으로 방역패스 대상자로 인정해 드리겠다"고 말했다. 그러면서 "방역패스의 적용대상과 수준은 어떤 정해진 답이 있는 것은 아니다. 사회적 공감대와 합의를 이뤄가는 과정"이라며 "정부는 방역패스를 방역 상황에 맞게 탄력적으로 운영하겠다"고 강조했다. 방대본은 이날 오후 '접종 후 6주 이내 입원치료'로 보다 구체화된 기준을 발표했다. 이상반응 의심증상의 종류, 기존에 방역당국에 신고했는지 여부 등과 관계없이 해당 기간 내 입원치료를 받았다면 모두 예외사유를 인정하기로 했다. 방대본 김유미 일상방역관리팀장은 "입원치료에 있어서 시간 기준을 둔 것은 (이상반응과) 접종 간 시간적 연관성이 있어야 하기 때문"이라며 "'④-1'이라 불리는 인과성 불충분 사례, 특별관심 이상반응을 관찰하는 경과기간이 4~6주라 (기준을) 6주로 두게 됐다"고 말했다. 이어 "방역패스 예외확인서를 받기 위해 요구되는 최소 입원기간은 없다"고 부연했다.지난 17일 서울의 한 대형마트에서 시민이 QR코드 체크를 하고 있다. 이날 정부가 보습학원·독서실·박물관·영화관·대형마트·백화점 등 마스크를 상시 착용 가능하고 침방울 배출 활동이 적은 시설의 방역패스(접종증명·음성확인제) 적용을 18일부터 해제하겠다고 밝혔다. 이한형 기자해당자는 오는 24일부터 입원했던 의료기관에서 입원확인서, '코로나19 예방접종 후 이상반응으로 입원치료를 받았다'고 적힌 의사 진단서를 받아 가까운 보건소를 방문하면 된다. 증빙서류를 확인한 보건소는 대상자를 방역패스 예외자로 전산 등록하게 된다. 방대본은 최소 1번 이같은 과정을 거치면, 전국 어느 보건소에서나 증빙서류 제출·확인 없이 종이 예외확인서를 발급받을 수 있다고 안내했다. 질병관리청이 관리하는 모바일 애플리케이션인 쿠브(COOV)나 전자출입명부 플랫폼(카카오·네이버·토스 등)을 통해서도 전자 예외확인서 발급이 가능하다.'인과성 판단근거 불충분' 사례도 포함…길랑바레 증후군 등백신을 맞고 이상반응을 신고하고 피해보상을 신청했으나, 예방접종 피해조사반 또는 피해보상전문위원회에서 '인과성 근거 불충분'(④-1) 판정을 받은 경우도 예외로 추가됐다. '인과성 근거 불충분'이란 예방접종과 이상반응 사이 인과성을 판단할 근거가 충분치 않은 사례를 이른다. 방역당국은 이상반응 인과성을 '인과성 명백', '인과성의 개연성이 있음', '인과성의 가능성이 있음', '인과성이 인정되기 어려움' 등 4가지 기준으로 분류해 심의하고 있다. 인과성 근거 불충분은 인과성 인정이 어려운 4번에 해당되나 '백신보다 다른 이유에 의한 경우'(④-2)가 아닌 사례다. '명백히 인과성이 없는 경우'(⑤)도 물론 아니어야 한다. 현재 정부는 인과성 불충분 사례(④-1)에 대해서도 의료비 최대 3천만 원, 사망자일 경우 최대 5천만 원을 지원하고 있다. 지금까지 당국으로부터 의료비를 지원받은 대상에는 아스트라제네카(AZ)·얀센 등 아데노바이러스 벡터 백신 접종 후 드물게 나타날 수 있는 이상반응인 길랑바레 증후군, 급성파종성뇌척수염 등이 있는 것으로 알려졌다. 인과성 근거 불충분 판정을 받은 경우, 대상자는 질병청이 아닌 관할 지자체를 통해 이 사실을 통보받게 된다. 해당사례는 별도의 절차나 의사의 진단서가 필요 없다. 이들은 곧바로 쿠브 앱이나 카카오·네이버·토스·PASS앱 등에서 '접종내역 발급·업데이트'를 하면 전자 예외확인서를 발급받을 수 있다. 또 증빙서류 없이 신분증만 지참하면 인근 보건소에서 종이 예외확인서 발급도 가능하다. 다만, 정부는 이번에 확대된 예외범위가 향후 접종이 절대 불가하다는 '접종 금기'와 동의어가 아니라는 점을 강조했다. 김 팀장은 "저희가 강조해 말씀드리고 싶은 것은 이러한 방역패스 예외범위 인정이 백신 접종과 이상반응과의 인과성(인정), 피해보상 필요성, 접종 금기를 의미하는 것은 아니라는 점"이라고 말했다. 또한 "'단계적 일상회복' 과정에서 사회적 거리두기의 대체수단으로 방역패스를 다중시설 전반으로 확대함에 따라, 접종을 받으려 노력은 하셨고 1회 이상 접종을 받으셨지만, 이상반응으로 추가적 접종을 받지 못하고 접종완료하지 못한 분들의 불편을 최소화하는 목적"이라고 설명했다. 아울러 "접종 후 이상반응 의심증상이 나타나 입원치료한 경우는 예방접종 실시기준에 따른 2차·3차접종 금기대상이 아니다"라며 "방역패스 예외확인서를 받으셨다 해도 본인의 건강상태가 호전된다면 코로나19로부터 본인과 가족, 주변을 지키기 위해 향후 접종에 적극 참여해주실 것을 당부드린다"고 덧붙였다.방대본은 금번 조치로 예외사유가 된 △접종 후 6주 이내 입원치료 △인과성 근거 불충분 사례 등은 예외확인서의 유효기간이 따로 없다고도 밝혔다. 면역 결핍 또는 면역억제제·항암제 투여로 인한 접종 연기자의 경우, 확인서 발급 이후 180일까지를 유효기간으로 두고 있다.클릭하거나 확대하면 원본 이미지를 보실 수 있습니다."임신부는 주수 관계 없이 접종 권고대상" 재차 선 그은 당국한편, 당국은 예외확대 필요성이 끊임없이 제기돼온 임신부의 경우 임신주수와 관계없이 접종 권고대상임을 재확인했다.만약 당장 접종이 어렵다는 의료진의 소견을 받은 임신부라면, 더더욱 방역패스가 적용되는 다중시설에 출입할 이유가 없다는 설명도 덧붙였다. 코로나19 예방접종대응추진단 홍정익 예방접종관리팀장은 "(임신 초기인) 임신 12주 이내에 산부인과 의사와 상의해 접종하라고 하는 가장 큰 이유는 임신 초기엔 자연적으로 임신유지가 어려운 상황들이 발생할 수 있기 때문"이라며 "백신이 위험해서가 아니다"라고 말했다. 그러면서 "그런 상황이 발생했을 때 잘못 오인하면 백신이 임신에 영향을 미쳤다고 오해할 소지가 있기 때문에 미리 임신상황과 태아 상태를 확인하고 그에 맞춰 예방접종을 하시라는 권고"라며 "이 부분은 대한산부인과학회와 질병청이 함께 권고드리고 있다"고 설명했다. 그는 "접종을 하지 못할 상황과 임신 상 고위험상황은 전혀 별개인데, 예방접종이 어려운 건강상황이라면 (접종을) 미루라는 권고를 받을 수는 있다"며 "그런 경우라면 외출도 자제하셔야 하는데, 유흥업소나 식당 등 방역패스가 적용되는 특정시설을 가기 위해 걱정을 하실 필요는 없을 것 같다"고 밝혔다. 김 팀장 역시 "일반적으로 임신부는 코로나19 고위험군이며, 접종이 권고된다는 것을 방대본과 추진단에서 계속 강조한 바 있다"며 "특히 요즘 미접종 임신부의 확진 후 위험사례가 (몇몇) 보고된 만큼 임신부에게도 예방접종이 권고되며, 의학적 사유에 의한 방역패스 예외대상에 포함되지 않는다"고 강조했다.클릭하거나 확대하면 원본 이미지를 보실 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2022.01.19.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>은행들 예·적금 금리 인상… 앞서 올린 인뱅은 ‘패스’</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004775132?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>KB·신한·우리·하나·농협 줄상향카뱅·케뱅은 추가 인상계획 없어  지난주 한국은행이 기준금리를 인상하면서 KB·신한·우리·하나·농협 등 5대 시중은행이 이번 주 들어 모두 예·적금 금리를 상향 조정했다. 하지만 앞서 금리를 큰 폭으로 인상한 인터넷은행들은 수신금리 인상 행렬에 동참이 어려운 분위기다.   19일 은행권에 따르면 NH농협은행은 이날부터 예·적금 금리를 기존보다 최대 0.40%포인트(p) 인상하기로 했다.   일반정기예금은 연 0.95%에서 1.20%로, 큰만족실세예금이 1.15%에서 1.40%로 각각 0.25%p 오른다. 정기적금은 1.20%에서 1.45%로, 상호부금은 1.15%에서 1.40%로 인상된다.   KB국민은행도 기준금리 인상을 반영해 국민수퍼정기예금 등 예금 17종 및 적금 20종의 금리를 20일부터 최고 0.40%p 올린다.   거래 실적에 따라 우대이율을 제공하는 KB국민ONE적금은 기존보다 금리가 0.40%p 오른다. 비대면 전용상품인 KB반려행복적금의 경우 3년 만기 기준 최고금리가 3.35%로 변경되며, KB더블모아 예금은 1년 기준 최고 2.05%로 조정된다.   BNK부산은행도 이날부터 정기예금과 적금 금리를 상품별로 최대 0.50%p 올린다고 밝혔다.   다른 시중은행들도 앞서 수신 금리를 인상했다. 신한은행과 우리은행이 17일부터 예·적금 금리를 최대 0.4%p 올렸고, 하나은행이 뒤이어 18일부터 수신상품 금리를 올린 바 있다.   앞서 지난 해 두 번의 금리 인상에 맞춰 큰 폭으로 금리를 올린 인터넷은행들은 이번에는 여력이 없는 분위기다.   지난해 9월과 12월 각각 최대 0.4%p씩 예적금 상품의 금리를 올린 카카오뱅크 관계자는 "예적금 금리 인상 관련해서 현재 내부 검토 중"이라면서도 "현재 단계에서는 인상 여부를 확정해 말하기 어렵다"고 말했다.   케이뱅크도 마찬가지다. 케이뱅크는 지난 달 예·적금 등의 금리를 최대 0.6%p까지 끌어올렸다. 지난 해 두 차례의 기준금리 상승폭보다 높은 수준이다. 케이뱅크 관계자는 "선제적으로 큰 폭으로 올린 상황"이라며 "추가 금리 인상을 검토 중이지만 아직 시기와 인상 폭은 미정"이라고 말했다.   토스뱅크는 아예 변동이 없다는 뜻을 명확히 했다. 토스뱅크 관계자는 "토스뱅크는 정기 예·적금 상품이 없고 수시입출금상품만 있다"며 "현 금리 수준을 그대로 유지할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2022.01.30.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>예·적금금리 고작 年1~2%대 …고금리 특판·인뱅 상품 어디없나</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004702680?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>/사진=뉴스1한국은행이 지난해 8월부터 올해까지 세 차례 기준금리를 올렸지만 주요 은행의 예·적금 금리는 1~2%대에 머물고 있다. 상대적으로 높은 금리를 주는 은행별 특별판매(특판) 상품이 주목받는 이유다. 우대금리 조건이 단순하고 소소한 혜택을 주는 인터넷전문은행 상품도 인기를 끌고 있다.30일 은행권에 따르면 우리은행은 올해 창립 123주년을 기념해 1·2·3 패키지 상품(1% 입출금 통장, 2%대 예금, 3%대 적금)을 출시하고 특판을 진행 중이다. '우리 (영업점명) 적금'을 보면 기본금리 2.6%에 우대금리 0.5%포인트(p)를 더해 최고 연 3.1% 금리를 제공한다. 영업점마다 우대 조건은 다를 수 있다.하나은행은 설 연휴인 1월29일부터 2월22일 사이에 'e플러스적금'에 가입하는 고객에게 0.4%p 우대금리를 제공한다. 기본금리는 1년 만기 기준 연 1.35%, 최대금리는 연 2.55%다. 월 최대 납입 가능 금액이 100만원으로 높은 편이다. BNK부산은행은 새해를 맞아 '흑호 정기예금 특판'을 실시하고 있다. 'BNK내맘대로 예금'을 5000억원 한도로 판매하는데 1년 만기 기준 기본금리는 연 1.7%, 최대금리는 연 1.9%다. 영업점 창구에서 부산은행 직원이 발송한 디지털명함을 통해 모바일뱅킹에 신규로 가입하면 우대금리 0.1%p가 추가돼 최고 2% 금리를 받는다. ESG(환경·사회·지배구조) 관련 적금에 가입하면 쏠쏠한 금리와 함께 '의미'도 챙길 수 있다. 하나은행의 에너지챌린지 적금은 기본금리가 1.05%지만, 우대금리로 최대 3.3%p를 제공한다. 가입 기간 중 매월 전기 절약 미션을 달성하면 0.1%p 우대금리를 준다. 최대 0.5%p 우대금리를 받을 수 있다. 적금 가입 다음달부터 10개월 동안 전기 사용량의 전년 동기 대비 절감률에 따라 우대금리를 받는다. 전기 절감률이 16% 이상일 경우 2.5%p, 11~16% 미만 1.5%p, 5~11% 미만 0.5%p 등이다.인터넷전문은행 예·적금 상품도 선택지가 될 수 있다. 기존 은행들에 비해 우대금리 조건이 단순하고 소소한 혜택을 제공한다. 6개월이라는 비교적 짧은 기간 목돈을 모을 수 있는 상품인 카카오뱅크 '26주적금'은 최고금리가 2.5%다. 기본금리 2%에 26주 동안 빠짐없이 자동이체에 성공하면 0.5%p 우대금리를 받는다. 납입금은 매주 최초 가입금액 만큼 자동으로 증액되는데 1000원, 2000원, 3000원, 5000원, 1만원 중 선택할 수 있다.케이뱅크는 우대금리 조건 없이 모든 고객에게 높은 수준의 금리를 제공한다. '코드K 정기예금'은 1년 기준 기본금리가 연 2%다. 특히 케이뱅크는 금리보장 서비스를 실시하고 있다. 예금 가입 후 2주 내에 해당 상품의 금리가 오르면 자동으로 금리 인상분을 적용해준다. 다른 은행의 경우 상품 금리가 올랐을 때 이를 적용받기 위해선 해지 후 재가입을 해야 한다.납입 기간이 정해져 있지 않아 언제든 돈을 넣고 뺄 수 있는 수시입출금 상품 중에선 토스뱅크 통장이 인기다. 1억원까지는 조건 없이 연 2% 금리가 제공된다. 1억원 초과 자금에 대해선 연 0.1%로 금리가 변경된다. 이 통장과 연동된 토스뱅크 카드는 각종 캐시백 혜택을 준다. 별도 실적 조건 없이 편의점, 커피, 패스트푸드, 택시 각 영역에 대해 3000원 이상 결제건에 대해 하루 한 번 300원이 캐시백이 된다. 지하철 등 대중교통 이용시에도 하루 한 번 100원이 들어온다. 이를 통해 월 최대 4만300원을 돌려받을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2022.01.19.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>애플펜슬에 포켓몬까지…모바일 키우는 이마트24</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002716741?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>이마트24가 매력적인 앱 예약구매 상품을 내걸고 엄지족을 불러 모으고 있다.이마트24는 오는 20일 오전 10시부터 애플펜슬2세대 1000개를 모바일 앱에서 한정 판매한다고 19일 밝혔다. 예약 구매자에게는 이마트24 모바일상품권을 제공한다.오는 28일 출시 예정인 '닌텐도 스위치 포켓몬 레전드 아르세우스'도 앱에서 한정 판매중이다. 예약 구매 시 출시일인 28일에 맞춰 고객이 지정한 이마트24 매장에서 받을 수 있다.이마트24는 할인 판매와 함께 설 명절 등으로 택배가 몰리는 상황에서 출시일에 맞춰 매장 픽업이 가능해 고객들의 호응이 있을 것으로 기대하고 있다.이탈리아 캔디와 초콜릿도 앱에서 한정 판매한다. 20일 오전 10시부터 '임산부 캔디'로 유명한 페를레 디 솔레 이탈리아 캔디 4종세트와 이탈리아 초콜릿 위토스 셀렉션 4종세트를 판매한다.이마트24는 고객 근거리에 있는 전국 매장이 픽업 장소로 활용될 수 있다는 장점을 바탕으로 온·오프라인 시너지를 극대화할 수 있는 예약 구매 서비스를 강화해 엄지족을 끌어 들인다는 방침이다.앱 예약구매는 가맹점이 무재고로 매출을 올릴 수 있다는 장점과 함께 상품을 픽업하기 위해 고객이 매장으로 방문해야 하기 때문에 추가 구매까지 기대할 수 있다.이마트24 관계자는 "고객들이 이마트24 모바일앱과 오프라인 매장을 방문하고 구매로 이어질 수 있도록 예약구매를 강화해 나갈 계획"이라며 "매력적인 앱 전용 상품을 지속적으로 선보이겠다"고 말했다.이마트24의 모바일 앱. &lt;이마트24 제공&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2022.01.24.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>스얼, 초보 장업자를 위한 HR 가이드북 발간</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002245703?sid=105</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>비매품으로 종이책은 25일부터 배포...VC가 알려주는 투자 유치 전략에 이어 두번째 지침서스타트업얼라이언스(스얼, 센터장 최항집)는 HR 이론과 실무간 조화를 이루는 방법을 담은 ‘초보 창업자를 위한 HR 가이드북’을 발간했다고 24일 밝혔다. 이 책은 스얼이 올해 초 발간한 ‘VC가 알려주는 스타트업 투자 유치 전략‘에 이어 두 번째 가이드북이다. 비매품으로 스얼 홈페이지에서 무료로 볼 수 있다. 종이책은 오는 25일부터 배포한다. 전자책은 2월부터 리디북스에서 확인할 수 있다.책은 HR로 고민하는 초기 스타트업 창업자들을 위해 쓰여졌다. 지난 몇 년간 인력난이 심해지며 스타트업 창업자들은 인재 채용을 가장 우선 과제로 꼽고 있다. 스얼과 오픈서베이가 공동 시행한 ‘스타트업 트렌드 리포트 2021’에 따르면 창업자 65.2%는 ‘인력 채용에 어려움을 겪고 있다’고 답했다.책은 채용, 조직문화, 보상 등 초기 스타트업이 알면 효과적인 HR 전략을 담았다. 책에는 ▲HR 관점의 스타트업 특징 ▲인재 오퍼와 입사 및 온보딩 전략 ▲직무수행평가와 보상 체계 설계 ▲직원 면담과 퇴사 등이 소개됐다.책에는 스타트업 현장에서 HR 전략을 세우고 실무를 진행한 전문가 인터뷰도 담겼다. 비바리퍼블리카(토스) 박토니 피플앤컬쳐팀 리더, 더핑크퐁컴퍼니 최정호 CLO(Chief Life Officer), 소풍벤처스 최경희 파트너, 스푼라디오 박미현 HR리더, 힐링페이퍼(강남언니) 홍승일 대표와 황조은 커뮤니케이션 리더가 인터뷰에 참여했다.저자는 이기대 스얼 이사다. 그는 한양대 전자공학과를 졸업하고 대학원에서는 컴퓨터공학을 전공했다. 이후 서치펌 창업자, 스타트업 HR 임원, 사회적기업 대표를 역임했다. 현재 스얼 이사로 스타트업 생태계 지원에 힘쓰고 있다. 저서로 '외국인 회사 들어가기&amp;옮겨가기' '스무 살, 이제 직업을 생각할 나이'가 있고 역서로 '왜 학벌은 세습되는가?' '내 연봉 내가 정한다' '비즈니스에 영감을 주는 짧지만 강력한 아이디어' 등이 있다.최항집 스타트업얼라이언스 센터장은 “스타트업은 빠른 성장만큼 필요한 인력이 빠르게 변하며, 작은 인력 규모에 비해 업무 범위는 넓고 상황에 맞춰 새로운 역할을 해야 할 수 있다”며 “기존 기업과는 다르게 HR 전략을 짜야하는 초보 창업자들에게 이 책이 작은 안내서가 되길 바란다"고 말했다.한편 사단법인 스타트업얼라이언스는 한국 스타트업 생태계 활성화와 스타트업 해외진출을 지원하는 비영리기관이다. 스타트업과 스타트업 생태계 주요 구성원을 연결하고 생태계 선순환을 만드는데 주력하고 있다. 스타트업 생태계 컨퍼런스, 재팬부트캠프, 테헤란로 클럽 시리즈, 스타트업 트렌드리포트 발간 등 스타트업 성장과 생태계 활성화를 위한 다양한 활동을 하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2022.01.26.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>KTB證, 작년 당기순이익 1740억 돌파…3년 연속 최대치</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010967807?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>기사내용 요약영업이익 1741억…전년比 129.2%↑코스닥 상장한 네트워크, 최대이익유진銀 역대치…자산운용, 15조 돌파태국 유일 진출 STN 호실적 등[서울=뉴시스] 이승주 기자 = 지난해 KTB투자증권 당기순이익이 1740억원을 넘어섰다. 증권사로 전환한 뒤 3년 연속 최대 실적을 갈아치웠다.26일 공시에 따르면 연결 기준 영업이익과 당기순이익은 각각 1433억원, 1741억원으로 집계됐다. 이는 전년 대비 각각 115.5%, 129.2% 증가한 수치다.전 영업 부문에서 고르게 성장한 것으로 나타났다. 특히 IB(기업금융) 부문은 영업수익이 전년 대비 106% 증가했다. 사측에 따르면 리스크 관리를 강화하며 우량 딜을 발굴해 최대 성과를 거뒀다.리테일부문도 전년 대비 160% 늘었다. 신규고객 유치 마케팅과 제휴 서비스 확대 등으로 활동 계좌수가 전년 대비 증가하면서 고객기반이 크게 확대된 것으로 분석된다.계열회사 실적도 성장세다. KTB네트워크는 코스닥 상장과 함께 전년에 이어 사상 최대이익을 갈아치웠다. 영업이익은 827억원, 당기순이익은 640억원으로, 전년 대비 각각 85.2%, 78.8% 증가했다.사측은 이 같은 성장세가 투자자산 회수 이익과 높은 성공보수에 있다고 봤다. 배달의민족과 스타일쉐어, RBW 등이 IPO(기업공개)와 M&amp;A(인수합병)에 성공하며 높은 이익을 거뒀다. '토스'를 운영하는 비바리퍼블리카와 에스엠랩, 스튜디오앤뉴, 엔젯 등 현재 투자 중인 기업 가치도 계속 상승하고 있다고 사측은 설명했다.지난해 12월 인수작업을 마친 유진저축은행도 역대급 실적을 올렸다. 영업이익은 1098억원으로 전년 대비 57.1%, 당기순이익도 835억원으로 61.0% 늘었다. 대출잔액도 전년 보다 6474억원 증가하면서 실적을 견인했다. 사측 관계자는 "법정 최고금리를 인하한 상황에서도 중금리 대출 확대와 CSS(신용평가시스템) 고도화로 수익성을 개선했다"며 "올해 금융 계열사와 협업해 수익원을 다변화하고 디지털금융을 강화해 양적, 질적 성장을 이끌 계획"이라고 말했다.KTB자산운용도 창사 후 최초로 AUM(운용자산) 15조원을 돌파했다. 영업이익과 당기순이익은 각각 108억원, 84억원으로 집계됐다. 공모주하이일펀드 등 고보수 상품 판매가 증가했고 중위협 중수익 대표상품인 머리에셋인컴EMP 펀드 등 전략펀드도 성장세가 이어진 결과라고 사측은 설명했다. 이에 수탁고 2조7000억원이 순증하면서 운용자산(AUM) 15조원3000억원을 기록한 것으로 풀이된다. KTB투자증권 해외법인 KTB STN도 호실적을 거뒀다. KTB ST는 국내 증권사 중 유일하게 태국에 진출한 현지 증권사다. 영업이익 104억원, 당기순이익 80억원을 기록했다. 이는 전년 대비 각각 114%, 115% 증가한 수치다.KTB투자증권 관계자는 "전 계열사가 양호한 실적을 기반으로 질적 양적 성장을 거듭하는 중"이라며 "급변하는 대내외 금융환경 속에서 선제적으로 리스크를 관리하고 핀테크 업체와 다양한 제휴를 맺어 새로운 수익원을 창출하겠다"고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2022.01.19.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>이마트24, 모바일 앱에서 ‘애플펜슬2세대’ 판매</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002568272?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>닌텐도스위치 포켓몬레전드 아르세우스도 판매, 출시일 픽업 가능쥬케로캔디, 위토스셀렉션 등 이탈리아 캔디, 초콜릿도 할인 판매이마트24가 매력적인 앱 예약구매 상품을 내걸고 엄지족을 불러 모으고 있다.ⓒ이마트24[데일리안 = 최승근 기자] 이마트24가 매력적인 앱 예약구매 상품을 내걸고 엄지족을 불러 모으고 있다.이마트24는 오는 20일 오전 10시부터 애플펜슬2세대 1000개를 모바일 앱에서 한정 판매한다. 앱 예약구매 시 이마트24 모바일상품권(2만5000원)을 제공한다.28일 출시 예정인 ‘닌텐도 스위치 포켓몬 레전드 아르세우스도’ 앱에서 한정 판매중이다. 5000원 모바일상품권을 제공해 고객들은 5만4800원에 인기 게임을 예약 구매 할 수 있다.예약 구매 시 출시일인 28일에 맞춰 고객이 지정한 이마트24 매장에서 픽업 가능하며, 모바일상품권은 지정된 일자에 일괄 제공된다.이마트24는 할인 판매와 함께 설 명절 등으로 택배가 몰리는 상황에서 출시일에 맞춰 매장 픽업이 가능하다는 장점으로 고객들의 호응이 있을 것으로 기대하고 있다.인기 있는 이탈리아 캔디와 초콜릿도 앱에서 한정 판매한다.이마트24 모바일 앱에서 20일 오전 10시부터 페를레 디 솔레(PERLE DI SOLE) 이탈리아 캔디(쥬케로캔디) 4종세트를 10% 할인된 3만원에 판매하며, 추가로 3000원 모바일 상품권(이마트24)을 증정한다.이 캔디는 알러지 반응과 글루텐 함유 등이 없어 임산부 캔디, 입덧 캔디로 유명하다.또 이탈리아 초콜릿 위토스 셀렉션 4종세트는 20% 할인된 가격에 판매하며 2000원 모바일 상품권을 증정한다.모바일 앱을 통해 예약구매 시 앱에서 결제하고, 고객이 지정한 일자/매장에서 수령할 수 있다.이마트24는 고객 근거리에 있는 전국 매장이 픽업 장소로 활용될 수 있다는 장점을 바탕으로 온·오프라인 시너지를 극대화 할 수 있는 예약구매를 강화해 엄지족을 끌어 들인다는 방침이다.앱 예약구매는 가맹점이 무재고로 매출을 올릴 수 있다는 장점과 함께 상품을 픽업하기 위해 고객이 매장으로 방문해야 하기 때문에 추가 구매까지 기대할 수 있다.이처럼 다양한 장점을 지닌 예약구매를 강화함으로써 모바일앱과 오프라인 매장 모두 단골 고객으로 만들겠다는 전략이다.이마트24 관계자는 “디지털을 통한 차별화된 경험을 통해 지속적으로 이마트24 모바일앱과 오프라인 매장을 방문하고 구매로 이어질 수 있도록 예약구매를 강화해 나갈 계획”이라며 “고객들이 이마트24 모바일 앱을 찾도록 매력적인 앱 전용 상품을 지속적으로 선보여 나가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2022.01.26.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>정은보 “금융-테크사 간 규제차익 없도록 할 것”</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005134189?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>동일기능ㆍ동일규제제 원칙 맞게 감독방향 설정 강조금융플랫폼 간담회, 네이버파이낸셜ㆍ토스 대표 참여[이데일리 전선형 기자] 정은보 금융감독원장이 동일기능ㆍ규제 원칙에 맞게 금융사와 테크사 간에 규제차익이 없는 영업환경을 만들겠다고 강조했다. 정은보 금융감독원장.(사진=연합뉴스)26일 정은보 금융감독원장은 이날 오전 은행회관에서 금융플랫폼사들과 간담회를 가졌다. 이날 간담회는 금융플랫폼 발전 지원 방향을 설명하고, 금융플랫폼 관련 이슈 및 업계 애로사항 등에 대해 소통하는 시간으로 이뤄졌다. 이날 금감원에서는 정 원장과 함께 이진석 부원장보(전략감독), 김용태 디지털금융감독국장이 참석했다. 금융사에서는 KB금융지주, 신한금융지주, 하나금융지주 금융플랫폼 담당자, 테크사에서는 최인혁 네이버파이낸셜 대표와 토스 모회사인 비바리퍼블리카의 이승건 대표가 참석했다. 이날 정 원장은 “디지털 대전환 시대를 맞아 금융산업도 플랫폼 비즈니스가 확산되고 제조와 판매가 분리되는 등 구조적 변화가 본격 진행되고 있다”며 “ 테크 기업과 기존 금융회사가 다 같이 새로운 시장과 부가가치를 만들고 ‘좋은 일자리’를 창출하는 ‘확대 균형’으로 나아갈 필요가 있다”고 강조했다. 특히 이날 정 원장은 테크기업과 금융회사가 동반 성장 할 수 있도록 금융플랫폼 발전 지원방향을 언급했다. 정 원장은 “동일 기능, 동일 규제의 대원칙 하에 금융플랫폼 감독방향을 설정하기 위해주요국의 최근 규제 사례를 연구하고 현장의 의견을 수렴해, 금융중개 관련 일반적 규율체계를 금융위 등과 적극 검토할 것”이라며 “이를 통해, 테크기업과 금융회사 간 규제차익이 발생하지 않도록 공정한 금융플랫폼 영업환경이 확립되도록 하겠다”고 말했다. 이어 “디지털 플랫폼으로 거듭나기 위한 금융회사의 혁신 노력을 지원하기 위해 금융회사의 부수업무 확대 검토, 규제 샌드박스를 활용한 서비스 테스트 지원 등 금융의 신사업 진출 기회를 확대할 것”이라며 “금융회사 계열사 간 정보공유와 핀테크기업 투자 제한을 개선하겠다”고 전했다. 아울러 정 원장은 이용자보호를 위한 사이버보안의 중요성도 강조했다. 특히 금융상품 추천에 활용되는 알고리즘이 소비자에게 불리하게 운영되지 않도록 하고, 간편결제(전자금융업) 수수료가 합리적 기준에 따라 산정·부과 되도록 유도하고, 수수료 공시시스템도 구축할 것을 당부했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2022.01.25.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>조용병 "바르게 빠르게 다르게"…기업금융서 배달·헬스케어까지 디지털 생태계 확장</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004012174?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>[금융지주는 지금 디지털 전쟁 중]◆신한금융 디지털 전환 가속기업인터넷뱅킹·CMS 채널 통합기업고객군별 맞춤형 서비스 제공NFT 출시 등 비금융 영역도 확대조용병 신한금융 회장이 지난해 메타버스 플랫폼에서 스타트업 액셀러레이터 프로그램인 ‘신한퓨처스랩’ 7-2기로 선발된 스타트업 관계자들을 축하하고 있다./사진 제공=신한금융조용병 신한금융 회장이 올해 초 서울시 중구 신한금융 본사에서 열린 시무식에서 빅테크와의 경쟁에서 앞서 나갈 것을 촉구하고 있다./사진 제공=신한금융[서울경제] 올해로 창업 40주년을 맞은 신한금융그룹은 빅테크에 맞서 차별화된 디지털 경쟁력을 확보하는 것을 핵심 과제 중 하나로 꼽고 있다. 빅테크가 아직 진출하지 못한 금융 영역의 디지털 전환을 가속화하면서 동시에 비금융 영역으로 서비스를 확대해 고객 접점을 늘리겠다는 전략이다. 이를 위해 외부 인재를 영입하는 등 조직에 ‘새로운 바람’을 불어넣는 행보가 이어질 것으로 전망된다.25일 금융권에 따르면 신한금융은 고객과의 접점 강화, 전략적 투자 및 제휴, 내부 인적 역량 제고 등을 중심으로 디지털 전략을 추진하고 있다. 계열사별로 보면 신한은행은 올해 기업금융의 디지털화를 적극 추진할 계획이다. 기업 인터넷뱅킹과 자금관리(CMS) 채널의 통합 플랫폼을 구축하고 기업 고객군별 맞춤형 서비스 제공을 위한 시스템을 고도화하고 있다. 전사적자원관리(ERP) 플랫폼과 연계해 재무 분석 리포트, 기업 특화 대출 등 BaaS(Bank as a Service)를 제공하는 등 기업뱅킹 서비스를 확대할 예정이다. 카카오·네이버 등 주요 빅테크 기업들이 기업금융에 진출하지 못하고 있는 점을 고려해 은행으로서 강점을 살려 경쟁력을 확보하려는 행보다.빅테크에서 성공 가능성을 엿본 트렌드를 적용하는 데도 적극적인 분위기다. 초보 투자자 전용의 심플 모드인 모바일트레이딩시스템(MTS)을 개발하고 있는 신한금융투자가 대표적이다. 기존 MTS 대비 기능을 간소화하고 직관적 화면을 구성하는 것을 목표로 한다. 이 같은 시도를 두고 업계에서는 토스증권을 겨냥한 행보라는 분석이 나온다. 토스증권이 ‘쉬운 투자’를 내세워 이용자를 대규모 확보해 출시 일 년도 채 안 돼 MTS 이용자 수 기준 업계 3위를 기록했기 때문이다. 카카오페이증권 역시 직관적이고 쉬운 인터페이스를 바탕으로 한 서비스 출시를 예고하고 있다.금융 서비스 외에 비금융 영역으로 디지털 서비스를 확대하는 행보에도 올해 속도가 붙을 것으로 전망된다. 계열사 가운데서는 신한은행의 배달 플랫폼 ‘땡겨요’가 가장 진행 속도가 빠르다. 신한은행은 금융권 최초로 배달 애플리케이션을 출시해 주문과 결제 과정에서 데이터 확보에 나섰다. 이를 바탕으로 향후 가맹점주, 배달 라이더를 대상으로 특화된 금융 상품을 개발하겠다는 방침이다.신한카드는 고객이 소장한 물건, 간직하고 싶은 순간 등을 대체불가토큰(NFT)으로 등록 가능한 ‘My NFT’ 서비스를 출시해 운영 중이다. 신한라이프는 인공지능(AI) 모션 인식 기반 홈트레이닝 플랫폼 ‘하우핏’에 이어 건강 의료 정보와 금융 정보를 융합해 맞춤형 헬스케어 서비스를 제공하는 ‘헬스월렛’ 사업을 준비하고 있다.신한금융 측은 디지털 생태계를 선도하겠다는 조용병 회장의 강한 의지가 반영된 결과라는 입장이다. 조 회장은 올해 초 신년사에서도 “그룹사의 디지털 플랫폼 전반을 ‘바르게, 빠르게, 다르게’ 운영해 빅테크나 플랫폼 기업과의 경쟁에서 앞서 나가자”고 촉구했다. 지주 차원에서 핵심 기술과 후견 그룹사를 매칭해 협업 과제를 발굴하고 사업성을 점검하는 후견인제도를 올해 디지털 전환 핵심 과제 발굴 및 추진에 더 집중하기로 한 것도 이 때문이다. ‘그룹 디지털 전환(DT) 추진 플랫폼’을 신규 구축해 필요한 자원을 적시에 지원해 사업 추진력도 강화한다.디지털 분야에서 기술력 및 서비스를 확보한 유망 벤처기업 및 스타트업, 예비 기업에 투자도 강화한다. 신한금융은 국내 금융사 중 처음으로 디지털 전략적 투자(SI) 펀드인 ‘원신한 커넥트 신기술투자조합 제1호’를 조성했다. 신한은행, 신한카드, 신한금융투자, 신한라이프 등 주요 그룹사가 출자자로 참여해 총 3,000억 원 규모의 펀드를 조성했다. 펀드 운용(GP)은 신한캐피탈이 맡았다. 투자 대상은 ABCD 기술(AI, 블록체인, 클라우드, 데이터), 비금융 컨텐츠/플랫폼 등 다양하다. 국내 기업 뿐만 아니라 글로벌 기업도 투자받을 수 있다. 신한금융은 이 펀드를 통해 △미래 시장 선점 △비금융 플랫폼 연계를 통한 그룹 T&amp;T(Traffic &amp; Transaction) 확대 △그룹사 핵심 디지털 사업 활성화 등을 추진할 방침이다.신한금융 측은 “경쟁 금융그룹뿐만 아니라 빅·핀테크와 디지털 경쟁에 앞서기 위해 최고디지털책임자(CDO)로 김명희 부사장을 신규 영입했다”며 “비즈니스를 가장 잘 이해하고 있는 현업 직원들을 ‘디지털 시티즌’으로 육성하는 등 디지털 인재의 저변도 확대해 나갈 것”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2022.01.21.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>[전시] 서울갤러리 추천 1월 네 번째 주말 전시</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003246506?sid=103</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>서울신문이 운영하는 미술전문 아트플랫폼 서울갤러리(www.seoulgallery.co.kr)는 1월 네 번째 주말을 맞아 주변의 가볼 만한 미술 전시를 추천한다.김아라 작가 개인전 ‘Overpass’김아라 작가의 개인전 ‘오버패스(Overpass)’가 다음 달 19일까지 서울시 종로구 갤러리2에서 열린다. 김 작가의 작품은 한옥의 내부 공간의 캔버스의 나무 프레임을 사용해 재현한다. 색을 최대한 배제하고 한옥 내부를 구성하는 구조물의 형태와 구조에 집중한 이번 전시는 건축과 조각, 즉 ‘공간과 입체’라는 두 가지 요소에 기반한다. 이번 전시에서는 전시장 벽과 천장을 관통하는 설치 작품을 포함해 6점의 신작을 선보인다.나혜원, 서원미, 손승범, 캐스퍼강 작가가 참여한 전시 ‘노스토스와 상상의 조우’가 오는 3월 5일까지 서울시 용산구 라흰갤러리에서 열린다.‘돌아감과 되찾음’을 뜻하는 ‘노스토스(nostos)’는 진실된 삶과 자의식, 본질로서의 과거 등을 나타낸다. 여기에 아직 성취되지 못한 것을 꿈꾸는 상상력을 더해 갈망의 구심력을 미래로 옮긴다. 작가들은 각기 노스토스가 이르는 곳에서 무엇이 망각의 강 저편으로 묻히려 하며 무엇을 되찾으려 하는지, 그 시간과 감정은 어떤 모양을 만들어내며 내면의 정신을 적시는지를 시각화한다. 강숙희, 닭-춤을 추다, 202107-1,162x112cm, Oil on canvas 강숙희 작가의 개인전 ‘닭-춤을 추다’가 오는 28일까지 서울신문사 1층 서울신문·서울갤러리 특별전시장에서 열린다.강 작가는 ‘닭’을 소재로 한 그림을 즐겨 그린다. 작가는 전시마다 조금씩 새로운 방법으로 닭을 표현하고 있는데, 이번 전시 ‘닭-춤을 추다’에서는 자유롭게 춤을 추는 듯한 닭의 모습을 그려냈다. 작가는 작품을 통해 2022년에는 춤을 추듯 꿈을 꾸는 한 해가 되기를 기원하고 있다.도윤희 작가 개인전 ‘베를린’도윤희 작가의 개인전 ‘베를린’이 다음 달 27일까지 서울시 종로구 갤러리현대에서 열린다. 이번 전시에서 선보이는 40여 점의 작품은 2016년부터 2021년 사이에 제작됐다. 작품에는 도 작가의 과감한 도전과 파격적 변신을 선명하게 담겨 있다. 이전과는 확연히 다른 새로운 회화 세계를 펼치며 회화의 기본적 언어이자 재료인 색을 적극적으로 사용하는 것에서 나아가 그 물성을 더욱 살려 표현하고 있다. 전시 ‘또 다른 가능성–체현된 풍경’이 대구시 중구 봉산문화회관에서 다음 달 19일까지 열린다. 전시에는 김상우, 장기용, 김찬주, 류채민, 신준민, 김소라 작가가 참여했다.작가들의 창작활동을 지지하고 담론의 장이 형성되도록 주제전을 제시하는 특화전시 프로그램의 일환으로 열리는 전시다. 지난해 서예·문인화에 이어 구상회화 중 풍경화를 중심으로 새로운 시각을 지향하는 작가들이 참여했다. 30대부터 50대까지 세대별 작가들은 각기 다른 사상이나 관념 등 정신적인 것을 구체적인 형태로 표현하는 풍경화 작업으로 동질성과 이질성을 드러낸다.더 많은 전시 소식과 자세한 전시내용은 ‘서울갤러리(www.seoulgallery.co.kr)’ 사이트에서 확인해 볼 수 있다. 현재 코로나19 확산으로 임시 휴관 혹은 예약제로 전시장 운영 상황에 변동이 있을 수 있다. 방문 전, 전시장 운영정보를 확인하고 방역수칙을 준수하기 바란다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2022.01.27.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>인터넷뱅크 현장실사·연대보증계약 허용…금융위 입법예고</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002718072?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>인뱅 예대율 규제 은행괴 동일하게…유예기간 3년&lt;금융위원회&gt;    올해 상반기 안에 토스·케이뱅크·카카오뱅크 등 인터넷뱅크의 대출 현장실사와 연대보증계약 등 대면 거래가 허용된다. 예대율 규제도 은행과 동일하게 이뤄진다.금융위원회는 인터넷전문은행의 중소기업·개인사업자 대출 취급 제도를 개선하는 내용 등을 담은 '은행법' 시행령과 감독규정 개정안을 27일 입법 예고한다고 밝혔다.은행업 감독규정 개정안에 따르면 인터넷전문은행의 대면 거래 허용 사유에 실제 사업 영위 여부 확인과 비대면 제출 서류의 진위 확인 등 현장실사가 필요한 경우, 중소기업 대표자 등과 연대보증계약을 체결하는 경우가 추가된다.현재 인터넷전문은행이 중소기업·개인사업자 대출을 하려 할 때 현장실사가 필요하거나 연대보증이 필요한 경우라면 대출 실행을 할 수 없는 상황이다. 인터넷전문은행에 현장 실사가 허용돼 있지 않고, 연대보증계약은 대면 계약이어야 법적 효력이 있기 때문이다.또한 개정안에는 인터넷전문은행의 예대율(대출금/예수금) 규제를 은행과 동일하게 하되, 시행 후 3년간 유예기간을 부여해 예대율을 산출할 때 기존 가계대출은 가중치 없이 100%를 반영하는 내용이 담긴다. 유예기간에 신규 취급 가계대출은 일반 은행과 마찬가지로 115% 가중치가 적용된다.현재는 인터넷전문은행이 기업대출을 취급하지 않으면 가계대출에 가중치 100%가 적용되기 때문에 기업대출을 취급하지 않도록 하는 유인 효과가 있다.함께 입법예고하는 은행업 시행령 개정안은 은행의 각종 보고 절차를 개선하고, 금융감독원장에 대한 업무위탁범위를 정비하는 내용을 골자로 한다.은행의 동일인 주식보유상황 변경 보고 기한이 현행 '5영업일 이내'에서 '10영업일 이내'로 연장되고, 국외 현지법인의 현지 제재 가운데 2000달러 미만 경미 사안은 금감원 보고 대상에서 제외된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2022.01.28.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>돈 몰리던 토스뱅크 ‘금리매력’ 빛 잃나</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001944336?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>은행권 예적금 금리 도미노 인상인터넷은행 예금 금리 年2%대시중銀도 2%대 상품 속속등장“수시 입출금, 장점은 살아있어”한국은행이 기준금리를 25bp 올리면서 은행권도 예·적금 등 수신상품 금리를 올리고 있다. 특히 인터넷은행의 경우 카카오뱅크까지 금리 인상을 단행하면서 모두 2%대 수신 금리를 기록 중이다. 이에 따라 시중 수신 자금이 몰리던 토스뱅크의 ‘금리 매력’이 낮아졌다는 평가도 나오는 상황이다.카카오뱅크는 28일 신규 가입분부터 예·적금 상품 금리를 최대 0.3%포인트 인상한다고 밝혔다. 이로써 카카오뱅크에서 1년 만기 정기예금을 가입하면 2% 금리를 받을 수 있다. 케이뱅크는 앞서 금리 인상 전인 지난해 12월 선제적으로 금리를 올렸다. 케이뱅크 코드K 정기예금(1년 만기)은 2% 금리로 제공되고 있다. 케이뱅크는 설 연휴 이후 수신 금리 추가 인상도 검토 중이다.시중은행도 이달 14일 한국은행이 기준금리를 1%에서 1.25%로 0.25%포인트 올리자마자 최대 0.4%포인트까지 예·적금 상품 금리를 인상했다. 일부 예금상품의 경우 2%대 금리에 진입했다.KB국민은행의 KB더블모아 예금 금리는 1년 기준 최고 연 2.05%로 책정됐다. 다만 이 상품의 경우 만 50세 이상만 가입할 수 있고, 국민은행 계좌로 연금을 받거나 일정 금액 이상을 보유한 개인종합자산관리계좌(ISA)가 있어야 우대금리가 적용된다.Sh수협은행도 금리인상을 반영했다. 비대면 전용상품인 헤이 정기예금 모두 1년 만기 기준 최고 1.85%에서 2.25%로 올랐다. Sh해양플라스틱제로 예금도 같은 금리가 적용된다. 헤이 정기예금과 해양플라스틱제로 예금은 각각 2억원, 5억원 한도 내로 예금해야 해당 금리를 받을 수 있다.IBK기업은행 디데이(D-DAY)통장도 이날 기준 364일 만기 상품이 연 2.05%로 제공되고 있다. 해당 상품은 2억원 한도까지 가입 가능하다. 1년 만기 상품인 IBK첫만남통장도 2.01% 금리를 제공한다. 이 상품은 1000만원 한도가 적용된다.이같은 수신 금리 상승이 이어지다보니, 지난해 10월부터 연 2% 수신상품인 ‘토스뱅크 통장’으로 시중 자금을 빨아들였던 토스뱅크의 금리 매력은 다소 줄어들게 됐다. 물론 토스뱅크가 제공하는 상품은 수시입출금 상품이라는 장점이 있다. 언제든 출금해도 해당 금리를 일할 계산해서 주기 때문에, 거치한 기간을 다 채워야 해당 금리를 받을 수 있는 예금과는 분명 차이가 존재한다.하지만 최소 1년을 거치할 경우 다른 인터넷은행이나 시중은행과 비슷해지는 상황이다. 또 해당 금리를 적용하는 한도 역시 처음 상품을 선보였을 때에 비해 줄어들었다. 다른 인터넷은행 예금상품의 경우 한도가 따로 없는 상황이다. 한 은행권 관계자는 “은행권 수신 금리 인상으로 토스뱅크가 내세웠던 ‘파격’이 다소 줄어든 것은 사실”이라고 말했다.토스뱅크는 아직까지 상품 금리 인상이나 별도 예·적금 상품 출시는 고려하고 있지 않다. 토스뱅크 관계자는 “수시입출금 상품이라는 점을 고객들이 충분히 혜택으로 인식하고 있다”면서 “금리인상과 추가 수신상품 출시는 아직 계획이 없다”고 설명했다.박자연 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2022.01.23.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>식자재 B2B 유통 플랫폼, 부산 첫 유니콘 기업 꿈꾼다</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001138145?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>[Up! 부산 스타트업] 푸드팡식자재 B2B 플랫폼 ‘푸드팡’ 공경율 대표가 푸드팡 차량 앞에서 포즈를 취했다. 푸드팡은 다음 날 오전 8시까지 각 식당의 냉장고와 냉동고에 식자재를 넣어주는 배송 서비스를 제공한다. 이 서비스를 받기 위해서는 해당 식당은 전날 오후 10시까지 식자재를 주문해야 한다.최근 110억 원의 시리즈 B 투자 유치로 화제가 된 부산 스타트업이 있다. 식자재 B2B(기업 간 전자상거래) 유통 플랫폼 푸드팡(주)이다. 부산 반여농산물시장과 식당을 연결하는 사업 모델을 구축하고 서울로 진출, 부산과 서울에서 푸드팡 서비스를 이용하는 식당 고객만 5000개 이상 확보한 업계 1위 스타트업이다. 스스로 ‘식자재의 쿠팡’으로 일컫는 푸드팡 공경율(32) 대표를 부산 금정구 금사동 본사에서 만났다.110억 원 시리즈 B 투자 유치반여농산물시장-식당 연결 사업부산·서울 가입 식당 5000개 돌파매출 500억 원·기업 상장 목표■공대생에서 스타트업 대표로공 대표는 동의대 메카트로닉스공학과를 졸업한 공대생이다. 처음부터 창업을 꿈꾼 것은 아니었다. “대학 시절 부산 대학생의 1%를 뽑아 훈련시키고 졸업 후 삼성에 취직할 수 있는 특전을 주는 삼성소프트웨어 멤버십에 선발됐습니다. 들어가기는 힘들었지만 막상 연구 개발을 해보니 대기업에 취직하지 않더라도 내 아이템으로 돈을 더 잘 벌 수 있겠다는 생각이 들었습니다.”2014년 즈음 요리 방송이 많았고, TV에 나온 요리를 집에서 바로 해먹을 수 있도록 밀키트를 만들어 배송해주는 서비스를 만들자는 생각이 들었다. 밀키트라는 말도 개념도 없던 시기였다.“요리 재료 2인분만 포장해서 배송하는 ‘요리사요’ 앱을 출시했습니다. 앱 다운로드가 10만 건에 달할 정도로 어느 정도 인기는 있었죠. 배송만 하다가 해운대에 오프라인 매장을 처음 내면서 2014년 첫 창업을 하게 됐습니다.”하지만 기대만큼 매장 운영은 잘 되지 않았고, 월세를 내기 위해 시작한 것이 채소가게였다. “당일 농산물 시장에 가서 당일 판매하는 농산물의 ‘다이소’ 콘셉트로 매장을 운영했습니다. 귤 1개 100원, 대파 한 줄 200원 이런 식으로 소량 판매가 인기를 끌었고 하루 매출이 1000만 원까지 올라왔습니다.”■채소가게하다 푸드팡 탄생가게 운영이 자리 잡으면서 양산 증산신도시와 북구 금곡동 매장까지 총 3개의 매장을 내고 가게 이름도 ‘야채사요’로 바꿨다. 원래 대학에서 IT 소프트웨어 개발 공부를 해온 만큼 플랫폼에 대한 생각은 늘 있었다.“매장을 확장하면서 오프라인 매장에서 판매하듯 온라인 배송하는 시스템을 고민했는데, 그렇게 나온 게 헬리콥터처럼 배송한다는 뜻에서 ‘헬리팜’을 출시했습니다. 그런데 오프라인처럼 재고 관리가 잘 안되어서 고민하던 차에 주변 식당에서 식자재 조달 좀 해달라는 연락을 받은거죠.”입소문의 힘이었다. 오프라인 매장에서 판매할 농산물을 구매하면서 인근 식당에서 주문받은 식자재도 함께 샀는데, 어느 날 매장 수익보다 식자재 유통 수익이 더 커졌다.“오프라인 매장은 월 매출 1000만 원이 한계였는데 식당 대상 식자재 매출의 스케일이 훨씬 크다는 걸 알게됐습니다. 그래서 2017년부터 푸드팡을 시작하게 됐고 부산 시장에서 먼저 선보인 뒤 2019년 1월 서울에 진출할 수 있었죠.”■'농업 혁신' 포스트 농협이 목표농산물시장과 식당을 연결하는 아이디어는 우연한 기회에 찾아왔지만 농산물시장은 공 대표에게 익숙한 곳이었다. “고모가 1985년부터 농산물 유통업을 했고 어머니도 일을 도왔기 때문에 농산물 도매시장의 흐름은 어깨 너머로 알고 있었죠. 사업을 하면서 살펴보니 전국에 33개의 농산물 도매시장이 있는데 거래의 50%는 서울 가락농수산물 도매시장에서 일어나더라고요.”정보가 없다보니 농민들이 생산한 농산품을 무작정 서울로 보내게 되고, 이를테면 포항에서 생산한 부추가 서울 도매시장을 거쳐 부산 시장에서 판매하는 비효율이 일어나곤 했다.“푸드팡은 결국 전국 도매시장의 데이터를 취합해 이런 비효율이 일어나지 않도록 하는 겁니다. 농산물 수요와 가격을 예측하고 최적의 물류센터로 기능하는 것이 푸드팡의 목표고요.”최근 금융투자(IB) 업계로부터 110억 원의 투자를 유치할 수 있었던 이유도 재고가 없는 사업 모델이라는 점에서 큰 점수를 받았다. 지난해 매출은 180억 원, 가입 식당도 5000개를 돌파했다. 올해는 매출 500억 원이 목표다.“푸드팡의 가장 큰 목표는 포스트(post) 농협이 되는 겁니다. 농협은 농산물 유통도 하고 금융사업도 하는 농산물 시장의 가장 큰 플레이어니까요. 금융종합서비스 ‘토스’가 금융기관을 혁신했듯이 푸드팡이 농업을 혁신하는 모델이 됐으면 합니다. 부산 첫 유니콘 기업이자 첫 상장 사례가 되고 싶습니다. 지켜봐 주세요.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2022.01.27.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>인터넷은행 가세…中企 대출금리 낮아질 듯</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004658080?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>기업 대출에 대면거래 허용현장실사·연대보증계약 등까다로운 심사 규제 풀어줘금융당국이 인터넷전문은행에 대한 대출 규제를 완화하면서 그동안 가계대출에만 집중해온 인터넷은행들이 기업대출로 눈을 돌리는 계기가 마련됐다는 평가가 나온다. 인터넷은행으로서도 중소기업·개인사업자 대출을 새 성장동력으로 삼을 수 있을 뿐만 아니라 당국이 부여한 주요 미션인 중금리·중신용 대출 비중 확대도 꾀할 수 있어 ‘두 마리 토끼’를 잡을 수 있다. 인터넷은행들이 일제히 기업대출 전문 인력 확보와 조직 개편에 나서면서 기존 은행 인력의 ‘엑소더스’가 일어날 수 있다는 전망도 나온다. 그러나 기업대출은 상대적으로 정교한 신용 평가 모델과 리스크 관리 등 노하우가 필요한 만큼 인터넷은행이 시장에 안착하는 데 시간이 필요할 것이라는 지적도 있다. 금융위, 기업대출 경쟁 활성화 기대금융당국이 인터넷은행에 대한 기업대출 규제를 재정비한 건 관련 시장의 경쟁을 활성화해 금리 인하 등 금융소비자 편익을 높이기 위한 차원으로 풀이된다. 당국이 그동안 인터넷은행의 가계대출에 100%의 가중치만 부여(기업대출을 취급하지 않을 경우)한 것은 영업 초기인 점을 고려한 일종의 배려였다. 그러나 이는 오히려 기업대출을 아예 취급하지 않는 인센티브로 작용했다. 일반 은행에서는 예대율 규제(100% 이내)를 맞추기 위해 가중치가 높은 가계대출(115%)을 줄이고 기업대출(85%)을 늘리는 게 유리하다. 그러나 인터넷은행은 가계대출을 취급한 만큼 그대로(100%) 잡히기 때문에 굳이 기업대출에 나설 필요가 없었다.까다로운 대면 거래도 기업대출의 걸림돌로 작용했다는 지적이다. 대면 거래가 반드시 필요한 연대보증계약도 인터넷은행에는 그동안 허용되지 않았다. 한 인터넷은행 임원은 “기업대출을 하려면 실사를 해야 하는데 권한이 없었고, 최고경영자(CEO)가 직접 은행을 찾아와야 하는 등 절차가 까다로웠다”며 “이번에 대면 거래 기준이 풀리면서 기업대출에 대한 족쇄가 풀린 셈”이라고 말했다. “인터넷은행으로 인력 이동 잇따를 것”인터넷은행은 연내 일제히 중소기업·개인사업자 대출 신상품을 출시할 예정이다. 카카오뱅크와 케이뱅크는 올해 개인사업자 대출을 선보일 계획이며 토스뱅크는 상반기 보증서나 담보 없이 자체 신용평가만으로 돈을 빌려주는 개인사업자 신용대출 상품을 내놓기로 했다.기업대출 부문을 강화하기 위해 인력 확충과 조직 개편도 잇따를 것이라는 분석이다. 기업대출은 기업에 대한 은행 자체 신용 평가가 중요한 데다 해당 기업과 상시 접촉하며 리스크를 관리해야 하기 때문이다. 카카오뱅크는 기업금융 경력이 있는 인력을 대거 충원해 기존 개인사업자 서비스 셀을 한 단계 격상한 개인사업자 스튜디오 조직으로 키우기로 했다. 또 한국신용데이터·SGI서울보증·국민은행 등과 합작 설립한 중금리혁신법인을 통해 신용평가모델을 개발 중이다.토스뱅크도 기업대출스쿼드에서 신용평가모형 개발 담당자를 상시 채용 하고있다. 한 대형 은행의 기업 대출 담당자는 “인터넷은행이 뛰어들면서 가계대출 시장이 그랬듯 대출 판도 변화와 대규모 인력 이동이 이뤄질 것”이라면서도 “대형 은행이 갖고 있는 기업 네트워크와 신용평가 노하우를 얼마나 빠르게 따라올수 있을지, 금리나 편의성 측면에서 어떤 차별화를 보여줄 수 있을지가 관건”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2022.01.20.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>24일부터 코로나19 예방 접종 예외 대상자 ‘예외 확인서’ 발급</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011198801?sid=102</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>방역당국이 인정한 코로나19 예방 접종 예외 대상자들은 오는 24일부터 예외 확인서를 발급받을 수 있습니다. 중앙방역대책본부는 오늘(20일) 충북 오송 질병관리청에서 열린 브리핑에서 오는 24일부터 가까운 보건소를 방문하거나 쿠브(COOV)앱, 전자출입명부 플랫폼에서 예외 확인서를 발급받을 수 있다고 밝혔습니다. 전자출입명부 플랫폼은 카카오, 네이버, 토스, PASS 앱이며 이곳에 접속해 접종 내역 발급과 업데이트를 받으면 유효기간이 없는 예외 확인서를 발급받을 수 있습니다.  예외확인서 발급 대상은 코로나19 예방 접종 후에 이상반응 의심 증상이 나타났지만, 인과성이 충분히 인정되지 않은 사람과, 접종 후 6주 내에 입원 치료를 받은 사람입니다. 이상반응 의심증상으로 접종 후 6주 이내에 입원 치료를 받은 경우에는 보건소에서 입원 확인서와 의사진단서를 제시한 뒤 방역패스 예외자로 전산 등록을 완료해야 합니다. 중앙방역대책본부는 방역 패스 예외 확인서를 발급받더라도 코로나19 백신의 접종 금기에 해당하는 것은 아니며 본인의 건강 상태 등을 고려해 접종을 완료해 줄 것을 당부했습니다.[사진 출처 : 연합뉴스]■ 제보하기▷ 카카오톡 : 'KBS제보' 검색▷ 전화 : 02-781-1234▷ 이메일 : kbs1234@kbs.co.kr▷ 뉴스홈페이지 : https://goo.gl/4bWbkG</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2022.01.20.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>정은보 "핀테크 기업의 코스닥 시장 진입 문턱 낮출 것"</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004655165?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>사진=연합뉴스정은보 금융감독원장은 핀테크 기업의 코스닥 시장 진입 문턱을 낮추고 금융회사의 핀테크 투자를 촉진하는 방안 등을 추진하겠다고 20일 밝혔다.정 원장은 이날 서울 마포구 ‘프론트원’에서 핀테크 업계와 간담회를 열고 이 같은 핀테크 혁신 방향을 발표했다. 김태훈 한국핀테크산업협회 부회장(뱅크샐러드 대표)과 변영한 한국핀테크지원센터 이사장, 경인태 쿠팡페이 대표 등이 참석했다.한국핀테크지원센터에 따르면 2014년 국내 금융시장에 등장한 핀테크 산업은 현재 종사자 수 1만6000여명, 투자금액 약 2조원 규모로 빠르게 성장했다. 하지만 전세계 핀테크 유니콘 기업(기업가치 1조원 이상 스타트업) 94개사 중 한국 기업은 토스 단 한곳에 불과하다.정 원장은 “핀테크 기업이 혁신성과에 대해 정당하게 보상받고 재도전할 수 있는 기업환경을 조성하겠다”며 “코넥스시장이 혁신기업의 자금조달 기능을 다 하도록 코스닥으로 이전 상장하는 제도를 개선하겠다”고 했다.이전 상장에 필요한 재무요건을 일부 완화하거나 거래가 활발한 경우 재무요건 적용을 배제하고서라도 이전 상장을 가능케 해 코넥스 상장사들이 코스닥 시장으로 쉽게 이동할 수 있도록 하겠다는 취지다.‘핀테크 육성 지원법’ 제정을 추진해 핀테크 기업 인수 걸림돌로 지적됐던 출자대상 제한과 승인절차 등을 개선하겠다는 뜻도 내비쳤다. 이를 통해 금융회사의 핀테크 투자를 활성화하겠다는 구상이다.정 원장은 또 “신한은행, 성장금융 및 디캠프와 공동으로 ‘청년창업지원펀드’를 신규 조성하고 유망 스타트업 지원을 강화할 계획”이라며 “타운홀 미팅 방식으로 운영되는 ‘디지털 파인더’를 출범해 최신 기술과 규제에 관해 자유롭게 논의하겠다”고도 했다. 디지털 파인더는 금감원과 핀테크 기업, 금융회사, 금융보안원, 신용정보원 등 유관기관이 참여하는 정보공유 체계다.정 원장은 이날 ‘머지포인트 사태’를 언급하며 핀테크 업계가 금융소비자 보호에 보다 힘을 써줄 것을 당부하기도 했다. 정 원장은 “소비자 보호와 관련해 신뢰를 잃는 경우 핀테크 산업 또한 성장을 지속할 수 없음을 간과해서는 안 될 것”이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2022.01.18.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>[매경이코노미스트] 올해 고용정책에 바란다</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004910204?sid=110</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>취약계층 일자리 최우선규제혁신과 창업지원으로민간부문 채용 뒷받침디지털 인재 양성 위한부처간 협력 절실 금년도 정부의 고용정책은 크게 여섯 가지로 정해졌다. 민간 일자리 창출, 취약 부문 일자리 회복, 미래 유망 산업의 인재 양성, 공정한 노동 전환, 고용안전망 구축 그리고 고용 서비스 확충이다. 여기에 31조1000억원의 예산이 집행된다. 고용정책의 목표는 코로나19 상흔 치유와 완전한 일자리 회복인데, 코로나19는 여전히 우리를 힘겹게 하고 있으며 부스터샷 이후의 추가 백신 접종도 논란이 계속되고 있다. 앞의 네 가지 정책에 대해 살펴보자.고용정책의 중요성으로 보면 취약 부문 일자리 회복이 첫 번째다. 대선후보들은 영세 자영업자에 대한 보상을 강조하고, 초과 세수로 지원을 추가한다고 하지만 코로나19로 불안정한 일자리마저 잃어버린 취약계층 근로자들에 대한 보상은 별다른 논의가 없다. 식당에서, 편의점에서, 커피전문점에서 쫓겨난 아르바이트(알바)생이나 계약직들은 실업급여를 받을 수 있는 조건을 갖추기도 어렵다. 정부가 직접 지원하는 청년 일자리 규모는 2만7000개로, 노인 일자리 84만5000개에 비해 턱없이 부족해 보인다. 청년 일자리 도약장려금은 중소기업에서 청년을 채용할 경우 1년간 최대 960만원을 지원하는데, 그 이후에는 어떻게 되는 것인가. 또한 문을 닫아야 할 처지에 놓인 영세 자영업자에게 월 3만원을 지원해준다고 해서 직원이나 알바생을 계속 고용할 것으로 보이지도 않는다. 중장년·고령자를 위해 정부는 재취업 지원과 새출발 크레딧 제도 등을 운영하는데, 문제는 중장년 고령자를 채용하는 기업들은 어디인가 하는 점이다. 법적으로 정년은 60세지만 통계청은 1차 직장의 정년이 49.3세라고 발표했다. 이후에 일할 곳이 없는 것이 문제다. 민간부문에서 제대로 청년과 중장년을 적극적으로 채용할 수 있도록 여건을 조성해야 한다. 그룹 총수에게 확답을 받는다고 해서 그 효과를 기대하기는 어렵다. 민간 일자리 창출 기반 강화는 첫째가 규제혁신·창업지원 등을 통한 민간투자 분위기 조성인데, 정부가 규제 샌드박스에서 풀어내는 규제보다 국회에서 훨씬 많은 규제를 만들어내고 있다. 우리나라가 반도체 선진국이 된 것은 당시 반도체를 규제하는 반도체과가 없었기 때문이라는 이야기를 되새겨볼 필요가 있다. 그래서 정부가 메타버스·블록체인·클라우드·지능형 로봇·디지털 헬스케어 등 5대 분야에 대해 범부처 '신산업 태스크포스(TF)'를 운영한다는 소식이 반갑게만은 들리지 않는다. 벤처와 창업은 아이디어와 기술력이 문제다. 유망한 분야라면 투자할 자본은 시장에 넘쳐나고 수많은 일자리도 만들어낸다. 모쪼록 정부 주도의 K뉴딜 사업 2.0이 안정적으로 궤도에 진입하기를 기대한다. 4차 산업혁명 시대에 살고 있지만 대학의 인문사회 계열 학과는 30년 전과 비교했을 때 10%도 바뀌지 않은 것 같다. 소위 문송(문과라서 죄송합니다)은 네카라쿠배당토(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스)와 같은 잘나가는 정보기술(IT) 기업에 가려면 대학이 아닌 학원에 다녀야 한다. 디지털·신기술 인재 양성은 여전히 교육부와 과학기술정보통신부 중심이고, 고용노동부는 아직도 폴리텍 대학이나 특성화고에 머물러 있다. 학령인구 감소가 가장 큰 걱정인 교육부는 대학 정원을 줄이면 인센티브를 주고 있다. 부처 간에 적극적인 협력이 필요하다. 산업구조 전환에 대응하는 공정한 노동 전환은 자동차회사와 석탄발전회사 등에 집중되어 있다. 이는 공정한 노동 전환이 아니라 탄소중립 노동 전환이다. 2021년에만 5대 시중은행에서 262개의 점포가 사라졌고 증권사 지점도 마찬가지다. 전기가스업에서는 7만명이 일하지만 교육서비스업에서는 90만명이 넘게 일하고 있다. 정부 정책은 구조조정이 예상되는 산업과 일터를 모두 공정하게 챙겨야 한다.[이영면 전 한국경영학회장·동국대 경영대학 교수]</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2022.01.24.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>주택담보대출 비교 플랫폼 '태동'...담비·뱅크몰 영업 박차</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002245801?sid=105</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>부가서비스로 차별화...제휴 금융사 확대 과제주택 담보 대출 비교 플랫폼이 국내 시장에 싹트고 있다. 토스·카카오페이 등 핀테크들은 고객 편의성을 위해 대출 비교 서비스를 운영해왔지만, 주택 담보 대출만을 특화해 서비스를 내놓는 핀테크가 등장한 것이다.24일 금융업계에 따르면 베스트핀의 '담비'와 '뱅크몰' 서비스가 주택 담보 대출 비교 플랫폼 시장서 경쟁하고 있다.(사진=이미지투데이)주택 담보 대출 비교 플랫폼은 고객이 개인 신용정보 등을 입력하면 이에 맞는 대출 상품을 추천해준다. 맘에 드는 대출 상품을 선택하면, 개별 금융사 애플리케이션(앱)으로 연결되며 대출이 이뤄진다.담비는 2021년 11월 서비스를 출시했다. 담비와 제휴한 금융사는 현재 SC제일은행 한 곳이다. 담비 측은 "BNK부산은행과 DGB대구은행·SBI저축은행 제휴도 1분기 중 이뤄질 것"이라고 설명했다.뱅크몰은 올해 1월 1일 서비스를 오픈했다. 이날 기준으로 대출 신청 금액은 1천855억원으로 집계됐다. 뱅크몰의 제휴 금융사는 7개(SC제일은행·한화생명·SBI저축은행·OSB저축은행·키움예스저축은행·웰컴저축은행·FM펀딩)다.뱅크몰 측은 "금융소비자보호법(금소법)에 따라 금융상품 판매대리 중개업 등록 과정을 밟아 리뉴얼해 서비스를 오픈한 것"이라고 설명했다.뱅크몰은 알고리즘을 통해 고객 정보를 분석한다. 알고리즘으로 부동산 대출 규제와 관련된 내용들을 분석해 이용자들에게 최적화된 상품을 제공한다는 게 뱅크몰의 부연이다.고객에게 맞는 주택 담보 대출을 비교해 알려준다는 점은 같지만, 차별화된 서비스도 제공하고 있다.담비는 '찾아가는 서비스'를 차별점으로 내세우고 있다. 비대면으로 하기 어려운 경우 해당 금융사의 대출상담사가 방문해 대출 상담을 해주는 방식이다. 담비 관계자는 "주택 담보 대출 서비스 특성상 완전 비대면은 힘들다"며 "비대면과 금융 상담사 파견을 통한 투트랙 방식을 제공하고 있다"고 언급했다.뱅크몰은 주택 마련과 관계된 생활 밀착형 서비스를 강점으로 삼고 있다. 삼성전자와 이사청소 등과 제휴한 '내 집 마련 원스톱 서비스'가 그 일례다. 이외에도 금융 정보를 다양하게 접할 수 있는 부가 서비스도 마련해뒀다.뱅크몰 측은 "주택 담보 대출 이용자들이 대부분 이사를 해야 하는 상황에 놓인다는 점에 착안해 관련 서비스를 준비했다"고 말했다.하지만 주택 담보 대출 비교 플랫폼이 성장하기 위해선 제휴 금융사 확대가 필요할 것으로 보인다. 비교 플랫폼임에도 불구하고 비교 상품군이 적다면, 고객이 굳이 플랫폼을 찾을 필요가 적어지기 때문이다.업계 관계자는 "시중은행의 경우 기존 플랫폼이 탄탄하고 고객층이 확보된 상태라 제휴가 어려운 건 사실"이라면서도 "지방은행·저축은행·보험사를 위주로 확장해 나갈 것"이라고 답변했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2022.01.27.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>디지털 헬스케어 업계도 '슈퍼앱' 시동건다</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005135704?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>한 플랫폼에서 다양한 서비스 제공하는 슈퍼앱헬스케어 슈퍼앱 아직 없어…"국내서도 곧 나올것"닥터나우 등 국내 디지털헬스케어 슈퍼앱 성장 목표美포켓필, 비대면 약 처방 물론 원격 의료 등 구축이 기사는 2022년01월26일 16시15분에 팜이데일리 프리미엄 콘텐츠로 선공개 되었습니다.[이데일리 이광수 기자] 디지털 헬스케어 분야에서도 ‘슈퍼앱(Super App)’을 지향하는 곳이 늘고 있다. 슈퍼앱은 하나의 플랫폼 안에서 여러 서비스를 사용자에게 제공하는 앱을 뜻한다. 우리에게 친숙한 네이버(035420)와 카카오(035720), 쿠팡, 토스 등이 슈퍼앱의 대표적인 사례다. 26일 제약·바이오 업계에 따르면 디지털 헬스케어 분야에서도 슈퍼앱 바람이 불고 있다. 기술의 발달로 쇼핑과 금융, 외식 등 여러 분야에서 슈퍼앱이 등장하면서 간편함과 편의성을 체험한 이용자들이 의료 서비스에 대해서도 비슷한 편리함을 원하고 있어서다. 기업 입장에서도 슈퍼앱 전략이 성공하게 되면 외연 확대는 물론 고객을 플랫폼에 오래 머무르게 할 수 있어 자연스럽게 기업가치 상승도 따라온다.아직 헬스케어 시장을 주도하는 슈퍼앱은 없다. 헬스케어 업계 관계자는 “의료 서비스를 모바일로 경험하기 시작했던 시점이 오래되지 않았고, 기존의 서비스가 사용자의 만족도를 채우지 못한 탓”이라고 분석했다. 물론 이 덕분에 선점할 기회가 열린 것이고 여러 기업이 슈퍼앱으로 거듭나기 위해 전략을 짜고 있다. (자료=닥터나우)최근 닥터나우는 본래 제공했던 비대면 진료를 중심으로 의료 사이프스타일 전반을 아우르는 헬스케어 분야 ‘슈퍼앱’으로 성장하는데 초점을 맞추겠다고 밝혔다. 닥터나우는 원격진료와 처방약 배달 서비스를 운영 중인 스타트업이다. 이를 위해 쿠팡과 카카오 출신인 이현석 최고기술책임자(CTO)와 넥슨과 배달의 민족, 블랭크코퍼레이션 출신 안영모 최고마케팅책임자(CMO)를 선임하기도 했다. 장지호 닥터타우 대표는 “닥터나우가 생각하는 슈퍼앱은 ‘의료’라고 했을 때 가장 먼저 떠오르는 앱”이라며 “현재 운영하는 비대면 진료와 약 배달과 관련해서 고객 만족도를 높이는 방향으로 서비스를 고도화할 것”이라고 말했다. 최근 패스트벤처스와 디지털 헬스케어 파트너스(DHP)에서 시드(seed)투자를 받은 스타트업 ‘킬로’ 역시 중장기적으로 슈퍼앱으로 성장한다는 전략이다. 킬로는 체중 관리 앱 ‘밀리그램’의 운영사다. 밀리그램은 체중관리를 꾸준히 지속할 수 있또록 간편한 기록과 직관적인 통계와 함께 실시간으로 체중 관리 기록을 공유할 수 있는 그룹 기능을 제공한다.해외도 방향성은 같다. 캐나다 온라인 약 배달 서비스 포켓필(PocketPills)는 기존 약 처방은 물론 원격 의료 서비스도 추가했다. 미국 뉴욕에 기반을 둔 또 다른 온라인 약 배달 서비스 캡슐(Capsule)은 원격 의료는 물론 정신 건강, 관련 용품 쇼핑몰 등을 추가해 건강 관리 슈퍼앱을 구축하고 있다. 벤처투자 업계 한 바이오 심사역은 “5년 이내에 국내서 디지털 헬스케어 분야에도 슈퍼앱이 나올 것”이라며 “최근 디지털 헬스케어의 밸류에이션이 높아진 상태지만, 슈퍼앱이 돼 성장하게 되면 높은 밸류에이션을 정당화할 수 있는 케이스가 나오게 될 것”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2022.01.21.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>야놀자 “2022년 여가 트렌드는 T.I.G.E.R”</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004010696?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>[서울경제] 여가 플랫폼 야놀자가 2022년 여가 트렌드로 ‘T.I.G.E.R’로 제시했다.야놀자는 자체 데이터를 분석해 올해 여가의 5가지 키워드로 ▲기술 도입(Technology) ▲통합서비스 선호(Integrated Service) ▲프리미엄 여행 인기(Glamorous and Luxury Travel) ▲환경에 대한 관심(Environment) ▲휴식과 근무의 결합(Rest and Work) 등을 꼽았다. 야놀자는 우선 여행업계의 기술 도입(Technology)이 가속화될 것으로 전망했다. 코로나19로 여행산업 위축 속에서도 지난해 야놀자클라우드의 호텔 솔루션 고객사가 전년 대비 60% 이상 증가하는 등 모습을 보이고 있다. ‘포스트코로나’ 시대의 여행 수요에 대한 기대가 높아지면서 이를 선점하기 위한 기술 투자가 급증한 것으로 회사 측은 해석했다. 운영 효율과 이용자 편의를 동시에 제고하는 SaaS(Software as a Service) 솔루션의 높은 성장세가 이어질 것이라는 기대다.통합서비스(Integrated Service)에 대한 선호도도 눈에 띄게 늘고 있다고 봤다. 타인과의 접촉을 최소화하는 대신 숙소에서 다양한 활동을 즐기려는 수요가 증가한 영향으로 풀이된다. 이에 최근 특급호텔들도 OTT(온라인 동영상 서비스) 이용권을 제공하는 등 숙소 내 이색 서비스를 도입하고 있다.프리미엄 여행(Glamorous and Luxury Travel) 수요도 꾸준히 증가하는 것으로 야놀자는 파악했다. 지난해 특급호텔(4·5성급)의 예약건수는 2020년 대비 54% 증가했다. 풀빌라 예약률도 같은 기간 46% 늘었는데 이는 전체 펜션 카테고리 신장률과 비교해도 18%포인트 높은 수준이다. 해외 여행이 제한적인 상황에서 비용 대비 최상의 여가를 경험할 수 있는 프리미엄 숙소에 대한 인기가 지속될 것이라는 예상이다.여행업계의 환경에 대한 관심(Environment)도 높아지고 있다. 전 세계적으로 환경 이슈가 대두되고 있는 만큼 올해도 여행과 환경보호가 양립할 수 있는 다양한 프로그램이 나올 것으로 야놀자는 예상했다.코로나19 이후 원격근무가 일상화되면서 휴식과 근무가 결합된(Rest &amp; Work) 워케이션도 부상했다. 야놀자, 토스, 라인플러스 등 IT 기업들을 필두로 시작된 워케이션은 이색적인 근무환경을 제공하는 복지이자 지역 경제 활성화에 기여하는 신규 프로그램으로 주목받고 있다. 일부는 워케이션 전용 상품을 개발 중인 가운데 워케이션이 여행업계 회복을 지원하는 새로운 비즈니스 모델이 될 것이라는 관측이다.야놀자 관계자는 “코로나19가 장기화되고 있지만 오히려 포스트코로나 시대의 여행 수요에 대한 기대가 높아지며 기술 도입과 환경에 대한 관심이 증가하고 있다”며 “여행이 제한적인 상황에서도 숙소 내에서 레저를 즐기는 통합서비스, 휴식과 근무를 동시에 즐기는 워케이션 등의 트렌드가 확산되고 있는 점도 주목하고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022.01.19.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>방역패스 ‘예외 대상’, ‘인과성 불충분’·‘입원자’까지 확대…시행 24일부터</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011198032?sid=102</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>'방역패스'를 소지를 해야 식당이나 카페부터 다양한 다중이용시설의 이용이 가능한 시대입니다. 때문에 접종을 받지 않은 경우 생활의 불편을 감수할 수 밖에 없는데요.문제는 접종 의사가 있었지만, 접종을 받은 후 건강상의 이상을 느껴 2차나 3차 접종을 저어하는 분들이 있다는 겁니다.■ 방역패스 예외 대상 확대... '인과성 불충분'·'입원자'까지 포함이런 문제 때문에 그동안 꾸준히 방역패스 예외 대상을 확대해야 한다는 지적이 있어 왔습니다. 방역당국도 이런 요구에 공감해 방역패스 예외 대상을 확대하기로 했습니다. 이번 예외 대상들에 대한 조치는 1월 24일부터 시행됩니다.현재 의학적 사유로 방역패스 적용 예외 대상이 되는 경우는 모두 3가지입니다.   ① 코로나19 백신 접종 후 중대한 이상반응*으로 접종금기·연기 통보받은 경우 * 아나필락시스, TTS, 모세혈관누출증, 심근염·심낭염 ② 코로나19 백신 구성물질에 중증 알레르기 발생이력이 있는 접종금기자(진단서有) ③ 면역결핍, 면역억제제·항암제 투여로 접종연기가 필요한 경우(소견서·진단서有)  여기에 2가지 사례가 이번에 추가되는데요.   ④ 코로나19 백신 접종 후 이상반응으로 4-1(인과성 근거 불충분) 판정받은 경우 ⑤ 코로나19 백신 접종 후 이상반응으로 접종 후 6주 이내에 입원치료를 받은 경우  ■ 인과성 근거 불충분은 어떻게 받나?현재 백신 접종 이후 이상반응이 발생하면 의사가 해당 사실을 관할 보건소 등에 신고하도록 돼 있습니다. 이후 해당 사례와 백신 접종과의 인과성을 평가하게 되는데요.중증 이상반응의 경우 피해조사반에서 접종과 해당 사례와의 인과성을 평가해 5가지로 분류를 하게 됩니다.출처: 코로나-19 예방접종 후 이상반응 관리지침 1-2판이번에 방역패스 예외로 포함되는 경우는 바로 4번 인과성이 인정되기 어려운 경우입니다.쉽게 말해 접종과 이상반응 사이의 인과성 근거가 불충분한 사례에 해당하는 경우죠.해당 사례의 판정 기준은 다음과 같습니다.   ④-1 판정기준 : 예방접종 후 발생한 이상반응이 접종 전에 이를 유발할 만한 기저질환, 유전질환 등이 불명확하고, 이상반응을 유발한 소요시간이 개연성은 있으나, 백신과 이상반응 인과성 인정 관련 문헌이 거의 없는 경우   매주 목요일 피해조사반의 사례 검토 결과가 발표되는데 가장 최신인 13일 검토 결과를 보면 현재까지 80건 정도입니다. 이들에 대해서는 현재 사망의 경우 위로금 5천만 원을 전달하고,  의료비(진료비 및 간병비) 3천만 원 한도 내에서 지원을 시행하고 있습니다.이에 해당 사례에  포함되는 대상자는 별도의 절차나 의사의 진단서 없이, 쿠브(COOV)앱 또는 카카오나 네이버, 토스 등 전자출입명부 플랫폼에서 ‘접종내역 발급·업데이트’하면 전자 예외확인서를 발급받을 수 있고,  별도 증빙서류 없이 신분증을 지참하여 가까운 보건소에서 종이 예외확인서 발급도 가능합니다.■  접종 후 6주 이내에 입원치료를 받은 경우라면?아마도 이번에 확대되는 예외 대상자 대부분은 여기에 해당하실 것 같습니다.방역당국은 코로나19 백신 접종 후 이상반응 의심증상이 나타나 접종 후 6주 이내에 입원치료를 받았다면 , 이상반응 의심증상의 종류 및 이상반응 신고 여부와 관계없이 인정한다고 밝혔습니다.방역당국은 6주라는 시간적인 기간을 둔 것과 관련해 "6주라는 기준을 둔 판단의 근거는  4-1 특별관심이상반응을 관찰하는 경과 기간이 보통 4주에서 6주라고 얘기하고 있기 때문"이라고 설명했습니다.그렇다면 최소 며칠을 입원해야 한다는 기준이 있을까 궁금하실텐데, 방역당국은 최소 입원 기간이 없다고 강조했습니다.여기에 해당하는 사례자들은 가까운 보건소에 입원했던 의료기관에서 발급받은 입원확인서’와 ‘코로나19 예방접종 후 이상반응으로 입원치료를 받았다’고 적힌 의사의 진단서를 가지고 방문해 우선 방역패스 예외자로 전산 등록해야 합니다. 이렇게 최초 1회에 한해 보건소에서 증빙서류 확인 후 방역패스 예외자로 전산 등록한 경우, 전국 어느 보건소에서나 증빙서류 제출·확인 없이 종이 예외확인서를 받을 수 있고, COOV앱 또는 전자출입명부 플랫폼에서 ‘접종내역 발급·업데이트’해 전자 예외확인서를 발급받을 수 있습니다.■ 새롭게 추가 되는 예외 대상자 1만 2천여 명 가량... 제한 기간은 없어이번에 추가 되는 대상들은 현재 신고된 이상반응 의심사례 중 주요이상반응의 사례에 해당할 겁니다.주요 이상반응은 다음과 같은 사례들입니다.   주요 이상반응 : 특별관심 이상반응(Adverse Event Special Interest, AESI), 중환자실 입원, 생명위중, 영구장애/후유증 등  1월 13일 발표에 따르면 이에 해당하는 사례가 전체 1만 2,863건가량입니다.방역당국은  "입원치료라고 하면 경증이상반응대상은 아닐 것이고 주요 이상반응에 해당하는 만큼 지금 1만 2천 명에서 1만 7천 건 선으로 예상은 하고 있다"면서 "다만 입원치료가 반드시 이상반응신고를 해야 하는 것은 아니기 때문에 예측한 것보다 조금 늘 수는 있을 것으로 생각한다"고 설명했습니다.그렇다면 이들의 경우 예외로 인정되는 기간이 따로 있을까요? 답은 없습니다. 방역당국은 "이번에 확대된 예외확인서 두 가지 경우에 대해서는 별도의 유효기간 만료일이 없다"고 강조했습니다. 다음은 대상별 예외 유효 기간입니다.출처: 중앙재난안전대책본■ 방역패스 예외 ≠ 접종 예외방역당국은 이번 방역패스 예외 대상과 관련해 "예외 인정이 접종금기를 의미하는 것은 아니다"고 강조했습니다. 이번 조치로 방역패스 예외되는 대상자는 백신접종 후에 의심증상이 나타나서 입원 치료를 한 경우가 해당하는 것이기 때문에 예방접종 실시 기준에 따른 2차나 3차에 접종금기 대상은 아니라는 건데요.그러면서 "방역패스 예외의 인정을 받으셔서 예외확인서를 받으셨다 하더라도 본인의 건강상태 호전된다면 향후에 코로나로부터 본인이나 가족을, 주변을 지키기 위해 예방접종에 적극적으로 참여해달라"고 부탁했습니다.한편, 방역당국은 임신부에 대해서도 거듭 방역패스 예외 대상이 될 수 없다고 강조했습니다.방역당국은 "임신부는 주 수에 관계없이 코로나 예방접종 권고 대상"이라며  "다만 저희가 예방접종 실시 기준에 따라서 임신 12주 이내에 초기 임신부는 접종 전 주치의와 상담 후 접종할 것을 권고하고 있지만, 예외확인서의 대상은 아니다"고 설명했습니다.특히 "임신부는 코로나의 고위험군이며 접종이 권고된다"면서 "최근에 미접종 임신부의 코로나 확진 후 위험사례가 있었던 만큼 의학적 사유에 의한 방역 패스 예외 대상에는 포함 안 된다"고 말했습니다.■ 제보하기▷ 카카오톡 : 'KBS제보' 검색▷ 전화 : 02-781-1234▷ 이메일 : kbs1234@kbs.co.kr▷ 뉴스홈페이지 : https://goo.gl/4bWbkG</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022.01.16.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>이재명이 쏘아올린 'ICO'… 전면금지 4년만에 길 열리나</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004772926?sid=105</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>"가상자산은 미래산업의 한 축첫단계 ICO, 미룰수 없는 과제"李후보, 정책 토론회서 강조그동안 부정적이던 금융위도논의 위한 세부안 국회 보고관련 제도 정비 기대감 커져  이재명 더불어민주당 대선 후보(사진)가 "가상자산 시장은 다가오는 미래 산업의 한 축이자 이미 펼쳐진 거대 시장"이라며 "우리나라가 가상자산 강국으로 발전해 가는 첫 단계로 가상자산 공개(ICO)는 미룰 수 없는 과제"라며 ICO에 대한 입장을 내놨다. 문재인 정부 들어 2018년 전면금지된 ICO가 4년여만에 정책 과제로 부상한 것이다.   특히 그간 가상자산에 대한 부정적 입장을 고수해 온 금융위원회도 국회 정무위원회에 ICO 정책 검토의 세부내용을 보고한 것으로 알려지면서, ICO등 가상자산 관련 제도 정비가 급물살을 타는 것 아니냐는 기대감이 확산되고 있다.   ■이재명 "가상자산 강국 위해 ICO 미룰수 없는 과제"   이재명 더불어민주당 대선후보는 지난 14일 국회 의원회관에서 열린 'K-코인 활성화 방안 정책 토론회'에 축사를 통해 "우리나라가 가상자산 강국으로 발전해 가는 첫 단계로 ICO는 미룰 수 없는 과제지만, 우리나라는 가상자산의 공개가 금지돼 있고 활용 역시 제한해야 한다는 입장이 강하다"며 "관련 법령도 세밀하게 정비가 안 돼, 가상자산 시장의 제도 불안전성이 아주 큰 편"이라면서 "오늘 토론회를 통해 ICO의 국제적 현황을 살펴보고 향후 국내 적용을 위한 심도 있는 토론 이뤄지길 기대한다"고 강조했다.   이 날 토론회는 민주당 싱크탱크인 민주연구원과 민주당 가상자산TF, 자본시장대전환 위원회가 공동으로 주관했다. 송영길 민주당 대표 역시 "국내에서 ICO가 금지됨에 따라 그간 싱가포르와 스위스 등으로 유출됐던 자본과 인력이 상당하다"며 "전향적인 조치가 이뤄져서 유출됐던 자본과 인력이 복귀하면 가상자산의 발전에 새로운 동력이 될 것"이라며 ICO 허용 정책의 필요성을 강조했다.   토론회에서 민주당 김병욱 의원은 "21대 국회가 출범한 이후 가상자산 관련 토론회는 수없이 많이 진행됐지만 ICO를 주제로 한 토론회는 거의 없었다"며 "ICO가 필요하지만 예민하고 까다로운 부분이 많고 투자자 보호 어떻게 할 것이냐 하는 현실적인 문제가 있기 때문"이라고 지적했다.   ICO는 가상자산 기업들이 사업에 대한 구상이 담긴 '백서'를 발표하고, 이를 기반으로 가상자산을 발행해 전세계 투자자들을 상대로 투자금을 모으는 방식이다. 국내에서는 지난 2017년 ICO 열풍에 편승한 사기성 프로젝트가 난립하자 금융위가 2018년 모든 ICO를 전면 금지한 바 있다.   ■금융위도 ICO제도 검토 세부방안 국회 보고   특히 ICO 금지 주체인 금융위가 최근 ICO 관련 제도를 논의하기 위한 세부방안을 국회 정무위에 보고한 것으로 알려져 주목된다. 보고서에는 △ICO를 통해 모금한 자금을 어떻게 검증할지 △어느 금융기관에 위탁할지 등을 논의해야 한다는 내용이 담긴 것으로 알려졌다. 금융위는 지난 2021년 11월 정무위 법안소위에서도 가상자산 업권법에 대한 논의 과정에서 가상자산 발행규제 도입 필요성을 언급한 바 있다.   이날 토론회에서 발제에 나선 김형중 고려대학교 정보보호대학원 특임교수는 "스타트업이 만들어지면 1년차에 실패할 확률이 21.5%, 5년차 50%, 10년차 90%에 달한다"며 "가상자산 프로젝트의 경우 장기적으로 보면 실패율이 스타트업의 사례보다 높은데 정부가 적극적으로 개입해 규제한다면 가상자산 프로젝트의 성공률이 훨씬 높아질 것"이라며 ICO 허용의 필요성을 역설했다.   김 교수는 "글로벌 유니콘 기업 리스트를 보면 우리 정부가 4차산업혁명위원회까지 만들어 지원한 인공지능(AI)이나 빅데이터 분야에서는 우리 기업이 하나도 없다"며 "반면 정부가 강력하게 규제하고 심지어 ICO를 부도덕하다고까지 했는데 핀테크와 가상자산 기업은 토스와 두나무 등 2개 기업이나 포함됐다"고 강조했다. 그는 "차기 정부에서는 반드시 우리나라를 먹여살릴 수 있고 디지털경제를 이끄는데 중요한 산업이 될 가상자산 분야를 중점적으로 키워야할 것"이라고 덧붙였다.   또 다른 발제자인 최화인 블록체인 에반젤리스트는 ICO 열풍에 편승한 사기성 프로젝트가 많고 ICO 투자의 리스크가 크다는 점이 ICO를 제도화해야 하는 근거라고 강조했다. 최화인 에반젤리스트는 "신기술 신사업 시장의 경우 투자와 투기를 구분하는 것이 사실상 불가능하다"라며 "사기 목적의 프로젝트를 걸러내고 기술인력과 아이디어를 갖춘 기업의 ICO를 허용했으면 투자리스크가 오히려 줄어들었을 것"이라고 지적했다. 그는 국내 프로젝트의 ICO 허용과 더불어 ICO 금지기간 동안 해외로 나갔던 프로젝트팀이 국내로 복귀하도록 지원해야 한다고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022.01.24.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>토스, 금융보안 대회 1등…보험내역 관리 쉬워</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004912810?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>◆ 마이데이터 시대 ◆  토스 마이데이터 서비스의 특징은 특유의 직관적인 사용자 경험(UX) 설계다. 토스는 2015년 간편송금 서비스 출시를 시작으로 통합 계좌 조회, 소비내역 분석, 무료 신용등급 조회 등 지금의 마이데이터와 비슷한 서비스를 제공해왔다. 토스 회원 2000만명 중 약 800만명이 이미 마이데이터형 서비스를 이용해오고 있었다. 자사 앱에서 마이데이터형 서비스를 구현한 적이 없는 다른 금융사들보다 토스가 초기 사용자 확보에 유리한 지점이다.이 같은 운영 경험을 바탕으로 토스는 기존 앱의 편리함을 마이데이터 서비스에도 그대로 적용했다. 토스는 마이데이터 서비스 초기 안정적인 전환 및 운영을 위해 지난해 하반기 개발 인력을 집중 투입해 마이데이터 서비스를 구축했다. 통합계좌 조회와 소비내역 분석 서비스에서는 유저가 여러 금융기관에서 개설한 계좌와 카드의 사용 현황을 토스 앱 하나로 모두 조회할 수 있게 구현했다. 마이데이터 서비스 시행 이전에는 사용자가 등록한 공동인증서를 기반으로 스크래핑 기술을 통해 이러한 정보들을 제공했다. 마이데이터 서비스 시행 이후에는 기술의 근간이 API 기반으로 바뀌었는데, 토스는 발 빠르게 시스템을 전환해 더 빠르고 안정적으로 관련 서비스를 제공하고 있다.토스는 계좌의 지출 및 카드 사용내역을 바탕으로 한 소비 분석도 해준다. 정기적인 소비처와 주 사용 분야는 물론, 이용 중인 카드의 혜택 실적 달성 여부와 예상 지출일 등을 일목요연하게 보여줌으로써 합리적인 소비와 필요 자금 조달을 계획할 수 있도록 구성돼 있다. 보험과 연계한 기능도 있다. 소비 내역에서 병원비 발생 시 한 번의 클릭을 통해 가입한 실손보험 회사에 청구 관련 서류를 보내고, 청구 내역을 관리할 수 있다. 또 소비가 많은 분야에서 할인 혜택을 받을 수 있는 결제 수단도 추천받을 수 있다.보안성도 우수하다. 지난해 금융보안원 주관으로 열린 'FIESTA2021 금융보안 위협분석 대회'에서 토스는 38개 참가팀 중 1위를 차지한 바 있다. 2018년부터 시작된 '금융보안 위협분석 대회'는 금융보안원이 주관하는 해킹대회다. 금융보안을 주제로 한 해킹대회로는 국내에서 유일하다. 지난 대회에는 악성코드 분석, 웹해킹, 모바일 분석, 포렌식 암호학 등 4개 분야에서 총 32개 문제가 출제됐다. '커피사일로'라는 팀명으로 참가한 토스 보안기술팀은 출제 문제 32개를 모두 해결하며 1위에 올랐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022.01.27.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>"인뱅, 중기·소상공인 대출 늘려라"</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004012921?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>금융위, 시행령 개정안 입법예고시중은행과 동일한 예대율 규제기업 대표 등 대면거래도 허용[서울경제] 시중은행보다 완화된 예대율(예금 잔액에 대한 대출 잔액 비율) 규제로 가계대출을 적극 영업해온 인터넷은행이 앞으로는 은행과 동일한 규제를 적용받는다. 인터넷은행이 가계대출보다 소상공인·중소기업 대출 취급을 활성화하기 위한 취지다. 카카오·케이·토스뱅크 등 인터넷은행이 모두 올해 개인사업자 대출의 출시를 예고하고 있어 관련 시장에서 시중은행과의 경쟁이 치열해질 것으로 전망된다.금융위원회는 이 같은 내용의 은행법 시행령 및 감독규정 개정안을 입법 예고한다고 27일 밝혔다. 현재 시중은행의 예대율은 가계대출 115%, 기업대출 85%의 가중치를 적용받고 있다. 예금 100만 원을 가진 은행이 대출 100만 원을 취급할 경우 가계대출은 115만 원으로, 기업대출은 85만 원으로 인식된다는 의미다.인터넷은행은 영업 초기인 점을 고려해 기업대출을 취급하지 않을 시 가계대출에 100% 가중치를 적용하고 있다. 그러나 이 같은 규제 차이로 인해 인터넷은행이 중소기업·개인사업자 대출을 외면하는 요인으로 작용한다는 지적이 제기되면서 앞으로는 일반 은행과 동일한 예대율 규제를 적용하기로 한 것이다. 향후 3년의 유예기간 동안 신규 취급하는 가계대출에 한해 일반 은행과 똑같이 115%의 가중치가 적용된다. 기존 대출은 현행과 같이 100%를 적용하되 유예기간 3년 경과 시 115%로 전환한다.인터넷은행의 중소기업 대출 취급을 활성화하기 위해 대면 거래 예외 사유도 정비했다. 현행 인터넷전문은행법은 65세 이상 노인, 장애인 등 법적 기술적으로 전자 금융거래가 어렵거나 소비자 보호 및 편의 증진을 위해 불가피한 경우에만 인터넷은행의 대면 거래를 허용하고 있다. 이제는 실제 사업 영위 여부 확인, 비대면 제출 서류(정관·이사회의사록)의 진위 확인 등 현장 실사가 필요한 경우 인터넷은행도 대면 거래가 허용된다. 중소기업 대표자 등과 연대보증 계약을 체결하는 경우에도 대면 거래를 할 수 있다.이외에 은행 동일인의 주식 보유 상황이 변경된 경우 금융위 보고 기한을 ‘5영업일 이내’에서 ‘10영업일 이내’로 연장한다. 은행의 국외 현지법인이 현지 감독 기관으로부터 제재를 받은 경우 금융감독원에 보고해야 하나 2000달러 미만인 경우 대상에서 제외된다.이같이 규제가 바뀜에 따라 가계대출에 이어 이제 기업대출에서 인터넷은행과 시중은행 간 경쟁이 치열해질 것으로 전망된다. 시중은행과 똑같은 예대율 가중치로 인해 인터넷은행들이 당국으로부터 가계대출보다 기업대출을 확대해야 하는 과제를 받은 셈이기 때문이다. 카카오뱅크와 케이뱅크·토스뱅크 모두 연내 개인사업자 대출 출시를 준비하고 있다. 금융위는 “은행법 시행령 및 감독규정 개정안은 입법 예고 후 법제처 심사 등을 거쳐 올 상반기 중 시행할 예정”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022.01.20.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>정은보 금감원장 "스톡옵션 제도 손질할 것"</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004655335?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>카카오페이 경영진 '먹튀' 관련"시장·개인투자자 보호해야"정은보 금융감독원장(사진)이 카카오페이 경영진의 주식 ‘먹튀’ 사건과 관련해 “스톡옵션 제도 개선을 검토하겠다”고 밝혔다.정 원장은 20일 스타트업 육성 공간인 서울 마포구 ‘프론트원’에서 핀테크업계와 간담회를 마친 뒤 기자들과 만나 “시장과 일반 개인투자자 보호를 전제로 스톡옵션 제도가 운용돼야 한다는 생각을 하고 있다”며 이같이 말했다. 류영준 대표 등 카카오페이 경영진은 지난해 11월 회사 상장 직후 스톡옵션으로 받은 주식을 모두 팔아 총 878억원의 차익을 올렸다. 그러나 이후 가뜩이나 고평가 논란이 제기됐던 카카오페이 주가가 급락하고 여론이 악화하는 등 물의를 빚었다.오스템임플란트 내부 직원의 2000억원대 횡령 사건과 관련해선 “개별 금융회사 여신 문제는 금감원이 들여다볼 사항이 아니다”면서도 “회계상 문제에 대해 조사와 함께 제도 개선이 필요한 부분이 있는지 살펴보고 있다”고 답했다. 부동산 대출의 담보인정비율(LTV) 상향에 대해서는 “현 단계는 가계부채 관리가 우선”이라며 부정적 의견을 제시했다.정 원장은 핀테크 기업의 코스닥시장 진입 문턱을 낮추고 금융회사의 스타트업 투자를 촉진하는 방안 등도 추진하기로 했다. 그는 “코넥스시장에서 코스닥시장으로 이전 상장하는 제도를 개선하겠다”고 했다. 코넥스시장에 상장된 핀테크 기업들이 코스닥시장으로 쉽게 이동할 수 있도록 이전 상장에 필요한 재무 요건을 일부 완화하거나 거래가 활발한 경우에 한해 재무 요건 적용을 배제하는 안을 검토하겠다는 얘기다.가칭 ‘핀테크 육성 지원법’ 제정을 추진해 금융회사의 스타트업 투자 걸림돌로 지적된 출자 대상 제한 규제 등을 완화하겠다는 뜻도 내비쳤다. 금융회사가 투자할 수 있는 핀테크 범위를 확대하고 출자 승인 절차도 간소화하겠다는 취지다.정 원장은 또 “신한은행, 한국성장금융 및 디캠프와 공동으로 ‘청년창업지원펀드’를 신규 조성해 유망 스타트업 지원을 강화할 계획”이라고 덧붙였다. 이를 통해 핀테크 업체들의 ‘스케일 업’을 돕겠다는 게 정 원장의 구상이다. 정 원장은 “세계 핀테크 유니콘기업(기업가치 10억달러 이상 스타트업) 94개 중 한국 기업은 아직 단 하나(토스)에 불과하다”며 “국내 핀테크 서비스의 다양성과 혁신성이 정체되고 있는 것은 아닌지 우려의 시선도 있다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022.01.31.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>롤스로이스가 직접 선정했다...13개의 비스포크</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004781061?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 롤스로이스모터카가 2021년에 발표했던 차량 중 가장 아름다운 비스포크 모델 13종을 선정해 소개했다.   지난해 롤스로이스 비스포크 사업부는 장기화된 코로나 팬데믹으로 유래 없이 예측 불가능한 상황 속에서도 연간 최고 주문량을 기록했다.   롤스로이스모터카 CEO 토스텐 뮐러 오트보쉬는 "지난해 우리는 전 세계 고객들에게 총 5586대에 이르는 차량을 출고했으며, 비스포크 컬렉티브 팀은 고객들과 긴밀하게 협업하며 창조성의 지평을 넓혔다"면서 "혁신적인 기술을 연마한 고도로 숙련된 팀과 함께 롤스로이스는 타고난 장인 정신을 다시 한번 입증했다"고 말했다.   ■레이스 크립토스  2020년에 공개된 레이스 크립토스 컬렉션의 마지막 수량이 지난해 전 세계 고객들에게 전달됐다. 레이스 크립토스 컬렉션은 차량 내외부 곳곳에 의미 있는 암호들을 담아낸 것이 특징이다. 현재까지는 암호 애호가들과 고객들의 협업으로 암호에 어떤 요소가 담겨 있는지 드러난 상태지만 마지막 해답은 공개되지 않았으며, 암호 해독을 위한 경쟁은 아직까지도 계속되고 있다.   ■쿠마 켄고 던  롤스로이스가 건축가 쿠마 켄고와 협업해 제작한 비스포크 던은 일본 도쿄 중심부의 럭셔리 레지던스 '더 키타'를 상징하는 모델로, 글로벌 럭셔리 부동산 개발 업체 웨스트뱅크의 의뢰를 받아 제작됐다. 외관은 더 키타의 은회색 건물 구조재를 반영한 실버 헤이즈 색상으로 도색됐다. 햇빛을 받으면 구릿빛을 띄는데, 이는 구리로 된 건물 외부의 '코시' 미늘살 장막과 실내를 표현한다. 드롭헤드 모델인 던의 외부와 실내를 잇는 리어 데크는 펜트하우스 로비를 가득 채운 호두나무를 표현하기 위해 자연스러운 오픈 포어 로열 월넛 패널을 적용했다.    롤스로이스 고스트 익스텐디드 어반 생추어리 ■고스트 익스텐디드 어반 생추어리  격조 높은 쪽매판 세공표현 양식을 선보이는 고스트 익스텐디드 어반 생추어리는 소재 본연의 가치에 충실한 '포스트 오퓰런스' 디자인 철학을 보다 깊이 있게 탐구한다. 디자인은 중국 상하이 전통 정원 예원의 별관 나무덧창에서 볼 수 있는 '깨진 얼음' 효과에서 영감을 받았다. 기하학적 목재 모자이크는 옵시디언 아유스 색상의 무광택 오픈포어 비니어로 마감됐으며, '깨진 얼음' 테마는 시트 등받이의 비스포크 자수 패널에도 적용됐다.   ■드림 고스트  드림 고스트는 미국 플로리다 소재의 럭셔리 수집가 데이빗 바토시악의 주문에 따라 고스트 익스텐디드를 기반으로 제작됐다. 바토시악은 네임플레이트에 '고스트(GHOST)' 대신 '드림(DREAM)'이란 단어가 들어간 일루미네이티드 페시아를 요청했다. 그는 "이 주문에는 어렸을 적 밤하늘 아래에서 내가 가졌던 꿈이 들어있다"며 "내가 세상을 떠난 뒤에도 내 영혼이 계속 이어나가길 원하는 꿈이 담겨있다"고 말했다. 스타라이트 헤드라이너 역시 개인적인 수제작 요소가 반영됐다. 1983년 바토시악이 태어난 날 플로리다 베로 비치 밤하늘에 떠 있던 별의 배열이 1236개에 달하는 광섬유로 표현돼 있다.    롤스로이스 비스포크 레이스 페블 파라디소■비스포크 레이스 페블 파라디소  비스포크 레이스 페블 파라디소는 중국 상하이에 거주하는 고객에 의해 제작됐다. 외관을 장식한 페블 파라디소 블루 색상은 '상하이 해변으로부터 영감을 얻은 낙원의 색'이라고도 불리며, 시쉘 색상의 수제 코치라인 사이로 나타나는 연꽃 모티프는 우아함에 대한 고객의 열망을 상징한다. 실내에는 오랫동안 아이를 원했던 고객의 기쁨에 보내는 헌사로 피아노 화이트 모니터 리드 위에 여아의 발자국이 찍혀 있으며, 비스포크 스타라이트 헤드라이너 역시 자녀의 별자리를 따서 제작됐다. 천연 그레인 가죽은 찰스 블루와 시쉘 투톤 색상으로 완성됐다.   ■컬리넌 50th  컬리넌 50th는 아랍에미리트의 역사적인 건국 50주년을 기념하기 위해 제작됐다. 외관은 악틱 화이트 색상 위에 크리스탈로 마감한 뒤, 핫스퍼 레드와 페임 그린 색상의 더블 코치라인을 더해 완성됐다. 골드 불리언 코치라인 모티프, 핫스퍼 레드·페임 그린·블랙으로 그려진 C필러 국기 모티프, 휠 센터의 더플 핀스트라이프 등이 아랍에미리트의 국기를 상징한다.   코치 도어를 열면 '50th' 글자가 새겨진 비스포크 일루미네이티드 트레드 플레이트가 모습을 드러낸다. 실내 공간은 외관과 동일한 색상의 가죽과 스티칭이 적용됐으며, 헤드레스트에는 아랍에미리트 국장이 수놓아졌다. 스타라이트 헤드라이너는 초록색으로 빛나는 슈팅스타 사양을 추가해 장엄함을 더했다.   ■컬리넌 인 파이크스 피크 블루  자동차 애호가이자 내구 레이서인 벤 슬로스와 크리스틴 슬로스 부부는 롤스로이스모터카 로스 가토스 전시장에서 비스포크 롤스로이스 블랙배지 컬리넌을 주문했다.   독점 비스포크 색상인 파이크스 피크 블루는 슬로스 부부가 가장 좋아하는 대회 중 하나인 전설적인 콜로라도 힐 클라임 경기에 바치는 오마주다. 수작업으로 그린 코치라인, 휠 센터 핀스트라이프, 브레이크 캘리퍼의 생생한 포지 옐로우 색상은 이탈리아 모데나 시 깃발 및 부부가 소유한 레이싱 카들의 상징색이며, 모든 도어 패널에는 슬로스 부인의 레이싱 로고인 스틸레토 힐 문양을 수놓아 슬로스 부부의 레이싱을 향한 애정을 나타냈다.   ■팬텀 오리베  롤스로이스와 에르메스의 협업 아래 일본인 사업가 마에자와 유사쿠를 위한 비스포크 팬텀이 제작됐다. 팬텀 오리베로 불리는 이 모델은 고객이 소유한 고대 일본 오리베 도자기 컬렉션에서 영감을 받은 비스포크 투톤 색상으로 도색됐다.   실내 공간 대부분은 에르메스 에니아 그린 가죽으로 마감됐으며, 고객의 손길이 닿는 모든 곳에 가죽이 탑재됐다. 여기에 롤스로이스 최초로 에르메스 '토일레 H' 캔버스가 도어 암레스트, 리어 콘솔 및 헤드라이너에 적용됐다.   ■팬텀 템퍼스 컬렉션  전 세계 오직 20대만 한정 생산된 팬텀 템퍼스 컬렉션은 시간에서 영감을 얻어 제작됐으며, 시간과 심우주에 대한 철학적, 미학적 주제를 아우른다.   실내 디자인의 핵심 요소는 우주 깊은 곳에 존재하는 중성자 별 '펄사'다. 자연계에서 가장 정확한 시계라고 불릴 정도로 규칙적인 주기에 걸쳐 전자기파를 방출하는 것으로 유명하다. 이 별에서 영감을 얻어 특별 제작된 '펄사 헤드라이너'는 정교한 비스포크 자수로 신비롭고 아름다운 분위기를 연출한다.   외관은 우주의 신비로운 분위기를 담아냈다. 새로운 비스포크 색상 카이로스 블루는 보석 같이 푸른 운모 조각을 함유해 빛을 받으면 별처럼 빛난다.    롤스로이스 팬텀 코아 ■팬텀 코아  팬텀 코아는 하와이에서만 서식하는 코아 나무를 사용한 최초의 팬텀이다. 하와이 마우이에서 많은 시간을 보내면서 코아 나무의 따스한 특성에서 영감을 받은 스미스 부부로부터 주문을 받아 제작됐다.   코아 나무는 하와이 주립 및 국립공원의 보호를 받고 있으며, 롤스로이스 목재 전문가가 "차량용으로 적합한 소재 찾는 일은 하늘에서 별 따기"라고 설명할 정도로 희귀한 소재이다. 팬텀 코아는 3년에 걸쳐 제작됐으며, 고객에게 인도된 후 JBS 컬렉션 박물관에 있는 60대 이상의 희귀 자동차 개인 컬렉션에 합류했다.   ■랜드스피드 컬렉션  블랙 배지 던 25대와 블랙 배지 레이스 35대로 구성된 랜드스피드 컬렉션은 수많은 신기록을 달성한 조지 이스턴의 업적에서 영감을 받았다.   실내는 조지 이스턴의 놀라운 삶과 수많은 기록을 담았다. 운전석 도어에는 생전에 수여받은 3개의 훈장이 실제 메달 리본과 동일한 색상으로 제작돼 장식됐다. 블랙 배지 레이스 랜드스피드의 스타라이트 헤드라이너는 1938년 이스턴이 썬더볼트를 타고 마지막 자동차 최고 속도 세계 기록을 세운 장소인 미국 보너빌 소금 평원의 밤하늘을 완벽하게 재현했다. 별자리는 2117개의 광섬유로 표현됐으며, 이는 역대 블랙 배지 레이스의 스타라이트 헤드라이너 중 가장 많은 광섬유가 사용된 사례로 꼽힌다.   ■컬리넌 '블랙 앤 브라이트'  컬리넌 '블랙 앤 브라이트'는 한밤중 모스크바의 분위기에서 영감을 받아 제작됐다. 2년 전 큰 성공을 거둔 블랙 배지 레이스 '블랙 앤 브라이트'의 정신을 이어받은 이 컬렉션은 더욱 대담한 디자인이 특징이며, 마그마 레드, 오렌지 메탈릭, 트와일라잇 퍼플, 포지 옐로우, 터키석의 강렬하고 개성적인 색상을 입힌 다섯 대의 블랙배지 컬리넌으로 구성됐다. 테크니컬 카본 비니어는 각 차량 색상과 동일하게 맞춤 상감 제작됐고, 스타라이트 헤드라이너 역시 외관 및 실내 색상과 일치한다.   ■롤스로이스 코치빌드: 보트 테일  지난해 롤스로이스 정규 독립 부서로 출범한 코치빌드는 자동차 제작에 있어 제약을 넘고자 하는 고객에 맞춘 코치빌딩 서비스로 롤스로이스 비스포크의 핵심적 정수를 보여준다.   보트 테일은 하나의 거대한 예술 작품으로 차체부터 실내까지 모두 고객과 긴밀한 협업을 통해 디자인 및 제작됐다. 보트 테일은 과거 보트 테일의 디자인을 연상시킴과 동시에 현대적인 디자인을 결합한 결과물이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022.01.29.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>‘어쩔티비’가 무슨 뜻? 신조어엔 재미·세태 담겨있다</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001502228?sid=102</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>MZ세대 신조어요즘 ‘이대남녀의 단어’ 총정리최근 배우 신혜선이 쿠팡플레이에서 방영되는 코미디쇼 ‘SNL 코리아’에 출연해 화제를 모은 단어 ‘어쩔티비’, 이제 어떤 뜻인지 아시나요? ‘어쩌라고 가서 티비나 봐’의 줄임말로 10대들이 듣기 싫은 말을 들을 때 대응법으로 써먹는 표현입니다. 한 초등학생이 노인에게 길에서 비키지 않는다는 이유로 훈계를 듣자 ‘어쩔티비’라고 외치고 도망간 시트콤 같은 사연으로 화제를 모으면서 인터넷 커뮤니티 등지에서 퍼져 나갔습니다.이런 MZ세대의 신조어는 이제 하나의 인터넷 놀이 문화로 자리 잡았습니다. 신조어가 또래 문화에만 그치는 것이 아니라 SNS 등을 통해 전 세대로 퍼져 나간다는 것, 또한 과거와 달라진 점입니다. 정덕현 문화평론가는 28일 “이제는 모두가 인터넷으로 소통하고 있어서 기성세대도 젊은 세대의 신조어를 좀 배워야겠다고 생각한다”고 설명했습니다.MZ세대의 신조어에 주목하는 또 다른 이유는 지금 현재 우리의 삶을 엿볼 수 있는 단서가 되기 때문입니다. 호영성 대학내일20대연구소장은 “신조어는 ‘재미’라는 요소도 크긴 하지만 무엇보다 그때그때의 시대상이 반영된다”고 분석합니다. 사람들에게 웃음을 주고 우리 사회의 모습을 적나라하게 보여주기도 하는 MZ세대의 신조어를 주제별로 나누어 정리해봤습니다.삶의 의지를 다지는 희망의 언어‘갓생’은 Z세대의 최상급 표현인 ‘갓’(God·신)과 ‘인생’을 합친 단어로 하루하루 계획적으로 열심히 살아내는 삶을 뜻합니다. 기성세대가 귀에 못이 박이도록 말해온 ‘근면’ ‘성실’ 같은 가치를 MZ세대의 방식으로 표현한 단어인 셈입니다. 유튜브에 ‘갓생’으로 검색해 보면 하루 동안 자신의 계획을 실천하는 모습을 기록해 놓은 10대들의 영상들이 빼곡하게 놓여 있습니다.‘서동요 기법’은 소원하는 일을 이미 벌어진 듯 꾸며 말하는 기법을 뜻합니다. 백제 무왕이 되는 서동이 어린 시절 ‘서동요’를 지어 선화공주와 결혼하게 됐다는 설화를 빌린 단어죠. 가령 “서동요 기법 간다. 베이징올림픽에서 윤성빈 스켈레톤 금메달 축하합니다”라고 적으면 윤 선수를 향한 희망과 응원을 더 강하게 표현하는 셈입니다. 갓생과 달리 예측할 수 없는 미래에 대한 막연한 희망에 좀 더 방점이 찍혀 있습니다.재테크로도 발 넓힌 MZ세대‘○○매매법’은 주식과 가상화폐 등을 재테크하는 방법을 희화화한 밈입니다. 가령 ‘토스 매매법’은 토스에서 증권 계좌를 개설하면 이벤트로 주는 주식을 추가로 매수하는 방법을, ‘곡소리 매매법’은 주가가 하락하는 종목에 투자하는 방법을 뜻합니다.‘식집사’는 고양이를 키우는 사람을 뜻하는 ‘집사’와 ‘식물’을 합친 말로 반려식물을 기르는 사람을 뜻합니다. SNS에는 식집사를 해시태그하고 자신이 기른 식물을 뽐내는 사진이 가득합니다. 형제 단어로는 희귀한 식물을 기르는 취미 생활로 돈까지 벌 수 있는 ‘식테크’가 있습니다. 몬스테라 잎사귀 한 장이 50만원에 거래되는 일도 있다고 합니다.개성과 취향이 더 도드라진다2016~2017년 신조어를 찾아보면 ‘개취’(개인적인 취향) ‘취존’(취향 존중)이라는 단어가 눈에 띕니다. 불과 5~6년 전만 해도 다양한 취향은 ‘존중해 달라’는 말이 있어야 생존 가능했던 것처럼 보입니다.이제는 취향을 말하는 게 한결 자연스러워 보입니다. ‘꾸미기’가 대세입니다. ‘다꾸’, 다이어리 꾸미기에서 시작한 꾸미기 열풍은 ‘신꾸’(신발 꾸미기) ‘깊꾸’(기프티콘 꾸미기) ‘폴꾸’(폴라로이드 꾸미기) 등으로 다양하게 분화했습니다. 구멍이 뚫려있는 ‘크록스’ 신발에 액세서리를 끼워 신발을 꾸미는 것, 기프티콘을 선물할 때 그림을 그리는 등 꾸며서 주는 것, 친구와 찍은 폴라로이드 사진을 예쁘게 꾸미는 것들을 줄여 부르는 겁니다. 좋아하는 가수의 앨범이나 굿즈를 개봉하는 건 ‘○○깡’으로 부릅니다.오프라인보다 온라인이 자연스러운 세대인 만큼 디지털 특징이 드러나는 단어도 등장했습니다. ‘æ’(아이)는 대세 아이돌 ‘에스파’의 멀티버스에서 등장하는 ‘또 다른 자아’를 뜻합니다. “오늘 코디 æ백예린임”처럼 닮고 싶거나 닮은 대상 앞에 æ를 붙이는 식으로 사용합니다. ‘오뱅있’은 ‘오늘 방송 있나요?’의 줄임말로 인터넷 방송에 익숙한 이들이 자주 쓰는 표현입니다.언어 소통의 핵심은 ‘배려’사실 이런 신조어를 MZ세대라고 모두 알고 있는 건 아닙니다. 한 인터넷 커뮤니티엔 초등학생 조카에서 ‘저쩔티비~’라고 장난을 쳤다가 오히려 알아듣지 못하고 이상한 이모 취급받았다는 사연이 올라오기도 했습니다.결국 기성세대와 요즘 세대의 대화에서 필요한 건, 신조어를 마구 써대는 용감함이 아니라 서로의 언어를 이해하려는 노력입니다. 이대성 국립국어원 학예연구관은 “세대 간의 소통을 특정 세대의 책임으로만 접근하는 건 옳지 않다”며 “‘내 말을 이해 못 하면 네가 무식한 거니까 네가 배워야지’ 이런 태도라면 당연히 소통은 안 되는 것”이라고 꼬집었습니다.이 연구관은 “뉴스에 나오는 전문 용어들을 젊은 세대들이 이해 못 하는 경우가 있는 것처럼 특정 세대나 계층에서만 이해할 수 있는 말은 늘 존재한다”며 “어른이고 또래고 관계없이 상대방이 못 알아듣거나 거북한 말을 자제하고 쉬운 말을 쓰는 게 진짜 언어 능력”이라고 조언했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022.01.23.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>[CEO] 주식거래앱 이용 쉽게 만들어…400만 주린이들 새 고객으로</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004912651?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>박재민 토스증권 대표간편 통합앱에서 환전은 물론해외 증권뉴스도 실시간 전달올해는 로봇 어드바이저 기반자산관리서비스도 출시할 것 "당장은 스마트폰 모바일트레이딩시스템(MTS)이 컴퓨터 기반 홈트레이딩시스템(HTS)에 비해 불편해 보여도 어느 순간 MTS로 시장이 개편될 것이다. 토스증권의 모바일 퍼스트 전략도 시장의 모바일 전환 임계점을 넘는 순간 급성장할 수 있다."박재민 토스증권 대표는 최근 매일경제와의 인터뷰에서 이 같은 목표를 밝혔다. 박 대표의 자신감은 허울뿐인 말이 아니다. 토스증권은 지난해 3월 서비스를 출시한 직후 MTS를 기반으로 급성장했다. 토스증권에 따르면 현재 토스증권에서 계좌를 개설한 고객은 400만명이 넘는다. 매달 꾸준히 토스 애플리케이션(앱)을 방문하는 토스증권 고객도 230만명이 넘는다.박 대표는 "그동안 증권 업계에서 HTS는 많았지만 MTS를 출시하는 과정에서 고민이 부족했었다"며 "토스는 주식 투자 입문자들이 쉽게 사용할 수 있도록 사용자 환경(UI)과 사용자 경험(UX)을 제공해 시장 점유율을 높였다"고 설명했다. 그는 "그 결과 토스증권은 다른 증권사에서 10년 정도 걸렸던 성과를 9개월 만에 달성했다"며 "실제로 토스 이후 많은 증권사가 간편 증권 앱을 출시했다"고 덧붙였다.지금까지 토스는 초보 주식 투자자들을 바탕으로 성장해왔다. 2020년 이후 주식 상승장에서 투자를 시작한 동학개미들이 사용법이 쉬운 토스증권에 대거 유입됐다.박 대표는 "초보 투자자 중심이었던 이전과 달리 앞으로 토스증권은 다양한 정보와 차트를 활용하는 고객과 투자자들도 서비스를 이용할 수 있도록 기능을 확장해 나갈 것"이라며 "차트는 기존 선차트에 캔들차트를 추가하고 종목에 대해 제공하는 정보도 늘릴 것"이라고 밝혔다.지난해 12월 출시한 해외주식 투자 기능도 초보 서학개미들에게 큰 호응을 얻었다. 박 대표는 "기존 증권사는 해외주식 투자용 별도 앱을 깔고 미리 환전해 달러를 준비해야 하는 등 진입장벽이 높은 경우가 많았다"며 "복잡한 준비 없이도 해외주식 투자가 가능하도록 서비스를 개발한 것이 서학개미들에게 좋은 반응을 얻었다"고 말했다.토스증권은 기존 증권사에서 시도하지 못한 다양한 기능을 앱에 추가했다. 우선 국내 증시와 해외 증시를 하나의 앱으로 통합했다. 대부분의 증권사 앱은 국내·해외 증시 화면이 별도로 돼 있어 국내·해외 기업을 동시에 못 보는 경우가 많다. 업종별로 국내외 모든 기업의 주가 흐름을 볼 수 있는 게 토스 앱의 강점이다. 또 토스증권은 정보가 부족한 해외주식 종목에 대한 외신 기사를 실시간으로 번역해 고객에게 제공한다. 토스는 증권 특화 번역 인공지능(AI)을 독자 개발해 이 같은 기능을 추가했다.현재 토스증권은 자산관리 서비스로 사업 영역을 넓히기 위한 준비를 하고 있다. 박 대표는 "올해 출시를 목표로 로보 어드바이저 기반 자산관리 서비스를 개발하고 있다"며 "투자성향 분석부터 포트폴리오 구성법까지 모두 제공할 수 있도록 서비스를 만들고 있다"고 강조했다.   ▶▶ 박 대표는…△1981년생 △KAIST 컴퓨터과학과 졸업 △노스웨스턴대 켈로그경영대학원 경영학석사(MBA) △2011년 보스턴컨설팅그룹(BCG) 팀장 △2014년 쿠팡 마켓플레이스 사업부장 △2017년 비바리퍼블리카(토스) 사업총괄 이사 △2021년~현재 토스증권 대표</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022.01.18.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>[단독] "독창적 콘텐츠 풍성…메타버스, 한국의 시간 온다"</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004910718?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>매경 명예기자 플뢰르 펠르랭 前 프랑스 문화장관쿠팡·토스 성공사례서 보듯韓창업자 국제화 본능 갖춰네이버 참여하는 펀드 구성빅테크로 성장 가능성 갖춘유망 韓벤처기업 발굴할것메타버스·블록체인·NFT미래 신사업에 집중 투자삼성같은 기업과 협력 원해 "네이버·라인이 세계 무대에서 입지를 넓힌 것처럼 한국과 프랑스의 정보기술(IT) 스타트업이 세계적 회사로 성장하도록 돕겠다."플뢰르 펠르랭 코렐리아캐피털 대표가 올해 국내외 벤처기업에 대한 선제·공격적 투자를 선언했다. 펠르랭 대표는 이해진 네이버 글로벌투자책임자(GIO)와 해외 투자 '동맹'을 이끌고 있는 인물로, 상호 협력을 통해 '유니콘'을 넘어선 '데카콘(기업 가치 100억달러)' 스타트업을 발굴하겠다는 야심을 밝혔다.펠르랭 대표는 최근 매일경제와의 단독 인터뷰에서 "네이버를 포함해 주요 기관투자자가 참여하는 다국적 투자연합(K-펀드2) 구성을 완료했다"고 귀띔하며 "유럽과 한국의 유망 스타트업 발굴에 착수했다"고 밝혔다. 앞서 네이버와 함께 2억유로 규모로 조성한 'K-펀드1'은 지난 5년 사이에 2배로 성장하면서 펀드의 투자 주식 가치가 현재 4억유로에 달하는 것으로 알려졌다코렐리아캐피털은 3억유로(약 4085억원) 규모의 출자금을 목표로 펀드 모집을 성공적으로 마치고, 최근 본격적인 투자 집행에 돌입했다. 펠르랭 대표는 "앵커 출자자(중심 출자자)인 네이버를 비롯해 프랑스 공공투자은행(Bpifrance), 유럽계 보험사와 패밀리오피스(초고액 자산가) 등이 펀드출자자(LP)로 참여했다"고 설명했다. 그는 "한국과 프랑스 모두 우수한 교육 시스템과 인재 풀, 훌륭한 문화를 보유하고 있는데 왜 빅테크를 견제할 만한 회사가 나오지 못하는가에 대한 문제의식을 공유했다"면서 "신생 기업을 위한 기회 창출, 생태계 자립 등이 우리 미션"이라고 펀드 조성 취지를 밝혔다. 펀드는 단순 투자를 통한 회수로 이익을 내기보다는 중·장기적 관점에서 '빅테크'로 성장할 수 있는 잠재력에 베팅할 계획이다. 그의 전략에는 내수시장의 한계를 뛰어넘어 '본 글로벌(Born Global)' 면모를 보이는 한국의 창업 3세대에 대한 긍정 평가가 자리 잡고 있다.펠르랭 대표는 "쿠팡과 토스, 마켓컬리 사례에서 보듯 한국 창업가들은 매우 민첩하고 시장 변화를 포착해 사업 모델로 전환하는 능력이 뛰어나다"면서 "투자금 중 10%는 한국 스타트업 발굴에 투자하고 이들의 해외 진출을 도울 계획"이라고 강조했다.펠르랭 대표는 네이버와 협업해 시너지 효과를 낼 수 있는 이커머스(전자상거래) 플랫폼, 인공지능(AI), 핀테크 분야뿐 아니라 새롭게 떠오르는 블록체인·메타버스·대체불가토큰(NFT) 관련 신생 기업에 집중한다는 새로운 투자 전략도 공개했다.이와 관련해 네이버는 유럽을 거점으로 삼아 쇼핑·콘텐츠·메타버스·AI 등 각 분야의 세계화 전략을 수립하고 있다. 이 과정에서 대규모 투자와 인수·합병(M&amp;A)의 필요성이 제기되고 있다. 코렐리아캐피털은 탄탄한 현지 네트워크를 기반으로 네이버의 해외 투자 연합군 역할을 톡톡히 하고 있다.네이버는 지난해 2월 현지 최대 중고 거래 플랫폼 '왈라팝'에 투자했고 앞서 프랑스 1위 명품 중고 거래 플랫폼 '베스티에르'에 투자하며 유럽 사업의 발판을 다졌는데, 여기에 펠르랭 대표가 결정적 역할을 했다는 후문이다.특히 팽창하는 메타버스 시장과 관련해 펠르랭 대표는 "메타버스로 인해 '한국의 시간'이 본격화할 것"이라고 주목했다. 그는 "한국은 한류로 설명되는 콘텐츠와 지식재산권(IP)이 매우 강력한 데다 네이버·카카오 같은 자체 IT 플랫폼 기업을 보유하고 있고, 메타버스의 핵심인 게임 분야에서도 앞서가는 기업이 다수 있어 메타버스 분야에 매우 큰 강점이 있다"고 설명했다.한국 대기업들과의 협력과 관련해 그는 "네이버뿐 아니라 삼성과 같은 기업과도 협력할 의사가 있다"면서 "뜻을 함께하는 여러 기관투자자와 논의를 이어가고 있다"고 밝혔다. 펠르랭 대표에게 성공한 관료·정치인에서 벤처 투자자로 변신한 이유를 물었다. 그는 "네이버라는 파트너를 만났기에 새로운 분야에 도전할 수 있었다"면서 "지금 하고 있는 일이 내 뿌리(Root)를 찾을 수 있도록 도왔다"며 눈시울을 붉혔다.   ▶▶플뢰르 펠르랭은…△1973년 서울 출생 △1974년 프랑스 입양 △2012년 중소기업·디지털경제부 장관 △2014년 통상관광 국무장관 △2016년 코렐리아캐피털 설립·대표 △2022년 1월 레지옹 도뇌르 수상</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022.01.20.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>확 바뀐 뱅크샐러드…가상자산·포인트 자산 데이터도 연동 개시</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002994816?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>이달부터 마이데이터 서비스를 본격 개시한 뱅크샐러드가 연동 가능한 자산 영역을 크게 확장했다. 기존 연동을 지원하지 않았던 토스증권·카카오페이증권 자산 데이터가 추가됐고 각종 페이를 포함한 간편결제 내역, 포인트도 확인할 수 있도록 시스템을 개편했다.20일 업계에 따르면 뱅크샐러드는 모바일 애플리케이션(앱) 서비스에서 이와 같은 내용을 지원하는 업데이트를 최근 진행했다. 스크래핑 방식에서 API 기반 데이터 연동으로 시스템을 전환하면서 총 97여개 금융기관의 데이터를 연결하게 됐다. 데이터 연결 속도 역시 기존 대비 10배 빨라졌다.이번 개편에서 금융 통합조회 시스템을 뱅크샐러드 인증서 기반 통합인증 방식으로 전환했다. 은행·카드·보험·증권 등 금융정보와 연금·부동산·자동차를 포함, 고객의 흩어진 자산 정보를 한 번에 통합 관리할 수 있도록 서비스를 강화했다.이에 따라 △대출잔액과 금리 및 상환 정보 △주식 보유수량과 평가금액 △카드결제 내역과 간편결제(각종 페이) 확인 기능이 새롭게 추가됐다. 페이코포인트, 카카오페이머니 등 현금 충전이나 이벤트로 적립할 수 있는 현금성 포인트의 현황도 상당수 확인 가능해졌다.기존 약점으로 지적됐던 해외주식 연동 문제도 해결됐다. 일부 증권사들은 내부적으로 국내 주식과 해외 주식을 별도로 구분해 데이터를 제공하는데, 이 때문에 홈페이지 개편 등이 있을 때마다 뱅크샐러드에서 스크래핑이 중단되는 문제가 기존 버전에서 있었다.비트코인이나 이더리움 등 가상자산 보유 내역도 전체 자산에서 관리가 가능해졌다. 다만 각 가상자산거래소와 데이터를 연동하는 방식이 아니라 이용자가 직접 평균 매수가와 보유 수량을 입력하는 방식을 지원한다. 해당 데이터를 기반으로 현재 가상자산 시세를 반영, 보유한 가상자산 규모를 확인할 수 있게 됐다. 해당 기능은 아직 안드로이드 기반 스마트폰에서만 지원한다.취급 가능한 금융자산 데이터가 늘어나면서 자동 가계부 기능도 강화됐다. 고객의 수입과 지출 내역을 세부적으로 분류해 입력을 자동화하고, 고정비·변동비 분석과 개인별 예산 설정을 통해 계획적 소비를 지원한다.뱅크샐러드 관계자는 “개인 소비패턴과 빅데이터 기반 통계 알고리즘을 분석해 개인 맞춤형 금융 매칭 서비스를 제공하고 있다”며 “유전자 검사 서비스를 제공하면서 건강검진 및 예방접종 정보, 건강습관을 종합한 초개인화된 건강 관리 시스템으로 차별화된 기능을 강화할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022.01.16.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>가상자산 거래소 자금세탁 첫 검사… 네이버·카카오·토스도 사정권</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000787577?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>FIU, 가상자산업·전금업·대부업 직접 검사… 내달 현장검사 착수        업비트, 빗썸, 코빗, 코인원 등 4대 가상자산(코인) 거래소가 금융당국의 자금세탁 정밀 검증대에 오른다. 이들 업체가 자금세탁방지 체계를 제대로 마련했는지 등을 들여다 보는 것인데, 네이버파이낸셜, 카카오페이, 토스 등도 사정권에 포함될 것이란 관측도 있다.금융위원회 산하 금융정보분석원(FIU)은 이 같은 내용을 담은 ‘2022년 FIU 검사업무 운영방향’을 16일 발표했다. FIU 관계자는 “금융거래의 디지털화, 자금세탁 범죄의 고도화·지능화 등에 따라 새로운 유형의 자금세탁 위험이 커지고 있다”며 “자금세탁 리스크 변화에 대응해 한정된 검사자원을 효율적으로 배분 및 활용하기 위해 ‘검사업무 운영방향’을 마련했다”고 밝혔다. 국내 가상자산 거래소인 서울 빗썸 강남센터 시세 현황판. /연합뉴스        이에 따라 가상자산사업자·핀테크·대부·카지노 사업자 등이 자금세탁 관련 검사를 받게 된다.FIU는 신고 절차를 마친 가상자산사업자 중 원화 거래가 가능한 4대 거래소, 즉 업비트(법인명 두나무), 빗썸(빗썸코리아), 코빗, 코인원을 시작으로 필요에 따라 순차적으로 종합 검사를 벌일 계획이다. 특금법이 규정한 자금세탁방지체계 구축 상황을 점검한다. 신고 심사 과정에서 제기된 개선·보완 사항과 고객 확인 의무 이행, 자금 세탁 방지시스템 이행·정착 등이 점검 항목이다. 자금 세탁 문제가 발생하면 수시 검사도 한다. FIU는 연말까지 가상자산거래소에 대해 종합검사를 마칠 예정이다.이번 종합검사에서 파악한 ‘요주의’ 사업자는 자금세탁방지 운영 상황을 집중 점검하는 부문검사를 받게 된다. FIU는 부문검사에서 의심거래보고와 거래소간 이동 실명제, 즉 ‘트래블룰’ 이행 적정성을 살펴본다. 부문검사 대상은 종합검사 결과에 따라 하반기에 선정된다.FIU에 따르면 이날까지 신고 수리를 받은 가상자산 사업자는 모두 29개사다. 업비트·빗썸·코인원·코빗 등 원화 기반 거래 서비스를 지원하는 원화마켓 사업자 4개사, 비트코인 등 대표 코인을 기반으로 거래할 수 있는 코인마켓 사업자 20개사, 지갑·보관업자 5개사다.2019년 7월 특금법이 적용된 전자금융업자(124개)와 대부업자(60개)도 올해 FIU 검사를 받는다. FIU는 이용자 수와 거래 규모 등에 따른 자금세탁 리스크, 내부통제 수준을 종합적으로 고려해 검사 대상을 고를 것이라고 설명했다. 네이버파이낸셜, 카카오페이, 쿠팡페이, 토스(비바리퍼블리카) 등 자본금과 거래 규모가 큰 대형 전자금융업자는 선정이 유력시되고 있다. FIU는 금융감독원과 함께 고객확인업무 이행, 내부통제체계 구축, 의심거래보고(STR)·고액현금거래보고(CTR) 등 보고 적정성 등을 검증한다.코로나19 팬데믹으로 2020년 검사가 잠정됐던 내륙 카지노사업자 9개에 대한 FIU의 직접 검사도 올해 재개된다. FIU는 이와 함께 금융감독원을 통해 파악한 리스크 요인에 대한 기획검사와 테마검사도 시행한다. 펌뱅킹(기업자금관리)과 해외 자회사를 통한 자금세탁 가능성을 대표적인 리스크로 요인으로 FIU는 제시했다.FIU 대신 검사를 수행하는 검사수탁기관 중에는 상호금융중앙회를 대상으로 현장 점검을 벌인다. 현장점검 대상은 검사·조치 내용을 바탕으로 농업협동조합중앙회, 수산업협동조합중앙회, 신용협동조합중앙회, 산림조합중앙회, 새마을금고중앙회 가운데서 선정한다. 이용자 수에 견줘 자산 규모가 크거나 반복적으로 지적을 받은 단위 조합과 우체국에 대해서는 FIU가 검사수탁기관의 검사에 참여한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022.01.18.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>금천구, 차상위계층 월동대책비 8500만원 지원...도봉구, 저소득층 정화조 청소 수수료 지원</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005031937?sid=102</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>[서울시 자치구 뉴스]금천구, 차상위계층 주민 1700가구에 온누리상품권 5만 원 지급, 각 동주민센터에 방문 수령...도봉구, 기초생활수급자, 국가유공자와 유가족 중 저소득자, 한부모가정 대상 정화조 청소 수수료 1인 당 3720원 지원...성동구, 어르신께 방역패스 사용법 알려...중랑구, 설 맞아 지역 전통시장 이벤트 진행...양천구 ‘2022 이웃과 함께하는 양천장독대’ 참여자 모집...마포구, 소기업·소상공인 방역 부담 완화 및 방역 활동 10금천구(구청장 유성훈)는 코로나19가 지속됨에 따라 복지 사각지대에 놓인 차상위계층에게 월동대책비 8500만 원을 지원한다.금천구는 지난해에 이어 코로나19로 경제적 어려움을 겪고 있지만 기초수급자에 비해 정부에서 받는 혜택이 상대적으로 적은 차상위계층에게 한시적으로 지원하기로 결정했다.각 동주민센터를 통해 기존 차상위계층 1592가구에 가구 당 온누리상품권 5만 원씩 지원, 3월까지 2022년 신규 선정된 차상위계층 108가구에 추가 지원할 계획이다.금천구는 지난해 서울시 최초로 차상위계층 1800가구에 총 9000만 원의 월동대책비를 지원했다.유성훈 금천구청장은 “금천형 복지전달체계를 활용해 복지 사각지대에 놓인 주민들을 지속적으로 발굴 지원, 정부 혜택이 상대적으로 적은 차상위계층에 대한 지원방안을 지속적으로 모색하겠다”고 말했다. 자세한 사항은 금천구 각 동주민센터로 문의하면 안내받을 수 있다.도봉구(구청장 이동진)가 이달부터 지역 내 저소득층을 위해 개인하수처리시설 청소 수수료를 지원, 올 연말까지 희망 가구의 신청을 받는다.지원 대상은 기초생활수급자, 국가유공자와 유가족 중 저소득자, 한부모가정이다. 신청을 희망하는 사람은 정화조 청소 수수료 납부영수증, 통장사본, 신분증을 가지고 동 주민센터에서 신청하면 된다. 신청서는 동 주민센터에 구비돼 있다.신청을 받은 동 주민센터에서는 신청 자격을 확인한 후 대상자의 주민등록상 세대원 수를 가산한 청소 수수료를 지원, 가구원 1인 당 3720원이 지급된다.도봉구는 이 사업을 통해 2017년부터 2021년까지 연평균 438명의 정화조 청소 수수료를 지원하는 등 복지서비스의 폭을 넓혀가고 있다.이동진 도봉구청장은 “정화조 청소 수수료 지원 사업은 연 1회 이상 정화조 청소를 독려하는 효과도 있어 수질 오염을 줄이고 쾌적한 주거환경을 만드는 데도 도움이 되고 있다. 앞으로도 우리 도봉구는 정화조 청소 수수료와 같은 맞춤형 복지서비스를 구현함으로써 생계가 어려운 분들의 삶의 전반을 돌보는데 앞장서겠다”고 전했다. 도봉구 자원순환과 자원순환팀으로 문의하면 된다.성동구(구청장 정원오)가 스마트폰 사용이 어려운 어르신들을 위해 ‘방역패스 QR체크인 설치 서비스’를 실시한다.‘방역패스 QR체크인 설치 서비스’는 쿠브, 카카오, 네이버, 토스 등 예방접종 인증 전자증명서를 어르신의 스마트폰에 설치, 사용방법을 설명해 드리는 서비스다.코로나19 장기화 및 변종 바이러스 발생 등으로 식당, 마트, 카페 등 다중이용시설을 이용할 때마다 하루에도 수차례 QR체크인을 해야 하는 바 스마트폰 사용이 익숙한 젊은 층과는 다르게 어르신들은 사용법이 익숙치 않아 어려움을 겪는 경우가 많다.이달 벌써 400명을 훌쩍 넘는 어르신들에게 방역패스 QR체크인 설치를 지원한 이번 행정서비스는 성동구 행당제2동 현장에서 시작됐다.행당제2동 청사는 아파트 단지와 연결되는 구조적인 특징으로 이용자 접근성과 편의성이 높다는 점을 백분 활용, 어르신들이 청사를 방문할 때마다 QR체크인 방역패스를 손쉽게 사용할 수 있도록 적극 지원에 나섰다.코로나백신 QR전용 설치 장소를 지정하고 수시로 직원들이 나서며 언제든지 편하게 지원할 수 있도록 하며 설치에서 사용법까지 친절한 설명과 함께 수차례에 걸쳐 반복 설명해드리기도 한다.스마트폰이 없는 어르신께는 다중이용시설 이용에 불편함이 없도록 신분증에 백신 접종을 완료했다는 스티커와 종이 증명서를 발급해 드리고, 지역 내 경로당도 직접 방문해 설치해 드리는 ‘찾아가는 서비스’도 병행한다.지난해 8월 주민들이 자주 사용하는 마트, 영화관 등 다중이용시설에 천천히 시간을 두고 사용할 수 있는 키오스크 마련에 이어, 하반기에는 8명으로 확충된 ‘스마트 봉사단’으로 주기적으로 동 주민센터와 경로당 등을 찾아 스마트폰 사용법 등을 전했던 구는 이달 말부터 동주민센터 방문 어르신께 방역 설치와 사용방법을 알려드리는 서비스를 전 동으로 본격 확대할 계획이다.동주민센터를 방문한 어르신은 “식당 다닐 때 핸드폰으로 인증하는 게 젊은이들에게는 쉬운 일일지 몰라도 우리 같은 노인들한테는 여간 어려운 게 아니다”며 “가까운 동주민센터에서 노인들의 어려운 점을 알고 스마트폰 사용법을 친절하게 잘 설명해줘서 멀리 사는 자식들보다 낫다”고 감사의 말을 전했다.정원오 성동구청장은 “스마트폰으로 모든 것이 편리해진 만큼 디지털 소외계층에게는 어려움이 더 늘어날 수 있다”며 “앞으로도 주민의 목소리에 귀 기울여 불편을 해소하고 스마트한 기술이 누구에게나 활용되도록 다양한 정책을 통해 정보격차를 줄이도록 적극 노력하겠다”고 말했다.중랑구(구청장 류경기)가 설을 맞아 지역 전통시장 7곳에서 명절 이벤트를 1월17일부터 29일까지 진행한다.설 맞이 전통시장 이벤트는 코로나19로 인한 방문고객 감소와 소비 심리 위축에 따라 어려움을 겪는 상인들을 위해 실질적으로 도움을 줄 수 있도록 준비됐다.지역 7개 전통시장에서는 행사 기간 동안 각종 제수용품을 할인 판매하며 상품권 증정 행사와 경품 행사를 진행한다. 구는 이벤트를 통해 전통시장에 활기를 불어놓고 주민들의 장보기 부담은 덜 것으로 기대하고 있다.주된 행사 내용을 살펴보면, 6개 시장(동부, 동원, 우림, 면목, 장미제일, 동원상점가)에서 일정 금액(3만~10만원)이상 구매할 경우 온누리상품권을 최소 5000원에서 1만원까지 증정 받을 수 있다. 사가정시장에서는 1만5000원 이상 구매하면 경품을 받을 수 있다. 행사 기간과 내용은 각 시장별로 다르다.직접 시장을 방문하기 어려운 주민은 온라인 장보기 서비스를 이용하면 된다. 온라인 장보기 서비스는 우림, 동원, 면목, 동부, 사가정, 동원상점가 등 6개 전통시장을 대상으로 네이버 ‘동네시장 장보기’ 또는 어플리케이션 ‘쿠팡이츠’, ‘놀장’, ‘위메프오’ 등에서 가능하다. 온라인으로 장을 보면 2시간 안에 상품을 배송 받을 수 있다.구는 주민들이 안전하게 전통시장에서 장을 볼 수 있도록 지난 12일 화재 예방 소방훈련 활동을 펼쳤다. 또 지난 10일부터 14일까지 7개 시장의 각종 전기 및 가스 안전시설의 작동상태도 점검했다.류경기 중랑구청장은 “명절을 맞아 지역 전통시장에서 열리는 이벤트에 주민 여러분들의 많은 관심을 부탁드린다”며 “앞으로도 전통시장을 비롯 지역경제 활성화를 위해 지속적으로 노력하겠다”고 말했다.양천구(구청장 김수영)가 오는 24일부터 2월11일까지 ‘2022 이웃과 함께하는 양천장독대’ 사업에 참여할 구민을 모집한다.‘양천장독대’는 전통식품의 우수성을 알리고 지속가능한 안심 먹거리 보장체계를 강화하기 위해 2019년부터 추진해오고 있는 양천구의 대표 건강복지 사업이다.올해는 지역내 6개 복지관을 거점으로 2월부터 11월까지 4~5인이 1조가 돼 전통 장 제조 체험을 진행한다. 목동, 신정동, 신월동 3개 권역별로 ▲목동복지관 ▲신목복지관 ▲신정복지관 ▲양천해누리복지관 ▲양천어르신복지관 ▲신월종합사회복지관에서 각각 운영된다.참가비는 부가세 포함 3만5000 원이며, 참여를 원하는 구민은 1월24일부터 2월11일까지 권역별 복지관으로 선착순 전화 신청하면 된다. 참여한 주민에게는 보건환경연구원의 장 안전성 성분 검사를 거쳐 생산된 된장 3㎏, 간장 500㎖가 제공된다.‘양천장독대’의 주요활동은 ▲메주 · 소금 · 물로 ‘전통 장 담그기’ ▲숙성된 장을 된장과 간장으로 분리하는 ‘장 가르기’ ▲6개월간 장 발효 · 숙성관리 ▲숙성된 장을 이웃과 나누는 ‘장 나누기’ 순으로 진행된다. 구는 장을 활용한 건강한 먹거리 등에 대해 배울 수 있는 ‘발효 아카데미’도 함께 운영할 계획이다.아울러 양천장독대를 통해 제조된 전통장은 향후 양천사랑복지재단을 통해 지역내 취약계층 어르신 · 한부모 가정 등에 기부될 예정이다.양천장독대 참여자 모집과 관련된 기타 자세한 사항은 양천구 보건소 지역보건과로 문의하면 된다.김수영 양천구청장은 “먹거리가 풍성한 시대라고 하지만 사실 일상생활 속에서 믿고 안심할 수 있는 건강한 음식을 접할 기회가 그리 많지 않다”면서 “그런 점에서 양천장독대 사업은 내 손으로 직접 영양 가득한 전통장을 만드는 의미 있는 사업인 만큼 관심 있는 많은 분의 참여 바란다”고 말했다.마포구(구청장 유동균)는 2월25일까지 방역 패스 의무적용 업종을 운영하는 소기업과 소상공인을 대상으로 방역물품비를 최대 10만 원까지 지원한다고 밝혔다.이번 ‘소기업·소상공인 방역물품비 지원 사업’은 지난해 12월 3일부터 시행된 정부의 특별방역대책 추가 후속조치로 방역 패스를 적용받는 업종이 기존 5개에서 식당·카페, 학원 등 16개로 확대됨에 따라 소기업과 소상공인의 부담을 완화하고 방역활동을 지원하기 위함이다.이에 따라 방역 패스가 의무 적용되는 업종은 ▲유흥시설 ▲노래(코인) 연습장 ▲목욕장업 ▲실내체육시설 ▲카지노·경륜·경정·경마장 ▲식당·카페 ▲학원 ▲영화관·공연장 ▲PC방 ▲파티룸 ▲도서관 ▲마사지·안마소 ▲박물관·미술관·과학관 등 16개이다.신청 기간은 1월17일부터 2월25일까지다. 1월17일부터 26일까지는 사업자 등록번호 끝자리에 따라 10부제로 신청 받고, 1월 27일부터 2월 25일은 번호와 관계없이 모든 업체가 신청할 수 있다.방법은 온라인으로만 신청 가능하다. 사업체 대표자가 해당 사이트에 접속해 사업자등록번호 입력 및 본인인증을 거친 후 접수할 수 있다.신청 조건은 신청일 기준 휴업이나 폐업상태가 아닌 영업 중이어야 하며, 법원이 방역 패스의 효력을 정지한 학원, 독서실, 스터디 카페도 이번 지원 대상에 포함됐다. 다만, 방역 패스 의무적용대상이 아닌 이·미용업, 여행업, 소매업 등은 제외된다.또 신청 시 물품 구입 영수증 등 증빙서류, 대표자 또는 법인 명의의 통장 사본 등을 첨부해야 하고 필요시 사업자 등록증, 소기업·소상공인 확인서 또는 재난지원금 수령 확인서가 추가로 필요할 수 있다.방역 관련 지원 항목은 작년 12월 3일 이후 구매한  QR코드 확인 단말기, 손세정제, 마스크, 체온계, 소독기(소독수), 칸막이 등 방역관리 비용까지 폭넓게 인정된다.대표자 1인이 2개 이상의 지원 대상 사업체를 운영하는 다수 사업체일 경우에는 등록된 각 사업체별로 모두 신청해야 한다.구는 신청된 자료를 심사를 거쳐, 신청일로부터 7일 이내 지원 금액을 지급할 예정이다.동대문구(구청장 유덕열)가 발달장애인의 실종사고를 예방하기 위해 지역내 발달장애인 7명을 대상으로 위치추적이 가능한 스마트 인솔(깔창) 지원에 나섰다.구는 ‘발달장애인 안전지킴이 사업’ 일환으로 지난해 11월 발달장애인 28명을 대상으로 시계형 위치추적기인 스마트워치를 지원한 데 이어 지난 11일 관내 발달장애인 7명을 대상으로 스마트 인솔을 지원했다.스마트 인솔은 발달장애인이 신는 신발에 위치추적기를 내장한 것으로 보호자가 스마트폰 애플리케이션을 통해 실시간으로 발달장애인의 위치를 확인할 수 있어 실종사고 예방에 큰 효과가 있을 것으로 기대된다.사업을 위탁받아 진행한 동대문장애인가족지원센터는 지난 11일 오전 대상자로 선정된 7명에게 각각 스마트 인솔을 전달, 제작업체를 통해 애플리케이션 설치 및 연동 방법을 시연하고 사용법을 안내하는 설명회를 개최했다.스마트 인솔을 전달받은 발달장애인의 보호자는 “혼자 돌아다니거나 사회활동을 하더라도 한결 마음이 놓일 것 같다”며 스마트 인솔에 대한 기대를 내비쳤다.유덕열 동대문구청장은 “GPS가 내장된 신발을 통해 발달장애인의 자유로운 이동을 도와 자립을 지원하고자 한다”며 “장애인도 안전하고 불편함 없이 함께 살아갈 수 있는 지역사회를 만들기 위해 최선을 다하겠다”고 밝혔다.강북구(구청장 박겸수)가 청년 관련 정책 사업을 수행할 ‘청년 참여기구 운영 사무국’ 공모를 실시한다.지난해 강북구는 지역내 거주 및 생활하는 청년들과 공론·숙의 과정을 거쳐 서울시에 정책 제안서를 제출한 결과 지역 청년들의 구정 운영 참여를 활성화하는 ‘2022년 서울시 청년정책 거버넌스 활성화 지원 사업’ 참여 자치구로 선정됐다.강북구는 이 ‘청년정책 거버넌스 활성화 지원 사업’을 수행할 운영 사무국을 모집한다. 선정된 사무국은 사업 수행을 위한 인건비로 최대 7000만원을, 청년 정책 관련 사업 운영비로 약 6000만원을 지원받는다.주요 사업 내용은 ▲청년 참여기구 사무국 운영 ▲청년 정책 거버넌스 역량 강화 ▲청년 정책 온라인 공론장 운영이다. 또 운영 사무국은 특화사업으로 ▲청년들이 조깅을 하면서 쓰레기를 줍는 플로깅(pick up + jogging) ▲청년 예술인들 작품 전시를 위한 장소 대관 ▲프리랜스·창업 준비 중인 청년 대상 세무 강의 ▲청년 대상 주거 관련 정책 강의 등을 지원한다.신청자격은 서울특별시 내 청년 활동·지원을 주된 사업 목적으로 하며 관련 분야에 운영 경험이 있는 비영리 법인 또는 단체다. 참가 희망 사업체는 신청서 등 구비서류를 갖추어 이메일(hunaya@gangbuk.go.kr)로 신청하면 된다. 접수 마감은 오는 2월8일 오후 6시다.신청서식 및 자세한 사항은 강북구청 홈페이지(우리구 소개→알림마당→고시공고) 또는 새소식에서 확인하거나 일자리경제과로 문의하면 된다.박겸수 강북구청장은 “코로나19로 인한 취업난으로 고생하는 청년들이 많다”며 “청년들에게 하루빨리 도움이 되도록 청년 관련 정책을 아낌없이 지원하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022.01.16.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>가상자산 4대 거래소 올해 자금세탁 '정밀검증'</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000271850?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>업비트 등 4대 가상자산 거래소가 자금세탁 정밀 검증대에 오릅니다. 금융위원회 산하 금융정보분석원, FIU는 오늘(16일) 가상자산사업자와 전자금융업자, 대부업자와 카지노사업자를 대상으로 다음 달부터 현장 검사에 착수한다고 밝혔습니다. 이에 업비트와 빗썸, 코빗과 코인원 등 4대 거래소가 종합 검사를 받게 되고, 전자금융업자인 네이버파이낸셜과 카카오페이, 토스 등도 검사가 유력합니다. 내륙 카지노사업자 9곳도 올해 검사가 재개됩니다. 당초 검사 대상이었지만 코로나19로 지난 2020년 검사가 잠정 중단된 바 있습니다. FIU는 고객 확인 의무가 잘 이행됐는지, 자금세탁 방지시스템이 잘 작동하고 있는지 등을 검사하게 됩니다. 이 검사에서 자금세택방지의무를 미이행이 적발되면 기관경고 혹은 기관주의 처분을 받고, 임직원도 최고 해임권고 제재를 받을 수 있습니다. 과태료는 1건당 최고 1억원까지 부과될 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022.01.28.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>인뱅도 2% 예금 '활짝'…5대 은행 11.9조 몰려</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005136662?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>카뱅도 정기예금 2% 복귀…인뱅 3총사 모두 연 2%대씨티·산은·기은·수협 등도 2%대 상품 선봬저축은행, 최고 2.8%대 정기예금 상품도은행업권간 예·적금 경쟁 치열5대은행, 27일 기준 정기예금 666조8290억...1.8%↑[이데일리 노희준 기자] 인터넷전문은행 정기예금 금리 ‘연 2% 시대’가 다시 열렸다. 기준금리 인상과 시장금리 상승에 따른 것이다.연 2% 일부 정기예금을 내놓은 시중은행과 최고 연 2.8% 정기예금까지 출시한 저축은행, 인뱅 간 치열한 수신 경쟁이 예상된다. KB국민·신한·하나·우리·NH농협은행 등 5대 시중은행 정기예금에는 한달 새 11조9000억원이 몰렸다.28일 금융권에 따르면 카카오뱅크(323410)는 이날부터 정기예금 금리를 연 0.20%~0.30%포인트 인상했다. 이에 따라 만기 1년 기준 정기예금 금리는 0.20%포인트 올라 기존 연 1.80%에서 연 2.00%으로 상향조정됐다. 3년 만기 정기예금은 0.30%포인트 인상해 연 2.30%로 뛰었다. 이에 따라 ‘인뱅 3총사’는 모두 ‘정기예금 연 2%’ 시대에 진입했다.앞서 케이뱅크는 지난 13일 예·적금 금리 인상을 먼저 단행했다. 대표적인 정기예금인 ‘코드K 정기예금’ 금리를 1년 이상의 경우 연 1.5%에서 2.0%로 0.5%포인트 올렸다. 가입 기간 3년 이상은 1.6%에서 2.2%로 0.6%포인트 끌어올리기도 했다.토스뱅크는 정기예금 상품이 없지만 연 2.0%의 고금리 수시 입출금통장을 운영하고 있어 사실상 예금상품에 연 2% 금리를 주고 있다. 인뱅의 금리 인상은 기준금리 인상과 시장금리 상승을 반영한 결과다. 한은은 앞서 지난 14일 기준금리를 0.25%포인트 인상해 코로나19 발생 이전 수준인 연 1.25%로 되돌려놨다.시중금리도 상승하고 있다. 금융투자협회에 따르면 국고채 5년물 금리(민간채권평가사평균)는 지난달 31일 1.795%에서 27일 2.210%까지 0.415%포인트 상승했다.인뱅이 연 2% 금리 시대의 문을 본격적으로 열면서 은행권 및 저축은행 업권간 수신상품 경쟁도 달아오르게 됐다.금감원 금융정보포털 ‘파인’ 공시에서 연 2%대 은행 정기예금 상품은 케뱅을 제외하면 씨티은행의 ‘프리스타일예금’(연 2.5%), 수협은행의 ‘헤이정기예금’(연 2.25%), 산업은행 ‘KDB Hi 정기예금’(연 2.05%), 기업은행 ‘IBK D-DAY통장’(연 2.04%)등 4개다. 저축은행의 경우 최고 2.8%대 정기예금 상품까지 나와 있다.HB저축은행 ‘스마트회전정기예금’과 ‘e-회전정기예금’이 해당 상품이다. 이외에도 동원제일저축은행(연 2.75%), 대한저축은행(연 2.72%), 영진저축은행(연 2.70%)등이 2.7%이상을 주는 고금리 정기예금을 선보이고 있다.은행권 전반적인 수신 금리 상승 덕분에 5대 시중은행 정기예금으로 시중자금이 몰려들고 있다. 5대 시중은행의 정기예금 잔액(27일 현재)은 666조8290억원으로 작년말(654조9359억원)보다 11조8931억원(1.8%) 불어났다. 금융권 한 관계자는 “시중금리 상승기라 은행권에서 정기예금 연 2% 상품은 더욱 확대될 것”이라며 “금융당국이 예대금리차 확대를 예의주시하고 있어 수신금리 상승 요인은 더 있는 상황”이라고 말했다. 한국은행에 따르면 지난해 12월 신규취급액 기준 예금은행의 대출금리와 저축성수신금리 차는 1.55%포인트로 전월대비 0.11%포인트 줄어들었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022.01.24.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>방역패스 예외 확대 24일부터 적용… '이상반응 입원·인과성 불충분' 포함</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000778407?sid=102</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>의학적 사유에 따른 방역패스(접종증명·음성확인제) 예외범위가 24일부터 확대 적용된다. 지난 17일 오후 대구 시내 한 대형마트를 찾은 시민들이 입구에서 QR코드로 출입 확인을 하고 있다./사진=뉴스1의학적 사유에 따른 방역패스(접종증명·음성확인제) 예외범위가 24일부터 확대 적용된다. 신종 코로나바이러스 감염증(코로나19) 백신을 맞고 이상반응 증상으로 입원 치료를 받은 사람과 인과성이 불충분한 사례도 이날부터는 방역패스가 인정된다.질병관리청 중앙방역대책본부(방대본)에 따르면 24일부터 '의학적 사유에 의한 방역패스 적용 예외 범위'가 확대된다.정부는 1차 접종 후 아나필락시스, 혈소판감소성혈전증(TTS), 모세혈관누출증, 심근염·심낭염 등 중대한 이상반응으로 2차 접종이 연기·금지된 이들을 예외 대상자로 인정하고 있다.하지만 실제 이상반응을 경험한 이들이 예외 대상자로 인정받는 사례가 드물다는 지적이 계속돼 예외 범위를 대폭 넓히기로 했다.이상반응으로 예방접종 피해조사반이나 피해보상전문위원회에서 '백신과 이상반응에 대한 자료가 충분하지 않은 경우' 판정을 받은 이들은 이날부터 방역패스 적용 대상에서 제외된다. 접종 후 6주 이내에 중대한 이상반응으로 입원 치료를 받은 사람도 이날부터 방역패스 적용 예외 대상자로 인정된다.인과성 불충분 판정자는 진단서 없이 쿠브(COOV) 앱이나 카카오·네이버·토스·패스(PASS) 앱 등에서 접종 내역을 갱신하면 전자 예외확인서를 발급받을 수 있다. 신분증을 가지고 가까운 보건소에 방문하면 종이 예외확인서를 받을 수 있다.이상반응으로 입원 치료한 이들은 이날부터 보건소에 '입원확인서'와 입원 치료 사실이 적힌 '의사 진단서'를 제출해야 한다.보건소 1곳에서 전산 등록을 마치면 전국 어느 보건소에서나 증빙서류 제출·확인 없이 종이 예외확인서를 받을 수 있다. 또는 쿠브 앱 등 모바일 앱에서 접종 내역을 갱신하면 전자 예외확인서를 받을 수 있다.이로써 예외 대상자는 ▲중대한 이상반응으로 접종 금기·연기 통보자 ▲백신 구성물질 중증 알레르기 발생 이력이 있는 접종금기자 ▲면역결핍, 면역억제제 또는 항암제 투여로 인한 접종 연기자 ▲인과성 근거 불충분 판정자 ▲접종 후 6주 이내 이상반응으로 입원 치료받은 자 등이다.방역당국은 방역패스 예외확인 추가 발급자를 약 1만2000명 안팎으로 추산하고 있다.당국은 "예외 범위 인정이 인과성 및 피해 보상의 필요성, 접종 금기를 의미하는 건 아니다"며 "백신접종 후 특별 관심이상 반응을 관찰하는 기간이 4~6주라서 6주로 제한하게 됐다"고 설명했다. 다만 임신부에 대한 방역패스 적용은 그대로 유지된다. 임신부는 코로나19 고위험군으로 분류되고 최근 미접종 임산부의 확진 후 위험 사례가 보고된 만큼 접종이 필요하다는 이유에서다.권준욱 방대본 제2부본부장은 지난 20일 정례브리핑에서 "임신부는 임신을 하지 않은 가임기 여성에 비해 코로나19 감염 시 위중증률이 9배나 더 높다"며 "국외 연구결과를 보면 코로나19 확진 임신부에게 조산 또는 저체중아 분만 위험이 증가한다"고 말했다. 이어 "임신부는 코로나19 감염 시 본인과 태아의 건강에 미치는 영향이 크기 때문에 예방접종을 적극 권한다. 예방접종을 적극 받아달라"고 덧붙였다.“코로나19 예방수칙, ‘의무’이자 ‘배려’입니다”#올바른 마스크 착용 #건강한 거리두기</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022.01.16.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>4대 코인거래소, 자금세탁 검증대 오른다…카카오, 네이버는?</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005127753?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>금융위 산하 FIU, 올해 검사방향 발표"가상자산업·전금업·대부업 직접 검사"거래규모·내부통제수준 등 대상 선정[이데일리 황병서 기자] 업비트, 빗썸, 코빗, 코인원 등 4대 가상자산(코인) 거래소가 이달부터 금융당국의 자금세탁 정밀 검증대에 오른다. 이들 업체가 자금세탁방지 체계를 제대로 마련했는지 등을 점검하겠다는 취지다. 전자금융업자를 대상으로 한 검사도 예정돼 있는데 네이버파이낸셜, 카카오페이, 토스 등이 유력 후보군으로 꼽힌다. (사진=금융위원회)금융위원회 산하 금융정보분석원(FIU)은 이러한 내용을 담은 ‘2022년 FIU 검사업무 운영방향’을 16일 발표했다. FIU 관계자는 “금융거래의 디지털화, 자금세탁 범죄의 고도화·지능화 등에 따라 새로운 유형의 자금세탁 위험이 커지고 있다”며 “자금세탁 리스크 변화에 대응해 ‘검사업무 운영방향’을 마련했다”고 설명했다.자금세탁 관련 검사 대상은 △가상자산사업자 △핀테크(전자금융업자) △대부·카지노 사업자 등이다. FIU는 가장 먼저 신고 절차를 마친 가상자산사업자 중 원화 거래가 가능한 4대 거래소인 업비트, 빗썸, 코빗, 코인원을 시작으로 차적으로 종합 검사를 벌일 예정이다. 이들을 대상으로 특금법이 규정한 자금세탁방지체계 구축 상황을 점검한다는 계획이다. 신고 심사 과정에서 제기된 개선·보완 사항과 고객 확인 의무 이행, 자금 세탁 방지시스템 이행·정착 등이 점검 항목이다. 자금 세탁 문제가 발생하면 수시 검사도 한다. 이번 종합검사 결과에 따라 6월께 요주의 사업자를 지정한 뒤, 자금세탁방지 운영 상황을 집중 점검하는 부문검사를 하게 된다. FIU는 부문검사에서 의심거래보고와 거래소간 이동 실명제, 즉 ‘트래블룰’ 이행 적정성을 살펴본다. 지난 2019년 7월 특금법이 적용된 전자금융업자 124곳과 대부업자 60곳도 올해 FIU 검사를 받는다. FIU는 이용자 수와 거래 규모 등에 따른 자금세탁 리스크, 내부통제 수준을 종합적으로 고려해 검사 대상을 고를 것이라고 설명했다. 네이버파이낸셜, 카카오페이, 토스(비바리퍼블리카) 등 거래 규모가 큰 대형 전자금융업자가 유력한 후보군으로 꼽힌다. FIU는 금융감독원과 함께 고객확인업무 이행, 내부통제체계 구축, 의심거래보고(STR)·고액현금거래보고(CTR) 등 보고 적정성 등을 점검할 계획이다. 코로나19로 2020년 검사가 잠정 중단됐던 내륙 카지노사업자 9개에 대한 직접 검사도 올해 재개된다. FIU는 이와 함께 금감원을 통해 파악한 리스크 요인에 대한 기획검사와 테마검사도 시행한다. 펌뱅킹(기업자금관리)과 해외 자회사를 통한 자금세탁 가능성을 대표적인 리스크로 요인으로 FIU는 제시했다.아울러 FIU 대신 검사를 수행하는 검사수탁기관 중에는 상호금융중앙회를 대상으로 현장 점검을 벌인다. 현장점검 대상은 검사·조치 내용을 바탕으로 농업협동조합중앙회, 수산업협동조합중앙회, 신용협동조합중앙회, 산림조합중앙회, 새마을금고중앙회 가운데서 선정한다. 이용자 수와 비교해 자산 규모가 크거나 반복적으로 지적을 받은 단위 조합과 우체국에 대해서는 FIU가 검사수탁기관의 검사에 참여한다. 또 상호금융과 단위조합, 우체국 등 FIU에 자금세탁방지 업무를 맡긴 기관들에 대해서도 현장점검 등을 통해 위탁검사업무 역량을 강화하기로 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022.01.16.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>4대 코인거래소, 자금세탁 정밀 검증대 오른다</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001009558?sid=004</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>업비트 등 '4대' 코인 거래소가 올해 자금세탁 정밀 검증대에 오른다.네이버파이낸셜, 카카오페이, 토스 등도 금융당국의 직접 검사 후보군에 포함됐다.금융위원회 산하 금융정보분석원(FIU)은 올해 가상자산사업자, 전자금융업자, 대부업자, 카지노사업자를 대상으로 직접 검사를 시행하며, 다음 달 현장검사에 착수한다고 16일 밝혔다.FIU는 2019년 이후 '특정 금융거래정보의 보고 및 이용 등에 관한 법률(특금법)'의 규율을 받게 된 사업자 가운데 가상자산업자, 전자금융업자, 대부업자를 올해 직접 검사 대상으로 선정했다.특히 FIU에 신고 절차를 마친 가상자산사업자 가운데 원화 거래가 가능한 4대 거래소, 즉 업비트(법인명 두나무), 빗썸(빗썸코리아), 코빗, 코인원을 시작으로 필요에 따라 순차적으로 종합검사를 벌일 계획이다.자금세탁 문제가 발생하면 수시검사도 진행한다.FIU는 가상자산사업자 대상 종합검사에서 특금법이 규정한 자금세탁방지체계 구축 상황을 점검한다. 앞서 신고 심사 과정에서 제기된 개선·보완사항과 고객 확인 의무 이행, 자금세탁 방지시스템 이행·정착 등이 점검 항목이다.FIU는 연말까지 가상자산거래소에 대해 종합검사를 마칠 예정이다.종합검사에서 파악한 '요주의' 사업자를 대상으로 자금세탁방지 운영 상황을 집중적으로 점검하는 부문검사도 벌인다. FIU는 부문검사에서 의심거래보고와 거래소간 이동 실명제, 즉 트래블룰 이행 적정성을 살펴본다. 부문검사 대상은 종합검사 결과에 따라 하반기에 선정된다.2019년 7월에 특금법이 적용된 전자금융업자(124개)와 대부업자(60개)도 올해 FIU의 검사를 받는다.FIU는 이용자 수와 거래 규모 등에 따른 자금세탁 리스크, 내부통제 수준을 종합적으로 고려해 검사 대상을 고를 것이라고 설명했다.자본금과 거래 규모로 볼 때 네이버파이낸셜, 카카오페이, 쿠팡페이, 토스(비바리퍼블리카) 등 대형 전자금융업자는 선정이 유력한 것으로 전해졌다.FIU는 금융감독원과 함께 고객확인업무 이행, 내부통제체계 구축, 의심거래보고(STR)·고액현금거래보고(CTR) 등 보고 적정성 등을 검증한다.(사진=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022.01.25.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>네이버, 김윤형·이장선 교수 ‘네이버 스칼라’로 영입</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001501142?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>네이버는 최근 매사추세츠 공과대학(MIT)의 김윤형(사진 왼쪽) 교수, 럿거스대학의 칼 스트라토스(이장선·오른쪽) 교수를 ‘네이버 스칼라’로 영입했다고 24일 밝혔다. 김 교수는 하버드대에서 컴퓨터공학으로 박사학위를 취득했다. 현재 MIT에서 조교수로 재직 중이다. 2014년 딥러닝 기술의 하나인 컨볼루션 신경망(CNN) 기술을 자연어처리(NLP) 분야에 적용한 논문을 단독 발표하며 학계 관심을 끌었다. 칼 스크라토스 교수 역시 인공지능(AI) 분야 전문가다. 럿거스대 조교수로 재직하며 비지도 학습방법 및 지식사용 모델 개발을 연구하고 있다. 두 교수는 ‘네이버 서치 US’에서 AI 기술 개발을 관장하는 김용범 책임리더와 함께 네이버 검색서비스 곳곳에 녹일 ‘차세대 AI 검색 기술’ 고도화에 집중할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022.01.18.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>금리 또 오른다…인뱅은 이미 10% 목전</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000272137?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>[앵커]한국은행이 지난 주 기준금리를 추가 인상하면서 시중금리가 들썩이고 있습니다.인터넷전문은행의 경우 대출금리가 10%에 육박했는데 추가 인상도 예상됩니다.최나리 기자, 인터넷전문은행 신용대출 금리가 최근 많이 올랐다고요?[기자]네, 카카오뱅크의 지난해 12월 신용대출 금리는 9.79%로 10%에 가까워졌습니다.케이뱅크는 5.71%였고요.토스뱅크는 지난해 11월 기준 5.07%였습니다.세 인터넷 은행 모두 3%대 수준인 시중은행의 금리와 큰 격차를 보였습니다.[앵커]이렇게 신용대출 금리가 오른 배경은 무엇입니까?[기자]인터넷은행들이 지난해 하반기 이후 중저신용자대출에 집중했기 때문입니다.특히 신용대출 금리가 10%에 육박한 카카오뱅크는 중저신용자대출 확대를 위해 지난해에 이어 올해도 고신용자대출을 잠정 중단한 상태입니다.다만 이같은 대출금리 상승에는 차주의 신용에 따라 매겨지는 은행 별 가산금리 차이도 빼놓을 수 없습니다.IBK투자증권은 보고서를 통해 "은행 간 기준금리의 차이가 큰 것은 아니기 때문에 대출금리 차이는 가산금리 차이에 의한 것"라며 "전반적으로 대형은행 대비 금리경쟁력은 약화됐다"고 지적했습니다.[앵커]올해 들어서도 기준금리가 또 올라갔는데, 차후 영향을 받겠군요?[기자]네, 한국은행이 지난주 기준금리를 인상한 것이 곧 반영될 것으로 보이는데요.조만간 인터넷은행의 최고 금리가 10%를 넘길 것으로 전망되고 있습니다.다만 기준금리 인상에 따라 타 금융권의 대출 금리도 오르고 있는 만큼 고객 확보 차원에서 가산금리 상승속도를 늦출 가능성도 있습니다.SBS Biz 최나리입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022.01.22.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>금감원장, 빅테크 만난다…동일규제 언급할까</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010960228?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>기사내용 요약26일 금융플랫폼 간담회 개최카카오페이·네이버파이낸셜 등 참석빅테크-금융사간 동일기능·동일규제 언급할 듯[서울=뉴시스] 추상철 기자 = 정은보 금융감독원장이 3일 오전 서울 중구 은행회관에서 금융지주회장 열린 금융지주회장단 간담회에 참석해 발언하고 있다. (사진= 공동취재사진) 2021.11.03. photo@newsis.com[서울=뉴시스] 최홍 기자 = 정은보 금융감독원장이 다음 주 중으로 카카오페이·네이버파이낸셜 등 주요 빅테크 CEO들을 만난다. 그간 금융당국이 빅테크·금융사 간 동일기능·동일규제를 언급한 만큼, 기울어진 운동장을 개선하기 위한 논의가 오갈 것으로 보인다.22일 금융권에 따르면 정은보 원장은 오는 26일 서울 모처에서 '금융플랫폼 간담회'를 개최한다.이날 간담회에는 카카오페이·네이버파이낸셜·비바리퍼블리카(토스) 등 빅테크 대표들이 참석한다. 또 금융플랫폼을 지향하고 있는 금융지주 관계자들도 대거 참석한다.국내 금융플랫폼 산업 발전에 대한 다양한 논의가 오갈 전망이다. 갈수록 금융과 기술의 접점이 커지고, 이에 따른 금융환경과 제도를 정비해야 한다는 취지에서다.금융당국이 늘 강조했던 '동일기능·동일규제'도 언급될 것으로 보인다.정 원장은 지난달 31일 신년사를 통해 "금융회사와 빅테크 간 불균형적 경쟁여건을 해소해야 한다"며 "기울어진 운동장이 발생하지 않도록 '동일기능 동일규제' 원칙에 기반해 공정하고 협력적인 규율체계를 마련해야 한다"고 말했다.디지털금융에 대한 소비자보호 원칙에 대해서도 논의할 예정이다. 그간 금융당국은 금융플랫폼 특성상 ▲데이터 독점 ▲편향적 서비스 등을 우려해왔다. 이를 위해 금융플랫폼에 대한 영업행위 규제도 시사한 바 있다.금감원 관계자는 "이번 간담회는 금융플랫폼 사업을 추진하는 과정에서 발생하는 규제 등 현실적인 문제를 해결하는 데 초점을 맞출 것"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022.01.25.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>[특이점 온 인뱅]①저금리 매력 사라졌다</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000006053?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>대출금리 최고 14%, 시중은행보다 높아    은행의 디지털화로 인뱅 장점 사라져   낮은 대출금리와 높은 수신금리로 기존 은행들을 위협하며 등장했던 인터넷은행(인터넷뱅크, 인뱅)들이 변화의 시간을 맞았다. 장점으로 꼽혔던 금리 매력은 사라졌고, 대주주들도 변화에 발 빠르게 대응하는 기존 은행들과 협력을 강화하고 있다. 인뱅들의 현 상황과 경쟁력 강화를 위해 보완해야 할 부분들을 짚어본다. [편집자]  '파격'이란 평가를 받으며 신용대출 시장에 뛰어들었던 인터넷은행(인터넷뱅크, 인뱅)의 경쟁력이 점차 약화되고 있다.인터넷은행은 기존 은행보다 낮은 대출 금리를 앞세워 중금리 시장을 적극적으로 공략해왔다. 하지만 최근 들어 금리가 가파르게 오르면서 기존 은행보다 오히려 높은 상황이다. 금리 인상기에 대출 이자부담을 줄여야 하는 금융 소비자들 입장에선 인터넷은행 대출상품의 매력도가 떨어지고 있는 상황이다.시중은행보다 높은 인뱅 대출금리금융권에 따르면 일반 시중은행의 중금리 사잇돌대출(중‧저신용자 대상 신용대출 상품) 금리는 4% 초반에서 많게는 7%까지 형성돼있다.반면 카카오뱅크와 케이뱅크, 토스뱅크 등 인터넷은행 대출 금리는 4.8%에서 최대 14%가 넘는다. 시중은행 대출 금리와 비교해 최대 두 배 이상 금리가 높다./그래픽=김용민 기자 kym5380@인터넷은행은 기존 은행보다 낮은 금리로 대출 시장에 진입했다. 특히 금융당국의 요청에 맞춰 그동안 대출 사각지대에 놓였던 중‧저 신용자들을 대상으로 하는 중금리 대출 시장을 적극 공략했다.이들이 대출 시장에 안착할 수 있었던 것은 새로운 신용평가시스템(CSS)을 앞세워 중‧저 신용자 고객을 확보하는 것은 물론 시중은행은 엄두도 내지 못할 2% 후반대의 낮은 금리를 책정했기 때문이다.이를 통해 시중 은행보다 중‧저 신용자 대출 비중이 높고, 대출 규모도 크게 늘어나는 성과를 달성하기도 했다. ▷관련기사: 카뱅, 중·저신용자 대출 '성과' 보인다(1월24일)문제는 이제부터다. 기준금리 인상기조에 접어들면서 대출 금리가 높아질 수밖에 없는데, 시중은행보다 인터넷은행의 금리 인상 폭이 훨씬 가파른 탓이다.인뱅 업계에선 시중은행과 달리 중‧저 신용자 대출 비중이 높아 전체적인 금리 수준이 높다는 입장이지만 일반 신용대출 뿐 아니라 사잇돌 대출 등 중금리 상품 대출 금리도 시중은행보다 높은 게 사실이다.한 인터넷은행 관계자는 "단순히 금리만 떼서보면 시중은행보다 높지만 인터넷은행은 고신용자 대출보다는 중‧저 신용자 대출이 많고, 이들에 대한 대출 금리는 높은 편이 아니다"라고 말했다.디지털화 서두른 은행, 밀릴 게 없다인터넷은행들의 대출 금리가 오른 것과 동시에 시중은행들의 금리 경쟁력도 강화되고 있다. 당초 인터넷은행이 저금리를 앞세울 수 있었던 배경은 시중은행과 달리 오프라인 영업점이 없어 대출창구를 거치지 않고 온라인을 통해 대출이 가능했기 때문이다. 인건비 등 줄어든 비용은 소비자들에게 금리 혜택으로 제공했다. 최근 들어서는 시중은행들도 발 빠르게 디지털화(化) 하면서 모바일 앱 등을 통해 대출 상품을 판매하고 있다. 오히려 대출 창구를 이용하는 것보다 모바일 앱으로 대출을 받으면 더 낮은 금리를 제공하기도 한다. 인터넷은행 입장에선 기존에 자신들의 강점을 경쟁자인 시중은행들도 갖추면서 금리 매력도를 확보하기 어려워진 상황이 됐다.한 시중은행 관계자는 "모든 은행들이 디지털화하면서 은행 지점이나 콜센터를 거치지 않고 대출 상품을 판매하고 있다"며 "현 상황에서 시중은행이 인터넷은행과 비교해 금리 경쟁력이 약할 이유가 없다"고 강조했다.또 다른 관계자는 "대안신용평가 모델을 적용해 일반 신용기준(KCB‧나이스신용평가) 고신용자도 인터넷은행에선 낮은 등급이 나오는 사례도 있는 것으로 안다"며 "이런 이유로 소비자가 체감하는 금리가 더 높을 수 있을 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022.01.19.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>방역당국, 접종 후 이상반응 치료 등 '방역패스 제외'</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005129951?sid=102</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>피해보상 신청 결과 인과성 근거 불충분 받거나입원치료 한 경우, 24일부터 예외확인서 발급 가능최초 1회 보건소에서 전산 등록, 모든 보건소서 발급"방역패스 예외, 접종 금지 의미 아냐"[이데일리 박경훈 기자] 중앙방역대책본부는 오는 24일부터 방역패스(접종증명·음성확인제)의 의학적 사유에 의한 적용 예외 범위를 ‘코로나19 백신 접종 후 이상 반응 의심 증상이 나타나 입원 치료를 받은 경우’ 등으로 확대한다고 19일 밝혔다.(자료=중앙방역대책본부)이번 조치로 예외확인서 발급이 가능한 대상은 코로나19 예방접종 후 이상 반응 의심 증상이 나타난 대상자 중 △피해보상 신청 결과 인과성 근거 불충분(④-1)판정을 받거나 △입원치료를 한 경우다. 24일부터 다음과 같이 예외확인서를 발급받을 수 있다. 별도의 유효기간 만료일을 지정하지 않았다.코로나19 백신 접종 후 이상 반응 신고 및 피해보상 신청에 따라 예방접종 피해조사반 또는 피해보상전문위원회에서 인과성 근거 불충분(④-1) 판정을 받은 경우, 대상자는 별도의 절차나 의사의 진단서 없이 쿠브(COOV)앱 또는 전자출입명부 플랫폼( 카카오, 네이버, 토스, PASS앱)에서 ‘접종내역 발급·업데이트’하면 전자 예외확인서를 발급받을 수 있다. 별도 증빙서류 없이 신분증을 지참해 가까운 보건소에서 종이 예외확인서 발급도 가능하다.코로나19 예방접종 후 이상 반응 의심 증상으로 인과성 근거 불충분(④-1) 판정을 받은 경우, 대상자는 지자체를 통해 통보받는다. 코로나19 백신 접종 후 이상반응 의심증상이 나타나 접종 후 6주 이내에 입원치료를 받았다면 가까운 보건소에 △입원확인서와 △‘코로나19 예방접종 후 이상반응으로 입원치료를 받았다’고 적힌 의사의 진단서를 가지고 방문해 방역패스 예외자로 전산 등록해야 한다.최초 1회에 한해 보건소에서 증빙서류 확인 후 방역패스 예외자로 전산 등록한 경우, 전국 어느 보건소에서나 증빙서류 제출·확인 없이 종이 예외확인서를 받을 수 있다. COOV앱 또는 전자출입명부 플랫폼에서 ‘접종내역 발급·업데이트’하여 전자 예외확인서를 발급할 수 있다.방대본은 “방역패스 예외 범위 인정이 백신 접종과 이상 반응의 인과성 및 피해보상의 필요성 또는 접종 금기를 의미하는 것은 아니다”고 말했다. 이어 단계적 일상회복 과정에서 방역패스가 영업 제한 등 강력한 사회적 거리두기의 대체 수단으로 다중이용시설 전반에 확대됨에 따라 접종을 받으려고 노력했으나, 접종 후 이상 반응으로 접종을 완료하지 못한 분들의 불편을 최소화하는 목적이라고 설명했다.이어 “예방접종은 코로나19로부터 본인과 가족, 타인을 보호하는 가장 효과적인 수단으로, 3차 접종의 위중증·사망 예방효과가 분명한 만큼 2차 접종까지 완료하신 분들께서는 접종증명 유효기간(2차 접종 후 180일)이 만료되기 전 3차 접종에 참여해달라”고 요청했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022.01.28.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>내 자산 한눈에 보여주는 마이데이터…100% 활용법</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004915585?sid=004</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>#. A카드 결제금액을 자동이체 통장에 이체하려던 김 모 씨는 정확한 결제액이 생각나지 않았다. 예전 같으면 이메일 명세서를 다시 열어보거나 A 카드사 홈페이지나 앱에 접속해야 했지만, 이제는 자동이체하려는 은행 앱에서 A 카드사 결제금액을 바로 조회할 수 있어 바로 이체할 수 있었다.#. 6개 카드사의 혜택 좋은 카드를 모두 사용 중인 이 모 씨는 2~3일에 한 번씩 카드 사용 내역과 총 결제금액을 점검하면서 할인 등 카드 혜택을 누려왔다. 작년까지는 일일이 엑셀과 수기로 정리했지만, 올 들어서는 B 카드사 앱에 접속하기만 하면 되어서 일이 줄었다. 다른 카드사 사용내역까지 어디에 얼마나 썼는지 한눈에 보여주기 때문이다.   지난 1월 5일부터 33개 금융사가 ‘마이데이터 서비스’를 시작했다. 개별 금융기관에 흩어져있던 내 금융정보를 한곳에 모아서 볼 수 있는 서비스다. 단순히 모으는 것만 아니라 통합 분석해서 나도 모르게 새고 있던 중복지출을 알려주고, 수익률을 끌어올릴 금융상품도 추천해준다. 작은 레고 블록들이 하나씩 있을 때에는 제 기능을 못하지만, 모두 모아서 조립하면 다양한 작품을 만들 수 있는 것과 같은 원리다.이전에도 토스나 뱅크샐러드 같은 핀테크 회사들이 해왔던 서비스지만, 제휴 금융기관이 늘어나고 데이터를 모으는 방식도 달라졌다. 이전에는 개별 회사에 접속해서 정보를 긁어오는 방식(스크린 스크래핑)이었다면, 이제는 회사별로 일종의 ‘데이터 고속도로(API)’를 뚫어서 데이터를 주고받는다. 기존방식보다 약 10배 이상 속도가 빨라지고, 통합조회도 가능하다고 한다.17개 회사들은 작년 12월부터 시범서비스를 시작했고, 가입자 선점을 위해 다양한 경품을 내걸고 공격 마케팅에 나섰다. 사업 초기이다보니 데이터가 제대로 조회되지 않거나, 내 자산에 다른 사람의 데이터가 보이는 등 크고 작은 사고도 있었다. 그러나 두 달 가까이 마이데이터 서비스를 직접 사용해보니 확실한 장점이 있었다. 마이데이터 서비스를 활용하는 꿀팁들을 정리했다.▶숨어있던 돈을 찾았다마이데이터 서비스 가입 후 처음 만나는 화면은 ‘내 순자산’이다. 첫인상은 대략 얼마쯤이라고 짐작하고 있던 내 재산보다 훨씬 늘어난 느낌이었다. ‘숨어있던 돈’을 찾았기 때문이다. 15년 전 가입해 납입기간이 끝나가는 보험과 언제 가입했는지 기억도 나지 않는 외화적금, 증권사 CMA 계좌의 남은 잔액까지 나왔다. 카드사에 쌓여있던 적립 포인트와 현재 타고 있는 자동차, 살고 있는 아파트 가격까지 합친 금액이었다. 아파트 가격은 주소를 입력하니 직전 실거래가가 자동으로 반영됐다. 한곳에서 여러 은행계좌를 확인하고 이체할 수 있는 오픈뱅킹 서비스가 전 금융권으로 확산됐다고 보면 된다. 은행, 카드, 보험, 증권사 등 다양한 금융기관 데이터를 가져올 수 있다. 물론 모든 금융기관이 보이는 것은 아니고, 각각 파트너십을 맺고 API를 구축한 회사들 것만 보인다. 마이데이터 서비스 사업자별로 다르지만 현재는 대략 수십 개 기관과 연동되어 있다. 향후 회사별로 많게는 180곳, P2P나 대부업까지 포함하면 417곳까지 확대될 수 있다. ‘카드결제예정금액’도 생각보다 많았다. 전체 카드사 결제금액을 합쳐보니, 지출을 줄여야겠다는 생각이 들었다. 다 내가 쓴 돈이고 매달 납부해온 돈이지만, 개별 카드사에서 각자 돈을 빼갈 때와 다 모은 총금액을 보는 느낌이 확연히 달랐다. NH농협은행 NH자산플러스 금융플래너 서비스, NH농협은행 NH자산플러스 연금진단 서비스 ▶가계부 안녕… AI가 알아서 분석까지가계부를 따로 쓸 필요가 없는 것도 장점이다. 매년 1월이면 올해는 돈을 아끼겠다고 가계부를 사거나 앱을 다운받아 야심차게 쓰다가 며칠 안 가 접곤 했는데, 마이데이터를 쓰니 어떤 금융사 앱에서든 지출내역이 정리가 됐다. 온라인 쇼핑, 음식점, 관리비, 문화·여가, 교통, 자동차·주유, 생활·가전가구, 마트 등 분야별 지출내역이 한눈에 보이니 어디에 돈을 쓰고 있는지 알 수 있었다. ‘금융 캘린더’ 메뉴에서는 날짜를 클릭하면 그날의 카드결제 내역과 입출금내역을 한눈에 볼 수 있어 편리했다. 예를 들어 1월 8일에는 우리은행 계좌에서 8900원의 구독료 자동이체가 빠져나가고 아침 8시 출근길에 택시를 탄 것, 저녁에 쿠팡과 배달의민족 결제한 내역까지 한 화면에 나온다. 그 정보만으로 하루 일기를 쓸 수 있을 만큼 자세하게 나온다. 결제 시간과 금액은 물론 어떤 카드로 결제했는지까지 보여주는데, 보기 편하고 알아서 총액까지 계산해주니 따로 가계부 앱을 쓸 필요가 없다.카드사별 결제일도 캘린더 알림으로 알려준다. 다양한 카드사의 여러 카드를 사용하는 사람에게는 유용한 기능이다. 신용정보 관리 메뉴가 따로 있어 내 정보를 연동시키면 신용관리도 함께 할 수 있다. 이밖에 주간·월간 리포트로 내 지출을 분석해보고, 내 또래 다른 사람들의 평균 지출액과 비교해볼 수도 있었다. ▶자동이체 변경과 해지도 가능지출 관리를 하려면 고정지출을 줄이는 것이 중요하다. 마이데이터 서비스는 특히 고정지출 관리에 유용했다. 매달 빠져나가는 아파트 관리비와 통신비, 지금은 잘 보지도 않는 인터넷동영상서비스(OTT) 구독료, 몇 달째 그냥 빠져나가고 있던 잡지 정기구독료 등을 관리할 수 있다.몇몇 앱에서는 자동이체 수단 변경이나 해지도 가능했다. 아직은 서비스 초기여서 한정적이지만, 앞으로 금융사들은 이같은 서비스를 확대할 계획이다. 두 달간 여러 금융사 마이데이터 서비스를 써본 결과 가장 서비스가 활성화된 업종은 은행과 카드사였다. 어떤 회사 마이데이터 앱을 쓰든, 카드 관련 데이터는 대부분 비슷하게 조회가 됐다. 은행도 오픈뱅킹 서비스 구축이 잘 되어 있어서인지 대부분 은행계좌 데이터를 볼 수 있었다. 증권과 보험사는 상대적으로 파트너사가 적다는 느낌이었는데, 특히 보험 분야 데이터가 가장 적었다. 보험사 중에서는 교보생명과 KB손해보험이 마이데이터 서비스 본허가를 받았지만, 아직 서비스를 출시하지는 않았다. 곧 서비스를 선보일 교보생명은 이와 관련해 유망 스타트업인 ‘인포마이닝’과 ‘인에이블다온소프트’ 등과 손잡고 서비스를 고도화할 계획이다.  ▶‘슈퍼원앱’ 치열한 경쟁마이데이터 서비스를 쓴 후로 가장 달라진 것은 다른 금융사 앱에 접속할 일이 눈에 띄게 줄었다는 점이다. 앱 하나로 확인이 다 되니 굳이 다른 앱에 접속해 로그인하고 확인할 필요가 없어졌다. 반면 마이데이터 앱에는 하루에도 서너 번씩 들어가게 됐다. 소비자 입장에서는 간편하지만, 금융사들은 자칫 ‘집토끼 고객’마저 놓칠 위기에 처했다.금융권이 사활을 걸고 ‘마이데이터 서비스’에 뛰어든 이유가 여기에 있다. 전 국민이 네이버와 카카오를 사용하면서 다른 포털사이트나 메신저 앱이 설 자리를 잃었듯, 마이데이터도 일종의 플랫폼이고 ‘승자독식’ 구조다. 사업자 간 경계도 없다. 같은 금융지주 내에서도 은행과 카드사 마이데이터 앱이 경쟁하는 구조고, 여기에 증권사와 보험사 앱이 도전하는 구도다. 금융업계에서는 올해 마이데이터 선두그룹이 정해지고, 2~3년 안에 최종승자가 판가름 날 것으로 보고 있다. 이른바 ‘슈퍼원앱’이다. 이를 위해 금융사들은 고객들이 하루에도 몇 번씩 접속하는 앱을 만들기 위해 고심하고 있다. 자산서비스 외에 다양한 콘텐츠와 이벤트를 만들고 커뮤니티를 조성하는 곳들도 있다. 배달앱이나 꽃배달 등 다양한 생활 서비스를 제공하는 것도 요즘 금융 앱 트렌드다.▶“이런 상품 어때요” 자산관리 조언자산과 지출 내역을 확인했으니, 이제 불릴 차례다. 맞춤 자산관리는 마이데이터 서비스의 꽃으로 불린다. 수십~수백억 부자들이 전문가에게 받던 자산관리를 AI를 활용해 누구나 받을 수 있도록 저변을 넓히는 것이 마이데이터 서비스의 목적이다. 이 서비스는 금융사별로 가장 차별화되는 지점이다. 향후 고객유치 경쟁도 이 서비스에서 판가름 날 것으로 예상된다. 예를 들면 NH투자증권 마이데이터 앱 ‘나무’에서는 1000원 단위로 해외주식을 살 수 있다. 고액자산가, 3040 직장인, 전문직 등으로 나눠 다른 사람들이 선호하는 상품을 알려주고 절세계좌를 활용해보라는 안내도 해준다. NH투자증권 마이데이터 앱 ‘나무’의 자산현황 분석 서비스, 신한카드 신한플레이 마이데이터 정기지출관리, 신한카드 신한플레이 마이데이터 참여형 커뮤니티 NH농협은행 마이데이터 서비스 ‘NH자산 플러스’에서는 연말정산 상시 시뮬레이션을 통한 세액 예측 및 소득 수준과 금융거래 성향을 고려한 절세상품 추천 서비스인 ‘연말정산 컨설팅’과 가족 구성원 특성에 맞는 지원금을 추천하고 지원금 수급계좌 개설 등 상품 가입을 연계해주는 ‘맞춤 정부혜택’을 제공한다.신한카드 신한플레이에서는 ‘버킷리스트’라고 해서 원하는 목표를 설정하고 매일 적립하는 서비스를 선보이고 있다. 금융추천 메뉴에서는 내 소비패턴을 분석해 혜택 좋은 카드를 추천해주거나 또래들과 신용점수, 대출잔액, 평균 카드값 등을 비교해 볼 수 있다. ‘맞춤대출 조회하기’에서는 각 금융사에서 내가 받을 수 있는 최대 한도와 최저 금리를 한눈에 비교할 수 있게 보여준다. ▶개인정보 동의 귀찮고 보안 걱정은 단점물론 마이데이터 서비스의 단점도 있다. 일단 회사별로 데이터를 가져올 때마다 ‘개인 동의’를 받아야 하기 때문에 가입 절차가 오래 걸렸다. 한 핀테크 업체 관계자는 “경품이벤트에 참여하기 위해 들어왔던 고객들도 복잡한 동의절차 때문에 마이데이터를 신청하다가 중도에 포기하는 경우가 많다”고 말했다. 기존 금융사 앱이 마이데이터 위주로 개편되다보니, 이 서비스를 사용하지 않는 고객들은 오히려 불편해진 경우도 있었다. 30대 직장인 김 모 씨는 “주력 카드사 앱에 접속했는데, 깔끔하게 이 회사 결제금액만 보이던 예전과 달리 다른 메뉴들이 많아져서 헷갈린다”면서 “이벤트 페이지도 어디 있는지 모르겠고, 내 관심 콘텐츠들은 다 사라지거나 숨어있다. 마이데이터에 관심 없는 고객들은 더 불편할 것 같다”고 했다. 내 금융 데이터가 한곳에 모이니 다른 누군가가 볼까봐 걱정이 됐고, 혹시 보안사고라도 나면 전체 데이터가 빠져나갈까 봐 불안하기도 했다. 이에 대해 우상수 신한카드 마이데이터 팀장은 “금융사에 보안은 회사의 명운이 걸린 중요한 문제다. 특히 마이데이터는 중요한 정보가 오가는 서비스 특성상 보안에 더욱 만전을 기하고 있다”고 강조했다. 일부 앱에서는 노출을 원하지 않는 자산은 숨기는 ‘스텔스 기능’을 제공하기도 한다. 원하는 자산만 골라서 볼 수 있기 때문에 다른 사람이 볼 걱정을 덜어준다.   ▶아직 초기 단계… 마이데이터 2.0이 진짜기존에 자산관리 서비스를 해오던 핀테크 기업들은 지금까지 쓰던 스크래핑 구조에서 마이데이터 망 구조로 안전하게 이관하고 안정성을 확보하는 데 공을 들이고 있다. 네이버페이의 ‘내 자산’ 서비스를 마이데이터 기반으로 옮기고 있는 네이버파이낸셜에서는 시스템 오류로 회원 100명의 자산 정보가 다른 이용자에게 노출되는 사고가 나기도 했다. 마이데이터 서비스 성공의 관건은 사업자 간 협력인데 일부 금융사와 핀테크 회사 간에 제대로 된 협력이 이뤄지지 않고 있는 것도 문제다. 마이데이터 서비스 가입제한은 없지만, 여러 금융사 서비스에 가입하면 향후 관리가 어려울 수 있다는 점은 주의해야 한다. 금융당국은 서비스 가입 전 불필요한 마이데이터 서비스 중복가입 관련 주의사항을 안내하고, 서비스 가입현황을 확인할 수 있는 마이데이터 종합포털 사이트를 운영하고 있다. 마이데이터 전쟁의 진검승부는 현재 진행 중인 서비스가 아니라 추후 다른 데이터가 연계되는 ‘마이데이터 2.0 시대’부터로 보는 시각이 많다. 금융 데이터 외에 의료나 유통 등 다른 데이터가 결합되는 시대다. 그러나 1차전에서 선두그룹에 끼지 못하면 2차전에 참가할 수조차 없다. 금융사들이 사활을 걸고 마이데이터 서비스에 열을 올릴 수밖에 없는 상황이다. [본 기사는 매경LUXMEN 제137호 (2022년 2월) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022.01.21.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>평균연봉 '3800만원' 벌었던 4년차 직장인도…"대출 거절됐습니다"</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005033940?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>대출 상품 비교 플랫폼 3곳에서 직접 조회해보니 최저금리는 하나은행 '하나원큐신용대출' 6.40%페퍼저축은행이 6450만원 제시해 한도 가장 높아평균연봉 버는데도 1·2금융서 '대출거절' 우수수올해 대출규제 더 세져…돈 빌리기 더 어려울 듯대출상품 비교분석 플랫폼을 통해 금리와 한도를 조회해본 결과 평균연봉을 버는 직장인임에도 수십 개의 금융사에서 승인을 거절당하는 것으로 나타났다. 금융당국이 시행 중인 가계부채 총량규제 등의 여파로 저신용·저소득자가 아닌 대다수 직장인까지 ‘돈맥경화’ 현상을 겪는다는 지적이 나온다.21일 본지 기자가 직접 금융사와 핀테크 업체 등 3곳에서 제공하는 대출상품 비교 서비스를 이용해 본 결과 최대 40여개의 금융사가 대출을 거절하는 것으로 파악됐다. 대출심사 시 조건은 국세청이 발표한 ‘2021년 국세통계연보’에 따라 1인당 평균 급여였던 3828만원을 연봉으로 삼았다. 또 4년 차 직장인에 마이너스통장 3000만원 보유, 전세 거주, 차량 없음, 직장 의료보험 있음으로 가정했다.3곳 중에서 가장 낮은 금리를 제시했던 곳은 토스였다. 토스는 신한·하나·우리·SC제일은행 등 시중은행을 포함해 41개의 은행과 제휴를 맺고 관련 서비스를 제공하고 있다. 이중 하나은행에서 ‘하나원큐신용대출’을 이용할 수 있고 6.40%의 금리로 830만원까지 대출실행이 가능하다고 떴다. 금리를 1%포인트가량 올려 교보생명보험에서 7.76% 금리로 2400만원을 빌릴 수도 있었다. 최대한도는 4600만원으로 OK저축은행 개인신용대출 상품이었으며 금리는 16.1%였다.한도가 가장 컸던 플랫폼은 52개 금융기관에서 대출정보를 조회할 수 있는 핀다였다. 페퍼저축은행의 신용대출상품으로 총 6450만원을 11.3% 금리로 빌릴 수 있다고 떴다. 온라인투자연계금융업체인 피플펀드에서도 15.9% 금리로 직장인 신용대출 상품을 5000만원까지 이용할 수 있었다. 최저금리는 7.43%로 전북은행의 ‘JB위풍당당대출’ 상품이었다. 다만 한도는 320만원으로 타 금융상품 대비 적은 편이었다.대출 거절한 1·2금융 우수수…"앞으로 돈 빌리기 더 어렵다"33개 금융기관과 제휴하고 있는 핀크에서도 저축은행이 가장 낮은 금리를 제시했다. 최저금리는 11.8%로 키움저축은행의 중금리 신용대출과 유진저축은행의 모바일자동대출 상품이었다. 한도는 각각 3828만원, 3820만원이었다. 최대한도는 OK저축은행의 개인신용대출 상품으로 4600만원(16.1%)까지 빌릴 수 있었다.금리와 한도는 플랫폼별로 차이가 있었지만 거절을 통보한 금융사는 모두 수십 곳에 달했다. 핀크는 18개, 토스와 핀다는 각각 24개, 39개 금융사가 대출이 어렵다고 안내했다. 대출거절은 고신용자를 상대로 영업하는 시중은행과 중·저신용자를 상대하는 2금융권에서 골고루 이뤄졌다. 핀크에서는 지방은행과 우리카드, SBI저축은행 등이, 토스는 신한·우리·SC제일은행과 KB·NH·상상인저축은행에서 대출을 거절했다. 핀다에서도 저축은행과 온투업체 카드사들이 대출을 거절했다.관련 업체들은 심사거절과 대출한도 금리가 다른 이유에 대해 내부 알고리즘의 차이가 있다고 설명했다. 대출상품 비교분석 플랫폼을 운영하는 한 관계자는 "공동(금융)인증서를 실제로 연동한 다음 이용하면 한도와 금리, 대출승인 여부가 달라질 수도 있다"며 "신용평가시스템(CSS), 네트워크전용선 등이 달라서 차이가 나는 것"이라고 강조했다.이를 두고 가계부채 총량규제 등 정부와 금융당국이 시행한 부채관리 정책의 부작용으로 대다수 국민의 대출절벽 문제가 심각해지고 있는 것 아니냐는 지적이 제기된다. 가조회 결과임을 고려해도 평균소득에 높은 신용점수를 받고 있는 인물이 1·2금융권 수십 곳에서 대출거절을 통보받았기 때문이다.올해 강력한 금융규제 정책이 추가로 예고돼있는 만큼 대출절벽 현상은 점차 심화할 것으로 보인다. 당장 이달부터 총 대출액이 2억원을 넘으면 개인별 DSR(총부채원리금상환비율) 규제가 시작된다. 오는 7월부터는 총 대출액 1억원 초과 시부터 DSR 규제가 적용될 방침이다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2022.01.16~2022.01.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.01.16~2022.01.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2022.01.21.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>“디지털 혁신 경쟁, 작고 유연한 조직이 이긴다”</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000059720?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>김도형 상상인증권 디지털전략실장 “증권사 한계 넘어 플랫폼 기업으로 도약 준비”[인터뷰]김도형 상상인증권 디지털전략실장이 1월 11일 오후 서울 강남구 대치동 본사에서 한경비즈니스와 인터뷰를 진행하고 있다. 사진=이승재 기자최근 금융권에는 두 가지 큰 흐름이 나타나고 있다. 디지털 전환과 빅블러(big blur)다. 디지털에 친숙한 MZ세대(밀레니얼+Z세대)가 소비의 주측으로 떠오르며 금융권의 디지털 전환에 불을 댕기고 있다. 업종과 업태별 경계가 흐려지는 빅블러로 빅테크(대형 IT 기업)는 금융업에, 기존 금융사는 생활 플랫폼에 도전하는 등 산업 패러다임이 급속하게 변화하고 있다. 상상인증권도 새로운 물결에 대응하며 반격의 채비에 나섰다. 회사는 2019년 그룹사에 편입된 후 2020년 흑자 전환에 성공한 데 이어 2021년 3분기 74억8000만원의 누적 당기순이익을 올렸다. 이젠 디지털 전환을 화두로 내걸고 ‘재미’와 ‘유익함’을 탑재한 플랫폼 비즈니스를 새롭게 구축해 퀀텀 점프에 성공하겠다는 포부다. 디지털 전환을 이끌 김도형 상상인증권 디지털전략실장(상무)을 서울 강남구 본사에서 만났다.그는 “상상인 금융그룹과의 시너지를 통해 성장의 기틀을 마련하고 증권사라는 사고의 한계를 깨뜨리며 정보기술(IT)·소프트웨어 회사를 넘어 플랫폼 기업으로 도약할 것”이라고 말했다.  증권사에서 디지털 전환은 어떻게 이뤄지나.“디지털 전환이란 용어는 4~5년부터 나왔지만 예전에 없던 단어는 아니다. 온라인 사업, e비즈니스 등 다른 이름으로 불렸다. 어쨌든 1차적인 의미는 비대면화다. 기업으로선 인공지능(AI) 등으로 자동화에 성공해 생산성을 향상시키는 것이고 소비자로선 편의성이 높아지는 형태다. 혁신은 가죽을 벗겨 새로 입힌다는 의미인데, 기존 시스템이 구축돼 있는 전통적인 금융권에서의 디지털 혁신은 그만큼 어려운 일이다. 증권업계에선 온라인 증권사가 생긴 지 20년 가까이 됐다. 그때와 지금을 비교할 때 다른 부분은 모바일의 유무다. PC를 이용하는 것과 모바일을 이용하는 것은 하늘과 땅 차이다. 모바일 시대가 열리면서 24시간 365일 업무 처리가 가능해졌다. 소비자가 언제 어디서나 증권 업무를 할 수 있게 된 것이다. 너도나도 모바일 퍼스트를 외치면서 수많은 경쟁자들을 따돌릴 강력한 한 방이 필요한데, 경계를 허무는 사고부터가 시작이라고 생각한다. 실제 IT 기반의 빅테크들은 상상의 한계없이 확장하면서 금융업에까지 진출해 기존 플레이어들을 위협하는 존재가 됐다. 반면 아직도 전통 금융사들은 기존 비즈니스에 제한을 두는 등 상상의 한계선을 긋는 모습이다.”  디지털 전환을 위해 가장 필요한 것은 뭔가.“인재 확보다. 디지털 전환이 이뤄지려면 반드시 디지털 감각과 사고를 탑재한 인력이 풍부해야 한다. 여기엔 개발 인력은 물론 디지털 환경에 알맞은 기획자와 마케터 등도 포함된다. 장기적으로 디지털 관련 인력이 전체 인력의 20% 정도는 돼야 업계를 선도할 수 있는 디지털 혁신을 만들어 낼 수 있다.”  기획자와 마케터는 왜 필요한가.“디지털 부서는 더 이상 단순히 개발하고 관리하는 부서가 아니다. 증권사의 ‘간판’ 역할을 하는 부서다. 과거엔 영업점을 통해 계좌를 개설했지만 이젠 모바일로 계좌를 개설하는 수가 훨씬 많아졌기 때문이다. 결국 모바일 애플리케이션에서 접하는 디자인이 회사의 이미지가 되는 셈이다. 상상인증권이 디지털전략실에서 확보하고 싶은 기획자와 마케터는 금융권 종사 이력보다 디지털 세계에서 회사의 ‘얼굴’을 새롭게 뽐내게 해줄 아이디어가 있는 이들이다.”  금융권의 IT 인재 모시기가 한창이지만 쉽지 않은 상황이다. 특별한 전략이 있나.“한국은 과거에도 능력 있는 개발자를 금융사에 영입하기 어려웠다. 규제가 많은 금융권에서 마음껏 기술력을 내보이는 데 한계가 있었기 때문이다. 그런데 카카오뱅크나 토스 등 스타트업의 성공 신화가 나오면서 분위기가 달라졌다. IT 인력들이 회사를 선택할 때 기준으로 ‘기업의 성장 가능성’을 추가한 것이다.그렇다고 안정성을 무시할 수는 없다고 본다. IT 인재들에게 ‘안정적인 금융 그룹 내에서 스타트업을 해보자’고 제안해 본다. 상상인증권은 ‘안정성’과 ‘꿈’ 등 두 마리 토끼를 다 잡을 수 있는 기업이란 점을 강조하고 싶다.”  스타트업 규모는 이미 넘지 않았나.“디지털전략실은 사내 벤처의 개념으로 생각하면 된다. 스타트업처럼 유연한 조직으로 운영하고 열정을 다해 일하자는 마음으로 출발하겠다는 각오다. 유능한 IT·디지털 인재를 영입하기 위해 유연한 조직 문화, 탄력 근무 등 유인책도 내놓고 있다. 예컨대 올해부터 매주 금요일 임원급은 오후 3시, 일반 직원들은 오후 3시 30분에 퇴근하도록 하고 있다. 이때 ‘컴퓨터 전원을 끄고 행복한 주말을 찾아 떠나자’는 퇴근송도 나온다. 상상인그룹의 경영 이념처럼 ‘출근하고 싶은 회사’가 되도록 하겠다는 노력의 일환이다.”  무엇을 준비하고 있나.“상상인증권은 흑자 전환 이후 지속적인 수익 실현을 통해 경영 안정화를 도모하고 있다. 올해부터 선도 기업으로 가기 위한 적극적인 투자도 계획하고 있다. 디지털전략실 신설 역시 상상인증권이 도약하기 위한 투자 경영의 일환이다. 디지털전략실에선 IT 개발은 물론 디자인·마케팅·플랫폼 신사업 등 다방면으로 준비 중이다.”  단기·장기 계획은 세웠나.“단기적으로 상상인증권 성장을 위한 기반을 마련하고자 한다. 지금까지 부족했던 IT 인프라를 강화하고 디지털 전환을 위한 체질 개선에 주력해 상상인증권의 혁신 기차가 빠르게 달릴 수 있는 레일을 만들어 갈 계획이다. 또한 중요한 신사업으로 ‘새로운 플랫폼’을 준비 중이다. 증권 비즈니스에 국한되지 않고 고객들이 머무르며 즐거운 경험을 할 수 있는 플랫폼을 다양한 가능성을 열어 두고 기획 중이다. 장기적으로는 플랫폼 신산업을 통해 상상인증권을 포함한 상상인그룹 전체 비즈니스와의 강력한 시너지 효과를 내는 것을 목표로 삼고 있다. 이때 가장 중요한 것은 그룹사, 그리고 같이 일할 스타트업과의 협력이다.”  미래에셋증권 등 대형사와 비교해 어떤 강점이 있나.“디지털 혁신이라는 물결로 패러다임 시프트가 일어나고 있다. 이러한 변화의 흐름에는 몸집이 큰 대형 증권사보다 상상인증권과 같이 몸집은 작지만 유연한 조직 문화를 가진 회사들이 유리하다. 대형사들은 이미 방대한 규모의 디지털 자산을 구축했고 조직 내 의사 결정 구조 또한 복잡해 적극적인 변화를 도모하기 어렵기 때문이다. 상상인증권은 디지털 혁신을 기반으로 한 새로운 도전에 돛을 올렸다. 금융사뿐만 아니라 IT 업체들에도 도전이 되는 좋은 혁신 사례를 만드는 게 목표다.”  과거와 현재를 비교할 때 가장 주목할 것은 뭔가.“전 세계적으로 현재 업종을 불문하고 디지털 전환 바람이 거세게 불고 있다. 미국 초대형 투자은행(IB) 골드만삭스는 자신들의 비즈니스를 IT, 컴퓨터 소프트웨어, 금융 서비스로 분류하고 관련 IT 인력들을 대거 채용하고 있다. 한국에선 설립된 지 몇 년 되지 않은 IT 기반 스타트업의 회원 수가 오랜 역사를 자랑하는 대형 금융사의 고객 수를 앞지르고 있다. 과거 금융사는 오프라인 인프라, 즉 영업점의 확대를 통한 성장이 주요 전략이었다면 현재는 온라인·디지털을 통한 빠른 성장이 가능해진 것이다. 기존 영업점 기반의 대면 비즈니스 시대에서는 상상할 수 없는 성과다. 비대면과 디지털의 힘이다. 다시 말해 고객에게 새로운 혁신적인 경험을 제공한다면 누구나 단기간에 톱티어에 도달할 수 있는 시대가 된 것이다. ‘상상인’ 사명에는 ‘상상으로 세상을 널리 이롭게 한다’는 뜻이 담겨 있다. 이는 다른 의미로 혁신과도 연결된다고 생각한다. 디지털을 통해 소비자 경험을 다양하게 하고 편의성을 높이는 플랫폼을 만드는 것, 상상인증권 디지털전략실이 추구하는 방향이다.”약력 : 군산고·전북대 컴퓨터공학과 졸업. 2004년 동양시스템즈 증권전산팀 팀장. 2021년 미래에셋증권 디지털신사업팀 수석매니저. 상상인증권 디지털전략실 실장(현)김태림 기자 tae@hankyung.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2022.01.22.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>돌아온 '연말정산'의 계절…'공인' 뗀 인증서 시장 어떻게 변했나</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005860441?sid=105</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>2020년 공인인증서 제도 폐지로 열린 민간인증서 춘추전국시대네이버, 카카오, 통신3사(PASS) 3파전…공인인증서 위세도 여전해올해 연말정산에 사용되는 7개 간편인증 서비스. (홈텍스 사이트 갈무리)(서울=뉴스1) 이기범 기자 = 연말정산 시기가 되면서 인증서 시장에 대한 관심이 커지고 있다. 공인인증서는 연말정산 과정의 첫 난관으로 꼽혀왔지만, 2020년 공인인증서 제도가 폐지되면서 다양한 민간 인증서가 들어서게 됐다. '공인'을 뗀 인증서 시장에서 민간 업체들의 춘추전국시대가 열린 가운데 연말정산은 이용자들을 유치할 대목으로 꼽힌다.22일 업계에 따르면 이번 연말정산 민간인증(간편인증) 서비스를 두고 네이버, 카카오, 통산 3사(PASS), NHN페이코, 삼성패스, KB국민은행, 신한은행 등 7개 업체가 맞붙고 있다.공인인증서는 '공동인증서'라는 이름으로 명맥을 잇고 있다. 온라인에서 '나'를 증명하기 위한 도구로 활용하기 위해 1999년 처음 도입된 공인인증서는 까다로운 발급 절차와 누더기식 보안 프로그램 설치 문제로 국내 온라인 진입장벽이 되면서, 지난 2020년 12월10일 전자서명법 개정으로 '국가가 허락한 유일한 인증서' 지위를 내려놓게 됐다.그러나 공인인증서의 위세는 여전하다. 민간 인증 시장이 열린 뒤 연말정산 서비스가 시행된 첫해인 지난해에는 전체 연말정산 인증 중 88%가 공동인증서(구 공인인증서)를 통해 이뤄진 것으로 나타났다. 당시 민간 인증서에 대한 인식이 자리 잡지 않았고, 기존 공인인증서 이용층이 두터웠던 탓이다.이에 민간 인증서들은 간편한 인증 절차를 앞세우며 이용자 확보에 나서고 있다. 공인인증서 자리를 가장 빠르게 파고들고 있는 건 카카오다. 공인인증서 폐지 직후인 2020년 12월16일 출시된 카카오 인증서는 출시 한 달여 만에 550만명의 이용자를 기록했으며, 현재 3300만명의 이용자를 기록하고 있다. 지난해 초 진행된 연말정산에서도 5개 민간 인증 시범 사업자(카카오, 통신3사 PASS, NHN페이코, 삼성페이, KB국민은행) 중 압도적인 점유율(전체 민간 인증서 점유율 12%, 카카오 점유율 9%)을 차지했다. 현재 공공 부문을 중심으로 40여곳의 제휴처를 확보하고 있다. 카카오톡에 기반한 높은 접근성이 장점으로 꼽힌다.네이버는 제휴처를 빠르게 늘리며 민간 인증서 경쟁에 뛰어들고 있다. 2020년 3월 서비스를 시작한 네이버 인증서는 현재 200개 이상의 제휴처와 2800만명의 이용자를 보유하고 있다. 이용자는 카카오보다 500만명 가량 적지만, 제휴처에서 앞서고 있다. 네이버는 연말정산에 자사 인증서를 이용할 경우 최대 100만원의 네이버페이를 지급하는 이벤트를 여는 등 공격적인 마케팅에 나서고 있다.통신3사 PASS 앱은 본인 확인 서비스에 기반해 가장 많은 이용자를 확보하고 있다. 현재 3550만명의 이용자 수를 기록하고 있으며, 제휴처도 200여곳에 달한다.업계 관계자는 "작년만 해도 사설 인증서가 활발하지 않았고, 모르는 분들이 많았다. 대부분의 사람들이 공인인증서를 쓰면서 연말정산 당시 기존 공인인증서의 점유율이 90%에 가까웠다"며 "현재는 네이버, 카카오, 패스 등이 대중화되면서 이용자가 급증했고 올해 민간 인증서가 활성화될 것으로 보인다"고 말했다.이처럼 민간 업체들이 인증서 시장에 뛰어드는 이유는 이용자에 기반한 플랫폼 사업이 가능하기 때문이다. 민간 인증서는 백신 예약을 비롯해 주택 청약, 자격증 및 신분증 인증에도 쓰이고 있으며 디지털 사원증 형태로 B2B(기업 간 거래) 사업에도 활용되고 있다.또 마이데이터 사업에도 인증서를 연동할 수 있다. 마이데이터는 정보 주체인 개인의 동의에 따라 본인 데이터를 개방·활용하는 것을 의미한다. 흩어진 개인 신용정보를 한곳에 모아 관리할 수 있어 고객 맞춤형 상품 개발에 이용할 수 있다. 네이버, 카카오 모두 여기에 뛰어들고 있으며, 토스를 운영하는 비바리퍼블리카도 자사 내 마이데이터에 토스 인증서를 도입해 핀테크 서비스로서 경쟁력을 확대하고 있다.일각에서는 민간 인증서가 이용자 편의라는 당초 전자서명법 개정 취지와 달리 사용처마다 제각각의 인증서를 써야 해 불편하다는 목소리도 나온다. 이전에는 공인인증서 하나로 해결됐지만, 민간 인증서의 경우 사업자 제휴 상황에 따라 사용 범위가 제한적이기 때문이다. 여전히 공동인증서(공인인증서)만으로 인증이 가능한 서비스도 있다.제휴처가 부족하다는 지적에 대해 카카오 관계자는 "파트너 수도 중요할 수 있는데 인증서가 많이 쓰였냐. 얼마나 빠르게 사용자 확보했느냐도 중요하기 때문에 일상 속에 자주 쓰이는 서비스로 키워왔다"며 "기존에 공공 부문을 중심으로 제휴처를 늘려왔다면 앞으로는 이용자 규모를 바탕으로 민간 파트너들에 대한 공략을 많이 할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2022.01.26.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>정은보 “금융 플랫폼 규제 정비 금융사·빅테크 차이 없앨 것”</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000789799?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>“간편 결제 수수료 공시 시스템 구축”정은보 금융감독원장이 지난 20일 서울 마포구 공덕동 프론트원에서 열린 핀테크 혁신지원을 위한 핀테크 업계 간담회에서 인사말을 하고 있다. /연합뉴스        정은보 금융감독원장이 급격히 성장하고 있는 디지털 금융 산업과 관련해 대형 IT회사와 전통 금융사가 똑같은 규제를 받을 수 있는 감독방안을 마련하겠다고 밝혔다. 규제차익을 없애겠다는 것이다. 정 원장은 금융회사의 핀테크 기업 투자를 쉽게 하고 계열사간 정보 공유 제한도 완화하겠다고 했다. 또 간편 결제 수수료와 관련해 공시 시스템을 구축하고 수수료 산정 과정을 개선하겠다고 말했다.정 원장은 26일 서울 명동 은행회관에서 금융플랫폼 회사들과 간담회를 가졌다. 이날 간담회에는 토스를 운영하는 비바리퍼블리카의 이승건 사장과 최인혁 네이버파이낸셜 사장을 비롯해 김명희 신한금융지주 부사장, 박근영 하나금융지주 부사장, 조영서 KB금융지주 전무 등이 참석했다.정 원장은 “동일 기능-동일 규제 원칙 하에 금융플랫폼에 대한 감독방향을 설정할 것”이라고 말했다. “지난해 11월 시행된 일본의 금융서비스중개업 규정 등 주요국 규제 사례를 연구하고, 업계 의견을 반영해 금융중개 관련 일반적 규율체계를 만들 것”이라는 것이다.전통 금융사에 대해서는 “계열사 간 정보공유와 핀테크 업 투자 제한을 개선하겠다”고 정 원장은 밝혔다. 또 부수업무 확대 검토, 규제 샌드박스를 활용한 서비스 테스트 지원 등도 나서겠다고 했다.금융 플랫폼 회사들이 운영하는 간편결제 수수료에 대해서는 “합리적인 기준에 따라 산정·부과되도록 유도하고, 수수료 공시시스템도 만들어 나가겠다”고 정 원장은 말했다. 또 “금융상품 추천에 활용되는 알고리즘이 소비자에게 불리하게 운영되지 않도록 하겠다”고 덧붙였다.정 원장은 IT기업과 기존 금융회사가 다 같이 새로운 시장과 부가가치를 만들고 ‘좋은 일자리’를 창출하는 ‘확대 균형’으로 나아갈 필요가 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2022.01.28.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>'2조 원' 차익 확보한 바이오젠 "삼성 바이오시밀러 독점 판매 지속할 것"</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004013587?sid=102</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>'베네팔리' 등 바이오시밀러 3종 유럽 현지 유통·판매'바이우비즈' 등 바이오시밀러 2종 판권도 확보2012년 최초 투자 후 10년만에 지분 전량 매각바이오젠이 유럽에서 판매 중인 삼성바이오에피스의 바이오시밀러 3종 제품사진/사진 제공=삼성바이오에피스[서울경제] 바이오젠이 삼성바이오에피스 지분 매각 이후에도 바이오시밀러 독점 판매 등 협력관계를 이어가겠다는 입장을 나타냈다. 바이오젠은 27일(현지시각) "삼성바이오로직스(207940)와 합작투자로 설립한 삼성바이오에피스 지분 매각 관련 최대 23억 달러(약 2조7655억 원) 규모의 계약을 체결했다"고 공식화하며 이 같이 밝혔다. 바이오젠은 지난 2017년부터 유럽 현지에서 자가면역질환에 처방되는 삼성바이오에피스의 바이오시밀러 3종의 유통과 판매를 담당해 왔다. 삼성바이오에피스와 체결한 계약 조건에 따라 유럽 판매에서 발생한 매출을 일정 비율로 나눠갖는다. 구체적인 분배 비율은 공개하지 않고 있다. 바이오젠은 지난해 3분기 말까지 '베네팔리'(엔브렐 바이오시밀러)와 '임랄디'(휴미라 바이오시밀러), '플릭사비'(레미케이드 바이오시밀러) 등 삼성바이오에피스 제품 3종 판매로 6억1020만 달러(약 7213억 원)의 누계 매출을 기록했다. 전년대비 약 2% 성장한 규모다. 상업화 전 단계인 안질환 치료용 바이오시밀러 2종에 대한 판권도 그대로 유지된다. 삼성바이오에피스는 앞서 지난 2020년 바이오젠과 계약을 통해 노인 황반변성 치료에 사용되는 '바이우비즈'(루센티스 바이오시밀러)와 'SB15'(아일리아 바이오시밀러) 2종의 해외 독점 판권을 넘긴 바 있다. 바이우비즈의 오리지널 제품인 루센티스는 2020년 기준 약 4조 원의 글로벌 매출을 올린 블록버스터 제품이다. 삼성바이오에피스는 지난해 8월 바이우비즈의 유럽의약품청(EMA) 판매허가를 획득하고 출시를 앞두고 있다. 바이오젠이 치매 등 중추신경계(CNS) 질환 분야에 특화된 회사란 점에서 안질환 치료제 판매에 시너지가 클 것이란 전망이다. 바이오젠은 지난 2012년 2월 약 247억 원을 투입해 삼성바이오로직스와 조인트벤처를 설립하며 삼성바이오에피스 지분 15% 확보를 확보했다. 삼성바이오로직스의 유상증자에 일부 참여하는 형태로 2018년 6월 콜옵션 행사 전까지 투입한 금액은 약 558억 원이다. 2018년 6월 콜옵션 행사 당시에는 8044억 원을 들여 삼성바이오에피스 주식 절반(50%-1주)을 확보하고 공동 경영 체제에 돌입했다. 단순 계산할 경우 약 2년 반만에 1조 9611억원 가량의 차익을 확보한 셈이다.이번 지분매입 계약은 바이오젠 측 요청에 의해 이뤄진 것으로 알려졌다. 삼성바이오로직스는 총 계약금 23억 달러 중 특정 조건을 만족할 경우 지급되는 '언 아웃'(Earn -out) 비용 5000만 달러를 제외한 나머지 금액을 향후 2년간 분할 납부하게 된다. 미셸 보나토스 바이오젠 최고경영자(CEO)는 “2012년부터 삼성바이오로직스와 생산적 협업을 지속해 온 데 대해 감사하다”며 “고품질의 바이오의약품을 저렴한 가격에 공급하며 환자들의 접근성을 높이는 바이오시밀러의 가치를 지속적으로 창출해 나가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2022.01.25.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>'핀테크 규제' 누가 풀까… 차기 한국핀테크협회장 3파전</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000778870?sid=105</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>국내 핀테크 기업 344개사가 회원으로 참여하는 한국핀테크산업협회의 제4대 회장 선출이 다음달 17일 진행된다. /사진=머니투데이 국내 핀테크 기업 344개사가 회원으로 참여하는 한국핀테크산업협회의 제4대 회장 선출이 다음달 17일 진행된다. 향후 차기 회장은 핀테크 기업의 전자금융업 진입장벽을 낮추는 전자금융거래법 개정안 처리와 핀테크 관련 규제 완화를 이끌 전망이다.  최대 규모 핀테크 네트워크 기관인 핀테크산업협회는 2016년 금융위원회로부터 사단법인 인가를 받은 민간협회다. 핀테크 산업진흥과 대외협력, 정책 건의, 연구조사사업 등 핀테크산업 전반에 관한 업무를 지원하고 정부·국회 등과의 소통도 도맡고 있다. 초대 회장은 이승건 비바리퍼블리카(토스) 대표, 2대 회장은 김대윤 피플펀드 대표, 3대 회장은 류영준 카카오페이 대표가 역임했다. 4대 회장 후보는 ▲정인영 디셈버앤컴퍼니자산운용 대표 ▲이혜민 핀다 대표 ▲이근주 한국간편결제진흥원장이 도전 중이다. 협회 창립 이래 3파전 선거는 최초다. 1~2대 회장 선거는 각 후보가 단독 출마했고 3대 회장 선거 때는 류영준 현 회장과 신승현 데일리금융그룹 대표가 경쟁했다. 이번 선거는 핀테크업계가 당면한 문제 해결과 미래 청사진 제시가 중요한 관건이다. 이에 차기 회장의 역할은 전금법 개정안 처리와 핀테크 관련 규제 완화가 핵심이다. 현재 업계엔 전자금융거래법 개정안 통과, 본인신용정보관리업(마이데이터) 활성화, 망 분리 이슈, 핀테크업계 규체 해소 등 다양한 과제가 산적하다. 3명 후보 모두 이 같은 내용 등을 핵심 공약으로 내세웠다. 정인영 대표는 2013년 초까지 엔씨소프트에서 투자경영실장으로 근무하다 2013년 디셈버앤컴퍼니를 설립하고 2019년부터 한국핀테크산업협회 부회장을 지냈다. 국민대 비즈니스IT대학원 겸임교수를 거친 뒤 현재 연세대 정보대학원 겸임교수를 맡고 있다. 이혜민 대표는 STX 신사업전략기획실을 거쳐 건강관리 프로그램을 제공하는 '눔코리아', 육아용품 배송서비스 '피플앤코', 화장품 정기배송 '글로시박스' 등을 연쇄 창업한 뒤 2016년 핀다를 설립했다. 이근주 원장은 IBK기업은행 출신으로 기업은행 전산정보부, 뉴욕지점, 국제업무부, 스마트금융부에서 근무했다. 이후 한국핀테크산업협회 사무국장을 거쳤다.4대 회장 후보자들의 공식 선거운동은 지난 19일부터 시작됐다. 다음달 17일 예정된 정기총회에서 회원사 의결을 통해 4대 회장과 부회장, 이사, 감사 등 4대 이사회 임원을 선출한다. 임기는 2년이다. 회장 선거 투표권인 총회 의결권은 전년도 회비를 납부한 회원사에게만 주어진다. 의결권이 있는 정회원의 총 의결권 중 50%는 1사1표, 나머지 50%는 회비 납부 금액에 따라 비례해 산정된다. 가장 많은 의결권을 득표한 후보자가 회장으로 선출된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2022.01.24.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>네이버, 인공지능·검색 분야 세계적 석학 영입</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010961797?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>기사내용 요약미국 MIT 김윤형 교수·럿거스대 이장선 교수 합류▲미국 매사추세츠공과대학(MIT) 김윤형 교수 [서울=뉴시스] 이진영 기자 = 네이버가 인공지능(AI)·검색 분야에서 뛰어난 연구성과를 내며 세계적으로 주목받고 있는 젊은 석학들을 차례로 영입하며 글로벌 기술 경쟁력 제고에 속도를 낸다.네이버는 최근 매사추세츠공과대학(MIT)의 김윤형 교수와 럿거스대학의 칼 스트라토스 교수를 네이버 스칼라(Naver Scholar)로 영입했다고 24일 밝혔다.네이버 스칼라는 미국·유럽 등에 위치한 대학 및 연구기관의 교수와 연구원 등이 소속기관에 재직하면서, 네이버 검색의 미국 내 AI 센터인 네이버 서치 US'에서 차세대 AI 기술 및 검색 서비스 개발을 주도하는 역할을 수행한다. 먼저 김윤형 교수는 미 하버드대학교에서 컴퓨터공학으로 박사학위 취득 후, 현재 미 MIT에서 조교수로 재직 중이다. 김 교수는 지난 2014년 딥러닝 기술의 일환인 컨볼루션 신경망(CNN)기술을 자연어처리(NLP) 분야에 적용한 논문을 단독으로 발표하며 학계 및 AI업계의 이목을 끌었다. 해당 논문은 현재 전세계적으로 1만2000여건 이상 인용되었을 뿐만 아니라, 김 교수가 발표한 Character-Aware 언어모델과 OpenNMT 기계번역 연구는 업계에서도 널리 사용되며 딥러닝 분야의 연구 혁신을 선도하고 있다는 평가를 받고 있다.함께 영입된 미 콜롬비아대학교 컴퓨터과학 박사 출신 칼 스크라토스 교수 역시 AI 분야의 전문가로, 현재 미 럿거스대학교에서 조교수로 재직하며 비지도 학습방법 및 지식사용 모델 개발을 연구하고 있다. ▲미국 럿거스대학 이장선(Karl Stratos) 교수 칼 교수는 자연어처리 분야 탑티어 학회(ACL, ENMLP, NAACL)에서 머신러닝 분야 위원장을 맡으며 국제적인 명성을 얻고 있을 뿐만 아니라, 블룸버그 자연어처리(NLP) 연구팀에서 자연어이해 서비스에 최첨단 딥러닝 기술 도입을 총괄한 실무경험까지 보유한 인재다. 특히 칼 교수는 정보이론의 기반인 상호의존정보의 통계적 이론을 재정립해 정보이론을 바탕으로 하는 수많은 AI 연구 방법론의 근본적인 방향성을 바꾸는 큰 성과를 냈다. 이러한 연구성과를 인정받아 구글 패컬티 리서치 어워드(Google Faculty Research Award 2020) 등 다수의 어워드를 수상한 바 있다. 이번에 영입된 두 교수는 '네이버 서치 US'에서 AI 기술개발을 관장하는 김용범 책임리더와 함께, 네이버 검색 서비스 곳곳에 녹일 차세대 AI 검색 기술 고도화에 집중할 계획이다. 지난 9월 네이버에 합류한 김 책임리더는 마이크로소프트 코타나와 아마존 알렉사의 AI 핵심기술 개발을 총괄한 대화형 인공지능 분야의 세계적인 전문가로 꼽힌다.네이버 서치 CIC 김광현 대표는 "이번 영입을 통해 네이버가 축적한 빅데이터와 기술, 서비스 운영 노하우에 최신 기술지식을 겸비한 인재들의 경험을 더해, 검색경험의 지평을 넓힐 수 있는 혁신적인 서비스를 선보일 것"이라며 "올해도 미국, 유럽 등 글로벌 무대에서 활약하고 있는 우수한 연구인력들을 적극 영입할 계획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2022.01.16.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>"초봉 6000만원, 스톡옵션 1억" 인력난에 치솟는 IT업계 연봉…그런데 워라밸은?</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004909402?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>정보기술(IT) 업계가 '높은 임금' 카드를 꺼내 들고 '개발자 모시기'에 열을 올리고 있다. [사진 출처 = 연합뉴스] 정보기술(IT) 업계가 '높은 임금' 카드를 꺼내 들고 '개발자 모시기'에 열을 올리고 있다.  대표 IT 업종인 게임 업계가 호황이고, 신종 코로나바이러스 증후군(코로나19)로 비대면 서비스 수요가 늘어난 데다 블록체인, 메타버스 등 신기술이 등장하면서 인력이 부족해진 탓이다.취업난에 수요도 많고 연봉도 높아지자 미래 취업인은 컴퓨터 관련 학과에 몰리거나 코딩교육기관의 문을 두드리고 있지만, 개발 직군 종사자 대부분이 시간 외 근무를 하는 것으로 나타나 임금보다 '워라밸(일과 삶의 균형)'에 더 가치를 두는 사람은 업계 진입을 고민해야 할 것으로 보인다 ◆ 잘만 하면 의사보다 더 번다서울권 주요 대학들이 2022학년도 정시 모집을 마감하면서 입시 커뮤니티에는 컴퓨터 관련 전공이 핫한 키워드로 떠올랐다. 이공계열 학과를 지원한 학생 중 성적이 높은 학생들이 대거 몰렸기 때문이다. 서울대의 경우 의예과 경쟁률이 전 년도보다 었지만, 컴퓨터공학부 경쟁률은 3.4:1로 직전년도 경쟁률인 2.58:1보다 큰 폭으로 올랐다. 연세대 컴퓨터학과 역시 지난번 경쟁률이 3.56:1이었지만, 올해 6.23:1로 치솟았다. 처음 모집을 시작한 인공지능학과 경쟁률도 8.17:1에 달했다.대학 외에 개발자를 양성하는 코딩 교육기관도 인기다. 코딩교육 스타트업 '코드스테이츠'가 운영하는 '소프트웨어 엔지니어링 부트캠프'의 작년 지원자 수는 3000여 명이었는데 올해에는 1만여 명이 지원했다. 삼성의 개발자 교육 프로그램 '삼성청년SW아카데미'도 이달 처음으로 한 기수 교육생 수가 1000명이 넘었다. 2018년 12월 이후 세 자릿수 교육생이 입교한 건 처음이다. 특히 작년 말 기준 해당 프로그램을 통해 취업한 수료생 중 34%가 원래 관련 전공자가 아니었다는 걸 고려하면 개발 직군의 인기를 실감할 수 있다.◆ 신입 초봉 5000만 원 선…계속 오름세지난해 3월 잡코리아가 조사한 국내 대기업 267개사의 신입사원 평균연봉은 4121만 원이다. 개발 직군 초봉은 이보다 약간 높은 수준이었지만, 작년 2월 넥슨이 개발 직군 신입 사원 초봉을 5000만 원으로 올리면서 IT 업계 연봉 인상 릴레이가 이어졌다. 중견 게임 기업 크래프톤은 초봉을 6000만 원으로 책정했고, 금융권에서는 카카오뱅크가 전 직원 임금을 평균 1000만 원 올렸고, 토스는 경력자에게 기존 직장 연봉 대비 최대 50% 인상, 1억 원 상당의 스톡옵션을 보장하기도 했다. 한국소프트웨어산업협회가 이달 발표한 리포트를 보면 소프트웨어 기업 1074개에서 근무하는 4만4393명의 소프트웨어 기술자 임금은 월평균 683만5150원인 것으로 나타났다. 연봉으로 치면 8200만 원 수준이다.현재 인재 유치 경쟁이 심해져 기업들은 더 높은 연봉을 제시하거나 포괄임금제·연봉상한선 폐지 등의 카드를 내밀고 있어 개발 직군의 처우는 더 좋아질 것으로 보인다. ◆ 개발자 10명 중 8명 '초과근무'…그래도 1순위는 연봉하지만 높은 임금보다 워라밸에 더 높은 가치를 둔다면 개발 직군이 매력적이지 않을 수도 있다.온라인 설문조사 업체 오픈서베이가 지난달 23일 발표한 '개발자 트렌드 리포트 2021'에 따르면 개발자 10명 중 8명은 초과근무를 하고 있다. 오픈서베이는 국내에서 IT 관련 개발 업무를 맡은 직장인과 프리랜서 348명을 대상으로 설문조사를 진행해 이같이 밝혔다. 리포트에 따르면 개발자의 평균 연봉 추정치는 5700만 원이지만, 그만큼 업무 강도도 높았다. 초과근무에 관한 질문에 답한 응답자 330명 중 80.7%가 근무 시간 외에 추가로 일하고 있다고 답했다. 이중 절반은 일주일 기준 초과근무 시간이 3시간 미만이었지만, 나머지 절반은 3시간이 넘었다. 12시간이 넘는다고 답한 사람도 전체 응답자의 5.7%였다. 근무 시간이 아니어도 응답자의 90.8%가 업무와 관련된 자기계발 활동에 시간을 쓴다고 답했다. 투자 시간은 주 5시간~10시간이 가장 많았고, 3~7년 경력자들이 자기계발에 특히 힘쓰는 것으로 나타났다.다만 취업·이직 시 가장 중요하게 생각하는 요소를 묻는 질문에는 연봉을 1위로 고른 응답자가 전체의 66.7%로 가장 많았다. 워라밸 가능 여부를 1위로 고른 응답자는 34.2%로 2위를 차지했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2022.01.25.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>‘보험 호갱’이 공개한다, 모두에게 절실한 ‘오답 노트’를!</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002576852?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>만기 환급형? 보험은 적금이 아니다‘기본+특약’ 보장 보험료와 달리적립 보험료, 보장서 빠지는 데다납입액 대비 투자 기대가치 낮아가입 초기 보험금 수령 필요할 땐비갱신형보다 갱신형이 나을 수도안녕하세요. &lt;한겨레&gt; 경제산업부 금융팀에서 일하고 있는 노지원 기자입니다. 나이는 30대이고 올해 기자생활 8년 차입니다. 사회초년생은 아니지만 지난해 10월 보험업계를 취재하기 전까지 자동차보험 외에는 스스로 실손의료보험이나 종합건강보험에 가입해 본 적이 없는 ‘보험 초보’임에는 틀림이 없었습니다. 그동안 ‘보험 설계사’로 일하는 엄마 친구의 부탁으로, 은행원의 권유로 종신보험부터 실손, 종합건강, 운전자보험, 방카슈랑스까지 다양한 보험 상품에 가입했었습니다. 하지만 금융 기자로 일한 지 첫 달, 스스로가 ‘보험 호갱’이었다는 점을 깨달았습니다. 이렇게 탄생한 보험 오답 노트가 저와 비슷한 ‘보험 초보’들에게 도움이 됐으면 좋겠습니다. 토스가 소개해 준 보험 ‘전문가’ 만난 썰…“보험료 어마어마하게 내시네요”“보장은 부족한데 보험료는 많은 편이에요.” 간편 송금 서비스 때문에 자주 이용하던 금융 플랫폼 토스가 메시지를 띄웠다. 또래인 30대 여성들이 보험료로 한 달에 평균 15만원을 내는 데 비해 내가 많은 보험료를 내고 있다고 했다.“보험료가 왜 많은지 궁금하세요?” ‘도움받기’ 버튼을 누르자 한 ‘전문가’와의 채팅 상담이 시작됐다. “안녕하세요. 고객님. 보험 전문가 ○○○입니다. 보험 분석을 도와드릴게요”, “보험료를 어마어마하게 내고 계시네요.” 곧바로 전문가한테 전화가 걸려왔다. 나를 직접 만나 나의 보험을 분석해주겠다고 했다.지난해 10월 기자가 토스가 소개해준 보험 전문가와 대화한 내용. 토스 화면 갈무리며칠 뒤 서울 광화문 인근에서 그를 만났다. “가지고 계신 ○○화재 종합, 운전자보험 등 다 합해서 총 보험료를 1억원 이상 내시는 것보다 7000만원은 줄어드는 (새) 플랜입니다. 암도 5000만원 풀로 넣어서요. 7000만원이면 벤츠 한 대 사시겠네요.” ‘전문가’는 기존에 내가 들고 있던 보험의 문제점을 2시간 가까이 지적하며 자신을 통해 새로운 보험 상품에 가입할 것을 넌지시 권했다.잘못된 보험을 왕창 들고 있었다는 생각에 가입했던 보험 대부분을 덜컥 해지했다. ‘전문가’가 권유한 보험 상품 가입도 미뤘다. 또다시 ‘호갱’이 될 수는 없다는 생각에 보험사들과 보험 관련 소비자 단체에 두루 물어 내 보험이 정말 뭐가 문제였는지 확인하기로 했다. 오답 노트 #1: “만기 환급형이라고요?”…‘적립 보험료’는 피하자 매달 내는 보험료는 일반적으로 보장 및 적립 보험료로 구성된다. 보장 보험료란 기본계약 보험료에 특약 비용이 더해진 금액이다. 이 비용으로 보험사는 내가 다치거나 병들었을 때 보험금을 준다. 한편, 적립 보험료는 보장 비용에 포함되지 않고 쌓인다. 만기가 왔을 때 ‘환급금’으로 돌아온다. 보험사는 적립 보험료라는 자산을 운용해 고객에게 돌려주지만 보험사 특성상 자산 운용을 보수적으로 해 수익률은 상당히 낮다.원래 보험은 말 그대로 예기치 못한 불의의 사고를 당해 큰 병원비를 내야 하거나, 출근하지 못해 생활비가 필요할 때를 대비해 드는 금융 상품이다. 자산을 불리기 위한 상품이 아니라 ‘지키기 위한’ 상품이다. 다만 보험 소비자가 ‘맨날 보험금을 내기만 하고 돌려받지 못한다’고 생각하며 불만을 터뜨리자 보험사들이 보험료 가운데 일부를 돌려주려 장치를 만들었다. 그게 만기 환급형 보험이다. 하지만 보험업 감독규정에 따라 보장성 보험의 경우 만기 환급금이 소비자가 낸 보험료 총액보다 많을 수 없다. 곧, 보험 상품을 ‘적금’으로 생각해서는 안 된다는 것이다. 최근 주식, 코인 등 재테크에 관심이 많은 20·30세대라면 적립 보험료는 최대한 줄이고 그 비용으로 은행 적금, 펀드에 가입하는 등 투자를 하는 것이 더 나을 수 있다. 한 손해보험사 관계자조차도 “젊은 사람 입장에서는 적립을 많이 넣을 필요가 없다”며 “보장이 더 중요하다”고 말했다. 보험 설계사가 ‘만기 환급형’이라고 하면서 적립형 보험 상품을 권할 수 있는데, 이때 꼼꼼히 따져보자. 적립이 없는 ‘순수 보장형 상품’을 택하는 것이 더 유리할 수 있다.클립아트코리아 오답 노트 #2: 갱신형? 비갱신형?…뭘 선택해야 하는 걸까?보험 담보는 기본적으로 ‘비갱신형’, ‘갱신형’으로 구성돼 있다. 비갱신형 담보의 보험료는 고객이 처음에 가입할 때 금액 그대로 쭉 납부 만기까지 간다. 갱신형은 갱신 시점이 돌아오면 보험료가 변한다. 예컨대 ‘3년 갱신, 72년 납부, 100살 만기’라고 하면 72년 동안 3년 주기로 보험이 갱신되며 보장은 100살까지라는 뜻이다. 해당 보험사 고객들이 보험금을 많이 타서 손해율이 많이 나면 갱신형 보험료가 올라가고 그렇지 않으면 낮아진다. 일반적으로 보험료는 오르는 추세다. 특히 질병 위험률은 나이에 따라 더 높아지기 때문에 질병 담보의 보험료는 연령이 높아짐에 따라 오를 가능성 크다.얼핏 보면 갱신형보다 비갱신형이 좋을 것 같지만 꼭 그렇지만은 않다. 갱신형 담보는 일단 매월 내야 하는 보험료가 싼 편이다. 보험료가 매년 오르겠지만 비갱신형 담보의 초기 비용이 상대적으로 갱신형보다 높게 설정되는 것과 비교하면 결과적으로 비슷할 수도 있다. 오히려 보험에 가입한 지 얼마 지나지 않아 상해, 질병으로 병원 신세를 지게 됐을 경우 낸 돈에 비해 지급되는 보험금이 더 많을 테니 이 경우 비용이 더 저렴한 갱신형이 더 유리할 수 있다. 물론 내가 언제 다치고, 아플지는 알 수 없기 때문에 스스로 판단해보고 선택해야 한다.반대로 조금 비싸더라도 매년 보험료가 바뀌는 등 변동성을 차단하고 싶다면 비갱신형이 낫다. 은행 금리로 따지면 변동금리냐, 고정금리냐의 문제와 비슷하다.오답 노트 #3: 시시각각 변하는 ‘보장 범위’…담보 더하기 빼기 하자2016년 2월께 당시 28살이었던 내가 가입한 한 손해보험사 종합건강보험 상품의 담보 중에는 ‘뇌출혈 진단비’, ‘급성심근경색증 진단비’가 포함돼 있었다. 이 담보에는 문제가 있다. 뇌혈관, 심장혈관질환에 대한 보장 범위가 가장 심각한 상태인 뇌출혈, 급성심근경색으로 매우 좁게 설정돼 있다는 것이다. 해당 보험 계약대로라면 내가 뇌혈관이나 심혈관 쪽에 문제가 생기더라도 뇌혈관이 터지거나(출혈), 심혈관이 막히는(심근경색) 지경이 아니라면 보험금을 받을 수 없다. 최근 의료 기술이 발전하고 그에 따라 보장 범위도 달라지면서 불과 몇 년 전보다 광범위하게 보장되는 상품이 나오고 있다. 혹시 자기가 꽤 오래전 가입한 보험의 암, 뇌혈관, 심장혈관질환의 보장 범위가 좁다면 보험 설계사나 보험사에 전화를 걸어 이를 대체할 담보가 나온 것이 있는지를 알아볼 수 있다. 더 나은 담보가 있다면 기존 보험에서 해당 담보를 빼고 새로 필요한 담보를 포함한 보험 상품에 가입하는 것이 방법이 될 수 있다. 보험다모아 애플리케이션 화면 갈무리뇌혈관질환은 심각성에 따라 뇌혈관질환→뇌경색→뇌출혈 순으로 나뉘는데, 보험 담보는 가능한 한 가장 넓은 범위인 뇌혈관질환부터 보장되는 게 좋다. 심장질환도 마찬가지다. 심장질환의 경우 허혈성→협심증→급성심근경색 순으로 상태가 심각하다. 이왕이면 허혈성 심장질환부터 보장이 들어가는 담보가 소비자에게 유리하다. 건강보험에 필수적으로 포함되는 암, 심장, 뇌혈관질환 외에 다른 담보도 마찬가지로 틈나는 대로 보장 범위의 변화를 따져보는 것이 손해를 줄이는 방법이다. 보험의 본질은 ‘보장’이다. 해당 상품이 미래에 대한 나의 걱정을 제대로 덜어줄 수 있는지 소비자 스스로 잘 따져야 한다. 오답 노트 #4: 꼭 보험 하나 들고 싶다면…‘실손’ 하나만 제대로 챙겨보자홧김에 기존에 든 실손을 포함한 모든 보험을 해지한 뒤 딱 한 번 후회한 순간이 있었다. 피부 질환으로 병원에 갔는데 진료비는 건강보험으로 단 몇천 원에 그쳤지만, 의사는 빠르게 치료하고 싶다면 레이저 시술을 받으라고 권했다. 레이저 시술은 건보 비급여 항목으로 값이 4만∼5만원에 달했다. 써야하는 치료제도 비급여로 하나에 5만원 정도로 비쌌다. ‘내가 실손을 하나 유지했더라면 상당 부분은 실손 보험금 청구를 할 수 있었을 텐데’ 하는 아쉬움이 들었다. 국민건강보험이 보장해주지 않은 급여 자기부담금 및 비급여 항목에 대한 보장을 받고 싶을 때 실손보험이 필요하다.예컨대 현재 국민건강보험이 암 치료비의 90%를 보장해준다고 하더라도 병원에서 신기술을 활용한 치료를 받으려 할 경우 비급여 항목에 해당할 가능성이 있다. 자신이 비급여 항목 진료를 거의 받지 않고, 혹시 나중에 받더라도 평소 내는 보험료를 모아 감당할 수 있다고 생각한다면 굳이 실손에 가입할 필요가 없다. 하지만 그렇지 않다면 실손만이라도 가입해 치료방법 선택지를 넓혀두는 것도 방법이다. 현재 가입할 수 있는 실손보험은 4세대 보험으로 1∼3세대보다는 건강보험 자기 부담금이 급여 20%, 비급여 30%로 상대적으로 높긴 하지만 보험료가 상대적으로 저렴하고 실제 병원에 잘 가지 않는 사람의 경우 보험료가 내려가는 등의 장점이 있다.클립아트코리아실손보험은 굳이 설계사를 통해 가입할 필요가 없다. 손해보험협회가 운영하는 ‘보험다모아’라는 애플리케이션으로 자신에게 적합한 실손의료보험 상품 가격을 비교해본 뒤 해당 보험사 홈페이지에서 다이렉트로 가입할 수 있다. 30대 여성인 내가 조회해보니 최소 9000원대에서 최대 1만2000원대까지 대략 1만 원짜리 상품들에 대해 안내받을 수 있었다.다만 이때 보험사를 고르는 팁은 조금 더 발품을 팔아 보험사의 ‘손해율’을 따져보는 것이다. 보험사의 손해율, 곧 고객들이 보험금을 많이 타 보험사에 손해가 발생하는 비율이 높을 경우 갱신 때 보험료가 확 오를 수 있기 때문이다. 보험사의 손해율은 손해보험협회나 생명보험협회의 ‘보험료 인상률 및 손해율 공시’에서 최근 3년 동안 손해율을 체크해보자. 손해율이 100%에 못 미칠수록 손해율이 낮은 것이고 100%를 많이 넘어설수록 손해율이 높아 갱신 때 보험료가 크게 오를 우려가 있다. 오답 노트 #5: 운전자보험, 꼭 가입해야 할까?…자동차 보험 법률지원 특약도 방법 운전자라면 매년 반드시 가입해야 하는 자동차 보험과 달리 ‘운전자보험’은 의무가 아닌 선택사항이다. 자동차 보험이 사고에 따른 대물, 대인에 대한 민사적 배상에 대해 보장을 해준다면, 운전자보험은 자동차 사고로 인한 형사적 책임, 곧 벌금이나 형사합의지원금, 변호사 선임비용 등을 보장해준다는 점에서 다르다. 운전자가 음주운전, 신호위반, 중앙선 침범, 과속, 어린이보호구역 안전운전 의무 위반 등 12대 중과실을 범해 피해자가 발생한 경우 형사적 처벌을 받는데 이때 운전자보험이 각종 비용을 보장해준다.나의 경우 기존 종합건강보험에 교통사고처리지원금, 자동차 사고 변호사 선임비용이 이미 포함돼 있었음에도 매월 3만원씩(적립 보험료가 2만원) 내는 별도의 운전자보험을 5년 동안이나 유지하고 있었다. 다시 보험을 설계해본다면 대안으로는 1만 원짜리 운전자보험에 가입하는 방법이 있다. 적립 보험료를 싹 빼고 기본 보험료에 필요한 특약만 넣어 최저가로 구성하면 부담을 줄이면서도 보장을 받을 수 있어 좋다.매월 1만원이라도 부담된다면 매년 가입하는 자동차 보험에 ‘법률 비용 지원’ 특약을 넣는 방법이 있다. 기존 운전자보험보다 보장 범위가 작을 수 있지만 보장 범위가 넓은 특약을 선택할 경우 어느 정도 보완이 되고 이 경우에도 보험료 부담을 단 몇만 원으로 줄일 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2022.01.27.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>온라인 쇼핑몰 제작 아임웹, 22년 1월 아임웹 이용 커머스 누적 거래액 1조 7천억 돌파</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004779524?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>자사몰 제작을 통한 기업만의 아이덴티티 구축  온라인 쇼핑몰 제작 전문 기업 ㈜아임웹이 22년 1월 아임웹 이용 커머스의 누적 거래액 1조 7천억을 돌파했다고 밝혔다. 이는 올해 1월 대비 12월 거래액이 약 30% 가까이 성장한 수치이다.   아임웹의 성장 주요 원인은 소규모 브랜드도 쉽게 자사몰을 제작하고 운영할 수 있는 서비스를 제공한다는 점이다. 아임웹 서비스를 통해 소규모 브랜드는 자사몰로 직접 고객을 유입시키고, 고객 회원 정보 및 거래 정보 등을 토대로 맞춤형 브랜드 경험을 제공한다.   특히 자사몰 구축은 상품의 최초 노출부터 고객이 상품을 전달받는 전 과정에 걸쳐 브랜드만의 아이덴티티를 구축할 수 있다는 점에서 좋은 선택지로 주목받고 있다.   고객들을 위한 업데이트도 큰 호응을 얻었다. 고객들의 요청을 바탕으로 특정 기간을 정해두고 판매가를 할인하는 기간 할인, 즉시 할인 등의 업데이트를 진행, 주문/배송 관리 과정에서 자동 송장 출력 기능을 도입하여 고객들의 업무량을 줄였다.   이외에도 아임웹 이용 커머스들이 안정적인 매출을 기반으로 성장할 수 있도록 정기구독 기능을 론칭했다. 소상공인 고객이 별도 결제 인프라 없이 손쉽게 정기 구독 서비스를 이용할 수 있도록 지원하며, 고객사 자사몰 내 카카오, 네이버, 토스 등 민간 인증서로 손쉽게 본인인증을 거칠 수 있는 기능도 추가로 선보였다.   아임웹 관계자는 "최근 코로나19 비대면 이후 언택트 소비행태가 가속화되면서 온라인 플랫폼을 통한 상품의 유통이 증가했다. 하지만 소규모 사업자들에게는 플랫폼의 높은 이용료가 부담스러웠을 것이다. 이들은 가격 경쟁력을 키우기 위해 중간 유통 과정을 줄여야 했으며 이로 인해 D2C 쇼핑몰의 수요가 자연스럽게 증가했다"라고 전했다.   이어 "소규모 브랜드가 대형 플랫폼에 입점하여 상품을 판매할 경우, 고객 정보가 플랫폼사의 정보로 인식되기에 고객들에게 맞춤화된 콘텐츠와 혜택을 제공하기 어렵다. 하지만 아임웹은 특별한 전문지식 없이도 누구나 쇼핑몰을 제작할 수 있기에 자본력과 전문 지식이 부족한 소규모 사업자들이 D2C 쇼핑몰 제작에 많은 도움을 받을 수 있고, 자사의 쇼핑몰로 유입된 고객의 정보를 직접 관리하면서 자사 브랜드만의 고객 경험을 자체적으로 구상할 수 있다”라고 덧붙였다.   아임웹은 소규모 브랜드가 그들의 고객들에게 차별화된 브랜드만의 경험을 제공하고, 서비스를 확장할 수 있는 발판을 마련하는 데 있어 지속적인 도움을 제공할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2022.01.17.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>글로벌제약사도 군침흘리는 바이오시밀러…국내기업에 기회 왜?</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004697231?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>[바이오젠·오가논 등 CEO "사업 지속 성장"글로벌 바이오시밀러 시장, 2030년 89조 전망]암젠이나 바이오젠, 오가논 등 글로벌 제약사들이 '바이오시밀러(바이오의약품 복제약)' 시장을 적극적으로 공략하겠단 전략을 잇따라 내놓고 있다. 바이오시밀러 시장의 경쟁이 치열해지고 있지만 고성장이 이어질 가능성이 높다고 판단, 글로벌 판매망을 앞세워 영향력을 키우려는 의도로 풀이된다.  시장이 확대되면 삼성바이오에피스 같이 바이오시밀러 제품을 개발해 보유한 기업이나, 설트리온 처럼 바이오시밀러 사업을 하는 기업에겐 오히려 기회가 될 것이란 전망도 나온다.━암젠 CEO "바이오시밀러, 장기적 성장 기여 기대"━케빈 알리(Kevin Ali) 오가논 최고경영자(CEO)는 최근 열린 'JP모건 헬스케어 콘퍼런스'에서 "자사는 (현 상황을) 바이오시밀러 사업을 지속 확장할 수 있는 기회로 보고 있다"고 말했다. 오가논은 지난해 여성건강 중심 헬스케어 및 바이오시밀러 판매 사업에 주력하기 위해 다국적 제약사 미국 머크에서 분사된 기업이다. 삼성바이오에피스 자가면역질환 치료제 3종을 유럽·한국 외 글로벌 시장, 항암제 2종을 한국 외 글로벌 시장에 판매하는 기업이기도 하다.삼성바이오에피스의 또 다른 파트너사 바이오젠도 이번 행사에서 바이오시밀러 사업을 적극 키우겠다는 의지를 드러냈다. 미셀 보나토스(Michel Vounatsos) 바이오젠 CEO는 "미국과 같은 새로운 시장에 진출하면서 우리 바이오시밀러 사업을 계속 성장시킬 수 있다고 본다"고 말했다. 바이오젠은 삼성바이오에피스 자가면역질환 치료제 등 TNF알파 억제제(염증 원인 물질 차단) 바이오시밀러 판매로 지난해 유럽에서만 8억달러(9539억원) 수익을 올린 바 있다. 로버트 브래드웨이(Robert Bradway) 암젠 CEO는 바이오시밀러 사업을 "장기적인 성장에 기여할 것으로 기대된다"고 평가했다. 그는 "자사는 5개 바이오시밀러를 출시했고 2021년 첫 9개월 동안 연 20억달러(2조3844억원) 매출을 올렸다"며 "2030년까지 바이오시밀러 사업에서 지난해 매출 두 배 이상을 달성할 수 있을 것으로 예상한다"고 강조했다. 세 회사는 바이오시밀러 시장 내 보폭을 지속 확대해나갈 예정이다. 바이오젠은 올해 중순 삼성바이오에피스의 루센티스 바이오시밀러 '바이우비즈'를 미국에 선보인다. 루센티스는 황반변성 등 안과질환 치료제로 2020년 글로벌 매출이 4조원이다. 암젠은 내년 1월 휴미라 바이오시밀러 '암젠비타'를 미국에 출시한다. 휴미라는 자가면역질환 치료제로 글로벌 매출 20조원이 넘는다. 오가논도 내년 하반기 삼성바이오에피스가 개발한 휴미라 바이오시밀러 '하드리마'를 미국에 선보일 예정이다. ━"바이오시밀러, 2020년부터 10년간 연평균 15% ↑"━이들이 바이오시밀러 사업에 힘을 주는 건 성장 기회가 여전히 크다고 판단했기 때문이다. 의약품 시장조사 기업 아이큐비아에 따르면 글로벌 바이오시밀러 시장 규모는 2015년부터 연평균 78% 성장해 2020년 180억달러(21조4650억원)가 됐다. 아이큐비아는 오는 2030년에도 바이오시밀러 시장이 연평균 15% 성장해 750억달러(89조4525억원)가 될 것으로 전망했다. 이는 바이오시밀러가 오리지널 약과 성분이 유사하나 가격은 50~80%가량 저렴한 강점이 있어서다. 삼성바이오에피스 관계자는 "효과가 동일하면 가격 경쟁력이 좋은 제품을 선택한다"고 전했다. 실제 미국 의료분야 투자전문 금융기관 SVB리링크(Leerink)도 보고서를 통해 글로벌 제약사 BMS, 암젠, 화이자는 2030년까지 각 기업 예상 총 매출액의 47%, 29%, 28%가 제네릭과 바이오시밀러에 잠식당할 것이라 예상했다. 이에 암젠은 되레 바이오시밀러를 신성장 동력으로 키우고 있다. 바이오사 관계자는 "작년 말부터 셀트리온, 셀트리온헬스케어(셀트리온 제품 해외 판매사) 목표주가가 낮아지는 등 국내에서 바이오시밀러 사업 성장성에 대한 우려가 나왔지만 글로벌 제약사들이 바이오시밀러 시장을 먹거리로 주목하는 건 시장 자체는 매력적이라는 것"이라며 "이렇게 되면 중장기적으로 바이오시밀러를 잘하는 대형기업 위주로 시장이 재편될 수 있다. 글로벌 플레이어로 손꼽히는 삼성바이오에피스, 셀트리온 등 국내기업들에도 기회가 될 것"이라고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2022.01.28.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>“한미약품, 작년 4분기 실적 추정치 웃돌아…올해도 성장 지속”</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004658310?sid=105</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>증권가 분석한미약품이 작년 4분기에 시장 예상치(컨센서스)를 웃도는 실적을 냈다. 28일 증권가는 올해도 이 같은 호실적이 이어질 것으로 전망했다.한미약품은 연결 재무제표 기준으로 2021년 4분기에 매출 3533억원과 영업이익 447억원을 기록했다. 전년 동기 대비 27.4%와 6.7% 늘었다. 매출과 영업이익 모두 컨센서스(매출 3093억원, 영업이익 330억원)를 웃도는 수치다. 하나금융투자는 신약 후보물질 기술이전에 따른 기술료 유입과 자회사 북경한미약품 매출 증가 등이 호실적을 이끌었다고 분석했다.박재경 연구원은 “앱토스 바이오사이언시스에 기술이전한 ‘FLT3·SYK’ 저해제 ‘HM43239’에 대한 계약금 1250만달러(약 150억원)가 작년 4분기 매출로 인식됐다”며 “중국 에퍼메드 테라퓨틱스로의 안질환 신약 ‘루미네이트’ 판권 이전에 따른 계약금 600만달러(약 72억원)도 포함됐다”고 말했다. 북경한미는 계절적 성수기에 진입하며 매출 804억원, 영업이익 198억원을 기록했다. 각각 전년 동기 대비 15.8%와 3.8% 증가한 수치다.올해도 호실적은 지속될 것이란 예상이다. 키움증권은 올해 한미약품이 매출 1조3184억원, 영업이익 1307억원으로 각각 전년 대비 9%와 3% 증가할 것으로 추정했다.북경한미의 성장이 긍정적 영향을 줄 것으로 봤다. 허혜민 연구원은 “북경한미가 자동화 설비를 갖추면서 생산효율을 높인데다, ‘이탄징’과 ‘이안핑’ 등 신제품 매출이 고성장할 것”이라고 했다. 2022년 북경한미가 전년 대비 각각 24%와 23% 증가한 매출 3583억원, 영업이익 821억원을 기록하며 한미약품의 성장을 이끌 것이란 예상이다.허 연구원은 “북경한미는 또 올 4분기께 고혈압 치료제 ‘아모잘탄’을 기존 호흡기 질환 및 어린이 의약품에서부터 장기 처방이 가능한 성인용 시장까지 중국에 확대 출시할 계획”이라고 덧붙였다.한미약품의 주요 신약 ‘롤론티스’와 ‘포지오티닙’의 출시도 기대했다. 모두 미국 식품의약국(FDA)으로부터 시판허가 승인 결정을 앞두고 있기 때문이다. 먹는(경구용) 항암신약 ‘오락솔’은 영국 의약품건강관리제품규제청(MHRA)의 승인을 기다리고 있다. 허 연구원은 “지난해 받은 롤론티스 최종보완요구서(CRL) 관련 서류 준비가 완료돼 올 1분기 바이오의약품 품목허가(BLA)를 재신청할 것으로 보인다”며 “포지오티닙은 신약시판허가를 신청해 올 상반기에 결과가 나올 것으로 예상된다”고 했다. 오락솔 또한 MHRA로부터 ILAP(Innovative Licensing and Access Pathway)로 지정받으면서, 영국 상용화 가능성이 커졌다는 판단이다.연내 발표될 예정인 비알콜성지방간염(NASH) 치료제 후보물질 ‘HM12525A’와 ‘HM15211’의 임상 결과에도 주목할 필요가 있다는 분석이다.  김태희 KB증권 연구원은 “올해 미국 머크(MSD)에 기술이전된 HM12525A의 미국 임상 2상 완료 및 HM15211의 미국 임상 2b상 중간결과 발표가 예정돼 있다”고 전했다. 임윤진 대신증권 연구원은 “NASH는 아직 표준치료제가 없는 질환으로, 긍정적 임상 결과 발표 시 후보물질(파이프라인) 가치 재평가 및 신규 기술이전 기회 확대도 가능하다”고 했다.위탁생산(CMO) 사업도 실적에 기여할 것으로 기대된다. 박병국 NH투자증권 연구원은 “엔지켐생명과학과의 코로나19 백신 원액 위탁생산, MSD의 경구용 코로나19 치료제 국제의약품특허풀(MPP) 제조 승인 등도 힘을 보탤 것”이라고 전망했다. 이도희 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2022.01.27.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>"벤처시장 커지려면 중견·중기 투자 늘려야"</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004013292?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>◆지성배 벤처캐피탈협회장공적 연기금 위주 벤처투자 시장서민간자본 키워야 한단계 도약 가능중견사·스타트업 윈윈모델 만들고IPO규제 완화해야 벤처시장 활성화[서울경제] "제2의 쿠팡, 배달의민족을 만들기 위해선 국내 중견·중소기업의 벤처투자 시장 참여가 필수입니다"지성배(사진) 한국벤처캐피탈협회 회장은 최근 서울경제와 만나 현재 공적기금 중심인 벤처투자 시장에 민간 자본 역할의 중요성을 강조했다.지 회장은 2000년부터 국내 벤처투자사 IMM인베스트에서 대표로 재직하다 지난해 2월 협회 회장(겸임)직에 취임했다.벤처투자 시장은 매년 빠르게 성장하고 있다. 신종 코로나바이러스 감염증(코로나19)이 시작된 2020년 벤처투자 시장은 6조원 규모로 사상 최고치를 기록했다. 지 회장은 "지난해 벤처캐피탈뿐 아니라 증권사, 자산운용사의 투자까지 합하면 벤처투자 시장은 10조원 이상이 될 수 있다"고 말했다.하지만 아직까지 벤처펀드 출자의 상당 부분은 국민연금과 같은 연기금과 공제회, 금융기관이 담당하고 있다. 대기업이나 중견·중소기업 대학 등 민간 영역은 국내 경제 규모에 비해 투자 규모가 아직 부족하다는 평가다.지 회장은 "현재까지 '벤처붐'을 만든 것은 공적 연기금의 역할이 크다"며 "여기서 한 단계 더 성장하기 위해선 민간 자본의 역할이 있어야 한다"고 주장했다. 빠르게 커가는 벤처 시장과 달리 국내 자본시장은 상대적인 속도가 느리다. 국내 투자자들이 투자를 검토할 동안 외국계 기관투자가가 이미 좋은 스타트업에 투자해 선점한다. 실제 쿠팡, 배달의민족, 토스, 야놀자, 마켓컬리와 같은 기업들은 유니콘(기업가치 1조원 이상 비상장사)으로 등극하기 전후 해외 기관들의 대규모 투자를 받았다. 국내 유니콘의 주요 주주 대부분 해외 자본인 이유에 대해 지 회장은 “아직 벤처투자 시장에 1조원 안팎의 펀드가 많지 않기 때문”이라고 설명했다.실제 중견·중소기업들은 보유 현금을 운용할 때 아직까지 보수적인 관점으로 주식이나 채권에 투자하는 경우가 많다. 지 회장은 "중소·중견기업의 유휴자금을 효율적으로 운용 하기 위해 중견기업연합회나 중기중앙회와 의사소통 하고 있다"고 설명했다.단순 투자뿐 아니라 사업 협력 관점에서 중견기업과 스타트업 간 함께 ‘윈윈’할 수 있는 사례도 있을 수 있다고 지 회장은 말했다. 실제 휴대폰 케이스 제조사인 인탑스는 최근 서빙 로봇 스타트업 베어로보틱스와 손잡고 로봇 위탁 제조를 맡았다. 베어로보틱스는 일본의 소프트뱅크의 투자를 받으며 글로벌 시장에 서빙로봇 공급을 확대하고 있다. 휴대폰 케이스 제조뿐 아니라 수십년 간 제조 노하우를 바탕으로 신규 로봇 사업에도 진출한 것이다.중견 건설사 우미건설도 프롭테크 분야 유니콘인 직방과 손잡고 브리즈인베스트먼트라는 투자사도 설립했다. 우미건설은 직방과 함께 부동산 분야 신기술 기업을 찾고 기존 건설업에 시너지를 낸다는 전략이다.지 회장은 벤처 시장이 커지기 위해선 기업공개(IPO)에 대한 규제도 더 완화돼야 한다고 주장했다. 그는 "현실적으로 벤처투자 시장에서 투자자들이 자금을 회수할 수 있는 방안은 IPO 밖에 없다"며 "최근 상장 문턱이 높아지면서 벤처투자 시장도 영향을 받고 있다"고 설명했다. 이어 "상장은 자유롭게 해주고 유지 조건을 까다롭게 하면 피해받는 투자자도 줄일 수 있다고 생각한다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2022.01.28.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>시니스트, 어댑터토큰 BTCEX 거래소 상장…사업 확장 가속화</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004915505?sid=105</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>어댑터토큰(ADP)이 글로벌 가상자산 거래소 ‘BTCEX’에 28일 오후 12시(한국시간)에 상장했다.‘BTCEX’거래소의 운영 회사인 ‘BTCEX Exchange Limited’는 캐나다 온타리오(Ontario)주에 소재해 있다.외환, 송금, 가상자산 금융거래에 대해 캐나다 MSB금융 라이선스를 취득했다. NGC벤처스, FBG 캐피탈, YBB, GBIC, 크립토스 리서치 등 유명 에이전시로부터 투자 유치에 성공했다.  ‘BTCEX’거래소는 현물 및 파생 상품 모두를 포함한 거래서비스를 제공하며 결합 마진으로 USDT 결제 옵션을 제공하는 세계 최초의 파생 상품 거래소다. 신용카드 지불 서비스, 카피 트레이딩 등의 기능이 타 거래소와의 차별점으로 꼽힌다.시니스트는 블록체인(BlockChain), 핀테크(Fintech), NFT(Non-Fungible Token), P2E(Play to Earn), R2E(Read to Earn), K-POP, 한류(K-WAVE), K-GAME, K-BEAUTY 등 다양한 콘텐츠를 통해 ‘어댑터 블록체인 생태계’를 확장시켜 나가고 있다.어댑터리미티드(ADAPPTER Limited.)의 Co-Founder인 김효상 대표는 “콘텐츠 리워드 플랫폼인 어댑터 생태계를 기반으로 계획했던 프로젝트들이 하나하나 준비를 마쳤다. 조만간 어댑터를 응원했던 홀더들에게 좋은 소식을 전하겠다”라고 밝혔다. 이어 “지난 1월 22일 글로벌 거래소인 MEXC Global 거래소 상장 후 BTCEX에 상장을 이어가며 올해 여러 유수의 글로벌 거래소에 상장할 계획이다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2022.01.31.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>아이폰 '마스크 잠금해제' iOS 15.4 베타, 설치 전 반드시 알아야 할 4가지</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002118087?sid=105</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>사진 출처: @joseadorno 트위터[디지털데일리 신제인 기자] 최근 애플이 iOS 15.4 베타 테스트 버전을 배포했다. 여기에는 잘 알려진 ▲마스크 페이스ID 인식 이외에도, ▲유니버셜 컨트롤 ▲이모지 (경례하는 얼굴, 깨문 입술, 엑스레이 등) ▲듀얼센스 적응형 트리거 ▲아이클라우드 키체인 메모 ▲애플카드 위젯 ▲EU 코로나19 인증서 기능 등이 새로 추가된다. 전에 없던 유용한 기능들에 네티즌들은 온라인에서 베타 테스트 버전 설치를 인증하고 설치 방법을 공유하고 있다. 그러나 베타 테스트 설치 전 반드시 알아 두어야 할 몇 가지가 있다.  첫째, 부작용을 인지하고 사전에 백업을 해야 한다.이는 애플 홈페이지에서도 설명하고 있는 사항이다. 베타 테스트 버전은 아직 상업적으로 출시한 소프트웨어가 아니므로 오류가 있거나 부정확할 수 있다. 즉, 만약에 대비해 언제든 기기를 초기화할 수 있어야 한다는 것이다. 애플은 설치 전 타임머신을 사용한 백업을 권고하고 있다. 또 심각한 경우에는 복구 및 사용이 전혀 불가능한 ‘벽돌’ 상태가 될 수도 있기 때문에, 생산용 기기가 아닌 업무상 중요하지 않은 보조 기기에 설치하는 편이 좋다. 둘째, 베타 서비스는 일반인과 개발자에게 차등 적용된다.몇 차례 인증을 거친 뒤 1년에 299달러인 멤버십 비용을 결제하면, 애플에 개발자 계정으로 등록이 가능하다. 애플에 따르면, 일반인에게 제공되는 베타 테스트 버전은 이들에게 제공되는 것과 차이가 있을 수 있다. 애플은 개발자의 경우 개발자 프로그램을 통해 추가 리소스를 사용하는 것이 유용하다고 권고한다. A/S 서비스도 다르게 적용된다. 애플 홈페이지는 ‘공개 베타 소프트웨어를 설치해도 하드웨어 보증은 유지된다’고 고지하고 있으나, 베타 테스트 버전 설치로 인한 문제는 하드웨어 문제가 아니다. 사실상 배타 테스트 버전으로 인한 소프트웨어 문제에 A/S는 불가능하다는 것이다. 또, 이번 iOS 15.4 베타서비스는 개발자 전용인 만큼 공개 베타 버전보다도 안정성이 떨어진다. 실제로 한 애플 공식 서비스센터 관계자는 개발자가 아닌 이가 베타 테스트 버전을 설치해 기기 문제가 발생했을 경우 공식 서비스센터에서 A/S가 불가능하다고 답했다. 특별한 경우가 아닌 이상 베타 버전 사용을 추천하지 않는다고도 덧붙였다. 셋째, 기능 사용이 불가능한 어플이 있을 수 있다. 베타 버전을 설치하고자 하는 이들이 가장 기대하는 기능은 단연 마스크 페이스 ID일 것이다. 그러나 이 기능 사용이 불가능한 어플도 있는 것으로 전해졌다. 대표적으로 카카오뱅크다. 물론 토스 등 타사 어플을 이용하면 카카오뱅크 입출금이 가능하긴 하지만, 이처럼 직접적인 사용이 불가능한 어플이 있을 수 있음은 염두에 두어야 하겠다. 넷째, 이후 베타 버전 삭제 시 기기 초기화가 필요하다. 베타 버전을 삭제하고 이전의 OS를 사용하기 위해서는 기기 초기화를 거쳐야 한다. 애플은 기기를 초기화 한 다음 베타버전을 설치하기 전에 생성한 백업으로 기기를 복원한 뒤 정식 버전을 다운받으라고 안내하고 있다. 베타버전 설치 전 반드시 백업을 해야 하는 이유가 한 가지 더 늘어난 셈이다. 이르면 다음달 iOS 15.4의 정식 버전이 배포된다. 위의 부작용 및 주의사항에 배타 버전 설치가 꺼려진다면, 정식 업데이트를 기다리는 것도 답일 수 있다. 참고로, 마스크 페이스ID 인식 기능은 아이폰 12 버전 이상에서만 가능할 것으로 알려졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2022.01.23.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>토스증권 연이은 유상증자...증권가 `메기` 역할 준비중</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002717249?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>토스증권 홈페이지    토스증권이 연이은 유상증자로 덩치를 키우며 '증권 메기'로 거듭날 준비를 하고 있다. 지난해 12월말 기준 400만명이 넘는 가입자를 확보한 토스증권은 올해 AI(인공지능) 자산관리 서비스를 추진하며 기존 증권사들과의 경쟁을 예고했다. 카카오페이발 악재에 발목을 잡힌 카카오페이증권을 앞지를 가능성도 커졌다. 핀테크 증권사라는 공통점으로 묶인 토스증권과 카카오페이증권은 출범 당시부터 증권업계의 판도를 뒤바꿀 '메기' 역할을 할 것으로 기대됐다.지난해에만 9차례 총 1120억원 규모의 유상증자를 실시했던 토스증권은 지난 17일 250억원 규모의 유상증자를 결정했다. 이번 유상증자는 주주배정증자 방식으로 이뤄지며 조달된 자금은 모두 운영자금으로 쓰인다. 금융투자협회 공시에 따르면 신주 발행가액은 3만3000원으로, 주당 발행가액을 액면가보다 560% 할증해 발행한다. 토스증권은 지난해 상반기까지 액면가 5000원으로 신주를 발행했으나, 지난해 8월부터 실시한 유상증자에서는 기업가치 평가를 통해 주당 발행가액을 할증했다. 이를 통해 측정된 토스증권의 기업가치는 8000억원에 달한다. 시가총액 7655억원(지난 21일 종가 기준)의 유안타증권과 비슷한 규모로, 중형 증권사인 SK증권(4258억원), 교보증권(5166억원)의 시가총액을 웃도는 수준이다. 유증을 통해 실탄을 끌어모은 토스증권은 지난달 해외주식 서비스를 시작한 데 이어 올해 AI 로보어드바이저 기반의 자산관리 서비스 출시를 준비하는 등 서비스 확장에 집중하고 있다. 증권업계가 마이데이터 사업을 본격적으로 시작하면서 AI를 활용한 '디지털금융'에 열 올리는 상황에서 치열한 선두 경쟁이 예상된다. 실제로 키움증권은 지난해 말 AI투자솔루션 '키우GO'를 선보였고, KB증권과 현대차증권도 각각 AI 자산관리 플랫폼 기업 디뉴로, 로보어드바이저 기업 파운트와 업무협약을 체결하고 서비스 개발을 추진 중이다.다만 토스증권은 아직까지 투자 및 자본확충에 집중하는 단계다. 기존 증권사를 긴장하게 할 '증권 메기'가 되기까지 안정적인 수익 창출이라는 과제가 남은 셈이다. 토스증권의 영업수익(매출액)은 지난해 1분기 3946만원에서 지난해 3분기 영업수익 34억6324만원으로 급격하게 증가하는 추세다. 다만 영업손실 또한 지난해 1분기 73억7019만원에서 지난해 3분기 628억7901만원으로 급증했다.이와 관련 토스증권 관계자는 "구체적인 흑자전환 시기를 밝히기는 어렵지만 해외주식서비스 성과에 따라 향후 흑자전환이나 수익확대 등이 정해질 것"이라며 "현재는 신규 라이선스 취득 등을 계획하고 있지 않은 만큼 대규모 이벤트 및 채용, 장비 확보 등 필요에 따라 운영자금을 유상증자할 계획"이라고 전했다. 이어 "AI 자산관리 서비스는 올해 상반기를 목표로 준비 중"이라며 "모바일에 최적화해 다른 증권사 AI 서비스와 차별화할 것"이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2022.01.23.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>타다, 카카오에 본격 도전장···택시 면허로 영토 확장</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004011140?sid=105</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>대형 택시 '타다 넥스트' 확대 도입품질 관리·신규 서비스 출시에 용이기사 고용 따른 인건비 부담은 숙제[서울경제] 모빌리티 플랫폼 ‘타다’ 운영사 VCNC가 법인택시 운영권을 확보하며 영토 확장에 나섰다. VCNC는 택시 면허를 기반으로 새로운 모빌리티 서비스를 출시·확대할 전망이다.23일 업계에 따르면 VCNC는 최근 법인택시 회사 운수법인으로부터 약 80대 규모의 택시 면허를 양수했다. 모빌리티 플랫폼 기업 중 택시 면허를 직접 확보해 서비스하는 곳은 카카오모빌리티, KST모빌리티(마카롱택시)에 이어 VCNC가 세 번째다. VCNC는 현재 베타 서비스 중인 대형 택시 서비스 ‘타다 넥스트’의 공급량을 확대하기 위해 이번 계약을 체결했다고 설명했다. 타다 넥스트는 현대차 스타리아 등 대형 승합차를 기반으로 한 택시 서비스다. 2020년 4월 이른바 타다금지법으로 중단된 원조 타다를 모태로 하고 있다. 앞선 타다가 렌터카로 운행됐다면 타다 넥스트는 택시 면허를 기반으로 운행되기 때문에 규제 이슈를 해소한 상태다.업계에서는 VCNC가 이번 택시 면허 확보를 통해 전통 강자인 카카오모빌리티에 맞서 경쟁력을 한 층 더 끌어올릴 것으로 기대하고 있다. 기존 법인, 개인택시와의 협력 모델만으로는 서비스를 확대하는 데 한계가 있기 때문이다. 현재 타다 넥스트에서 활동하는 드라이버들은 개인택시 기사들이다. 엄밀히 말하면 VCNC와 고용관계가 아니어서 서비스 품질은 각 기사들에게 상당부분 의존할 수밖에 없다. 아직까지는 VCNC가 차량 구입비와 수익을 일부 보전해 준 덕분에 ‘친절’하고 ‘편안’한 서비스를 제공할 수 있을지 몰라도 앞으로 차량 대수가 늘어난 이후에도 이전과 같은 조건을 유지하기는 쉽지 않다는 지적이 나온다. VCNC가 마케팅비를 한없이 쏟아부을 수 없기 때문이다. 개인택시 기사들에 대한 지원이 지금보다 줄어든 이후 상황을 고려해야 하는 것이다.VCNC 측은 “이용자에게 보다 표준화된 서비스를 제공하기 위해 서비스 품질 강화에 심혈을 기울일 예정”이라며 “이용자 수요에 대비하고 피크 시간대의 배차율을 개선하는 등 서비스 개선을 위해 다각도로 노력할 것”이라고 했다.직접 택시 면허를 갖고 사업하면 서비스 품질 관리뿐만 아니라 신규 서비스 출시에도 용이하다. 일일이 택시 사업자들과 계약할 필요 없이 직접 고용한 기사들을 기반으로 유연하게 사업을 펼칠 수 있다. 카카오모빌리티 역시 이 같은 목적으로 택시 면허를 사들이기 시작해 월급제 택시 서비스를 도입, 현재의 프리미엄 택시 서비스 카카오T블루의 토대를 마련했다. VCNC가 모회사 토스의 금융서비스와 연계한 새 모빌리티 서비스를 준비중인 만큼 이번에 확보한 택시 면허와 시너지를 낼 것으로 기대되고 있다.다만 택시 운영에 따른 인건비 부담은 양날의 칼이다. 기사들을 직고용하면서 발생하는 급여는 고정적으로 나가기 때문이다. 카카오모빌리티 역시 택시면허를 900여 대까지 늘린 이후 수 년째 추가 매입은 하지 않고 있다.업계 관계자는 “법인, 개인택시와 프랜차이즈 형식으로 파트너십을 맺으면 기술 인프라를 심는 데 한계가 있다”며 “하지만 직접 택시 면허를 확보하면 서비스 개시에 앞서 테스트를 해볼 수도 있고 기사들 피드백을 받아 운영방안을 개선할 수 있다는 장점이 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2022.01.24.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>K-핀테크 차기 사령탑은 누구?...정인영·이혜민·이근주 3파전</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004699743?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>국내 핀테크 기업 344개사가 회원으로 참여하는 최대 규모 핀테크 네트워크 기관인 한국핀테크산업협회의 제4대 회장 선출이 다음달 17일 진행된다. 핀테크산업협회는 2016년 금융위원회로부터 사단법인 인가를 받은 민간협회다. 핀테크 산업진흥과 대외협력, 정책 건의, 연구조사사업 등 핀테크산업 전반에 관한 업무를 지원하고 정부·국회 등 관(官)과의 소통 창구 역할도 하고 있다. 초대 회장은 이승건 비바리퍼블리카(토스) 대표, 2대 회장은 김대윤 피플펀드 대표, 3대 회장은 류영준 카카오페이 대표가 맡았다. 4대 회장 후보에는 △정인영 디셈버앤컴퍼니자산운용 대표 △이혜민 핀다 대표 △이근주 한국간편결제진흥원장이 나섰다. 핀테크산업협회 창립 이래 3파전으로 진행되는 선거는 이번이 처음이다. 1~2대 회장 선거는 각 후보가 단독으로 출마했고, 3대 회장 선거 때는 류영준 현 회장과 신승현 데일리금융그룹 대표가 경쟁을 벌였다. ━공식 선거운동 시작…'투자 vs 대출 vs 간편결제' 플랫폼 대결구도━24일 핀테크산업협회 사무처에 따르면 4대 회장 후보자들의 공식 선거운동은 지난 19일부터 시작됐다. 다음달 17일 예정된 정기총회에서 회원사 의결을 통해 4대 회장과 부회장, 이사, 감사 등 4대 이사회 임원을 선출한다. 임기는 2년이다. 회장 선거 투표권인 총회 의결권은 전년도 회비를 납부한 회원사에게만 부여된다. 의결권이 있는 정회원의 총 의결권 중 50%는 1사1표, 나머지 50%는 회비 납부 금액에 따라 비례해 산정된다. 가장 많은 의결권을 득표한 후보자가 회장으로 선출된다.관전 포인트는 △투자 플랫폼(디셈버앤컴퍼니) △대출 중개 플랫폼(핀다) △간편결제 플랫폼(한국간편결제진흥원) 등 서로 다른 핀테크 서비스를 제공하는 플랫폼 간 경쟁 구도가 형성됐다는 점이다. 차기 회장의 핵심 역할은 핀테크 기업의 전자금융업 진입장벽을 낮추는 전자금융거래법(전금법) 개정안 처리와 핀테크 관련 규제 완화다. 3명의 후보 모두 전금법과 망분리 규제 같은 정책 이슈, 정부당국과의 소통 등을 핵심 공약으로 내걸었다. ━"전자금융거래법 개정안 처리가 최우선 과제"━정인영 대표는 2013년 초까지 엔씨소프트에서 투자경영실장으로 근무하다 2013년 디셈버앤컴퍼니를 설립하고 2019년부터 한국핀테크산업협회 부회장을 지냈다. 국민대 비즈니스IT대학원 겸임교수를 거친 뒤 현재 연세대 정보대학원 겸임교수를 맡고 있다. 그는 주요 공약으로 △회원사 간 활발한 소통을 위한 자리 확대 및 지원 △해외사례 연구를 통해 국내외간 규제 격차 발굴 및 정부·국회에 건의 △국내 핀테크 기업의 글로벌 경쟁력 강화 등을 제시했다. 이혜민 대표는 STX 신사업전략기획실을 거쳐 건강관리 프로그램을 제공하는 '눔코리아', 육아용품 배송서비스 '피플앤코', 화장품 정기배송 '글로시박스' 등을 연쇄 창업한 뒤 2016년 핀다를 설립했다. 주요 공약으로는 △목적 중심의 협의회 활성화를 통한 회원사 분야별 신속한 이슈 대응과 전문성 강화 △정부당국과 연 2~3회 이상 주기적인 간담회 △기존 금융권 협회와의 적극적인 소통 등을 약속했다.이근주 간편결제진흥원장은 IBK기업은행 출신으로 기업은행 전산정보부, 뉴욕지점, 국제업무부, 스마트금융부에서 근무했다. 이후 한국핀테크산업협회 사무국장을 거쳤다. 그는 △마이데이터 활성화 △망분리 규제 합리적 개선 등 지속적 규제 완화 △핀테크 창업 활성화 △상생하는 핀테크 산업환경 조성 △유관기관과의 네트워킹 역량 증대 등을 강조했다.핀테크 스타트업 관계자는 "차기 회장의 최우선 과제는 국회에 계류된 전금법 개정안을 통과시키는 일이 될 것"이라며 "금융정책과 시장에 대한 이해도가 높고 규제 이슈에 적극 대응할 수 있는 협상력을 갖춘 인물이 선출되기를 기대하고 있다"고 했다. [머니투데이 스타트업 액셀러레이팅 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2022.01.17.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>금융위, 업비트-빗썸 등 첫 자금세탁 검사</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003406096?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>4대 코인 거래소부터 현장검사토스 등 전자금융업자도 대상될듯금융당국이 4대 코인 거래소를 시작으로 국내 가상자산사업자에 대한 첫 자금세탁 검사에 나선다. 16일 금융위원회 산하 금융정보분석원(FIU)은 이런 내용의 올해 검사업무 운영 방안을 발표하면서 2월부터 이들 사업자에 대한 현장검사를 시작한다고 밝혔다. 2019년 이후 특정 금융거래 정보 보고 및 이용법(특금법) 규율을 받게 된 사업자 중 가상자산사업자, 전자금융업자, 대부업자를 올해 검사 대상으로 선정했다. FIU는 실명 계좌를 확보해 원화 거래를 하는 업비트, 빗썸, 코인원, 코빗 등 4대 거래소를 우선 검사할 계획이다. 종합검사 결과에 따라 하반기(7∼12월)부터는 요주의 사업자를 선정해 부문검사에도 착수한다. 당국은 고객 확인업무 이행, 의심거래 보고 등이 적절하게 이뤄지고 있는지 들여다볼 방침이다. 네이버파이낸셜, 카카오페이, 토스 등 대형 전자금융업자도 검사 후보군에 포함될 것으로 전해졌다. 제주도를 제외한 내륙 카지노사업자 9곳에 대한 직접 검사도 올해 재개한다. 이들은 FIU 직접 검사 대상이지만 코로나19 확산에 따라 2020년에 검사가 잠정 중단됐다. 검사 결과 자금세탁 방지 의무를 적법하게 이행하지 않은 사실이 드러난 기관은 기관경고 또는 기관주의 처분을 받는다. 임직원은 최고 해임권고 제재를 받게 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2022.01.16.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>금융정보분석원(FIU), 국내 9개 카지노 검사한다</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003666615?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>4대 코인거래소도 검사 예정							금융위원회 산하 금융정보분석원(FIU)이 국내 카지노 9곳을 대상으로 불법 자금 세탁 방지 체계 구축 여부 등에 대해 조사하기로 했다. 코로나 사태로 2년간 중단했는데 올해는 재개하기 했다. 자금세탁 방지 의무를 위반할 경우 회사는 최장 6개월 영업정지, 개인은 최고 징역 5년에 처해질 수 있다.업비트·빗썸·코빗·코인원 등 4대 가상화폐 거래소는 올해 처음으로 FIU 검사 대상이 된다. 네이버파이낸셜, 카카오페이 등 대형 핀테크업체들도 대상이 될 전망이다.FIU는 16일 이같은 내용을 포함한 올해 업무 운영 방향을 발표했다. 투명한 거래 질서 확립을 위해 불법 자금세탁을 막는 데 중점을 둔다. 4대 코인거래소의 경우 연말까지 순서를 정해 검사할 예정이다.124개 전자금융회사(핀테크업체)와 60개 대부업체도 올해 검사 대상인데, FIU는 이용자 수와 거래 규모 등을 감안해 검사 대상을 선정할 것이라고 밝혔다. 네이버파이낸셜, 카카오페이 외에 쿠팡페이, 토스 등도 검사 대상에 포함될 가능성이 높은 것으로 보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2022.01.29.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>‘어쩔티비·서동요기법·갓생’…이거 알면 최소한 젊은이</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001502205?sid=102</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>쿠팡플레이 'SNL 코리아 시즌2'에 출연한 배우 신혜선이 고등학생으로 변장한 30세 경찰로 분해 MZ세대 신조어로 말싸움을 하는 모습. 같은반 고등학생을 연기한 배우 주현영이 "어쩔 티비"라고 말하자 신혜선이 "저쩔 티비"라고 응수하는 장면이다. 쿠팡플레이 'SNL 코리아' 시즌2 캡처최근 배우 신혜선이 쿠팡플레이에서 방영되는 코미디쇼 ‘SNL 코리아’에 출연해 화제를 모은 단어 ‘어쩔티비’, 이제 어떤 뜻인지 아시나요? ‘어쩌라고, 가서 티비나 봐’의 줄임말로 10대들이 듣기 싫은 말을 들을 때 대응법으로 써먹는 표현입니다. 한 초등학생이 노인에게 길에서 비키지 않는다는 이유로 훈계를 듣자 ‘어쩔티비’라고 외치고 도망간 시트콤 같은 사연으로 화제를 모으면서 인터넷 커뮤니티 등지에서 퍼져 나갔습니다.이런 MZ세대의 신조어는 이제 하나의 인터넷 놀이 문화로 자리 잡았습니다. 신조어가 또래 문화에만 그치는 것이 아니라 SNS 등을 통해 전 세대로 퍼져나간다는 것, 또한 과거와 달라진 점입니다. 정덕현 문화평론가는 28일 “이제는 모두가 인터넷으로 소통하고 있어서 기성세대도 젊은 세대의 신조어를 좀 배워야겠다고 생각한다”고 설명했습니다.MZ세대들의 신조어를 SNS에 해시태그 검색하자 관련 게시물이 쏟아져 나온다. 인스타그램 캡처MZ세대의 신조어에 주목하는 또 다른 이유는 지금 현재 우리의 삶을 엿볼 수 있는 단서가 되기 때문입니다. 호영성 대학내일20대연구소장은 “신조어는 ‘재미’라는 요소도 크긴 하지만 무엇보다 그때그때의 시대상이 반영된다”고 분석합니다. 사람들에게 웃음을 주고 우리 사회의 모습을 적나라하게 보여주기도 하는 MZ세대의 신조어를 주제별로 나누어 정리해봤습니다.삶의 의지를 다지는 희망의 언어'갓생'을 해시태그 검색하면 등장하는 인기게시물. 인스타그램 캡처‘갓생’은 Z세대의 최상급 표현인 ‘갓’(God·신)과 ‘인생’을 합친 단어로 하루하루 계획적으로 열심히 살아내는 삶을 뜻합니다. 기성세대가 귀에 못이 박이도록 말해온 ‘근면’ ‘성실’ 같은 가치를 MZ세대의 방식으로 표현한 단어인 셈입니다. 유튜브에 ‘갓생’으로 검색해보면 하루 동안 자신의 계획을 실천하는 모습을 기록해 놓은 10대들의 영상들이 빼곡하게 놓여있습니다.‘서동요 기법’은 소원하는 일을 이미 벌어진 듯 꾸며 말하는 기법을 뜻합니다. 백제 무왕이 되는 서동이 어린 시절 ‘서동요’를 지어 선화공주와 결혼하게 됐다는 설화를 빌린 단어죠. 가령 “서동요 기법 간다. 베이징 올림픽에서 윤성빈 스켈레톤 금메달 축하합니다”라고 적으면 윤 선수를 향한 희망과 응원을 더 강하게 표현하는 셈입니다. 갓생과 달리 의지와 달리 예측할 수 없는 미래에 대한 막연한 희망에 좀 더 방점이 찍혀 있습니다.‘오히려 좋아’는 기대했던 대로 상황이 흘러가진 않았지만 전화위복이 돼 좋다는 뜻입니다. 아프리카TV 게임 방송에서 시작된 단어로 BJ가 게임을 하다가 위기의 상황에서 시청자들을 즐겁게 하고자 “오히려 좋다”라고 말하던 게 인터넷 커뮤니티에 밈(인터넷에서 유행하는 사진이나 영상)으로 퍼져나간 겁니다.재테크로도 발 넓힌 MZ세대'토스매매법'을 해시태그 검색하면 등장하는 인기게시물. 인스타그램 캡처‘○○매매법’은 주식과 가상화폐 등을 재테크하는 방법을 희화화한 밈입니다. 가령 ‘토스 매매법’는 토스에서 증권 계좌를 개설하면 이벤트로 주는 주식을 추가로 매수하는 방법을, ‘곡소리 매매법’은 주가가 하락하는 종목에 투자하는 방법을 뜻합니다.‘식집사’는 고양이를 키우는 사람을 뜻하는 ‘집사’와 ‘식물’을 합친 말로 반려식물을 기르는 사람을 뜻합니다. SNS에는 식집사를 해시태그하고 자신이 기른 식물을 뽐내는 사진이 가득합니다. 형제 단어로는 희귀한 식물을 기르는 취미 생활로 돈까지 벌 수 있는 ‘식테크’가 있습니다. 몬스테라 잎사귀 한 장이 50만원에 거래되는 일도 있다고 합니다.개성과 취향이 더 도드라진다2016~2017년 신조어를 찾아보면 ‘개취’(개인적인 취향) ‘취존’(취향 존중)이라는 단어가 눈에 띕니다. 불과 5~6년 전만 해도 다양한 취향은 ‘존중해달라’는 말이 있어야 생존 가능했던 것처럼 보입니다.'다꾸'를 해시태그 검색하면 등장하는 인기게시물. 인스타그램 캡처이제는 취향을 말하는 게 한결 자연스러워 보입니다. ‘꾸미기’가 대세입니다. ‘다꾸’, 다이어리 꾸미기에서 시작한 꾸미기 열풍은  ‘신꾸’(신발 꾸미기) ‘깊꾸’(기프티콘 꾸미기) ‘폴꾸’(폴라로이드 꾸미기) 등으로 다양하게 분화했습니다. 구멍이 뚫려있는 ‘크록스’ 신발에 액세서리를 끼워 신발을 꾸미는 것, 기프티콘을 선물할 때 그림을 그리는 등 꾸며서 주는 것, 친구와 찍은 폴라로이드 사진을 예쁘게 꾸미는 것들을 줄여 부르는 겁니다.좋아하는 가수의 앨범이나 굿즈를 개봉하는 건 ‘○○깡’으로 부릅니다. 가령 ‘앨범깡’은 좋아하는 아이돌 앨범 속 최애 멤버의 포토 카드를 모으거나 팬 미팅 등의 이벤트 당첨 확률을 높이기 위해 앨범을 사서 개봉하는 행위를 뜻합니다. 호영성 소장은 이에 “사회가 세대 갈등을 겪으면서 과거보다 개인의 생각을 더 존중해주는 분위기가 자리 잡아 가는 것으로 보인다”고 부연했습니다.오프라인보다 온라인이 자연스러운 세대인 만큼 디지털 특징이 드러나는 단어도 등장했습니다. ‘æ’(아이)는 대세 아이돌 ‘에스파’의 멀티버스에서 등장하는 ‘또 다른 자아’를 뜻합니다. “오늘 코디 æ백예린임”처럼 닮고 싶거나 닮은 대상 앞에 æ를 붙이는 식으로 사용합니다. ‘오뱅있’은 ‘오늘 방송 있나요?’의 줄임말로 인터넷 방송에 익숙한 이들이 자주 쓰는 표현입니다.이외에도 MZ세대끼리 약속을 잡을 때 주로 쓰는 ‘캘박’은 캘린더 박제의 줄임말입니다. ‘약속 또는 일정을 잡는다’는 뜻으로 가까운 친구 사이에서는 “네 생일 내 다이어리에 ‘캘박’해놨어”라고 쓰기도 합니다.‘점메추’는 ‘점심 메뉴 추천’의 줄임말로 배달 등 다양한 먹거리로 점심 메뉴 선택권이 늘어난 젊은 세대가 고민을 나눌 때 주로 씁니다. 응용어로는 ‘저메추’(저녁 메뉴 추천)이 있습니다. 디지털 세대의 자연스럽고 가벼운 일상적인 연결을 엿볼 수 있는 단어입니다.언어 소통의 핵심은 ‘배려’고등학생으로 분한 배우 주현영이 배우 신혜선의 "저쩔 티비" 대응에 다시 "어쩔 스타일러"로 맞대응하는 모습. '어쩔'과 '저쩔' 뒤에 붙는 가전제품 단어가 길어야 맞대응을 진정해주는 MZ세대의 놀이법이다. 쿠팡플레이 'SNL 코리아 시즌2 캡처사실 이런 신조어를 MZ세대라고 모두 알고 있는 건 아닙니다. 한 인터넷 커뮤니티엔 초등학생 조카에서 ‘저쩔티비~’라고 장난을 쳤다가 오히려 알아듣지 못하고 이상한 이모 취급받았다는 사연이 올라오기도 했습니다.결국 기성세대와 요즘 세대의 대화에서 필요한 건, 신조어를 마구 써대는 용감함이 아니라 서로의 언어를 이해하려는 노력입니다. 이대성 국립국어원 학예연구관은 “세대 간의 소통을 특정 세대의 책임으로만 접근하는 건 옳지 않다”며 “‘내 말을 이해 못 하면 네가 무식한 거니까 네가 배워야지’ 이런 태도라면 당연히 소통을 안 되는 것”이라고 꼬집었습니다.그는 어렸을 때 ‘옥상에서 떨어진 메주’라는 뜻의 ‘옥떨메’라는 말이 유행했다며, 이는 타인의 외모를 비하하는 장난 어린 표현이었다고 소개했습니다. 이 연구관은 “이렇게 어렸을 때부터 은어적인 요소로 또래 집단이 많이 써오는 언어 형식은 늘 있었지만, 디지털 시대에 SNS를 통해 광범위하게 퍼지면서 기성세대가 따라잡기 어려워진 것”이라고 부연했습니다. 이 연구관은 세대 간 소통의 해법으로 ‘배려하는 태도’를 강조했습니다. 그는 “뉴스에 나오는 전문 용어들을 젊은 세대들이 이해 못 하는 경우가 있는 것처럼, 특정 세대나 계층에서만 이해할 수 있는 말은 늘 존재한다”며 “어른이고 또래고 관계없이 상대방이 못 알아듣거나 거북한 말을 자제하고 쉬운 말을 쓰는 게 진짜 언어 능력”이라고 조언했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2022.01.23.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>서아프리카 카메룬 나이트클럽에서 폭죽 화재, 16명 사망</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004776882?sid=104</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>서아프리카 카메룬의 수도 야운데에서 지난 8일 시민들이 아프리카 네이션스컵을 홍보하는 광고판 앞을 지나고 있다.로이터뉴스1  [파이낸셜뉴스] 서아프리카 카메룬의 수도 야운데에서 나이트클럽 폭죽놀이로 화재가 발생해 최소 16명이 숨졌다. 현지 소방당국은 화재에 이어 대규모 압사 사고가 발생했다고 전했다.   AFP통신 등 외신들에 따르면 카메룬 정보통신부는 23일(현지시간) 성명에서 이날 새벽 대사관과 외교관 숙소가 밀집한 바스토스 지역의 리브스 나이트클럽에서 불이 났다고 밝혔다. 정보통신부는 "나이트클럽에서 자주 사용되는 불꽃놀이가 폭발하면서 건물 천장을 집어삼켰다"며 "두 번의 매우 큰 폭발이 일어나 혼란이 극에 달했으며 인파가 몰렸다"고 전했다.   익명을 요구한 소방 관리는 "우리가 도착했을 때 엄청난 연기와 화염 속에 사람들은 패닉 상태였다"며 "지금까지 16구의 사체를 확인했다"고 말했다. 화재는 23일 오전 2시 무렵에 발생한 것으로 알려졌다. 현재 카메룬에서는 24개국 대표팀이 참가하는 아프리카 대륙 축구 국가대항전인 아프리카 네이션스컵이 열리고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2022.01.18.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>성동구, 노인 대상 방역패스 QR체크인 설치 서비스</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010952223?sid=102</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]성동구 직원이 어르신에게 QR체크인 설치 및 사용법을 설명하는 모습. 2022.01.18. (사진 = 성동구 제공) photo@newsis.com[서울=뉴시스] 이종희 기자 = 서울 성동구가 스마트폰 사용이 어려운 노인들을 위해 '방역패스 QR체크인 설치 서비스'를 실시한다고 18일 밝혔다. '방역패스 QR체크인 설치 서비스'는 쿠브, 카카오, 네이버, 토스 등 예방접종 인증 전자증명서를 노인들의 스마트폰에 설치하고 사용방법을 설명하는 서비스다.코로나19 장기화 및 변종 바이러스 발생 등으로 식당, 마트, 카페 등 다중이용시설을 이용할 때마다 하루에도 수차례 QR체크인을 해야 하는 만큼 스마트폰 사용이 익숙한 젊은 층과는 달리 노인들은 사용법이 익숙치 않아 어려움을 겪는 경우가 많다.이달 400명을 넘는 노인들에게 방역패스 QR체크인 설치를 지원한 이번 행정서비스는 성동구 행당제2동 현장에서 시작됐다.행당제2동의 청사는 아파트 단지와 연결되는 구조적인 특징으로 이용자의 접근성과 편의성이 높다는 점을 활용해 노인들이 청사를 방문할 때마다 QR체크인 방역패스를 손쉽게 사용할 수 있도록 지원했다.스마트폰이 없는 노인에게는 다중이용시설 이용에 불편함이 없도록 신분증에 백신 접종을 완료했다는 스티커와 종이 증명서를 발급하고 지역 내 경로당도 직접 방문해 설치해주는 '찾아가는 서비스'도 병행한다.구는 이달 말부터 동주민센터 방문 노인들에게 방역 설치와 사용방법을 알려주는 서비스를 전 동으로 확대할 계획이다.정원오 성동구청장은 "스마트폰으로 모든 것이 편리해진 만큼, 디지털 소외계층에게는 어려움이 더 늘어날 수 있다"며 "앞으로도 주민의 목소리에 귀 기울여 불편을 해소하고 스마트한 기술이 누구에게나 활용되도록 다양한 정책을 통해 정보격차를 줄이도록 적극 노력하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2022.01.25.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>아프리카 네이션스컵 16강전에서 압사 참사...8명 사망</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004778451?sid=104</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>카메룬 수도 야운데의 올렘베 스타디움 남쪽 출입구에서 24일(현지시간) 몰려든 인파때문에 다친 시민들이 바닥에 쓰러져 있다.AP뉴시스  [파이낸셜뉴스] 아프리카 네이션스컵 축구대회가 열리고 있는 서아프리카 카메룬에서 경기장 압사 사고가 발생해 어린이 1명을 포함, 최소 8명이 사망했다.   AP통신 등 외신들에 따르면 24일(현지시간) 카메룬 수도 야운데의 올렘베 스타디움 남쪽 출입구에서 먼저 들어가려던 인파 사이에서 몸싸움이 벌어지면서 압사 사고가 발생했다. 이날 사망자 외에도 약 50명이 다쳐서 입원했고 7명은 중태였다.   카메룬에서는 지난 10일부터 아프리카 24개 국가대표팀이 참가하는 네이션스컵이 열렸다. 대회는 다음달 7일까지 이어지며 24일 올렘베 스타디움에서는 카메룬과 코모로의 16강전이 벌어졌다. 이날 경기는 압사 사고에도 불구하고 진행되었으며 카메룬이 2대 1로 코모로를 꺾고 8강전에 진출했다. 카메룬에서 네이션스컵 대회가 열린 것은 1972년 이후 약 50년만에 처음이며 카메룬 정부는 자국의 국가대표팀이 출전하는 이날 경기에 입장권 요금을 받지 않고 교통편까지 지원했다.   해당 경기장의 최대 수용인원은 6만명이었고 사고 당시 약 5만명이 스타디움에 몰려들었다.   한편 카메룬 바스토스 지역의 리브스 나이트클럽에서는 전날 폭죽 불꽃 화재로 최소 17명이 사망했다. 폴 비야 카메룬 대통령은 이틀 연속으로 수도에서 인명 사고가 발생하자 정부 차원의 조사를 지시했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2022.01.24.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>네이버, AI·검색 석학 영입…“차세대 검색 기술 고도화 이끈다”</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002569666?sid=105</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>MIT 김윤형 교수·미 럿거스대학 칼 스트라토스 교수 영입김윤형 MIT 교수(왼쪽)와 칼 스트라토스(이장선) 럿거스대학 교수.ⓒ네이버[데일리안 = 김은경 기자] 네이버가 인공지능(AI)·검색 분야에서 뛰어난 연구성과를 내며 세계적으로 주목받고 있는 젊은 석학들을 차례로 영입했다.네이버는 최근 매사추세츠 공과대학(MIT)의 김윤형 교수와 럿거스대학의 칼 스트라토스(이장선) 교수를 네이버 스칼라(Scholar)로 영입했다고 24일 밝혔다.네이버 스칼라는 미국·유럽 대학·연구기관의 교수와 연구원이 소속기관에 재직하면서 네이버 검색의 미국 내 AI 센터인 ‘네이버 서치(Search) US’에서 차세대 AI 기술과 검색 서비스를 개발하는 곳이다.  김윤형 교수는 미 하버드 대학교에서 컴퓨터공학으로 박사학위 취득 후 현재 미 MIT에서 조교수로 재직중이다. 지난 2014년 딥러닝 기술의 일환인 컨볼루션 신경망(CNN)기술을 자연어처리(NLP) 분야에 적용한 논문을 단독으로 발표하며 이목을 끌었다.칼 스크라토스 교수는 현재 미 럿거스 대학교에서 조교수로 재직하며 비지도 학습방법과 지식사용 모델 개발을 연구하고 있다. 그는 자연어처리 분야 탑티어 학회(ACL·ENMLP·NAACL)에서 머신러닝 분야 위원장을 맡았으며 블룸버그 자연어처리(NLP) 연구팀에서 자연어이해(NLU)서비스에 최첨단 딥러닝 기술 도입을 총괄한 실무경험을 보유했다.이번에 영입된 두 교수는 네이버 서치 US에서 AI 기술개발을 관장하는 김용범 책임리더와 함께 네이버 검색 서비스 곳곳에 녹일 차세대 AI 검색 기술 고도화에 집중할 계획이다. 지난해 9월 네이버에 합류한 김 책임리더는 마이크로소프트 코타나와 아마존 알렉사의 AI 핵심기술 개발을 총괄한 대화형 AI 분야의 전문가로 꼽힌다.김광현 네이버 서치 사내독립기업(CIC) 대표는 “이번 영입을 통해 네이버가 축적한 빅데이터와 기술, 서비스 운영 노하우에 최신 기술지식을 겸비한 인재들의 경험을 더해 검색경험의 지평을 넓힐 수 있는 혁신적인 서비스를 선보일 것”이라며 “올해도 미국, 유럽 등 글로벌 무대에서 활약하고 있는 우수한 연구인력들을 적극 영입할 계획”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2022.01.19.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>“백신 접종 이상반응으로 입원·‘인과성 불충분’도 방역패스 예외 적용”</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011198016?sid=102</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>의학적 사유로 인한 방역패스 예외 대상이 확대됩니다. 중앙방역대책본부는 다음 주 월요일(24일)부터 방역패스(접종증명·음성확인제)의 의학적 사유에 의한 적용 예외 범위를 확대한다“고 밝혔습니다. 현재 방역패스 예외 대상은 코로나19 확진 후 격리해제자, 1차 접종 후 중대한 이상반응이 발생해 2차 접종이 연기·금지된 사람, 면역결핍, 면역억제제·항암제 투여로 접종 연기가 필요한 자, 접종 금기 대상자 등입니다. 우선, 코로나19 예방접종 후 이상반응 의심 증상이 나타나 피해보상을 신청했지만 ‘인과성 근거 불충분’ 판정을 받으면 방역패스 예외 대상에 추가로 포함됩니다. 담당 지자체에서 인과성 근거 불충분 통보를 받은 대상자는 ”별도의 절차나 의사의 진단서 없이, 코로나19 전자예방접종증명서, 쿠브(COOV)앱이나 카카오·네이버·토스·PASS앱 등 전자출입명부 플랫폼에서 ‘접종내역 발급·업데이트를 하면 확인“할 수 있습니다. 신분증만 지참해 가까운 보건소로 가면 종이 예외확인서도 발급받을 수 있습니다. 이상반응으로 입원 치료를 받은 경우도 방역패스 예외 대상입니다. 방대본은 ”백신 접종 후 이상반응 의심증상이 나타나 접종 후 6주 이내 입원 치료를 받았다면, 의심증상의 종류나 신고 여부와 관계없이 방역패스 예외를 인정한다“고 밝혔습니다. 대상자는 입원 확인서와 ’코로나19 예방접종 이상반응으로 입원 치료를 받았다‘는 의사의 진단서를 갖고 보건소를 방문해, 방역패스 예외자로 전산 등록을 해야합니다. 한번 등록하면 전국 모든 보건소와 쿠브앱, 전자출입명부 플랫폼에서 예외 확인서를 받을 수 있습니다. 추가된 방역패스 예외 대상자 역시, 기존과 같이 예외 확인서의 유효기간은 없습니다. 방대본은 ”방역패스 예외 범위를 인정하는 것이 백신 접종과 이상반응의 인과성이나 피해보상 필요성, 접종 금기를 인정하는 것은 아니“라고 선을 그었습니다. 또 이번 조치가 ”접종을 받으려고 노력했으나, 이상반응으로 접종을 완료하지 못한 분들의 불편을 최소화하기 위해서“라고 강조했습니다.■ 제보하기▷ 카카오톡 : 'KBS제보' 검색▷ 전화 : 02-781-1234▷ 이메일 : kbs1234@kbs.co.kr▷ 뉴스홈페이지 : https://goo.gl/4bWbkG</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022.01.26.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>KTB투자증권, 당기순이익 1741억원…3년 연속 최대실적</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001943197?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>작년 영업익 1433억원, 당기순이익 1741억원전년대비 115.5%, 129.2% 증가[헤럴드경제=이세진 기자] KTB투자증권이 2021년 당기순이익 1741억원을 달성하며 증권사 전환 후 3년 연속 최대실적을 경신했다고 26일 밝혔다. 이는 2008년 증권사로 전환되기 이전을 포함해 회사 창립 후 역대 최대실적이다.KTB투자증권은 연결기준으로 영업이익 1433억원, 당기순이익 1741억원을 기록했다. 전년 대비 두 배 이상 상승한 실적으로 각각 115.5%, 129.2% 증가했다.실적 향상의 주요 요인은 전 영업부문의 고른 성장에 있다. 특히 IB부문은 리스크 관리를 강화한 상황에서 다수의 우량 딜 발굴을 통해 영업수익이 전년 대비 106% 증가하며 최대 성과를 거뒀다. 리테일부문은 신규고객 유치 마케팅 및 제휴 서비스 확대를 통해 활동계좌수가 전년 대비 160% 증가하는 등 고객기반이 크게 확대됐다.계열회사 실적 향상 또한 우수했다는 평가다. KTB네트워크는 코스닥 상장과 함께 전년도에 이어 사상 최대이익을 경신했다. 영업이익 827억원, 당기순이익 640억원으로 전년대비 각각 85.2%, 78.8% 향상됐다.투자자산 회수이익과 높은 성공보수가 실적증대를 이끌었다. 배달의민족, 스타일쉐어, RBW, SoFi, 원티드랩 등이 IPO 및 M&amp;A에 성공하며 높은 회수이익을 안겼다. 성공적 투자금 회수에 따라 투자조합의 성공보수도 크게 증가했다. 또한 토스(비바리퍼블리카), 에스엠랩, 스튜디오앤뉴, 버넥트, 엔젯 등 현재 투자중인 기업의 기업가치가 계속해서 상승하고 있다.여기에 미국 온라인광고업체 Moloco, 인도 소셜커머스 Trell, 중국 1위 자동차용 반도체 기업 Horizon Robotics 등 다수의 해외투자기업이 유니콘에 등극하는 등 올해도 높은 투자수익이 기대되는 상황이다.지난해 12월 인수를 마무리 한 유진저축은행도 역대급 실적을 기록했다. 영업이익 1098억원, 당기순이익 835억원으로 전년대비 각각 57.1%, 61.0% 증가했다.대출잔액이 전년 대비 6474억원 증가하며 실적 향상을 이끌었다. 또한 법정 최고금리 인하 상황하에서도 중금리 대출 확대 및 CSS(신용평가시스템) 고도화를 통해 수익성을 개선했다. 2022년에는 그룹 계열사와의 협업을 통해 수익원을 다변화하고 디지털금융 강화를 통해 양적, 질적 성장을 이끈다는 계획이다.KTB자산운용도 창사 후 최초로 AUM(운용자산) 15조원을 돌파하며 호실적을 이어갔다. 영업이익 108억원, 당기순이익은 84억원에 달한다. 공모주하이일드 펀드 등 고보수 상품 판매가 증가했고, 중위험·중수익 대표상품인 멀티에셋인컴EMP펀드 등 전략펀드의 성장세가 이어져 수탁고 2조7000억원이 순증해 AUM 15조3000억원을 달성했다.KTB투자증권 해외법인 KTB ST도 호실적을 냈다. KTB ST는 국내 증권사 중 유일하게 태국에 진출한 현지 증권사다. 코로나19 상황에도 리테일부문과 IB부문에서 꾸준히 성장해 영업이익 104억원, 당기순이익 80억원을 거뒀다. 전년 대비 두 배 이상 향상된 실적으로 각각 114%, 115% 증가한 수치다.KTB투자증권 관계자는 “전 계열사가 양호한 실적을 바탕으로 질적, 양적 성장을 거듭하고 있다”며, “급변하는 대내외 정세에 대응할 수 있도록 선제적으로 리스크 관리를 강화하고, 변화된 금융환경에 발맞춰 핀테크 업체들과의 다양한 제휴를 통해 신수익원을 창출할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022.01.16.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>4대 코인거래소, 돈세탁 검증대에…네이버·카카오도 선정 유력</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012920862?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>FIU, 올해 검사방향 발표…"가상자산업·전금업·대부업 직접 검사"거래규모·내부통제수준 등 대상 선정…다음달 현장검사 착수코인 원화마켓 사업자 4개의 CI 왼쪽위부터 시계방향으로 업비트, 코인원, 코빗, 빗썸 CI. [업비트·코인원·빗썸·코빗 제공]    (서울=연합뉴스) 하채림 기자 = 업비트 등 '4대' 코인 거래소가 올해 자금세탁 정밀 검증대에 오른다.     네이버파이낸셜, 카카오페이, 토스 등도 금융당국의 직접 검사 후보군에 포함됐다.     금융위원회 산하 금융정보분석원(FIU)은 올해 가상자산사업자, 전자금융업자, 대부업자, 카지노사업자를 대상으로 직접 검사를 시행하며, 다음 달 현장검사에 착수한다고 16일 밝혔다.     FIU는 2019년 이후 '특정 금융거래정보의 보고 및 이용 등에 관한 법률(특금법)'의 규율을 받게 된 사업자 가운데 가상자산업자, 전자금융업자, 대부업자를 올해 직접 검사 대상으로 선정했다.     특히 FIU에 신고 절차를 마친 가상자산사업자 가운데 원화 거래가 가능한 4대 거래소, 즉 업비트(법인명 두나무), 빗썸(빗썸코리아), 코빗, 코인원을 시작으로 필요에 따라 순차적으로 종합검사를 벌일 계획이다.     자금세탁 문제가 발생하면 수시검사도 진행한다.     FIU는 가상자산사업자 대상 종합검사에서 특금법이 규정한 자금세탁방지체계 구축 상황을 점검한다. 앞서 신고 심사 과정에서 제기된 개선·보완사항과 고객 확인 의무 이행, 자금세탁 방지시스템 이행·정착 등이 점검 항목이다.     FIU는 연말까지 가상자산거래소에 대해 종합검사를 마칠 예정이다.     종합검사에서 파악한 '요주의' 사업자를 대상으로 자금세탁방지 운영 상황을 집중적으로 점검하는 부문검사도 벌인다. FIU는 부문검사에서 의심거래보고와 거래소간 이동 실명제, 즉 트래블룰 이행 적정성을 살펴본다. 부문검사 대상은 종합검사 결과에 따라 하반기에 선정된다. 네이버파이낸셜과 카카오페이의 간편결제 CI 네이버페이(왼쪽)와 카카오페이 CI [네이버파이낸셜·카카오페이 제공]    2019년 7월에 특금법이 적용된 전자금융업자(124개)와 대부업자(60개)도 올해 FIU의 검사를 받는다.     FIU는 이용자 수와 거래 규모 등에 따른 자금세탁 리스크, 내부통제 수준을 종합적으로 고려해 검사 대상을 고를 것이라고 설명했다.     자본금과 거래 규모로 볼 때 네이버파이낸셜, 카카오페이, 쿠팡페이, 토스(비바리퍼블리카) 등 대형 전자금융업자는 선정이 유력한 것으로 전해졌다.     FIU는 금융감독원과 함께 고객확인업무 이행, 내부통제체계 구축, 의심거래보고(STR)·고액현금거래보고(CTR) 등 보고 적정성 등을 검증한다. 금융정보분석원(FIU) 로고[금융정보분석원 홈페이지 캡처]    내륙 카지노사업자 9개에 대한 FIU의 직접 검사도 올해 재개된다. 제주도를 제외한 카지노는 FIU의 직접 검사 대상이었지만 코로나19 팬데믹으로 2020년에 검사가 잠정 중단됐다.     FIU는 이와 함께 금융감독원을 통해 파악한 리스크 요인에 대한 기획검사와 테마검사도 시행한다. 펌뱅킹(기업자금관리)과 해외 자회사를 통한 자금세탁 가능성을 대표적인 리스크로 요인으로 FIU는 제시했다.     FIU 대신 검사를 수행하는 검사수탁기관 중에는 상호금융중앙회를 대상으로 현장점검을 벌인다. 현장점검 대상은 검사·조치 내용을 바탕으로 농업협동조합중앙회, 수산업협동조합중앙회, 신용협동조합중앙회, 산림조합중앙회, 새마을금고중앙회 가운데서 선정한다.     이용자 수에 견줘 자산 규모가 크거나 반복적으로 지적을 받은 단위조합과 우체국에 대해서는 FIU가 검사수탁기관의 검사에 참여키로 했다.     FIU의 검사 결과 자금세탁방지의무를 적법하게 이행하지 않은 사실이 드러난 기관은 기관경고 또는 기관주의 처분을 받고, 임직원도 최고 해임권고 제재를 받게 된다. 위반행위에 따른 과태료는 1건당 최고 1억원으로, 위반행위의 종류와 빈도에 따라 부과액이 늘어난다.     FIU는 "자금세탁 리스크 변화에 대응해 한정된 검사자원을 효율적으로 배분·활용하기 위해 검사업무 운영 방향을 마련했다"고 설명했다.     가상자산사업자와 관련, "작년 말까지 42곳의 신고를 수리한 데 이어 올해는 투명한 거래질서 확립을 위한 자금세탁방지 의무 이행에 감독 주안점을 둘 필요가 있다"고 강조했다.     tree@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022.01.18.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>카뱅, 예적금 상품 금리 올린다</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005128891?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>케뱅 "검토 중이나 상황 보겠다"토뱅 "수신금리 인상계획 없다"[이데일리 노희준 기자] 인터넷전문은행 카카오뱅크(323410)가 조만간 예적금 등 수신상품 금리를 올린다. 한국은행 기준금리 인상 등에 따른 영향이다. 이주열 한국은행 총재가 14일 오전 서울 중구 한국은행에서 열린 금융통화위원회 본회의에서 회의를 주재하고 있다.(사진=한국은행)18일 카카오뱅크 관계자는 “수신상품 금리 인상을 준비 중”이라며 “조만간 시기와 인상폭 등 인상안을 결정하는 대로 바로 적용할 예정”이라고 말했다. 카카오뱅크의 대표적인 정기예금 상품인 ‘카카오뱅크 정기예금’의 현재 금리는 1년 기준 세전으로 연 1.8%다.또한 카카오뱅크의 대표 적금 상품인 ‘26주 적금’는 6개월 기준 세전으로 금리가 연 1.7%다. 만약 26주간 자동이체를 납입해 우대금리 0.5%를 더 받으면 최고 연 2.2%를 받을 수 있다.카카오뱅크는 한국은행 기준금리 인상에 발맞춰 수신금리를 인상하는 것이라고 설명했다. 또다른 인터넷뱅크인 케이뱅크는 수신금리 인상을 아직 결정하지 않았다고 했다.케이뱅크 관계자는 “추가 수신금리 인상 여부를 검토는 하고 있다”면서도 “지난해 12월에 선제적으로 수신금리 인상에 나서 아직은 (시장상황을) 보고 있다”고 말했다. 앞서 케이뱅크는 지난달 13일 예금과 적금 등의 금리를 일제히 인상했다. 대표적인 정기예금인 ‘코드K 정기예금’ 금리는 1년 이상을 연 1.5%에서 2.0%로 올렸다. 특히 가입 기간 3년 이상은 1.6%에서 2.2%로 0.6% 포인트 끌어올렸다.케이뱅크는 같은날 적금 금리도 0.3∼0.45% 포인트 인상했다. 이에 따라 ‘주거래우대 자유적금’의 최고 금리는 연 2.3∼2.5%, ‘코드K 자유적금’의 금리는 연 2.1∼2.3%로 변경됐다. 제3의 인터넷뱅크인 토스뱅크는 현재 수신금리 인상 계획이 없다고 했다. 토스뱅크 관계자는 “현재 인상 계획안이 없다”며 “현 상황을 그대로 유지할 것”이라고 말했다. 토스뱅크는 정기예금이나 적금이 없다. 대신 연 2.0%의 고금리 수시입출금통장 하나만 운영하고 있다. 회사는 이달 5일부터 1억원 이하 금액에는 연 2% 금리를, 1억원 초과 금액에 대해서는 0.1%의 금리를 적용하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022.01.18.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>토스 ‘정치 후원금 보내기’ 통한 기부액 1억원 넘어</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000787895?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>대선을 50일 앞둔 가운데, 토스의 ‘정치후원금 보내기’ 서비스의 후원 건수가 5000건, 소액 기부 총액은 1억원을 넘어섰다.18일 토스에 따르면, 지난해 7월 시작한 이 서비스는 현재 7개 원내 정당·60개 국회의원실이 참여하고 있다. 윤석열·이재명·심상정 대선 예비 후보들도 등록을 마쳤다.토스 제공        토스의 정치후원금 보내기 서비스는 금융의 맥락에서 후원자·후원회의 불편함을 없애고, 소액 기부 문화에 기여한다는 취지로 시작됐다. 그동안 정치 후원금을 기부하려면 각 의원실이나 정당 후원회에 직접 연락하거나 별도의 입금계좌를 후원자 스스로 찾아야 했다. 매년 연말정산 시 기부금 세액공제를 받기 위해 후원자는 물론 각 의원 후원회도 후원자의 개인정보를 확인하는 데 불편이 많았는데, 이 역시 개선한 것이다.후원을 희망하는 사람은 토스 애플리케이션(앱)을 이용해, 후원하려는 대선 예비 후보·국회의원·정당을 선택하고 후원금과 기부금 영수증 발급을 위한 정보를 입력하면 된다. 정치후원금은 1회 최대 120만원까지 보낼 수 있다. 정치기부금은 연말정산 시 10만원까지 전액 세액공제를 받을 수 있다. 10만원을 초과한 금액에 대해서는 해당 금액의 15%까지 종합소득산출세액에서 공제받을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022.01.16.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>FIU, 코인거래소·카카오페이·카지노 등 전방위 점검</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002716163?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>금융위원회 금융정보분석원(FIU)이 올해 가상자산사업자에 대한 종합검사를 실시하고, 전자금융업자와 대부업자·카지노사업자를 대상으로 현장검사에 나선다.금융위는 16일 '22년 FIU 검사업무 운영방향'을 통해 효과적인 검사 및 감독을 통해 자금세탁 위험에 면밀히 대응해 나가겠다고 밝혔다. 2019년 이후 '특정금융정보법(특금법)' 적용 대상의 지속적 확대로 FIU 검사대상이 늘어나는 가운데, 새로운 유형의 자금세탁위험이 점증하면서 자금세탁 리스크 변화에 대응해 한정된 검사자원을 효율적으로 배분·활용하기 위함이다. 검사업무 운영방향은 크게 세 가지로 신규·고위험 분야 등에 대한 FIU 직접검사 확대와 검사수탁기관에 대한 현장점검을 통해 위탁검사업무 역량 강화, 신규 업권인 가상자산사업자의 올바른 자금세탁방지 체계 구축 등이다.가상사업자에 대한 검사의 경우 신고 사업자를 대상으로 특금법상 자금세탁방지 체계 구축 상황을 점검하는 종합검사와 요주의 사업자를 대상으로 실제 자금세탁방지 운영 상황을 중점 점검하는 부문검사가 진행된다. 종합검사의 경우 원화 거래가 가능한 4대 거래소 업비트와 빗썸, 코빗, 코인원부터 검사가 진행될 전망이다. FIU는 종합검사에서 신고심사 과정에서 제기된 개선·보완사항 이행 여부를 우선 점검하고 고객확인의무와 자금세탁방지 시스템이 올바르게 이행·정착 되는지 살펴볼 예정이다. 필요성에 따라 원화마켓 사업자부터 순차적으로 진행하며, 자금세탁 문제가 발생할 경우 수시검사를 실시할 계획이다. 신고 이후 의심거래보고, 트래블룰 이행 적정성 등을 살피는 부문검사 대상 사업자는 종합검사 결과에 따라 하반기에 선정된다.자금세탁방지 의무부과 후 2년이 지난 전자금융업자 124개사와 대부업자 60개사에 대한 현장검사도 실시된다. 이용자 수, 거래규모 등에 따른 자금세탁 리스크에 비해 내부 통제 수준이 낮은 회사 등을 검사대상으로 선정하고 금감원과 함께 내부통제체계 구축, 고객확인업무 이행, 각종 보고업무의 적정성 등을 중점 점검한다. 이에 따라 이용자 수와 거래 규모가 큰 네이버파이낸셜, 카카오페이, 쿠팡페이, 토스(비바리퍼블리카) 등 대형 전자금융업자가 검사대상으로 선정될 가능성이 제기된다.코로나 휴업 등으로 잠정 중단됐던 내륙 카지노사업자 9개사에 대한 검사도 재개된다. 상호금융중앙회와 우체국, 관세청 등 자금세탁방지 검사업무를 위탁한 기관에 대한 현장점검을 통해 검사업무 운영의 적정성 등을 점검하고 위탁검사의 전문성·일관성도 제고한다. 금융위는 내달부터 가상자산사업자와 금융사·카지노사업자·상호금융중앙회 등 FIU와 금감원 검사대상에 대한 현장검사에 착수한다.이를 위해 이달 말 유보된 가상자산사업자의 재심사를 통해 올해 검사대상을 확정하고 세부 검사계획을 마련한다. 오는 2월 중에는 '검사수탁기관 협의회' 등을 거쳐 상호금융중앙회, 우본 등에 위탁된 자금세탁방지 검사업무 추진방향도 마련한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022.01.19.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>[속보] 방역패스 예외 대상자 확대, 24일부터 확인서 발급</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001137524?sid=102</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>연합뉴스방역패스 예외 대상자가 확대됐다.19일 중앙방역대책본부는 오는 24일부터 코로나19 백신 접종 뒤 이상반응으로 접종 6주 이내에 입원 치료를 받은 경우 방역패스 예외 확인서를 받을 수 있다고 밝혔다.대상자는 가까운 보건소에 입원확인서와 '코로나19 예방접종 후 이상반응으로 입원치료를 받았다'는 진단서를 제출해야 한다.보건소에서 최초 1회의 증빙서류 확인 후 방역패스 예외자로 등록되면, 전국 모든 보건소·어플에서 예외확인서를 받을 수 있다.이상반응 신고 및 피해보상을 신청했으나 인과성 근거 불충분 판정을 받은 경우에도 가능하다. 별도의 절차나 의사의 진단서 없이 쿠브(COOV)앱 또는 전자출입명부 플랫폼(카카오, 네이버, 토스, PASS)에서 '접종내역 발급·업데이트'하면 전자 예외확인서를 발급받을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022.01.19.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>빅테크에 손 내민 보험사 "MZ세대 공략 도와줘"</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002716768?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>보험사들이 디지털 전환에 속도를 내고 있는 가운데, MZ세대(1980년대 초~2000년대 초 출생한 세대)를 붙잡기 위해 빅테크와 협업하는 사례가 늘고 있다. 19일 보험업계에 따르면 한화손해보험은 카카오 플랫폼 기반의 모바일 보험가입 서비스를 개발하고 디지털 전용 미니보험 상품인 '한화 OK2500든든 운전자보험'에 적용해 판매를 시작했다. 한화손보는 모바일로 접근하는 고객의 편의를 위해 카카오 플랫폼 기반의 가입화면을 제공해 앱 설치 없이도 보험을 가입할 수 있게 하고, 간단한 동의 절차로 고객정보를 자동으로 불러오는 등 입력과정을 간소화했다. 또 개인화 보인링크 기술을 추가해 고객이 가입 중간에 이탈하더라도 마지막 정보 입력 시점부터 이어서 작성이 가능하도록 설계해 디지털 미니보험 가입 시 발생할 수 있는 불편함을 줄였다. 한화손보는 시대적 흐름에 맞춰 고객이 보험을 더 쉽게 가입할 수 있도록 지속적으로 서비스를 개선하고, 다른 디지털 보험상품에도 순차적으로 해당 방식을 도입한다는 계획이다. 국내 보험시장이 포화상태에 이르면서 보험사들은 혁신을 통한 새로운 먹거리가 중요 과제로 떠올랐다. 이에 보험사들은 강력한 플랫폼 파워를 가진 빅테크 기업과의 협업에 나서고 있다. 특히 보험료 부담이 없는 미니보험 위주로 젊은 세대와의 접점을 늘려가는 모습이다. 앞서 메리츠화재도 지난달 카카오페이와 플랫폼 보험시장 활성화를 위해 업무협약(MOU)을 체결하고 카카오페이의 디지털 기술력을 결합한 보험서비스를 제공하겠다고 밝혔다. 메리츠화재는 비대면 환경에서 일상 위험을 보호해 주는 소액보험 상품개발에 집중해 이달 3050 직장인을 목표로 한 신상품을 출시할 계획이다. 이후에는 카카오페와 카카오그룹이 제공하는 서비스와 연계한 보험상품도 선보인다. 앞서 삼성생명과 교보생명도 각각 토스, 카카오뱅크와 손을 잡았다. 생명보험사의 경우 복잡한 가입과 청구 프로세스, 난해한 상품 구조 등이 판매 확대의 걸림돌로 작용했는데, 빅테크와의 협업하면 상품 접근성을 더 높잎 수 있기 때문이다. 삼성생명은 지난달 토스 운영사 비바리퍼블리카와 MOU를 체결했다. 주 고객층이 2030세대인 토스 앱을 활용해 젊은 고객 확보 가능성이 더욱 커질 것으로 기대하고 있다. 단순히 판매 중개나 상품개발 협력 수준이 아닌 토스 앱 내에 삼성생명 페이지를 오픈해 재무컨설팅, 계약체결, 보험료 납입, 보험금 청구 등 보험업 전반적 업무를 토스를 통해 제공한다는 계획이다. 교보생명도 카카오 플랫폼을 활용해 다양한 금융상품을 제공하고 카카오뱅크 고객을 대상으로 한 공동 상품을 내놓을 계획이다. 교보생명은 카카오뱅크의 플랫폼과 데이터를 활용해 판매를 확대하는 동시에 MZ세대와의 접점 역시 확대할 수 있을 것으로 기대하고 있다. 업계 관계자는 "플랫폼 산업이 대세로 자리매김하고 빅테크 기업들이 보험업에 진출하는 상황에서 경쟁을 위해 별도 플랫폼을 만드는 것은 무리라고 판단한다"며 "고객 수가 많은 플랫폼과 협업해 미래 고객인 MZ세대와의 접점을 확대해 나가는 방향으로 가고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022.01.24.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>오늘(24일)부터 코로나19 예방 접종 예외 대상자 ‘예외 확인서’ 발급</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011200338?sid=102</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>방역당국이 인정한 코로나19 예방 접종 예외 대상자들은 오늘(24일)부터 예외 확인서를 발급받을 수 있습니다. 예외 확인서 발급 대상자들은 가까운 보건소를 방문하거나 쿠브(COOV)앱, 전자출입명부 플랫폼에서 예외 확인서를 발급받을 수 있습니다. 전자출입명부 플랫폼은 카카오, 네이버, 토스, PASS 앱이며 이곳에 접속해 접종 내역 발급과 업데이트를 받으면 유효기간이 없는 예외 확인서를 발급받을 수 있습니다.  예외확인서 발급 대상은 코로나19 예방 접종 후에 이상반응 의심 증상이 나타났지만, 인과성이 충분히 인정되지 않은 사람과, 접종 후 6주 내에 입원 치료를 받은 사람입니다. 이상반응 의심증상으로 접종 후 6주 이내에 입원 치료를 받은 경우에는 보건소에서 입원 확인서와 의사진단서를 제시한 뒤 방역패스 예외자로 전산 등록을 완료해야 합니다. 중앙방역대책본부는 방역 패스 예외 확인서를 발급받더라도 코로나19 백신의 접종 금기에 해당하는 것은 아니며 본인의 건강 상태 등을 고려해 접종을 완료해 줄 것을 당부했습니다.[사진 출처 : 연합뉴스]■ 제보하기▷ 카카오톡 : 'KBS제보' 검색▷ 전화 : 02-781-1234▷ 이메일 : kbs1234@kbs.co.kr▷ 뉴스홈페이지 : https://goo.gl/4bWbkG</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022.01.31.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>"가장 아름다운 모델은?"…롤스로이스, 비스포크 13종 선정</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010974955?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]롤스로이스 비스포크 레이스 페블 파라디소 (사진=롤스로이스 제공)[서울=뉴시스] 최희정 기자 = 롤스로이스모터카가 지난해 발표했던 차량 중 가장 아름다운 비스포크 모델 13종을 선정했다. 31일 자동차 업계에 따르면, 지난해 롤스로이스 비스포크 사업부는 장기화된 코로나 팬데믹으로 유래 없이 예측 불가능한 상황 속에서도 연간 최고 주문량을 기록했다. 롤스로이스는 비스포크 차량 제작을 통해 고급스러움에 대한 새롭고 야심찬 해석을 탐색, 개발하고 선보였다. 롤스로이스가 자동차 제조 영역에서 더 나아가 혁신적인 장인 정신을 품고 있음을 보여줬다는 평가가 나온다. [서울=뉴시스]롤스로이스 비스포크 레이스 페블 파라디소 (사진=롤스로이스 제공)롤스로이스가 이번에 선정한 비스포크 모델 13종은 ▲레이스 크립토스 ▲쿠마 켄고 던 ▲고스트 익스텐디드 어반 생추어리 ▲드림 고스트 ▲비스포크 레이스 페블 파라디소 ▲컬리넌 50th ▲컬리넌 인 파이크스 피크 블루 ▲팬텀 오리베 ▲팬텀 템퍼스 컬렉션 ▲팬텀 코아 ▲랜드스피드 컬렉션 ▲컬리넌 블랙 앤 브라이트 ▲롤스로이스 코치빌드 보트 테일 등이다.롤스로이스모터카 최고경영자(CEO) 토스텐 뮐러 오트보쉬는 "지난해 우리는 전 세계 고객들에게 총 5586대에 이르는 차량을 출고했으며, 비스포크 컬렉티브 팀은 고객들과 긴밀하게 협업하며 창조성의 지평을 넓혔다"면서 "혁신적인 기술을 연마한 고도로 숙련된 팀과 함께 롤스로이스는 타고난 장인 정신을 다시 한번 입증했다"고 말했다. [서울=뉴시스]롤스로이스 팬텀 코아 (사진=롤스로이스 제공) 롤스로이스 비스포크 컬렉티브는 엘리트급 디자이너, 엔지니어, 공예가로 구성된 팀으로, 고객 취향에 맞춘 차량을 제작하는 ‘비스포크 프로그램’을 전담하고 있다. 지난해 롤스로이스는 다양한 소재와 장식을 활용한 비스포크 기교를 보여주는 차량들을 제작했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022.01.16.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>MZ세대 창업가 육성…청년창업사관학교 운영 민간 확대</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005127626?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>MZ 트렌드 민감한 민간이 주도, 우수 창업자 유치·육성대전에 민간주도형 청창사 신규 도입, 지역 특성도 고려전국 11곳 민간 운영사 공개 모집, 창업 사업화 지원[이데일리 함지현 기자] 중소벤처기업진흥공단은 청년창업 양성 프로그램인 청년창업사관학교를 운영할 민간 운영사를 공개 모집한다.청년창업사관학교 민간 운영사 공모(사진=중소벤처기업진흥공단)16일 중진공에 따르면 청년창업사관학교는 올해부터 MZ(밀레니얼+Z)세대가 원하는 ‘청년창업사관학교 2.0’으로 변화를 꾀한다. MZ세대 트렌드에 민감하게 반응할 수 있는 민간이 직접 운영하면서 우수창업자를 유치·육성한다는 전략이다. 대표적으로 대전에 민간주도형 청년창업사관학교를 도입한다. 민간주도형 청년창업사관학교는 직접투자 기능이 있는 창업기획자(AC)가 운영기관이 돼 비수도권 우수창업자를 직접 선발해 육성하고 직접투자 혹은 투자유치 과정까지 책임지게 된다.지역 특성을 고려한 특화 프로그램도 운영한다. 예를 들어 서울은 투자유치를 중심으로 운영하고, 충북은 바이오헬스와 지능형 IT(정보기술)부품, 대구는 디지털의료헬스케어와 고효율에너지시스템 분야를 집중적으로 육성하는 형태다.유니콘 기업(기업가치 1조원 이상 비상장 벤처) 탄생을 위한 신규 투자 프로그램을 도입하고 입교생 관계망 시스템 강화에도 나선다. 기존 10개 청년창업사관학교에서만 시행했던 IR 교육을 18개 전체로 확대하고, 한국벤처투자와 기술보증기금 등 유관기관과의 투자연계를 추진하는 게 대표적이다.이와 함께 청년 입교자 중심으로 선발 방식을 개선하고, 투명한 사업관리를 위해 사업비 관리 운영체계도 개선한다. 중진공은 이같은 내용을 반영해 서울·경기북부·인천·강원·충북·전북·전남·부산·대구·울산·제주 등 11곳에서 청년창업사관학교를 운영할 민간 운영사 공개 모집에 나섰다.신청 자격은 민간기업(단체), 대학, 공공기관 등 초기 청년창업기업의 사업화를 지원할 수 있는 역량을 보유한 곳이다. 민간 운영사는 특화교육, 사업화 코칭, 네트워킹 등 창업 사업화 지원 프로그램을 실시한다.지난 2011년부터 시행 중인 청년창업사관학교는 비바리퍼블리카(토스)와 같은 유니콘 기업을 배출하는 등 우리나라 청년 기술창업 양성소로 자리매김하고 있다. 현재까지 총 5842명의 청년창업가를 배출했다. 5조 768억원의 누적 매출성과와 1만 7823명의 신규 일자리도 창출했다.중진공 관계자는 “청년창업사관학교는 유망 창업 아이템과 혁신 기술을 보유한 청년창업자를 선발해 시제품 제작부터 사업화, 후속 연계지원까지 전 단계를 패키지로 지원하는 사업”이라며 “올해는 지난해 사업 전반에 대한 전수조사와 청년창업자 간담회 등에서 나온 의견을 반영해 MZ세대가 원하는 방향으로 새롭게 탈바꿈할 계획”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022.01.26.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>KTB투자증권 3년 연속 고공행진</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002717978?sid=101</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>&lt;KTB투자증권 제공&gt;    KTB투자증권이 지난해 당기순이익으로 1741억원을 시현한 가운데 증권사 전환 이후 3년 연속 최대실적을 이어가고 있다.26일 금융감독원 전자공시스템에 따르면 KTB투자증권은 연결기준 영업이익과 당기순이익으로 각각 1433억원, 1741억원을 기록했다. 이는 전년 대비 두 배 이상 상승한 수치로 각각 115.5%, 129.2% 늘었다.특히 IB부문의 영업수익은 전년 대비 106% 증가해 최대 성과를 거뒀다. 리테일부문에서 신규고객 유치 마케팅 및 제휴 서비스 확대를 통해 활동계좌수가 160% 증가하는 등 고객 기반이 크게 확대했다는 설명이다.계열회사의 실적 향상도 크게 작용했다. KTB네트워크는 지난해 코스닥 상장과 더불어 사상 최대이익을 경신했다. KTB네트워크는 영업이익, 당기순이익으로 각각 827억원, 640억원을 기록해 전년 대비 85.2%, 78.8% 증가했다. 배달의민족, 원티드랩 등이 IPO 및 M&amp;A에 성공하며 높은 휘수이익을 안겼으며, 투자금 회수에 따른 투자조합의 성공보수도 크게 증가했으며, 여기에 토스(비바리퍼블리카), 에스엠랩, 스튜디오앤뉴 등 현재 투자 중인 기업의 기업가치고 꾸준하게 상승하고 있다고 회사 측은 설명했다.또한 지난해말 인수를 마무리한 유진저축은행도 영업이익 10908억원, 당기순이익 835억원을 기록했다. KTB자산운용도 창사 이후 최초로 운용자산(AUM) 15조원을 돌파하면서, 영업이익 108억원, 당기순이익 84억원에 달했다.KTB투자증권 관계자는 "전 계열사가 양호한 실적을 바탕으로 질적, 양적 성장을 거듭하고 있다"며, "급변하는 대내외 정세에 대응할 수 있도록 선제적으로 리스크 관리를 강화하고, 변화된 금융환경에 발맞춰 핀테크와의 다양한 제휴를 통해 신 수익원을 창출할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022.01.16.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>금융정보분석원, 4대 코인거래소 돈세탁 검증</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001690262?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>업비트 등 4대 코인 거래소가 올해 자금세탁 정밀 검증대에 오르고 네이버파이낸셜, 카카오페이, 토스 등도 금융당국의 직접 검사 후보군에 포함됐습니다.금융위원회 산하 금융정보분석원 FIU는 올해 가상자산사업자와 전자금융업자, 대부업자, 카지노사업자를 대상으로 직접 검사를 시행하며, 다음 달 현장 검사에 착수한다고 밝혔습니다.금융정보분석원은 2019년 이후 특금법의 규율을 받게 된 사업자 가운데 가상자산업자, 전자금융업자, 대부업자를 올해 직접 검사 대상으로 선정했습니다.분석원에 신고 절차를 마친 가상자산사업자 가운데 원화 거래가 가능한 4대 거래소, 업비트, 빗썸, 코빗, 코인원을 시작으로 필요에 따라 차례대로 종합검사를 벌일 계획입니다.※ '당신의 제보가 뉴스가 됩니다'[카카오톡] YTN 검색해 채널 추가[전화] 02-398-8585[메일] social@ytn.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022.01.26.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>[뉴시스 금융포럼]고승범 특별강연…금융지주 회장, 행장 등 CEO 한자리</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010966847?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>기사내용 요약뉴시스 포럼 '2022년 금융정책 방향'금융지주 회장, 행장 등 참석  [서울=뉴시스] 이영환 기자 = 김형기 뉴시스 대표이사 사장과 고승범 금융위원장 및 내빈들이 26일 오전 서울 중구 롯데호텔서울 사파이어볼룸에서 열린 2022 뉴시스 금융포럼 '2022년 금융정책 방향'에 참석해 기념촬영을 하고 있다. 2022.01.26. 20hwan@newsis.com[서울=뉴시스] 박은비 최선윤 기자 = 올해 금융정책 방향을 한눈에 알 수 있는 뉴시스 금융포럼이 코로나19 방역 수칙을 준수하는 가운데 성황리에 열렸다. 고승범 금융위원장이 일목요연한 강연에 참석자들은 열띤 관심을 보였다.민영통신사 뉴시스는 26일 오전 서울 중구 롯데호텔서울 3층 사파이어볼룸에서 금융 포럼 '2022년 금융정책 방향'을 개최했다.이날 행사는 코로나19 예방을 위한 철저한 방역 조치 속에 진행됐다. 현장 인원은 최소화하고 뉴시스 유튜브 채널을 통해 온라인 생중계했다. 참석자를 대상으로는 입구부터 손소독제를 배치하고 비접촉 체온 측정했다. 또 참석자들의 1m 거리두기 유지를 당부했다. 주요 참석자는 손태승 우리금융지주 회장, 이재근 KB국민은행장, 진옥동 신한은행장, 박성호 하나은행장, 권준학 NH농협은행장, 윤종원 IBK기업은행장, 윤호영 카카오뱅크 대표, 손병두 한국거래소 이사장, 황현순 키움증권 대표, 나재철 금융투자협회장, 김주현 여신금융협회장, 정희수 생명보험협회장, 김태현 예금보험공사 사장, 권남주 한국자산관리공사 사장, 김학수 금융결제원장, 이재연 서민금융진흥원장, 김기엽 KB국민카드 부사장, 양갑수 토스뱅크 정책본부장 등이다.한 곳에 모인 금융권 인사들은 고승범 금융위원장의 강연을 경청했다. 고 위원장은 "코로나19 상황 뿐만이 아니라 금융시장 상황도 회색 코뿔소가 다가오는 상황이라고 말했는데 정말 다가오는 게 아닌가 싶은 걱정이 많다"고 말했다.그러면서 금융안정, 금융발전, 경제성장, 포용금융 등 4가지를 금융정책 기본뱡항으로 제시했다. 고 위원장은 "항상 상반되는 두가지 측면, 기대 효과가 있으면 또 부작용도 있다'며 "균형을 잡으면서 최선의 정책을 할 수 있도록 노력하겠다"고 설명했다.[서울=뉴시스] 이영환 기자 = 고승범 금융위원장이 26일 오전 서울 중구 롯데호텔서울 사파이어볼룸에서 열린 2022 뉴시스 금융포럼 '2022년 금융정책 방향'에 참석해 특별강연을 하고 있다. 2022.01.26. 20hwan@newsis.com질의응답 시간은 사전에 취합한 질의를 사회자가 대표로 묻는 방식으로 이뤄졌다. 추가 적립금 충당 규모, 암호화폐공개(ICO)에 대한 입장 변화, 시장 불공정 조사 인력 증원 등에 대한 질문이 나왔다.포럼에 참석한 은행권 관계자는 "고 위원장을 통해 금융정책 방향을 직접 듣고 궁금한 점을 해소할 수 있었다"며 "가계대출에 대한 정부의 강력한 의지를 재확인할 수 있었던 시간"이라고 말했다.금융권 관계자는 "올해의 금융정책을 살펴보는 시간을 가질 수 있어 보다 의미 있는 자리였다"며 "급변하고 있는 경제환경 속에서 미래를 준비해야 하는 이유와 중요성, 그리고 방향에 대해 진지하게 고민해볼 수 있는 시간이었다"고 밝혔다.다른 금융권 관계자도 "최근 금융 현안에 대한 금융당국의 진솔한 생각과 대응 방향에 대해 직접 들을 수 있어 좋았다"며 "금융 시장 변화에 대응하는데 많은 도움이 될 것 같다"고 언급했다.보험업계 관계자도 "금융 안정 유지를 위해서는 리스크 관리 등 사전대응이 필요하다는 것을 알 수 있었다"며 "업계 사람들과 이야기를 공유할 수 있어 좋은 기회였다"고 강조했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022.01.24.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>"금융위기 때보다 더하다"…서울 아파트 매매거래, 역대 최저</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004656279?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>심화되는 아파트 거래절벽지난해 12월 서울 아파트 매매 1053건 불과글로벌 금융위기 직후 1163건 밑돌 전망매수세 실종 여전…1월은 284건 그쳐서울 송파구 부동산 중개업소에 '급매매', '급전세' 안내문이 붙었다. 사진=연합뉴스지난해 12월 서울 아파트 매매량이 역대 최저치를 경신할 전망이다. 정부의 지속된 대출규제와 금리인상 등이 겹치면서 시장은 관망세로 돌아서다 못해 거래가 끊기고 있다. 거래량은 글로벌 금융위기 수준보다도 저조할 것으로 예상돼 '거래 빙하기'에 들어섰다는 분석이다.24일 서울부동산정보광장에 따르면 지난해 12월 서울 아파트 매매량은 이날까지 1053건으로 집계됐다. 서울 아파트 거래량이 가장 적었던 글로벌 금융위기 직후 2008년 11월 1163건보다 110건 적은 수치로, 역대 최저치를 경신할 가능성이 높아졌다.서울 아파트 매매량은 지난해 9월부터 꾸준히 감소하고 있다. 9월 2706건에서 10월 2194건, 11월 1354건으로 급감했고 12월 1053건에 그치며 1100건을 하회했다. 이는 전년도 12월 7546건에 비해 86.05% 감소한 수치다.감소세가 지속되며 연간 매매량도 전년 8만1198건의 절반 수준인 4만2218건으로 쪼그라들었다. 2012년 4만1079건 이후 9년 만에 최저치다. 거래량 감소의 원인으로는 급등한 집값에 대한 피로감과 문재인 정부의 가계대출 규제 여파가 꼽힌다. 부동산R114에 따르면 지난해 12월 서울 아파트 가구당 평균가격은 13억7974만원으로 2019년 5월(9억844만원) 이후 한 차례의 하락도 없이 상승을 거듭했다. 한국부동산원도 지난해 서울 아파트값이 평균 8.02% 오른 것으로 집계했다.작년 9월 금융당국이 전방위적인 가계부채 총량 규제에 나서면서 시중 은행들의 대출 문턱도 높아졌다. NH농협은행, SC제일은행, 토스뱅크 등 일부 은행은 지난해 가계대출 증가율 목표를 맞추기 위해 대출 문을 닫았고 나머지 은행들도 대출총량 관리를 위해 가산금리를 자체적으로 올렸다. 한국은행의 기준금리 인상도 이어졌다.한국은행은 지난해 8월과 11월 각각 0.25%포인트씩 기준금리를 인상했다. 두 차례 인상으로 기준금리는 1.0%가 되며 2019년 3월 시작된 제로금리 시대도 지난해 11월 끝을 맺었다. 은행연합회가 공시한 5대 시중은행의 지난해 12월 취급 분할상환방식 주택담보대출(만기 10년 이상) 평균금리도 3.66%~4.24%로 나타났다.서울 마포구 부동산중개업소에 아파트 매물 안내문이 붙었다. 사진=뉴스1아직 12월 매매거래 신고기한(30일)이 남아있지만, 역대 최저치를 피하긴 어려울 전망이다. 남은 기한이 6일에 불과한데다 매수심리도 쪼그라든 탓이다. 한국부동산원에 따르면 서울 아파트 매매수급지수는 지난해 11월 5일 99.6을 기록한 이래 10주 연속 기준선(100) 아래서 하락세를 이어갔다.이 지수는 부동산원이 중개업소 설문을 통해 수요와 공급 비중을 0~200까지 지수화한 것으로, 지수가 100 미만이면 아파트를 사겠다는 사람보다 팔겠다는 사람이 많다는 의미다. 지난 17일에는 91.2까지 내려왔다. 아파트를 사겠다는 수요가 점차 줄어드는 것으로 볼 수 있다.이달에도 거래절벽은 계속되고 있다. 이날까지 서울부동산정보광장에 집계된 1월 아파트 매매량은 284건에 불과하다. 전년 1월 5796건에 비하면 4.8%로 급감했고 2020년 1월 6507건과 비교해도 4.3% 수준에 그친다. 일선 중개업소에서도 매수자가 실종됐다는 푸념이 나온다. 관악구 신림동의 한 중개업자는 "매수자는 없고 매물만 쌓인다. 1억원가량 몸값을 낮춘 급매물만 드물게 나가는 상황"이라고 말했고 노원구 중계동의 중개업자도 "매수자들 사이에 고점 인식이 많고 대출도 잘 나오지 않아 집이 팔리지 않는다. 집주인들이 호가를 내리는 추세"라고 설명했다. 업계에서는 당분간 거래절벽이 이어질 것으로 관측한다. 한국은행이 올해 기준금리를 0.25%포인트 추가 인상했고 대통령 선거도 예정됐기 때문이다. 업계 관계자는 "금리가 꾸준히 오르는 가운데 3월 대통령 선거에 따른 부동산 정책 변화 가능성도 부상했다"며 "수요자들이 주택구입 의사 결정을 미룰 것으로 보인다. 상반기까지 거래절벽과 중저가 시장 조정세가 이어질 것"이라고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022.01.24.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>AI·검색 분야 석학 영입하는 네이버…"기술 경쟁력 제고"</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003600729?sid=105</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>MIT 김윤형 교수(왼쪽)와 럿거스대 칼 스트라토스 교수. 네이버 제공네이버가 AI·검색 분야에서 뛰어난 연구성과를 내며 세계적으로 주목받고 있는 젊은 석학들을 차례로 영입하며 글로벌 기술 경쟁력 제고에 속도를 낸다.네이버는 최근 매사추세츠 공과대학(MIT)의 김윤형 교수와 럿거스 대학의(이장선) 교수를 네이버 스칼라로 영입했다고 24일 밝혔다.네이버 스칼라는 미국·유럽 등에 위치한 대학 및 연구기관의 교수와 연구원 등이 소속기관에 재직하면서, 네이버 검색의 미국 내 AI 센터인 '네이버 서치 US'에서 차세대 AI 기술 및 검색 서비스 개발을 주도하는 역할을 수행한다.김윤형 교수는 미 하버드 대학교에서 컴퓨터공학으로 박사학위 취득 후, 현재 미 MIT에서 조교수로 재직 중이다.김 교수는 지난 2014년 딥러닝 기술의 일환인 컨볼루션 신경망(CNN, Convolution Neural Network)기술을 자연어처리(NLP) 분야에 적용한 논문을 단독으로 발표하며 학계 및 AI업계의 이목을 끌었다. 해당 논문은 현재 전 세계적으로 1만 2천여 건 이상 인용됐다. 아울러 김 교수가 발표한 Character-Aware 언어모델과 OpenNMT 기계번역 연구는 업계에서도 널리 사용되며 딥러닝 분야의 연구 혁신을 선도하고 있다는 평가를 받고 있다.함께 영입된 미 콜롬비아 대학교 컴퓨터과학 박사 출신 칼 스크라토스 교수 역시 AI 분야의 전문가다. 현재 미 럿거스대학교에서 조교수로 재직하며 비지도 학습방법 및 지식사용 모델 개발을 연구하고 있다.칼 교수는 자연어처리 분야 최상급 학회(ACL, ENMLP, NAACL)에서 머신러닝 분야 위원장을 맡으며 국제적인 명성을 얻고 있을 뿐만 아니라, 블룸버그 자연어처리(NLP) 연구팀에서 자연어이해(NLU, Natural Language Understanding)서비스에 최첨단 딥러닝 기술 도입을 총괄한 실무경험까지 보유한 인재다.연합뉴스특히, 칼 교수는 정보이론의 기반인 상호의존정보의 통계적 이론을 재정립하여 정보이론을 바탕으로 하는 수많은 AI 연구 방법론의 근본적인 방향성을 바꾸는 큰 성과를 냈다. 이러한 연구성과를 인정받아 구글 패컬티 리서치 어워드(Google Faculty Research Award,2020) 등 다수의 어워드를 수상하기도 했다.이번에 영입된 두 교수는 '네이버 서치 US'에서 AI 기술개발을 관장하는 김용범 책임리더와 함께, 네이버 검색 서비스 곳곳에 녹일 차세대 AI 검색 기술 고도화에 집중할 계획이다. 지난 9월 네이버에 합류한 김 책임리더는 마이크로소프트 코타나와 아마존 알렉사의 AI 핵심기술 개발을 총괄한 대화형 인공지능 분야의 세계적인 전문가로 꼽힌다.네이버 서치 CIC 김광현 대표는 "이번 영입을 통해 네이버가 축적한 빅데이터와 기술, 서비스 운영 노하우에 최신 기술지식을 겸비한 인재들의 경험을 더해, 검색경험의 지평을 넓힐 수 있는 혁신적인 서비스를 선보일 것"이라며 "올해도 미국, 유럽 등 글로벌 무대에서 활약하고 있는 우수한 연구인력들을 적극적으로 영입할 계획"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022.01.26.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>순항하는 KTB證…2021년 당기순이익 1741억원 '사상 최대'</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005036232?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>KTB투자증권이 전 부문 골고루 성장세를 이어가며 증권사 전환 후 3년 연속 최대실적을 경신했다. 이는 창립 이래 역대 최고 실적이다.26일 KTB투자증권은 2021년 연결기준 영업이익 1433억원, 당기순이익 1741억원을 기록했다고 공시했다. 전년 대비 두 배 이상 상승한 수준으로 각각 115.5%, 129.2% 증가한 수치다.전 영업부문이 고르게 성장하며 호실적을 견인했다. 투자은행(IB) 부문은 리스크 관리를 강화하며 우량 거래 중심의 영업을 전개해 전년 대비 106%에 달하는 성과를 기록했다. 리테일부문은 신규고객 유치 마케팅 및 제휴 서비스 확대를 통해 활동계좌수가 전년 대비 160% 증가하는 등 탄탄한 고객기반으로 성장세를 이끌었다.자회사들도 선방했다. 벤처캐피탈(VC) 기업인 KTB네트워크는 코스닥 상장과 함께 전년도에 이어 사상 최대이익을 경신했다. 영업이익이 827억원, 당기순이익 640억원으로 전년대비 각각 85.2%, 78.8% 성장했다. 특히 '배달의 민족', '스타일쉐어', '원티드랩' 등 성공적을 기업공개(IPO) 및 인수합병(M&amp;A)을 이끌며 투자금을 회수했다.또한 토스(비바리퍼블리카), 버넥트, 에스엠랩 등 현재 투자 중인 기업의 기업가치도 계속해서 상승하고 있다.더욱이 미 온라인 광고업체 몰로코(Moloco), 인도 소셜커머스 트렐(Trell), 중국 1위 자동차용 반도체기업 호라이즌 로보틱스 등 다수의 해외 투자기업이 유니콘에 등극하면서 올해도 높은 투자수익이 기대되는 상황이다.KTB투자증권 관계자는 "전 계열사가 양호한 실적을 바탕으로 양질의 성장을 거듭하고 있다"며 "급변하는 대내외 환경에 적응할 수 있도록 선제적으로 리스크 관리를 강화하고, 변화된 금융환경에 발맞춰 핀테크 업체들과의 다양한 제유를 통해 새로운 수익원을 창출할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022.01.24.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>미국 하루 확진 1주새 10% 감소 “오미크론 정점 지나”…사망자는 안 꺾여</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003168557?sid=104</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>미국 코로나19 일일 확진자 수. 그래픽=차준홍 기자 cha.junhong@joongang.co.kr           오미크론 변이 확산으로 하루 최대 100만 명 이상의 코로나19 확진자가 나왔던 미국에서 오미크론발 대유행의 정점이 지났다는 관측이 나오고 있다고 뉴욕타임스(NYT)가 지난 22일(현지시간) 보도했다.      NYT에 따르면 미국은 전날 기준으로 앞서 7일간 하루 평균 72만 건의 신규 확진자가 나왔다. 이는 일주일 전 평균 80만7000건보다 10% 감소한 것이다. 미국의 코로나19 하루 감염자도 줄고 있다. 지난 21일 하루 감염자는 82만5052명으로 일주일 전(14일 93만3249명)보다 12% 줄었다. 오미크론 변이 유행이 일찍 시작됐던 미국 북동부는 정점을 지나 빠른 감소세를 보인다. 다만 미국 남부에서는 아직 오미크론 변이가 확산하고 있어 추이를 지켜봐야 한다.      뉴욕주(州) 코로나19 일일 확진자 수. 그래픽=차준홍 기자 cha.junhong@joongang.co.kr      남아공 코로나19 일일 확진자 수. 그래픽=차준홍 기자 cha.junhong@joongang.co.kr           뉴욕 등 오미크론 변이가 휩쓸고 간 지역에서 나타난 코로나19 확진자 그래프는 앞서 남아프리카공화국에서 나타난 코로나19 확진자 그래프와 유사하다고 NYT는 전했다. 남아공에서는 지난해 11월부터 오미크론 변이가 확산해 약 한 달간 코로나19 확진자 수가 급증했다가 지난해 12월 15일 정점(2만6389명)을 찍고 빠르게 하락했다. 지난 21일 하루 확진자는 3519명으로 정점 대비 9분의 1 수준이다.      영국도 감소세를 지속하고 있다. 지난 4일 하루 확진자가 21만 명을 넘어서며 정점을 기록한 뒤 2주 뒤인 18일(9만3890명) 50% 이상 하락했다. 22일에는 7만 명대로 내려앉았다.      영국 코로나19 일일 확진자 수. 그래픽=차준홍 기자 cha.junhong@joongang.co.kr           하지만 사망자 수는 꺾이지 않았다. 미국의 7일간 평균 사망자는 지난 21일 기준으로 2100명을 넘어섰다. 이는 1000명 선 이하였던 지난해 11월 말보다 두 배 이상 늘어난 것이다. 실제 21일 하루 사망자 수는 평균치보다 한참 높은 3866명으로 여전히 증가세를 보인다.      유럽에서는 오미크론이 공식적으로 우세종에 올랐다. 유럽질병예방통제센터(ECDC)는 지난 21일 유럽연합(EU)과 유럽경제지역(EEA) 30개국에서 오미크론 변이가 우세종이 됐다고 밝혔다.      CNN은 과학계 일각에서 나오는 낙관적 전망을 전하면서도 오미크론 다음에 올 변이의 성격이 중요하다고 전했다. UC샌프란시스코 전염병학자 조지 러더퍼드 교수는 “다음에 어떤 변이가 올지는 알 수 없다”며 병원성이나 전염력을 예측할 수 없다고 설명했다. 존스홉킨스대 폐·중환자 치료 의사인 파나기스 갈리아사토스는 “우리는 코로나19를 막을 방법을 알기에 더는 과학적 돌파구가 필요하지 않다”며 백신과 마스크 착용, 감염 검사, 추적 등 기본 원칙을 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022.01.20.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>[핀테크 칼럼]사이버 자산운용 영토 확장해야</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002994874?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>은행산업에 이어 자본시장에서도 핀테크 활용이 눈에 띄게 늘고 있다.그중 가장 뜨거운 분야는 로보어드바이저(RA)다. 로봇(robot)과 투자자문가(advisor)의 합성어인 로보어드바이저는 미리 짠 알고리즘에 따라 자동적으로 운용자문서비스를 제공하는 로봇운용자다.2016년 코스콤 RA 테스트베드가 시작된 이래 초기 2~3년은 증가세가 미미했지만 최근 들어 성장 속도가 빨라지고 있다. 현재 시장 규모는 약 1조9000억원으로 3년 새 3배 이상, 연 50%로의 고성장 단계에 진입하고 있다. 업체도 50여 개사로 늘었다.성장 속도가 빨라진 이유는 뭘까. 업계에선 첫째 소액으로도 간편하게 맞춤형 자산관리를 받을 수 있는 로보어드바이저 고유의 강점이 빛을 발하고 있다고 본다.기존 자산운용에선 고액 경우에만 전문서비스를 받지만 로보어드바이저는 10만~20만원을 맡겨도 AI(인공지능)로 자산관리를 해 준다.이 때문에 편리함과 가성비에 특히 민감한 2030세대의 인기가 높다. 카카오페이증권, 토스증권 등 핀테크증권사의 MZ세대 계좌가 급증한 점도 분위기 조성에 한몫하고 있다는 평가다.둘째 금소법 이후 금융사의 마케팅전략 변화도 요인 중 하나다.주요 은행과 증권사들이 금소법 시행 이후 판매가 어려워진 사모펀드 대신 로보어드바이저를 통해 자산관리영업을 강화하고 있기 때문이다.온라인을 통한 간편한 절차와 시간비용 절감효과 외에 펀드운용을 한눈에 파악할 수 있다는 점도 마케팅 포인트다.셋째 그동안의 성과에 대한 긍정적인 평가도 시장 확대 요인이다. 작년 1년간 코스콤에서 집계한 로보어드바이저들의 수익률을 보면 평균 11%, 주식비중이 높은 적극형의 경우 16.3%였다. 이는 작년 코스피지수의 상승률 3.6%에 비하면 상당히 돋보이는 성과다.이 외에 로보어드바이저는 빅데이터와 인공지능 활용으로 해외시장 분석에 강점이 있다. 서학개미 등 해외주식 투자자들이 증가한 점도 로보어드바이저에 대한 관심을 높여 줬다는 분석이다.시장 구조는 어떤가. 우선 본격적으로 펀드를 출시하고 있는 업체는 15개사다. 그중 디셈버, 파운트, 쿼터백, 에임, 콴트 등이 선두업체다. 소프트뱅크가 투자하고 해외투자에 특화된 크래프트테크놀로지도 관심 대상이다.영업 형태는 핀테크업체 고객 채널이 약하기 때문에 아직까진 핀테크업체 단독보다 증권, 은행 등 금융사와의 협업 형태가 대부분이다.금융사는 고객 기반, 핀테크업체는 운용알고리즘을 통한 운용자문을 제공하는 식이다. 펀드 종류는 주식 중심의 적극형, 주식·채권의 중립형, 채권 중심의 안정형이지만 로보어드바이저 성격상 투자자 니즈에 따른 다양한 맞춤형 상품이 출시되고 있다.향후 시장 전망은 상당히 밝다는 의견이 대다수다. 로보어드바이저의 원조라 할 수 있는 미국의 경우 로보어드바이저 시장 규모가 2018년 650조원, 2023년 3000조원 이상으로 예상된다고 한다. 우리나라의 1조9000억원 규모는 미국의 2018년 대비로도 0.2% 수준이다.따라서 우리나라 주식시가총액이 미국의 4.7%인 점을 고려하더라도 지나치게 낮기 때문에 그만큼 향후 성장성이 높다고 할 수 있다. 이뿐만 아니라 핀테크증권사의 MZ 세대 계좌 증가, 퇴직연금, 마이데이터 활용 등과 관련해 로보어드바이저의 잠재력은 무궁무진하다.현재 우리나라 로보어드바이저시장은 초기 단계다. 10~20년 후엔 IT·디지털에 익숙한 MZ 세대들이 금융산업 핵심 고객으로, 자산운용 및 퇴직연금시장의 큰손이 될 것이라고 보면 좀 더 전향적인 육성정책이 필요하다.소규모라도 점진적으로 로보어드바이저의 퇴직연금 및 ISA 계좌의 일임 운용, 비대면 판매 허용 등을 적극 검토할 만하다. 로보어드바이저를 통해 거침없이 '사이버 자산운용 영토'를 확대하는 계기가 됐으면 한다.정유신 서강대 경영전문대학원 교수 ysjung1617@sogang.ac.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022.01.24.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>뭉칫돈 13조원 몰렸다 ‘K스타트업 르네상스’</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000059739?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>큰손들, 야놀자·컬리·토스 등 신흥 플랫폼에 투자AI·바이오·콘텐츠도 고속 성장[스페셜 리포트]  2022년 주목해야 할 스타트업 30손정의 소프트뱅크그룹 창업자가 이끄는 비전펀드에서 지난해 7월 17억 달러(약 2조원) 투자를 받은 야놀자가 2021년 가장 많은 투자를 유치한 스타트업 1위에 올랐다. 사진=야놀자 광고 영상 갈무리신종 코로나바이러스 감염증(코로나19) 사태로 경기 침체가 장기화되는 상황에서도 ‘될성부른’ 스타트업을 찾는 열기는 뜨거웠다. 2021년 한국 스타트업 투자액은 역대 최대치를 찍었다.한국뿐만 아니라 해외 투자금도 급증했다. 글로벌 유동성 증가와 중국 빅테크 규제 등에 따라 해외 벤처캐피털(VC)과 사모펀드(PEF)들의 관심이 한국 스타트업에 쏠렸기 때문이다. 혁신적인 아이디어와 기술력을 갖춘 한국 스타트업의 성장성이 인정받은 결과다.  전체 투자액 13조원…상위 30개 스타트업에 절반 쏠려한국 스타트업 투자 생태계가 커지고 있다. 2021년 한국 스타트업에 몰린 투자액은 약 13조원으로 2020년 약 5조원보다 3배 가까이 증가했다.한경비즈니스가 스타트업 투자 데이터베이스 더브이씨(The VC)와 함께 2021년 한국 스타트업 누적 투자 유치 상위 기업 30개사(국내외 기업에 인수된 사례 제외)를 분석한 결과 모두 100억원 이상의 빅딜이었고 그중 1000억원 이상 투자를 유치한 스타트업은 21개였다. 이들 30개 회사가 지난 1년간 유치한 누적 투자액은 총 6조7400억원 규모였다. 전체 투자액의 절반이 30개에 쏠린 것이다.코로나19 사태의 여파로 이커머스 시장이 폭발적으로 성장하면서 새로운 이커머스·플랫폼 분야에 투자가 몰렸다. 야놀자·컬리(마켓컬리)·비바리퍼블리카(토스)·리디·당근마켓·펫프렌즈·무신사·크림 등 정보기술(IT) 기반의 플랫폼 스타트업이 국내외 벤처캐피털(VC) 등에서 많은 투자를 유치하면서 기업 가치를 인정 받았다.IT 기반의 종합 유통 물류 브랜드 ‘부릉’을 운영하며 신흥 플랫폼 기업으로 떠오른 메쉬코리아와 물류·IT 플랫폼 스타트업 바로고가 각각 1002억원, 910억원의 투자를 끌어냈다.물류 브랜드 '부릉'을 운영하는 유정범(왼쪽 둘째) 메쉬코리아 총괄대표가 2021년 4월 5일 서울 강남구 논현동에서 열린 도심형 물류센터 1호점 오픈식에서 배달하는 직원들을 배웅하고 있다.  사진=한국경제신문4차 산업혁명 시대에 발맞춰 기술 기반의 스타트업에 대한 투자 열기도 여전했다. 인공지능(AI)·빅데이터 등 신기술 분야 유망 스타트업인 뤼이드·몰로코·아이유노미디어그룹·센드버드에는 글로벌 유명 투자자들의 러브콜이 집중됐다.바이오·헬스케어 분야의 약진도 이어졌다. 건강 관리 애플리케이션(앱)으로 유명한 눔이 6000억원의 투자를 유치했고 지아이이노베이션과 레고켐바이오가 각각 1905억원, 1200억원의 투자를 받았다.  야놀자 ‘2조 잭팟’…눔·컬리·토스 4000억원 이상 유치지난해 가장 많은 투자액을 유치한 곳은 여가 플랫폼 기업 야놀자다. 야놀자는 2021년 7월 손정의 소프트뱅크그룹 창업자가 이끄는 세계 최대 벤처 투자 펀드인 소프트뱅크 비전펀드2에서 17억 달러(약 1조9400억원) 규모의 투자를 유치해 데카콘(기업 가치가 10조원 이상인 스타트업)에 등극했다.야놀자는 2019년 싱가포르투자청(GIC)과 부킹홀딩스에서 1억8000만 달러(약 2100억원)의 투자를 유치해 기업 가치 1조원을 인정받았는데 불과 2년 만에 기업 가치가 10배로 껑충 뛰어올랐다.야놀자는 비전펀드의 투자를 계기로 글로벌 진출을 위한 인수·합병(M&amp;A)에 속도를 내고 있다. 기업공개(IPO)도 추진 중이다. 문규학 소프트뱅크 인베스트먼트 어드바이저 매니징 파트너는 “야놀자는 AI를 앞세운 여가 슈퍼 앱 전략을 통해 한국의 여행·레저 산업을 혁신하는 선두 주자”라고 말했다.그래픽=박명규 기자한국인인 정세주 대표가 창업한 글로벌 모바일 헬스케어 기업 눔은 6000억원의 투자를 유치했다. 눔은 사모펀드 실버레이크가 주도하는 5억4000만 달러(약 6000억원) 규모의 시리즈F 투자 유치를 마무리했다.기존 투자자인 세쿼이아캐피탈·RRE벤처스·삼성벤처스도 추가로 베팅했다. 싱가포르 국부펀드 테마섹홀딩스, 생명과학 중심 투자 기업 노보홀딩스, 오크HC·FT 등이 신규 투자자로 합류했다.눔은 행동 심리학을 기반으로 AI 기술과 코칭을 결합한 건강 관리 프로그램을 제공한다. 눔은 이번 투자로 기업 가치 4조원을 인정받았으며 미국 나스닥 상장도 계획 중이다.‘마켓컬리’ 운영사인 컬리는 IPO를 앞두고 두 차례에 걸쳐 총 4700억원의 투자를 받았다. 2254억원 규모의 시리즈F 투자를 유치한 이후 5개월 만인 12월 홍콩계 사모펀드(PEF) 앵커에쿼티파트너스에서 2500억원의 프리 IPO(상장 전 지분 투자) 투자를 유치했다. 프리 IPO를 통해 인정받은 기업 가치는 4조원이다.컬리는 골드만삭스에서 억대 연봉을 받던 애널리스트 출신 김슬아 대표가 2014년 설립한 신선식품 업체다. 기존에 없던 신선식품 큐레이션과 새벽 배송 서비스를 핵심 사업 모델로 빠르게 성장했다. 지금까지 DST글로벌·세쿼이아캐피탈차이나·힐하우스캐피탈그룹·애스펙스매니지먼트·앵커에쿼티파트너스 등 글로벌 유명 투자자들이 투자에 참여했다.  대기업도 ‘될성부른 떡잎’에 직접 투자‘토스’ 운영사인 비바리퍼블리카는 4600억원의 투자를 유치했다. 토스는 치과의사였던 이승건 대표가 2013년 설립한 핀테크 플랫폼으로, 2021년 3월 토스증권, 10월 토스뱅크 등을 오픈하며 대규모 금융 플랫폼으로 성장했다.토스는 간편 결제에서 시작해 은행·증권 등 금융 서비스를 하나의 애플리케이션(토스앱)에서 쓸 수 있는 원 앱(one-app) 전략에 힘입어 지난해 뱅킹 서비스 사용자 수 1위를 차지했다. 비바리퍼블리카는 시리즈A부터 G까지 누적 투자액 1조원을 달성했다.주요 투자자는 알토스벤처스·굿워터캐피탈·싱가포르투자청(GIC)·페이팔·KDB산업은행 등이다. 알토스벤처스는 쿠팡·크래프톤·우아한형제들(배달의민족)·하이퍼커넥트·직방·당근마켓 등 한국 유수의 IT 기업들에 투자한 곳이다. 비바리퍼블리카는 올해 상반기 프리 IPO를 추진 중이다.AI 기반의 에듀테크 기업 뤼이드는 소프트뱅크 비전펀드2에서 1억7500만 달러(약 1970억원) 규모의 투자 유치에 성공해 주목받았다.뤼이드는 AI 토익 튜터 ‘산타’를 ‘뤼이드 튜터’로 변경하고 글로벌 비즈니스 확장을 위해 본사를 미국으로 이전하는 해외법인 전환(플립)을 추진 중이다. 뤼이드는 이번 투자금을 AI 기술력 강화에 집중해 글로벌 교육 AI 기술과 산업에서 초격차를 이어 간다는 계획이다.그래픽=박명규 기자유튜브 초기 머신러닝 엔지니어 출신인 안익진 대표가 2013년 미국 실리콘밸리에서 설립한 AI 기반의 애드테크 기업 몰로코는 1954억원 규모의 투자를 받았다. 몰로코는 모바일 비즈니스가 빠르고 지속 가능한 성장을 이룰 수 있도록 돕는 프로그래매틱 광고 솔루션을 제고한다.디즈니·넥슨·넷마블·카카오게임즈 등이 주요 고객사다. 몰로코의 시리즈C 투자 유치는 미국 기술투자사인 타이거글로벌매니지먼트가 주도했다. 삼성벤처투자·LG테크놀로지벤처스·미래에셋벤처투자 등이 주요 투자자다.대기업도 성장성이 높은 스타트업 투자에 적극 나섰다. 아모레퍼시픽은 신성장 분야로 꼽는 영역의 유망한 스타트업을 발굴해 직접 투자했다.2013년 설립된 더마코스메틱 전문 회사 코스알엑스는 아모레퍼시픽에서 1800억원의 투자를 받았다. 코스알엑스는 ‘오리지널 클리어 패드’, ‘아크네 패치’, ‘굿모닝 젤클렌저’ 등 히트 상품을 중심으로 K뷰티의 신흥 강자로 자리매김했다.미국·동남아·유럽·중국·일본 등 전 세계 40여 개 국가에 진출했고 해외 매출이 전체의 80%를 차지하고 있다. 그동안 인수·합병(M&amp;A)에 소극적이었던 아모레퍼시픽이 더마코스메틱 시장을 공략하기 위해 코스알엑스와의 전략적 파트너십을 맺고 지분 38.4%를 인수해 2대 주주에 올랐다. 자사주를 제외한 잔여 지분 57.6%에 대해서도 2024~2025년에 걸쳐 매수 가능한 콜옵션 등을 부여했다.[돋보기]손정의 소프트뱅크그룹 창업자. 사진=AFP연합뉴스  중국 빅테크 규제에 한국으로 눈 돌리는 글로벌 VC2021년 한국 스타트업의 주요 투자사 리스트에서 눈길을 끄는 이름은 손정의 소프트뱅크그룹 창업자가 이끄는 세계 최대 벤처캐피털(VC) 소프트뱅크 비전펀드다. 소프트뱅크는 2017년 5월 중동 국부펀드·애플·퀄컴 등과 함께 비전펀드를 출범시켰고 세계의 유망한 정보기술(IT) 기업에 투자하고 있다.비전펀드 1호는 중국 투자 비율이 절반에 가까웠지만 2019년 출범한 비전펀드 2호는 중국에 집중됐던 투자 대상을 다변화해 미국·유럽을 중심으로 투자하고 있다. 비전펀드 2호는 인공지능(AI) 관련 유니콘 기업(기업 가치가 1조원 이상인 스타트업)과 예비 유니콘 기업에 집중적으로 투자하고 있다.비전펀드는 중국의 빅테크 규제 강화로 지난해 중국 시장에서 대규모 손실을 봤다. 비전펀드가 지분 25%를 보유한 알리바바와 지분 20% 이상을 갖고 있는 중국 최대 차량 호출 업체 디디추싱 등의 주가가 폭락하면서 손 창업자는 중국 투자를 보류하겠다고 선언하기도 했다.중국 정부의 예측 불가능한 빅테크 규제 리스크로 중국 스타트업에 대한 신규 투자를 중단하면서 한국·인도 등 다른 아시아 스타트업에 눈을 돌리는 해외 VC들이 늘어 한국 스타트업이 반사 이익을 볼 수 있다는 전망도 나온다.실제로 한국 스타트업에 투자한 해외 투자사들도 늘었다. 지난해 야놀자(1조9400억원), 뤼이드(1970억원), 아이유노미디어그룹(1800억원) 등이 비전펀드에서 대규모 투자를 유치했다. 올해 1월 소프트뱅크그룹은 한국 AI 핀테크 스타트업인 크래프트 테크놀로지스에 1억4600만 달러(약 1746억원)를 투자했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022.01.20.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>KT-신한은행 4375억 지분 맞교환, 배경은? '윈-윈 될까'</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003599303?sid=105</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>핵심요약지난 17일, KT-신한은행 지분 교환하는 핀테크 동맹 발표23개 공동사업 본격화…신한금융, KT 2대 주주로미래 디지털 신사업을 추진 이해관계 '일치'우리은행과 협업에도 눈길…KT "문제 없어"17일, 서울 중구에 위치한 신한은행 본점에서 KT 경영기획부문장 박종욱 사장(우측)과 신한은행 진옥동 행장(좌측)이 'KT-신한은행 전략적 파트너십 체결식'에서 기념촬영을 하고 있는 모습. KT 제공 KT와 신한은행이 4375억 원을 투자해 서로의 지분을 취득하는 '핀테크 혈맹'을 맺었다. KT가 가진 AI, 빅데이터 등 디지털 역량과 신한은행이 가진 금융 데이터 등이 만나 시너지를 낼 수 있다는 판단에서다. 네이버와 카카오 등 '빅테크 플랫폼 기업'과 경쟁하기 위해서는 변화가 필요하다는데 양사가 공감대를 형성한 것으로 보인다. 특히 KT는 이번 '빅딜'로 글로벌 규제에 따른 NTT도코모 지분 매각 이슈도 해결했다.미래금융DX, 플랫폼 신사업 등 23개 공동사업 본격화KT는 지난 17일 신한은행과 미래금융DX 사업협력을 위한 전략적 파트너십을 체결했다고 밝혔다.이를 위해 AI, 메타버스, NFT, 빅데이터, 로봇 등 영역에서 미래금융DX(디지털전환), 플랫폼 신사업을 중심으로 23개 공동사업을 본격한다.미래금융DX 분야에선 KT의 데이터분석, 자연어처리(NLP) 등 AI역량과 신한은행의 금융 데이터 기반으로 차별화된 사업모델을 완성한다. AI뱅커가 고객을 응대하는 신한은행의 미래형 점포 '디지로그(DIGILOG)'에 KT의 AI, 로봇, 미디어월 등 혁신 솔루션을 더하는 모습이 될 전망이다.KT와 신한은행은 빅데이터 기반으로 소상공인을 위한 특화 통신·금융 융합 서비스도 개발한다. KT 잘나가게 플랫폼의 입지상권데이터 등과 연계한 대안신용평가 모델을 개발해 출시할 계획이다.△메타버스 등 플랫폼 신사업을 통해 생활 밀착형 서비스와 △KT가 보유한 상권정보 등을 접목해 차별화된 부동산 메타버스 플랫폼 구축도 검토하고 있다. 공동 SI펀드(전략적 투자 펀드)를 조성해 국내외 기술력 있는 벤처에 대한 투자와 컨설팅 사업을 진행하는 것도 염두에 두고 있다.각 4375억 투자해 지분 맞교환…신한금융 KT 2대 주주로이들은 협력을 공고히 하기 위해 각 4375억 원을 투자, 지분 취득에도 나선다.KT는 먼저 신한은행이 비상장사인 점을 고려해 신한금융지주 지분을 매입한다. 오는 26일부터 1년간 특정금전신탁 계약을 통해 지분 약 2.08%를 취득한다.신한은행은 NTT도코모가 보유했던 KT 지분 5.46% 전량을 매입했다. 신한라이프생명보험, 신한금융투자 등의 지분을 모두 합치면 신한금융 계열사가 보유한 KT 지분은 약 5.48%에 이른다. 이로써 신한금융 측은 NTT도코모를 대체하는 KT 2대 주주가 됐다.특히 KT는 이번 지분교환으로 2대 주주였던 NTT도코모의 지분 문제를 해결했다는 평가가 나온다. NTT도코모는 지난해 NTT에 완전자회사로 편입됐다. 이후 NTT는 일본 자본시장 규제 변화로 NTT도코모의 KT 보유 지분을 정리하기로 결정한 것으로 전해졌다. KB증권 김준섭 애널리스트는 "NTT 도코모가 보유하고 있던 지분이 장내에서 대량 매각되지 않았다는 점은 KT의 주가 하락 리스크를 해소했다고 해석이 가능하다"고 분석했다.'디지코 전환' KT- '빅테크 위협' 신한은행 맞손17일, 서울 중구에 위치한 신한은행 본점에서 KT 경영기획부문장 박종욱 사장(앞줄 우측)과 신한은행 진옥동 행장(앞줄 좌측)이 'KT-신한은행 전략적 파트너십 체결식'에서 유관 임원들과 기념촬영 하고 있는 모습. KT 제공양사의 협력은 미래 디지털 신사업을 추진하려는 두 회사의 이해관계가 맞아떨어졌기에 가능한 일이다.KT는 구현모 대표의 취임 이후 '디지털플랫폼기업(디지코)'로의 변화를 추진하고 있다. 통신은 내수 기반인 만큼 안정적이지만 성장이 정체됐다. 새로운 먹거리를 끊임없이 발굴하는 이유다. AI, IDC(데이터센터), 클라우드, DX 등이 대표적이다.특히 구 대표는 이를 위한 방법론 중 하나로 제휴협력을 강조하고 있다. 지난해 6월 B2B 금융 시장 선도를 위해 국내 1위 엔터프라이즈 핀테크 전문기업 웹케시 그룹과 손을 잡았다. 지난해 초부터 아마존과 AI 음성기술 연구 및 서비스 공동개발을 진행해왔으며, 지난해 6월엔 아마존의 글로벌 음성 에이전트 프로그램인 VII에 합류했다. 글로벌데이터 시장 경쟁력 확보를 위해 글로벌데이터 전문기업 엡실론을 인수했다. 지금까지 진행한 투자만 1조원이 넘는다.신한은행도 마찬가지다. 카카오뱅크, 토스뱅크 등 기술력을 앞세운 빅테크 기업의 서비스가 막강한 경쟁자로 떠오르고 있다. 같은 맥락에서 신한지주는 지난해 말 행정안전부 국가정보자원관리원장 출신인 김명희 부사장을 최고디지털책임자(CDO)로 영입하기도 했다.삼성증권 김재우 애널리스트는 보고서에서 "최근 일부 금융사들은 자본을 적극적으로 활용해 이종 업종과 협업 관계를 구축하고 이를 토대로 디지털 금융 부문을 강화하고 있다"며 "이를 통해 미래 금융 산업 내에서의 입지를 더욱 공고히 해 나갈 수 있을 것으로 기대된다"고 밝혔다.우리은행과 협업에도 눈길…KT "문제 없어"연합뉴스한편 'KT-신한은행' 협력이 주목을 받으면서 덩달아 'KT-우리은행'의 협력에도 눈길이 쏠리고 있다. KT와 우리은행은 그간 긴밀한 관계를 이어왔기 때문이다. 우리은행은 인터넷전문은행 케이뱅크의 2대 주주이고, BC카드의 2대 주주는 우리카드다.  다만 KT는 신한은행과의 협업은 지난해 9월부터 논의되어 왔으며 우리은행과의 협업에도 문제는 없을 것이라고 설명했다.KT 관계자는 "지난해 9월 신한금융그룹과 디지털 신사업 및 플랫폼 역량 강화를 위한 MOU를 체결한 이후 양사가 그룹 차원에서 논의를 진행해왔다"고 밝혔다.그러면서 "디지털 금융 선도 차원에서 전략적으로 파트너사를 확장해나가는 단계로 보면 될 것 같다"며 "우리금융지주와도 중요한 전략적 파트너로 계속 사업을 진행해나갈 것"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022.01.27.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>1월 디데이에서 ‘헤드리스’ 우승</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004915203?sid=105</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>은행권청년창업재단 디캠프(상임이사 김영덕)가 펀드 운용사와 이번달 디데이를 27일 공동 주최했다. 이날 행사에서 해드리스(대표 남궁지환)가 우승했다. 이번 행사는 일자리 창출을 위한 은행권일자리펀드 3차년도 출자 사업에 참여하고 있는 22개 운용사 중 6곳 운용사와 한국성장금융투자운용(대표이사 성기홍)이 참여했다. 6개 운용사는 에이스톤벤처스, 코메스인베스트먼트, 현대기술투자, 어센도벤처스, 하나금융투자, 마그나인베스트먼트다. 1월 디데이에는 올해 산업 트렌드 중 하나로 떠오른 ‘실재감테크’ 기업을 집중 검토했다. 실재감테크는 실제와 가상의 경계가 사라지게 하고 시공간의 물리적 한계를 극복하고 완전한 실재감을 느낄 수 있도록 하는 메타버스 등의 기술을 말한다.이번 디데이는 총 123개 기업이 신청서를 제출, 그 중 6개팀이 최종 본선에 오르면서 21대1의 경쟁률을 기록했다. 우승팀에게는 디캠프, 프론트원 입주, 출전팀 전원에게 디캠프 최대 3억 투자 검토, 디캠프, 프론트원 최장 1년 입주 검토, 공동 주최사와의 사업 연결 기회가 주어진다.심사위원으로는 디캠프 직접투자팀 이창윤 팀장, 디캠프 성장팀 이가윤 팀장, 한국성장금융 김봉섭 신사업금융실 실장, 에이스톤벤처스 안신영 대표, 코메스인베스트먼트 최백용 대표, 현대기술투자 나종윤 부사장, 하나금융투자 김용원 실장, 어센도벤처스 이정석 대표, 마그나인베스트먼트 박창기 수석심사역이 참여했다. 이번 행사는 선릉 디캠프에서 진행됐으며 디캠프 유튜브 채널을 통해 생중계됐다.△ 헤드리스, AI 그로스해킹 D2C 솔루션  우승팀인 헤드리스(대표 남궁지환)는 AI 기반 통합 온라인 판매 마케팅 솔루션 ‘헤드리스 커머스’의 개발사다. 자사몰과 검색 플랫폼의 장점을 모두 가지고 있는 솔루션으로 온라인 사업자, 영업 및 마케팅 담당자가 헤드리스에 판매 상품 관련 주요 키워드를 등록하면, AI가 관련 키워드에 대한 검색 및 행동 분석, 상품 유입 방식, 마케팅 채널 성과 등의 정보를 수집해준다. △ 플루언트, 음성 기반 아바타 생성 솔루션  플루언트(대표 전예찬)는 음성 기반 인공지능을 활용하여 메타버스 아바타를 생성하는 솔루션 개발 스타트업이다. 영상 촬영 없이 음성만으로 아바타를 생성할 수 있으며, 음성에 입모양을 정확히 맞추고 7가지 감정표현도 가능하다. 지난 해 기술 개발을 완료한 플루언트는 올해 본격적으로 서비스를 제공할 계획이다. 플루언트의 솔루션은 온라인 강의와 미디어 등에서 활용도가 높을 것으로 보인다. △ 티슈오피스, 2030 전문 문화예술 메타버스 월드   티슈오피스(대표 이상익)는 10대 위주의 메타버스 시장에서 2030이 즐길 수 있는 메타버스 ‘히든 오더’를 개발한 스타트업이다. ‘히든 오더’는 2030세대가 다양한 문화예술를 한 곳에서 즐길 수 있는 곳으로 이상익 대표는 ‘히든 오더’를 ‘디지털 핫플레이스’라고 설명했다. 유저가 능동적으로 참여할 수 있도록 게이미케이션 방식을 도입했다. 인디 뮤지션이나 미술계의 신인이 디지털로 자신을 알리는 공간으로 활용도가 높을 것으로 보인다.△ 우주로테크, 우주쓰레기 예방 솔루션  우주로테크(대표 이성문)는 초소형 인공위성의 자가 폐기솔루션을 제공하고 있는 스타트업이다. 523조원에 이르는 글로벌 우주산업 중 80%가 민간기업 중심으로 진행되고 있는데 수많은 위성 발사 실험으로 인해 우주 쓰레기가 많아지고 있다. 우주로테크는 이를 해결하고자 인공위성 내부에 소형 추진기를 부착해 수명이 다한 인공위성을 자체적으로 폐기하는 기술을 개발했다. 위성 간 충돌을 회피할 수 있는 기술도 개발중이다. △ 파프리카데이터랩, 개인 데이터 주권을 위한 ‘캐다’ 운용  파프리카데이터랩(대표 김유빈)은 사용자가 자발적으로 사용하면서 만들어낸 데이터를 제공하고, 이를 통해 수익을 올릴 수 있는 앱 서비스 ‘캐다’를 운영하고 있다. 데이터를 필요로 하는 연구기관과 지자체 등이 ‘캐다’에서 데이터를 요청하면, 해당 데이터를 가지고 있는 개인을 매칭시켜 주는 서비스다. 김유빈 대표는 데이터를 토스처럼 만드는 곳이라 설명했다. 파프리카데이터랩은 P2P 데이터 시장을 선점하는 게 목표라고 밝혔다.△ 코발트, 문서에 발표 영상 첨부  코발트(대표 이해일)는 문서 자료 전달 시 발표 영상도 함께 만들어 전달함으로써 정확하게 내용을 전달하고자 '프리젠트'를 개발했다. 만들어진 문서에 설명하고 싶은 내용을 녹음해 발표 영상을 제작한다. 영상 수정이 필요한 경우 전체 영상을 다시 제작할 필요없이 부분적으로 수정하면 된다. 문서를 전달받은 상대방이 문서를 어디까지 얼마나 자세히 봤는지도 확인할 수 있다. 김영덕 디캠프 상임이사는 “올해 디데이는 대학생 기업 등 극초기 기업 발굴과 지역 스타트업 발굴, 해외 디데이 개최를 계획하고 있다"라고 말했다.매일경제 조광현 연구원</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2022.01.16.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>이재명 "ICO 논의 미룰수 없다"...전면금지 4년만에 논의 재점화</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004772823?sid=105</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>이재명 "가상자산 강국 위해 ICO 필수 과제" 'ICO 반대' 금융위도 허용방안 국회 보고김형중 교수 "차기정부 가상자산 집중 육성해야"  [파이낸셜뉴스] 이재명 더불어민주당 대선 후보가 "가상자산 시장은 다가오는 미래 산업의 한 축이자 이미 펼쳐진 거대 시장"이라며 "우리나라가 가상자산 강국으로 발전해 가는 첫 단계로 가상자산 공개(ICO)는 미룰 수 없는 과제"라며 ICO에 대한 입장을 내놨다. 문재인 정부 들어 2018년 전면금지된 ICO가 4년여만에 정책 과제로 부상한 것이다.   특히 그간 가상자산에 대한 부정적 입장을 고수해 온 금융위원회도 국회 정무위원회에 ICO 정책 검토의 세부내용을 보고한 것으로 알려지면서, ICO등 가상자산 관련 제도 정비가 급물살을 타는 것 아니냐는 기대감이 확산되고 있다.     ■이재명 "가상자산 강국 위해 ICO 미룰수 없는 과제"   이재명 더불어민주당 대선후보는 지난 14일 국회 의원회관에서 열린 'K-코인 활성화 방안 정책 토론회'에 축사를 통해 "우리나라가 가상자산 강국으로 발전해 가는 첫 단계로 ICO는 미룰 수 없는 과제지만, 우리나라는 가상자산의 공개가 금지돼 있고 활용 역시 제한해야 한다는 입장이 강하다"며 "관련 법령도 세밀하게 정비가 안 돼, 가상자산 시장의 제도 불안전성이 아주 큰 편"이라면서 "오늘 토론회를 통해 ICO의 국제적 현황을 살펴보고 향후 국내 적용을 위한 심도 있는 토론 이뤄지길 기대한다"고 강조했다.    이재명 더불어민주당 대선후보는 지난 14일 국회 의원회관에서 열린 'K-코인 활성화 방안 정책 토론회'에 축사를 통해 "가상자산 시장은 다가오는 미래 산업의 한 축이자 이미 펼쳐진 거대 시장"이라며 "우리나라가 가상자산 강국으로 발전해 가는 첫 단계로 ICO는 미룰 수 없는 과제"라고 말했다./사진=뉴스1 이 날 토론회는 민주당 싱크탱크인 민주연구원과 민주당 가상자산TF, 자본시장대전환 위원회가 공동으로 주관했다. 송영길 민주당 대표 역시 "국내에서 ICO가 금지됨에 따라 그간 싱가포르와 스위스 등으로 유출됐던 자본과 인력이 상당하다"며 "전향적인 조치가 이뤄져서 유출됐던 자본과 인력이 복귀하면 가상자산의 발전에 새로운 동력이 될 것"이라며 ICO 허용 정책의 필요성을 강조했다.   토론회에서 민주당 김병욱 의원은 "21대 국회가 출범한 이후 가상자산 관련 토론회는 수없이 많이 진행됐지만 ICO를 주제로 한 토론회는 거의 없었다"며 "ICO가 필요하지만 예민하고 까다로운 부분이 많고 투자자 보호 어떻게 할 것이냐 하는 현실적인 문제가 있기 때문"이라고 지적했다.   ICO는 가상자산 기옵들이 사업에 대한 구상이 담긴 '백서'를 발표하고, 이를 기반으로 가상자산을 발행해 전세계 투자자들을 상대로 투자금을 모으는 방식이다. 국내에서는 지난 2017년 ICO 열풍에 편승한 사기성 프로젝트가 난립하자 금융위가 모든 ICO를 전면 금지한 바 있다.     ■금융위도 ICO제도 검토 세부방안 국회 보고    금융위가 최근 ICO 관련 제도를 검토하기 위한 세부 사항을 국회 정무위에 보고한 것으로 알려져 주목된다. 보고서에는 △ICO를 통해 모금한 자금을 어떻게 검증할지 △어느 금융기관에 위탁할지 등을 논의해야 한다는 내용이 담긴 것으로 알려졌다. 사진은 국회 정무위원회 회의 모습. /사진=뉴시스 특히 ICO 금지 주체인 금융위가 최근 ICO 관련 제도를 논의하기 위한 세부방안을 국회 정무위에 보고한 것으로 알려져 주목된다. 보고서에는 △ICO를 통해 모금한 자금을 어떻게 검증할지 △어느 금융기관에 위탁할지 등을 논의해야 한다는 내용이 담긴 것으로 알려졌다. 금융위는 지난 2021년 11월 정무위 법안소위에서도 가상자산 업권법에 대한 논의 과정에서 가상자산 발행규제 도입 필요성을 언급한 바 있다.   이날 토론회에서 발제에 나선 김형중 고려대학교 정보보호대학원 특임교수는 "스타트업이 만들어지면 1년차에 실패할 확률이 21.5%, 5년차 50%, 10년차 90%에 달한다"며 "가상자산 프로젝트의 경우 장기적으로 보면 실패율이 스타트업의 사례보다 높은데 정부가 적극적으로 개입해 규제한다면 가상자산 프로젝트의 성공률이 훨씬 높아질 것"이라며 ICO 허용의 필요성을 역설했다.   김 교수는 "글로벌 유니콘 기업 리스트를 보면 우리 정부가 4차산업혁명위원회까지 만들어 지원한 인공지능(AI)이나 빅데이터 분야에서는 우리 기업이 하나도 없다"며 "반면 정부가 강력하게 규제하고 심지어 ICO를 부도덕하다고까지 했는데 핀테크와 가상자산 기업은 토스와 두나무 등 2개 기업이나 포함됐다"고 강조했다. 그는 "차기 정부에서는 반드시 우리나라를 먹여살릴 수 있고 디지털경제를 이끄는데 중요한 산업이 될 가상자산 분야를 중점적으로 키워야할 것"이라고 덧붙였다.    김형중 고려대학교 정보보호대학원 특임교수는 ICO 허용의 필요성에 대해서 역설했다. 김형중 교수는 "스타트업이 만들어지면 1년차에 실패할 확률이 21.5%, 5년차 50%, 10년차 90%에 달한다"라며 "가상자산 프로젝트의 경우 장기적으로 보면 실패율이 스타트업의 사례보다 높은데 정부가 적극적으로 개입해 규제한다면 가상자산 프로젝트의 성공률이 훨씬 높아질 것"이라고 말했다. 유튜브 민주ON 캡쳐/사진=fnDB 또 다른 발제자인 최화인 블록체인 에반젤리스트는 ICO 열풍에 편승한 사기성 프로젝트가 많고 ICO 투자의 리스크가 크다는 점이 ICO를 제도화해야 하는 근거라고 강조했다. 최화인 에반젤리스트는 "신기술 신사업 시장의 경우 투자와 투기를 구분하는 것이 사실상 불가능하다"라며 "사기 목적의 프로젝트를 걸러내고 기술인력과 아이디어를 갖춘 기업의 ICO를 허용했으면 투자리스크가 오히려 줄어들었을 것"이라고 지적했다. 그는 국내 프로젝트의 ICO 허용과 더불어 ICO 금지기간 동안 해외로 나갔던 프로젝트팀이 국내로 복귀하도록 지원해야 한다고 강조했다. #비트코인 #이재명 #더불어민주당 #대선 #ICO #블록체인 #이더리움 #K-코인</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2022.01.18.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>구글·MS도 찾는 '사이버 보안기업'</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004654364?sid=105</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>'랜섬웨어 해결사' 티오리내로라하는 화이트해커 총집결세계 해킹 방어대회 1위 휩쓸어기업 시스템 뚫은 해커에 포상금"블록체인 보안에도 뛰어들 것"이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.박세준 대표가 18일 서울 강남구에 있는 사무실에서 보안 서비스에 대해 설명하고 있다. 신경훈  기자국내 대기업 A사는 2020년 말 해외 해커 조직의 공격을 받았다. 랜섬웨어(데이터를 암호화해 쓸 수 없게 만들고 이를 인질 삼아 돈을 요구하는 악성 프로그램) 방식의 공격이었다. 전산 시스템은 순식간에 마비됐다. A사는 회사 운영에 차질을 빚었다. 일부 사업은 중단됐다. 국내 최악의 랜섬웨어 사건으로 꼽힌다. 해커는 수천만달러를 요구했다. 사이버 보안 연구개발(R&amp;D) 스타트업 티오리가 해결에 나섰다. 작업 시작 세 시간 만에 랜섬웨어를 풀었다. 해커의 악성코드에서 취약점을 발견했다. 글로벌 IT 기업이 찾는 보안업체박세준 티오리 대표는 18일 “안전한 세상을 위해 어려운 사이버 보안 문제를 해결하는 것이 티오리의 목표”라고 강조했다. 박 대표가 2016년 창업한 티오리는 기업 규모는 작지만 국내외에서 최고의 사이버 보안 실력을 인정받고 있다. 세계 최대 해킹 방어대회 데프콘에서 다섯 번이나 우승했다. 다른 해킹 방어 대회까지 포함하면 1위를 차지한 게 60번이나 된다.그동안 티오리가 사이버 보안 서비스를 제공한 업체는 다양하다. 구글, 마이크로소프트(MS), 삼성전자, LG전자, 네이버, 카카오 등 자체 보안 조직과 인력을 보유한 국내외 정보기술(IT) 대기업도 티오리를 찾았다. 카카오뱅크, 토스, 두나무, 코인원 등 금융업체도 티오리의 고객사다. 티오리는 넥슨, 엔씨소프트, 크래프톤 등 게임업체의 보안 수준도 점검했다. 박 대표는 “어떤 기업도 보안상 취약점이 전혀 없을 수 없다”며 “다양한 방법으로 고객사가 보안 수준을 높일 수 있도록 돕는다”고 설명했다.티오리의 경쟁력은 인력이다. 국내 최고 수준의 화이트해커 20여 명이 모였다. 박 대표는 “직원 개개인의 역량도 뛰어나지만 한팀으로 뭉쳐서 보여주는 팀워크가 경쟁력을 증폭시킨다”고 말했다. 이어 “새로운 분야나 기술에 두려움이 없고 대상이 무엇이든 빠르게 이해하고 필요한 지식을 흡수하면서 사이버 보안 분야에서 리더가 되려고 한다”고 덧붙였다. “국내 사이버 보안 수준 강화”티오리는 최근 사이버 보안 사업 분야를 확대하고 있다. 화이트해커가 특정 기업의 보안 취약점을 찾아내면 포상금을 주는 일명 ‘버그바운티’ 제도를 확장한 플랫폼인 ‘패치데이’를 운영 중이다. 박 대표는 “외부의 화이트해커도 참여가 가능해 국내 사이버 보안 수준을 높일 수 있는 플랫폼”이라며 “더 많은 기업의 서비스가 안전해지고 보안 전문가들은 정당한 대가를 받는 문화를 정착시키는 것이 목표”라고 했다. 티오리가 지난해 처음 공개한 패치데이의 첫 협업 기업은 네이버였다. 최대 상금 7500달러를 걸고 네이버의 인터넷 브라우저 웨일의 취약점을 찾아 개선했다.티오리는 올해 블록체인 분야의 보안 사업을 강화할 계획이다. 박 대표는 “최근 블록체인 기반 디파이(DeFi: 탈중앙화 금융) 서비스가 증가하면서 관련 보안 상담 요청이 급증했다”며 “조단위로 돈이 움직이고 투자자가 많기 때문에 블록체인 금융업에서도 높은 수준의 보안은 필수가 됐다”고 말했다.최근 문제가 됐던 ‘로그4j(Log4j)’의 사이버 보안 위협에 대해 박 대표는 “해당 취약점을 해결하는 보안패치를 한 후에도 다른 문제가 추가로 발견되는 경우가 있기 때문에 계속 각별한 주의가 필요하다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2022.01.23.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>오미크론 지나면 코로나 끝? "모든건 새 변이 성격에 달렸다"</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003168445?sid=105</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>브라질의 한 의료진이 코로나19 오미크론 변이 검사 샘플을 준비하고 있다. 로이터=연합뉴스           전세계를 강타한 신종 코로나바이러스 감염증(코로나19) 오미크론 변이 대 유행 이후, 새로운 변이가 나타날 수 있으며 이 변이의 성격에 따라 코로나19 유행 향방이 결정될 것이란 전문가 예측이 나왔다.      21일(현지시간) CNN에 따르면 전문가들은 오미크론 변이 다음 새로운 변이가 올해 중 나타날 수도 있는 것으로 예측했다.      ━   세계곳곳선 오미크론 정점 뒤 '코로나급감'      존스홉킨스대 통계에 따르면 미국에서 발생한 전체 코로나19 확진자 중 4분의 1 이상은 이번 오미크론 변이 대유행 기간에 나왔으며, 지난 20일 기준 26개 주에서는 1주일 전보다 확진자 수가 10% 이상 늘었지만 14개 주에서는 1주일 전보다 10% 이상 감소했다. 보스턴·뉴욕과 같이 미국에서 처음 오미크론 변이가 확산한 곳은 이미 정점을 찍고 감소하기 시작했다는 뜻으로 풀이된다.      특히 전염병 전문가들은 오미크론 변이가 초기에 출연한 남아프리카공화국의 상황을 보며 희망을 품고 있다. 이곳에선 오미크론 변이 확산 당시 코로나19 확진자수가 급증했지만, 정점을 찍은 뒤엔 빠르게 감소하고 있다. 유럽에서 오미크론의 타격을 가장 먼저 받았던 영국의 상황도 비슷하게 전개되고 있다.      존 슈워츠버그 UC버클리대 교수는 미국의 코로나19 상황에 대해 "앞으로 4∼6주가 단기적인 고비가 될 것이다. 2월 중순쯤에는 상황이 나아지는 것을 확인할 수 있을 것"이라며 오미크론 변이의 위기가 한 차례 지나간 3월부터 여름까지는 지난해처럼 확진자 수가 꾸준히 감소할 것으로 예측했다.      그러면서 "우리 삶에서 할 수 있는 것들이 더 많아질 것이다. 나는 낙관적으로 생각한다"며 많은 사람이 코로나19 백신을 맞았고 오미크론 변이를 겪으면서 어느 정도 집단 면역이 형성됐기 때문에 새로운 변이가 나오더라도 도움이 될 것이라고 덧붙였다.     ━   "스페인독감처럼 완전히 사라지지는 않을 것"       하지만 전문가들은 코로나19를 일으킨 신종 코로나바이러스가 완전히 사라지지는 않을 것이라고 보고 있다. 실제로 1918년 등장해 전 세계 인구 3분의 1을 감염시키고 5000만 명을 사망케 한 스페인 독감의 'H1N1 바이러스'가 여전히 남아있기 때문이다.      이본 말도나도 스탠퍼드대 교수는 "스페인 독감은 우리가 매년 보는 독감 바이러스의 선조"라며 "계속해서 변이가 나오고 있는 것처럼 코로나바이러스도 비슷할 것 같다"고 밝혔다. 이어 "새로운 변이가 나타날 것으로 예상한다"며 "이는 다음에 무슨 일이 벌어질지 불확실하다는 것"이라고 설명했다.      조지 러더퍼드 UC샌프란시스코대 교수도 "다음에 어떤 변이가 올지는 전혀 알 수 없다"며 다음 변이는 오미크론 변이보다 전염력이 더 크거나 경증 도가 더 심각할 수도, 반대로 아무 증상이 없을 수도 있다고 내다봤다.전문가들은 다음 변이의 출현이 예상되고 코로나19가 사라지지 않는다면 새로운 변이백신과 진단키트 개발이 필요하다고 했다. 파나기스 갈리아사토스 존스홉킨스대학 교수는 "우리는 코로나19를 막을 방법을 알기에 더는 과학적 돌파구가 필요하지 않다"며 백신과 마스크 착용, 감염 검사, 추적 등 기본방역수칙 준수를 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2022.01.24.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>네이버, AI·검색 글로벌 석학 영입…“차세대 기술 고도화”</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002117619?sid=105</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>좌측부터 미 MIT 김윤형 교수, 미 럿거스대 칼 스트라토스(이장선) 교수  - 미국, 유럽 등에서 활약 중인 우수 연구인력 영입 지속   [디지털데일리 이안나 기자] 네이버가 인공지능(AI)·검색 분야 젊은 글로벌 석학들을 영입하며 글로벌 기술 경쟁력 제고에 속도를 낸다.   네이버(대표 한성숙)는 최근 매사추세츠 공과대학(MIT)의 김윤형 교수와 럿거스(Rutgers)대학 칼 스트라토스(이장선) 교수를 네이버 스칼라(Naver Scholar)로 영입했다고 24일 밝혔다.   네이버 스칼라는 미국 ‘네이버 서치 US’에서 차세대 AI 기술 및 검색 서비스 개발을 주도하는 역할을 수행한다.  미국·유럽 등에 위치한 대학 및 연구기관 교수와 연구원 등이 소속기관에 재직하고 있다.    김윤형 교수는 미 하버드 대학교에서 컴퓨터공학으로 박사학위 취득 후, 현재 미 MIT에서 조교수로 재직 중이다. 지난 2014년 딥러닝 기술 일환인 컨볼루션 신경망(CNN)기술을 자연어처리(NLP) 분야에 적용한 논문을 단독 발표해 학계 및 AI업계 이목을 끌었다. 해당 논문은 현재 전세계적으로 1만2000여건 이상 인용됐다.    칼 스크라토스 교수 역시 미 콜롬비아 대학교 컴퓨터과학 박사 출신으로 AI 분야 전문가다. 현재 미 럿거스 대학교에서 조교수로 재직하며 비지도 학습방법 및 지식사용 모델 개발을 연구하고 있다. 칼 교수는 자연어처리 분야 탑티어 학회(ACL, ENMLP, NAACL)에서 머신러닝 분야 위원장을 맡았다. 블룸버그 NLP 연구팀에서 자연어이해(NLU)서비스에 최첨단 딥러닝 기술 도입을 총괄한 실무경험까지 보유했다.  ​  이번에 영입된 두 교수는 네이버 서치 US에서 AI 기술개발을 관장하는 김용범 책임리더와 함께, 네이버 검색 서비스 곳곳에 녹일 차세대 AI 검색 기술 고도화에 집중할 계획이다. 지난 9월 네이버에 합류한 김 책임리더는 마이크로소프트 코타나와 아마존 알렉사 AI 핵심기술 개발을 총괄한 대화형 인공지능 분야 세계적인 전문가로 꼽힌다.   네이버 서치 CIC 김광현 대표는 “네이버가 축적한 빅데이터와 기술, 서비스 운영 노하우에 최신 기술지식을 겸비한 인재들 경험을 더해, 검색경험 지평을 넓힐 수 있는 혁신적인 서비스를 선보일 것”이라며 “올해도 미국, 유럽 등 글로벌 무대에서 활약하고 있는 우수 연구인력들을 적극 영입할 계획”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
